--- a/data/revenue-data.xlsx
+++ b/data/revenue-data.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/Revenue_Performance_Analysis-2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F459F618-2AE8-FF45-8DB8-608F3CFC2927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61AC9EBD-220F-0E44-AB09-A40FDF321FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21420" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="820" windowWidth="26800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="223">
   <si>
     <t>Year</t>
   </si>
@@ -100,541 +100,595 @@
     <t>2025</t>
   </si>
   <si>
-    <t>4-MEDICAID – After Hours Zero-Balance Collection Dollar Impact decreased from avg -0.33 to -8.15; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00; 12-HUMANA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.12 to 0.00</t>
-  </si>
-  <si>
-    <t>12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00; 12-HUMANA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.12 to 0.00; 12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 13-TRICARE – Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00</t>
-  </si>
-  <si>
-    <t>13-TRICARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 61.56 to -22.18; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00; 12-HUMANA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.12 to 0.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -145.36; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -150.00; 15-UNITED HEALTHCARE – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.95 to -3.89; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00; 12-HUMANA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00; 12-HUMANA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.12 to 0.00</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -122.59; 12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to -250.00; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -6.89 to -225.56; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -7.53 to -132.53; 12-HUMANA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg -12.86 to -180.04; 3-MEDICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 1.82 to -8.49</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to -53.44; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.50 to -2.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00</t>
-  </si>
-  <si>
-    <t>12-HUMANA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.12 to -4.07; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00; 12-HUMANA – Existing E/M Code Zero Balance Collection Rate decreased from avg 0.38 to 0.00; 12-HUMANA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 13-TRICARE – Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -102.16; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -7.53 to -101.04; 1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 33.42 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00; 12-HUMANA – Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.00; 13-TRICARE – Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.12 to 0.00; 12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 13-TRICARE – Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -60.44; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -106.22; 1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00</t>
-  </si>
-  <si>
-    <t>4-MEDICAID – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 70.81 to -13.32; 4-MEDICAID – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 70.72 to -12.78; 4-MEDICAID – Existing E/M Code Charge Billed Balance decreased from avg 214.26 to -4.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00</t>
-  </si>
-  <si>
-    <t>4-MEDICAID – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 3.46 to -3.92; 4-MEDICAID – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 162.82 to -5.10; 1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00; 12-HUMANA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -14.70; 3-MEDICARE – X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to -4.99; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 33.42 to 0.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.50 to -3.26; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00; 12-HUMANA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -20.77; 3-MEDICARE – Medications Charge Billed Balance decreased from avg 1.05 to -2.50; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -7.53 to -25.87; 3-MEDICARE – New E/M Codes Charge Billed Balance decreased from avg 45.73 to -27.04; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -20.77; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -7.53 to -24.20; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.50 to -11.73; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 33.42 to 0.00</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -20.77; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – New E/M Codes Labs per Visit decreased from avg 0.86 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 25.52 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY – Medications Payment per Visit decreased from avg 28.18 to 0.00; 1-SELF PAY – Medications Charge Amount decreased from avg 65.92 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 46.24 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00</t>
-  </si>
-  <si>
-    <t>13-TRICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 33.42 to -204.76; 13-TRICARE – Existing E/M Code Charge Billed Balance decreased from avg 88.96 to -55.40; 13-TRICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 25.52 to -14.26; 13-TRICARE – Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to -1.94; 1-SELF PAY – Medications Payment per Visit decreased from avg 28.18 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 18-CIGNA – X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 4-MEDICAID – Medications Labs per Visit decreased from avg 1.26 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 12-HUMANA – New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 3-MEDICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.67 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.00; 3-MEDICARE – New E/M Codes Avg. Charge E/M Weight decreased from avg 3.50 to 0.00; 3-MEDICARE – New E/M Codes Payment per Visit decreased from avg 71.77 to 0.00; 5-COMMERCIAL – New E/M Codes Labs per Visit decreased from avg 1.75 to 0.00</t>
-  </si>
-  <si>
-    <t>5-COMMERCIAL – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.93 to -329.00; 18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -33.96; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -463.00; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -116.80; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.20 to -46.03; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -383.59; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -313.71; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -122.70; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -208.13; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -0.54; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -70.00; 5-COMMERCIAL – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 41.75 to -11.64; 5-COMMERCIAL – New E/M Codes Charge Billed Balance decreased from avg 122.16 to -11.64; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00; 12-HUMANA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -150.00; 18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -47.43; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -7.53 to -154.66; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.20 to -163.95; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -204.84; 5-COMMERCIAL – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 41.75 to -129.00</t>
-  </si>
-  <si>
-    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -85.21; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -317.35; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -203.50; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -163.48; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.20 to -208.94; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -266.78</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -273.29; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -127.16; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.50 to -223.08; 5-COMMERCIAL – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 20.86 to -148.26; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -66.78; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -109.00</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -48.64; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -160.99; 18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -18.72; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -148.04; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -7.53 to -50.26; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.20 to -118.28</t>
-  </si>
-  <si>
-    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -15.53; 15-UNITED HEALTHCARE – Vaccines Charge Billed Balance decreased from avg -10.71 to -150.00; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -15.14; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -73.99; 1-SELF PAY – Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.64 to 0.00; 1-SELF PAY – Existing E/M Code Payment per Visit decreased from avg 123.17 to 0.00</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -18.59; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -202.89; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -7.53 to -50.26; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -152.09; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -11.65; 5-COMMERCIAL – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 41.75 to -33.36</t>
-  </si>
-  <si>
-    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -92.15; 5-COMMERCIAL – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.93 to -39.70; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -135.15; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -117.84; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -51.44; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to -5.51</t>
-  </si>
-  <si>
-    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -293.19; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -166.67; 12-HUMANA – X-Ray CPT Codes Charge Billed Balance decreased from avg -1.21 to -25.51; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -133.31; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.20 to -300.32; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -243.09</t>
-  </si>
-  <si>
-    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -54.03; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -110.00; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -61.14; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.20 to -108.07; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to -5.18; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -103.32</t>
-  </si>
-  <si>
-    <t>12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to -105.00; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -6.89 to -104.90; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -8.58; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -13.09; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 13.65 to -134.15; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to -5.18; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to -16.34; 5-COMMERCIAL – New E/M Codes Charge Billed Balance decreased from avg 122.16 to -30.00; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -5.95; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -0.11</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -88.35; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 1.28 to 0.00</t>
-  </si>
-  <si>
-    <t>12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to -1.25; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -24.47; 4-MEDICAID – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 70.72 to -110.00; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -20.00; 4-MEDICAID – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 162.82 to -191.91; 5-COMMERCIAL – New E/M Codes Charge Billed Balance decreased from avg 122.16 to -75.00</t>
-  </si>
-  <si>
-    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -164.28; 3-MEDICARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 13.65 to -110.54; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -90.00; 3-MEDICARE – New E/M Codes Charge Billed Balance decreased from avg 45.73 to -123.57; 5-COMMERCIAL – X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to -35.00; 18-CIGNA – New E/M Codes Charge Billed Balance decreased from avg 61.06 to -90.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -209.42; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -137.70; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.20 to -106.83; 5-COMMERCIAL – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 41.75 to -126.43; 3-MEDICARE – Medications Charge Billed Balance decreased from avg 1.05 to -2.63; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -30.87</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -73.35; 3-MEDICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 1.82 to -11.46; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -40.52; 5-COMMERCIAL – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 41.75 to -52.21; 1-SELF PAY – Medications Payment per Visit decreased from avg 28.18 to 0.00; 1-SELF PAY – Medications Charge Amount decreased from avg 65.92 to 0.00</t>
-  </si>
-  <si>
-    <t>4-MEDICAID – Self-pay physical &amp; No Charge Charge Billed Balance decreased from avg -11.50 to -61.00; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -14.10; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -25.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 4.07 to -5.11; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -20.00; 4-MEDICAID – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 162.82 to -9.27</t>
-  </si>
-  <si>
-    <t>4-MEDICAID – DME Zero-Balance Collection Dollar Impact decreased from avg 6.87 to -93.40; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.20 to -71.17; 4-MEDICAID – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 70.72 to -24.31; 4-MEDICAID – Existing E/M Code Charge Billed Balance decreased from avg 214.26 to -20.00; 4-MEDICAID – New E/M Codes Charge Billed Balance decreased from avg 390.86 to -4.00; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00</t>
-  </si>
-  <si>
-    <t>5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg -0.06 to -150.00; 3-MEDICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 1.82 to -121.51; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -262.19; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -162.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 46.24 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 0.00; 12-HUMANA – Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 12-HUMANA – New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 13-TRICARE – Lab/Test CPT Codes Payment per Visit decreased from avg 56.50 to 0.00; 13-TRICARE – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 39.81 to 0.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 46.24 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – New E/M Codes Payment per Visit decreased from avg 131.08 to 0.00; 13-TRICARE – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 39.81 to 0.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 225.00; 2-BCBS – After Hours Zero Balance Collection Rate increased from avg 0.01 to 0.15; 2-BCBS – After Hours Payment per Visit increased from avg 0.65 to 6.73; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 293.00; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -36.34 to 82.60; 2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -4.05 to 6.35</t>
-  </si>
-  <si>
-    <t>2-BCBS – Self-pay physical &amp; No Charge Zero Balance Collection Rate increased from avg 0.09 to 1.00; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 4.00; 18-CIGNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 12.20 to 54.56; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 3.00; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.84; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.17 to 108.38</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 5.00; 1-SELF PAY – Existing E/M Code Labs per Visit increased from avg 0.91 to 2.88; 3-MEDICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.00; 5-COMMERCIAL – Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 1371.00; 12-HUMANA – X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.24 to 0.65; 17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 5.00</t>
-  </si>
-  <si>
-    <t>12-HUMANA – Medications Labs per Visit increased from avg 0.96 to 5.00; 12-HUMANA – Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 1799.00; 13-TRICARE – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 7.00; 5-COMMERCIAL – Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 2073.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 1.50; 2-BCBS – DME Payment per Visit increased from avg 126.81 to 473.50</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 9.06 to 165.58; 1-SELF PAY – X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 2.50; 15-UNITED HEALTHCARE – Medications Payment per Visit increased from avg 20.00 to 112.53; 17-AETNA – Medications Labs per Visit increased from avg 1.60 to 7.00; 15-UNITED HEALTHCARE – Medications Zero Balance Collection Rate increased from avg 0.14 to 0.52; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.50</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 0.55 to 7.38; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.39 to 5.00; 13-TRICARE – Medications Labs per Visit increased from avg 1.42 to 5.00; 12-HUMANA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 155.71 to 540.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 2.50; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 2.67</t>
-  </si>
-  <si>
-    <t>2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -16.11 to 55.28; 12-HUMANA – Medications Labs per Visit increased from avg 0.96 to 4.00; 17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 3.00; 15-UNITED HEALTHCARE – DME Payment per Visit increased from avg 55.83 to 181.96; 5-COMMERCIAL – After Hours Zero Balance Collection Rate increased from avg 0.21 to 0.62; 5-COMMERCIAL – After Hours Payment per Visit increased from avg 9.78 to 28.66</t>
-  </si>
-  <si>
-    <t>5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 49.00; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg 0.19 to 5.51; 1-SELF PAY – X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 9.00; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 9.00; 12-HUMANA – Existing E/M Code Charge Billed Balance increased from avg 10.28 to 100.00; 5-COMMERCIAL – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 41.75 to 278.37</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 1.82 to 20.68; 18-CIGNA – X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 3.00; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 4.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 4.80; 17-AETNA – Self-pay physical &amp; No Charge Payment per Visit increased from avg 1.33 to 4.00; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 2.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Medications Labs per Visit increased from avg 1.60 to 9.00; 15-UNITED HEALTHCARE – Medications Labs per Visit increased from avg 1.45 to 7.00; 5-COMMERCIAL – After Hours Zero Balance Collection Rate increased from avg 0.21 to 0.62; 5-COMMERCIAL – After Hours Payment per Visit increased from avg 9.78 to 28.66; 5-COMMERCIAL – X-Ray CPT Codes Labs per Visit increased from avg 1.10 to 3.00; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 23.02 to 59.73</t>
-  </si>
-  <si>
-    <t>17-AETNA – Medications Charge Billed Balance increased from avg 14.47 to 100.00; 17-AETNA – Medications Zero-Balance Collection Dollar Impact increased from avg 3.36 to 18.78; 1-SELF PAY – DME Charge Amount increased from avg 133.93 to 689.80; 13-TRICARE – Vaccines Labs per Visit increased from avg 0.50 to 2.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 51.63 to 204.56; 17-AETNA – Existing E/M Code Charge Billed Balance increased from avg 63.76 to 245.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Vaccines Labs per Visit increased from avg 0.10 to 2.00; 3-MEDICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.50; 17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 7.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 7.00; 5-COMMERCIAL – Medications Payment per Visit increased from avg 9.83 to 32.75; 5-COMMERCIAL – Medications Zero Balance Collection Rate increased from avg 0.11 to 0.35</t>
-  </si>
-  <si>
-    <t>2-BCBS – After Hours Payment per Visit increased from avg 0.65 to 2.43; 2-BCBS – After Hours Zero Balance Collection Rate increased from avg 0.01 to 0.05; 3-MEDICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.00; 13-TRICARE – New E/M Codes Labs per Visit increased from avg 1.32 to 3.50; 4-MEDICAID – Self-pay physical &amp; No Charge Payment per Visit increased from avg 15.32 to 40.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.67</t>
-  </si>
-  <si>
-    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 76.76; 13-TRICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.82 to 6.00; 5-COMMERCIAL – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 20.86 to 135.79; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 15.12 to 90.65; 13-TRICARE – Medications Labs per Visit increased from avg 1.42 to 6.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.16 to 0.66</t>
-  </si>
-  <si>
-    <t>2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 160.00; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 284.35; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact increased from avg 0.08 to 1.60; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -16.11 to 96.94; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 364.54; 2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -4.05 to 12.26</t>
-  </si>
-  <si>
-    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -4.05 to 17.57; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 30.27; 2-BCBS – Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 52.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 46.24 to 155.00; 17-AETNA – DME Payment per Visit increased from avg 126.37 to 368.10; 18-CIGNA – New E/M Codes Labs per Visit increased from avg 1.98 to 5.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 9.06 to 186.19; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 23.95 to 135.81; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 15.12 to 72.48; 5-COMMERCIAL – Medications Labs per Visit increased from avg 1.73 to 5.00; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.00; 1-SELF PAY – DME Payment per Visit increased from avg 35.56 to 100.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – Vaccines Labs per Visit increased from avg 0.57 to 8.00; 3-MEDICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 1.82 to 12.33; 17-AETNA – DME Payment per Visit increased from avg 126.37 to 529.98; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 415.00; 2-BCBS – Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 52.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 6.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 205.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 655.00; 1-SELF PAY – DME Charge Amount increased from avg 133.93 to 705.92; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -36.34 to 65.97; 4-MEDICAID – DME Payment per Visit increased from avg 80.05 to 299.11; 2-BCBS – Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 52.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Vaccines Labs per Visit increased from avg 0.10 to 1.00; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 29.34; 3-MEDICARE – Medications Labs per Visit increased from avg 0.90 to 4.00; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 3.00; 17-AETNA – Existing E/M Code Charge Billed Balance increased from avg 63.76 to 241.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact increased from avg 2.09 to 6.84</t>
-  </si>
-  <si>
-    <t>5-COMMERCIAL – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 1.93 to 167.50; 2-BCBS – DME Labs per Visit increased from avg 0.05 to 0.50; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 241.00; 5-COMMERCIAL – Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 293.00; 15-UNITED HEALTHCARE – DME Payment per Visit increased from avg 55.83 to 207.02; 1-SELF PAY – Medications Labs per Visit increased from avg 1.13 to 4.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 2.76 to 89.00; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 9.06 to 138.67; 2-BCBS – Vaccines Payment per Visit increased from avg 67.22 to 345.09; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance increased from avg 64.00 to 310.00; 4-MEDICAID – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 3.46 to 11.27; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 4.00</t>
-  </si>
-  <si>
-    <t>13-TRICARE – Existing E/M Code Labs per Visit increased from avg 1.42 to 7.00; 13-TRICARE – Medications Labs per Visit increased from avg 1.42 to 7.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 41.05 to 201.33; 13-TRICARE – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 7.00; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 2.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 504.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.17 to 2.00; 2-BCBS – Self-pay physical &amp; No Charge Payment per Visit increased from avg 7.67 to 25.00; 2-BCBS – DME Charge Amount increased from avg 616.33 to 1680.52; 2-BCBS – Medications Labs per Visit increased from avg 1.33 to 3.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 2.00; 15-UNITED HEALTHCARE – Medications Labs per Visit increased from avg 1.45 to 3.00</t>
-  </si>
-  <si>
-    <t>18-CIGNA – X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 2.00; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 6.00; 5-COMMERCIAL – New E/M Codes Payment per Visit increased from avg 142.42 to 342.70; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.75; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 3.00; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.67</t>
-  </si>
-  <si>
-    <t>5-COMMERCIAL – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 20.86 to 567.00; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 230.61; 2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -4.05 to 66.03; 4-MEDICAID – Vaccines Charge Billed Balance increased from avg 51.20 to 411.00; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 416.22; 5-COMMERCIAL – Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 525.00</t>
-  </si>
-  <si>
-    <t>5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 9.90; 2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 0.36 to 32.81; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 714.85; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 1243.38; 13-TRICARE – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 1.30 to 26.10; 13-TRICARE – Medications Zero-Balance Collection Dollar Impact increased from avg 2.17 to 21.77</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 31.40; 12-HUMANA – New E/M Codes Charge Billed Balance increased from avg 0.44 to 79.87; 17-AETNA – Medications Zero-Balance Collection Dollar Impact increased from avg 3.36 to 78.70; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 4.95 to 104.00; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -6.89 to 110.74; 4-MEDICAID – X-Ray CPT Codes Charge Billed Balance increased from avg 11.37 to 128.00</t>
-  </si>
-  <si>
-    <t>4-MEDICAID – Medications Charge Billed Balance increased from avg 3.82 to 110.00; 4-MEDICAID – Medications Zero-Balance Collection Dollar Impact increased from avg 1.09 to 17.85; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 9.06 to 96.81; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance increased from avg 101.89 to 781.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 62.39 to 475.17; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 37.41</t>
+    <t>4-MEDICAID – After Hours Zero-Balance Collection Dollar Impact decreased from avg -0.33 to -8.15; 13-TRICARE – Lab/Test CPT Codes Visit Count increased from avg 2.59 to 9.00; 15-UNITED HEALTHCARE – Medications Payment per Visit increased from avg 21.82 to 69.82; 13-TRICARE – New E/M Codes Visit Count increased from avg 3.29 to 10.00; 13-TRICARE – New E/M Codes Charge Amount increased from avg 976.67 to 2950.00; 18-CIGNA – X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 2.00</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 4.00; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 3.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 108.38; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.84; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Collection Rate increased from avg 0.27 to 0.84; 3-MEDICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 5.00; 1-SELF PAY – Existing E/M Code Labs per Visit increased from avg 0.91 to 2.88; 3-MEDICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.00; 5-COMMERCIAL – Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 1371.00; 12-HUMANA – X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.26 to 0.65; 12-HUMANA – X-Ray CPT Codes Collection Rate increased from avg 0.26 to 0.65</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -145.36; 12-HUMANA – Medications Labs per Visit increased from avg 0.96 to 5.00; 12-HUMANA – Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 1799.00; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -150.00; 13-TRICARE – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 7.00; 5-COMMERCIAL – Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 2073.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 2.50; 15-UNITED HEALTHCARE – Medications Payment per Visit increased from avg 21.82 to 112.53; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.50; 15-UNITED HEALTHCARE – Medications Collection Rate increased from avg 0.16 to 0.52; 18-CIGNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 6.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 155.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -122.59; 12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to -250.00; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -7.37 to -225.56; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -8.47 to -132.53; 12-HUMANA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg -15.00 to -180.04; 3-MEDICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 2.08 to -8.49</t>
+  </si>
+  <si>
+    <t>12-HUMANA – Medications Labs per Visit increased from avg 0.96 to 4.00; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to -53.44; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.00; 12-HUMANA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.51 to 4.00; 15-UNITED HEALTHCARE – DME Payment per Visit increased from avg 73.28 to 181.96; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 122.50</t>
+  </si>
+  <si>
+    <t>12-HUMANA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.13 to -4.07; 1-SELF PAY – X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 9.00; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 9.00; 1-SELF PAY – New E/M Codes Labs per Visit increased from avg 0.86 to 3.50; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 3.67; 1-SELF PAY – Medications Labs per Visit increased from avg 1.13 to 4.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -102.16; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -8.47 to -101.04; 18-CIGNA – X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 3.00; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 4.00; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 2.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.43 to 4.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Medications Labs per Visit increased from avg 1.45 to 7.00; 5-COMMERCIAL – X-Ray CPT Codes Labs per Visit increased from avg 1.10 to 3.00; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 135.08 to 349.00; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 3.00; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 28.43 to 59.73; 4-MEDICAID – After Hours Labs per Visit increased from avg 2.04 to 4.20</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – DME Charge Amount increased from avg 133.93 to 689.80; 13-TRICARE – Vaccines Labs per Visit increased from avg 0.50 to 2.00; 3-MEDICARE – Medications Labs per Visit increased from avg 0.90 to 3.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.82 to 2.00; 4-MEDICAID – Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.43 to 1.00; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 4.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.50; 18-CIGNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 7.00; 18-CIGNA – X-Ray CPT Codes Charge Amount increased from avg 240.79 to 607.00; 1-SELF PAY – Existing E/M Code Labs per Visit increased from avg 0.91 to 2.20; 4-MEDICAID – X-Ray CPT Codes Charge Amount increased from avg 339.20 to 769.00; 5-COMMERCIAL – Medications Payment per Visit increased from avg 14.74 to 32.75</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -60.44; 3-MEDICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.00; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -106.22; 13-TRICARE – New E/M Codes Labs per Visit increased from avg 1.32 to 3.50; 12-HUMANA – New E/M Codes Labs per Visit increased from avg 0.90 to 2.00; 1-SELF PAY – X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 189.00</t>
+  </si>
+  <si>
+    <t>13-TRICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.82 to 6.00; 13-TRICARE – Medications Labs per Visit increased from avg 1.42 to 6.00; 5-COMMERCIAL – New E/M Codes Labs per Visit increased from avg 1.75 to 5.67; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 4.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 5.50; 5-COMMERCIAL – Medications Labs per Visit increased from avg 1.73 to 5.00</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 3.60 to -3.92; 5-COMMERCIAL – New E/M Codes Labs per Visit increased from avg 1.75 to 5.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 5.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 1.00; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 5.00; 3-MEDICARE – New E/M Codes Labs per Visit increased from avg 1.15 to 2.50</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -14.70; 3-MEDICARE – X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to -4.99; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 155.00; 18-CIGNA – New E/M Codes Labs per Visit increased from avg 1.98 to 5.00; 1-SELF PAY – X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 218.50; 3-MEDICARE – DME Charge Amount increased from avg 319.54 to 689.80</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 135.81; 5-COMMERCIAL – Medications Labs per Visit increased from avg 1.73 to 5.00; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.00; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 647.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 5.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 2.50</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -20.77; 15-UNITED HEALTHCARE – Vaccines Labs per Visit increased from avg 0.57 to 8.00; 3-MEDICARE – Medications Charge Billed Balance decreased from avg 1.05 to -2.50; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 415.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 6.00; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -8.47 to -25.87</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -20.77; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 655.00; 1-SELF PAY – DME Charge Amount increased from avg 133.93 to 705.92; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 8.00; 15-UNITED HEALTHCARE – Self-pay physical &amp; No Charge Charge Amount increased from avg 17.33 to 52.00; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -8.47 to -24.20</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -20.77; 3-MEDICARE – Medications Labs per Visit increased from avg 0.90 to 4.00; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 3.00; 1-SELF PAY – X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 287.00; 13-TRICARE – Medications Labs per Visit increased from avg 1.42 to 4.00; 5-COMMERCIAL – New E/M Codes Labs per Visit increased from avg 1.75 to 4.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Medications Labs per Visit increased from avg 1.13 to 4.00; 15-UNITED HEALTHCARE – DME Payment per Visit increased from avg 73.28 to 207.02; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 135.08 to 360.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 4.20; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 5.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 4.00</t>
+  </si>
+  <si>
+    <t>13-TRICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 33.42 to -204.76; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 4.00; 1-SELF PAY – Medications Labs per Visit increased from avg 1.13 to 3.00; 13-TRICARE – Existing E/M Code Charge Billed Balance decreased from avg 88.96 to -55.40; 13-TRICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 28.64 to -14.26; 13-TRICARE – Existing E/M Code Labs per Visit increased from avg 1.42 to 3.33</t>
+  </si>
+  <si>
+    <t>13-TRICARE – Existing E/M Code Labs per Visit increased from avg 1.42 to 7.00; 13-TRICARE – Medications Labs per Visit increased from avg 1.42 to 7.00; 13-TRICARE – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 7.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 51.31 to 201.33; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 2.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 504.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 2.00; 15-UNITED HEALTHCARE – Medications Labs per Visit increased from avg 1.45 to 3.00; 3-MEDICARE – New E/M Codes Labs per Visit increased from avg 1.15 to 2.33; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes NRV Zero Balance decreased from avg 27.53 to 0.50; 13-TRICARE – New E/M Codes Labs per Visit increased from avg 1.32 to 2.50; 15-UNITED HEALTHCARE – DME NRV Zero Balance decreased from avg 73.88 to 8.38</t>
+  </si>
+  <si>
+    <t>18-CIGNA – X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 2.00; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 6.00; 5-COMMERCIAL – New E/M Codes Payment per Visit increased from avg 142.42 to 342.70; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 3.00; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.67; 5-COMMERCIAL – Existing E/M Code Labs per Visit increased from avg 2.15 to 5.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 2.74 to -329.00; 18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -33.96; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -463.00; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 3.00; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -116.80; 5-COMMERCIAL – Existing E/M Code Payment per Visit increased from avg 115.74 to 409.50</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -383.59; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -313.71; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -122.70; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -208.13; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 4.00; 18-CIGNA – X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 3.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -70.00; 1-SELF PAY – X-Ray CPT Codes Visit Count increased from avg 2.51 to 8.00; 1-SELF PAY – X-Ray CPT Codes Charge Amount increased from avg 235.81 to 735.00; 12-HUMANA – Existing E/M Code Labs per Visit increased from avg 1.20 to 3.00; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 3.00; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.67</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -150.00; 18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -47.43; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -8.47 to -154.66; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.96 to -163.95; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -204.84; 5-COMMERCIAL – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 52.19 to -129.00</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -85.21; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -317.35; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -203.50; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -163.48; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.96 to -208.94; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -266.78</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -273.29; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -127.16; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.50 to -223.08; 5-COMMERCIAL – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 29.61 to -148.26; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -66.78; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -109.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -48.64; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -160.99; 15-UNITED HEALTHCARE – DME Labs per Visit increased from avg 0.10 to 2.00; 18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -18.72; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -148.04; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.96 to -118.28</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -15.53; 15-UNITED HEALTHCARE – Vaccines Charge Billed Balance decreased from avg -10.71 to -150.00; 15-UNITED HEALTHCARE – Vaccines Payment per Visit increased from avg 82.57 to 318.92; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -15.14; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -73.99; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.35 to 1.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -18.59; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -202.89; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 166.19; 3-MEDICARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -8.47 to -50.26; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -152.09; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -11.65</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -92.15; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -135.15; 5-COMMERCIAL – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 2.74 to -39.70; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -117.84; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -51.44; 4-MEDICAID – Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.43 to 3.00</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -293.19; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -166.67; 12-HUMANA – X-Ray CPT Codes Charge Billed Balance decreased from avg -1.21 to -25.51; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -133.31; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.96 to -300.32; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -243.09</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -54.03; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -110.00; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -61.14; 13-TRICARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 47.27 to 373.44; 13-TRICARE – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 200.53 to 1434.00; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.96 to -108.07</t>
+  </si>
+  <si>
+    <t>12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to -105.00; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -7.37 to -104.90; 13-TRICARE – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 200.53 to 752.00; 12-HUMANA – Medications Charge Amount increased from avg 103.29 to 355.00; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -8.58; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 75.60</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 18.72 to -134.15; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 200.00; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to -5.18; 18-CIGNA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 51.31 to 182.96; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to -16.34; 3-MEDICARE – New E/M Codes Charge Amount increased from avg 667.84 to 1860.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -88.35; 12-HUMANA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 35.91 to 216.28; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 114.54; 18-CIGNA – Medications Charge Amount increased from avg 210.12 to 730.00; 12-HUMANA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 155.71 to 450.00; 12-HUMANA – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.48</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – Self-pay physical &amp; No Charge Charge Amount increased from avg 7.86 to 45.00; 12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to -1.25; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -24.47; 4-MEDICAID – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 70.72 to -110.00; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -20.00; 4-MEDICAID – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 162.82 to -191.91</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -164.28; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 15.12 to -90.00; 3-MEDICARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 18.72 to -110.54; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 62.96 to 296.13; 3-MEDICARE – New E/M Codes Charge Billed Balance decreased from avg 45.73 to -123.57; 5-COMMERCIAL – X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to -35.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -209.42; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 266.27; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 267.01 to 2000.00; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -137.70; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.96 to -106.83; 3-MEDICARE – Medications Charge Billed Balance decreased from avg 1.05 to -2.63</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -73.35; 3-MEDICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 2.08 to -11.46; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -40.52; 3-MEDICARE – New E/M Codes Charge Amount increased from avg 667.84 to 2170.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 3.00; 5-COMMERCIAL – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 52.19 to -52.21</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – Self-pay physical &amp; No Charge Charge Amount increased from avg 7.86 to 65.00; 4-MEDICAID – Self-pay physical &amp; No Charge Charge Billed Balance decreased from avg -11.50 to -61.00; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 9.06 to -14.10; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -25.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 3.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 4.39 to -5.11</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – DME Zero-Balance Collection Dollar Impact decreased from avg 12.37 to -93.40; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -18.96 to -71.17; 5-COMMERCIAL – Lab/Test CPT Codes Collection Rate increased from avg 0.28 to 1.00; 1-SELF PAY – X-Ray CPT Codes Visit Count increased from avg 2.51 to 9.00; 1-SELF PAY – X-Ray CPT Codes Charge Amount increased from avg 235.81 to 800.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 3.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg -0.06 to -150.00; 3-MEDICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 2.08 to -121.51; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -262.19; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 62.96 to 381.15; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -36.34 to -162.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 100.00</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Vaccines Labs per Visit increased from avg 0.31 to 2.50; 1-SELF PAY – Vaccines Charge Amount increased from avg 296.43 to 1400.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 652.20; 18-CIGNA – Vaccines Charge Amount increased from avg 165.00 to 532.00; 1-SELF PAY – Vaccines Payment per Visit increased from avg 124.23 to 350.00; 18-CIGNA – Vaccines Payment per Visit increased from avg 81.62 to 206.84</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 28.43 to 230.73; 4-MEDICAID – DME Charge Amount increased from avg 682.71 to 2507.08; 4-MEDICAID – Medications Payment per Visit increased from avg 15.29 to 53.18; 4-MEDICAID – Medications Charge Amount increased from avg 201.17 to 690.00; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 135.08 to 450.00; 4-MEDICAID – DME Visit Count increased from avg 1.67 to 5.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Vaccines Charge Amount increased from avg 296.43 to 2145.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 267.01 to 1382.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 142.38; 1-SELF PAY – Vaccines Visit Count increased from avg 2.07 to 7.00; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 70.54; 13-TRICARE – New E/M Codes Labs per Visit increased from avg 1.32 to 3.67</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 225.00; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 293.00; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -36.34 to 82.60; 2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -4.05 to 6.35; 2-BCBS – After Hours NRV Zero Balance increased from avg 2.08 to 6.73; 15-UNITED HEALTHCARE – Medications NRV Zero Balance increased from avg 22.82 to 69.82</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 12.20 to 54.56; 4-MEDICAID – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 43.58 to 108.38; 5-COMMERCIAL – Medications NRV Zero Balance increased from avg 15.12 to 33.64; 13-TRICARE – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 45.55 to 100.28; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 15.12 to 32.15; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -7.37 to 0.00</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – Medications NRV Zero Balance increased from avg 16.26 to 33.86; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -7.37 to 0.00; 12-HUMANA – New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -36.34 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – DME NRV Zero Balance increased from avg 140.68 to 473.50; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -7.37 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 9.06 to 165.58; 15-UNITED HEALTHCARE – Medications NRV Zero Balance increased from avg 22.82 to 112.53; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance increased from avg 64.00 to 199.00; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -7.37 to 0.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 0.72 to 7.38; 3-MEDICARE – X-Ray CPT Codes NRV Zero Balance increased from avg 30.60 to 61.21; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -36.34 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -16.11 to 55.28; 15-UNITED HEALTHCARE – DME NRV Zero Balance increased from avg 73.88 to 181.96; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 49.00; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg 0.26 to 5.51; 12-HUMANA – Existing E/M Code Charge Billed Balance increased from avg 10.28 to 100.00; 5-COMMERCIAL – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 52.19 to 278.37; 5-COMMERCIAL – New E/M Codes Charge Billed Balance increased from avg 122.16 to 287.00; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -7.37 to 0.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 2.08 to 20.68; 1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.00; 13-TRICARE – New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 28.43 to 59.73; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Charge Billed Balance increased from avg 14.47 to 100.00; 17-AETNA – Medications Zero-Balance Collection Dollar Impact increased from avg 4.43 to 18.78; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 51.63 to 204.56; 17-AETNA – Existing E/M Code Charge Billed Balance increased from avg 63.76 to 245.00; 1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Medications NRV Zero Balance increased from avg 15.12 to 32.75; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -7.37 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE – New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -7.37 to 0.00; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -18.96 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 76.76; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 15.12 to 90.65; 5-COMMERCIAL – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 29.61 to 135.79; 17-AETNA – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 34.92 to 150.69; 5-COMMERCIAL – Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 293.00; 5-COMMERCIAL – New E/M Codes Charge Billed Balance increased from avg 122.16 to 310.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 160.00; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 284.35; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -16.11 to 96.94; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 364.54; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact increased from avg 0.27 to 1.60; 2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -4.05 to 12.26</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -4.05 to 17.57; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 30.27; 17-AETNA – DME NRV Zero Balance increased from avg 179.12 to 368.10; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 9.06 to 186.19; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 27.53 to 135.81; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 15.12 to 72.48; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 2.08 to 12.33; 17-AETNA – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 34.92 to 137.69; 17-AETNA – DME NRV Zero Balance increased from avg 179.12 to 529.98; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.66 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 205.00; 15-UNITED HEALTHCARE – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -36.34 to 65.97; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 9.06 to 21.94; 4-MEDICAID – DME NRV Zero Balance increased from avg 137.19 to 299.11; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 29.34; 17-AETNA – Existing E/M Code Charge Billed Balance increased from avg 63.76 to 241.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact increased from avg 2.30 to 6.84; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 51.63 to 143.36; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – New E/M Codes Labs per Visit decreased from avg 0.86 to 0.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 2.74 to 167.50; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 241.00; 5-COMMERCIAL – Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 293.00; 15-UNITED HEALTHCARE – DME NRV Zero Balance increased from avg 73.88 to 207.02; 1-SELF PAY – Medications Charge Amount decreased from avg 65.92 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 2.76 to 89.00; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 9.06 to 138.67; 2-BCBS – Vaccines NRV Zero Balance increased from avg 69.01 to 345.09; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance increased from avg 64.00 to 310.00; 4-MEDICAID – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 3.60 to 11.27; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 49.02 to 201.33; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 18-CIGNA – X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 12-HUMANA – New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – New E/M Codes NRV Zero Balance increased from avg 161.13 to 342.70; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 17-AETNA – New E/M Codes Labs per Visit decreased from avg 1.59 to 0.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 230.61; 5-COMMERCIAL – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 29.61 to 567.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -4.05 to 66.03; 4-MEDICAID – Vaccines Charge Billed Balance increased from avg 51.20 to 411.00; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 416.22; 5-COMMERCIAL – Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 525.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 9.90; 2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 0.36 to 32.81; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 714.85; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 1243.38; 13-TRICARE – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 1.45 to 26.10; 13-TRICARE – Medications Zero-Balance Collection Dollar Impact increased from avg 2.63 to 21.77</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 31.40; 12-HUMANA – New E/M Codes Charge Billed Balance increased from avg 0.44 to 79.87; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 4.95 to 104.00; 17-AETNA – Medications Zero-Balance Collection Dollar Impact increased from avg 4.43 to 78.70; 12-HUMANA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -7.37 to 110.74; 4-MEDICAID – X-Ray CPT Codes Charge Billed Balance increased from avg 11.37 to 128.00</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – Medications Charge Billed Balance increased from avg 3.82 to 110.00; 4-MEDICAID – Medications Zero-Balance Collection Dollar Impact increased from avg 1.28 to 17.85; 15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 9.06 to 96.81; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance increased from avg 101.89 to 781.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 62.39 to 475.17; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 37.41</t>
   </si>
   <si>
     <t>2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 148.79; 13-TRICARE – Existing E/M Code Charge Billed Balance increased from avg 88.96 to 735.00; 13-TRICARE – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 33.42 to 274.20; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 23.63 to 158.72; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 23.50 to 140.31; 18-CIGNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 12.20 to 69.21</t>
   </si>
   <si>
-    <t>18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 205.00; 12-HUMANA – New E/M Codes Charge Billed Balance increased from avg 0.44 to 55.00; 13-TRICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 25.52 to 491.52; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 159.50; 13-TRICARE – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 33.42 to 321.00; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 446.33</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – DME Labs per Visit increased from avg 0.10 to 2.00; 4-MEDICAID – Medications Zero-Balance Collection Dollar Impact increased from avg 1.09 to 20.93; 17-AETNA – DME Zero-Balance Collection Dollar Impact increased from avg 10.48 to 188.61; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg 5.70 to 66.02; 4-MEDICAID – Medications Charge Billed Balance increased from avg 3.82 to 40.00; 4-MEDICAID – Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 1782.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 213.84; 18-CIGNA – X-Ray CPT Codes Charge Billed Balance increased from avg 6.24 to 115.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 5.67 to 98.76; 18-CIGNA – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 2.18 to 31.18; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 12.09 to 152.00; 5-COMMERCIAL – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 41.75 to 480.00</t>
-  </si>
-  <si>
-    <t>5-COMMERCIAL – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 1.93 to 63.81; 2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 96.00; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 23.50 to 202.12; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 220.00; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 15.12 to 111.96; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 62.39 to 457.11</t>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 205.00; 12-HUMANA – New E/M Codes Charge Billed Balance increased from avg 0.44 to 55.00; 13-TRICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 28.64 to 491.52; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 159.50; 13-TRICARE – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 33.42 to 321.00; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 446.33</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – Medications Zero-Balance Collection Dollar Impact increased from avg 1.28 to 20.93; 17-AETNA – DME Zero-Balance Collection Dollar Impact increased from avg 15.72 to 188.61; 4-MEDICAID – Medications Charge Billed Balance increased from avg 3.82 to 40.00; 4-MEDICAID – Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 1782.00; 4-MEDICAID – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 70.81 to 527.27; 13-TRICARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 98.89 to 690.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 213.84; 18-CIGNA – X-Ray CPT Codes Charge Billed Balance increased from avg 6.24 to 115.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 6.18 to 98.76; 18-CIGNA – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 2.39 to 31.18; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 12.09 to 152.00; 5-COMMERCIAL – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 52.19 to 480.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 96.00; 5-COMMERCIAL – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 2.74 to 63.81; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 23.50 to 202.12; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 220.00; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 15.12 to 111.96; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 62.39 to 457.11</t>
   </si>
   <si>
     <t>2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 462.26; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg -16.11 to 371.95; 12-HUMANA – Existing E/M Code Charge Billed Balance increased from avg 10.28 to 195.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -4.05 to 25.65; 13-TRICARE – Existing E/M Code Charge Billed Balance increased from avg 88.96 to 735.00; 13-TRICARE – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 33.42 to 267.60</t>
   </si>
   <si>
-    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 8.81 to 358.55; 2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 125.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 17.97 to 436.00; 5-COMMERCIAL – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 3.19 to 63.75; 2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -4.05 to 68.99; 18-CIGNA – Vaccines Charge Billed Balance increased from avg 7.00 to 131.00</t>
-  </si>
-  <si>
-    <t>5-COMMERCIAL – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 1.93 to 98.94; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg 5.70 to 98.69; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 29.14 to 436.00; 3-MEDICARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 13.65 to 156.59; 5-COMMERCIAL – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 41.75 to 452.62; 4-MEDICAID – X-Ray CPT Codes Charge Billed Balance increased from avg 11.37 to 123.00</t>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 8.81 to 358.55; 2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 125.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 17.97 to 436.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -4.05 to 68.99; 18-CIGNA – Vaccines Charge Billed Balance increased from avg 7.00 to 131.00; 5-COMMERCIAL – X-Ray CPT Codes Charge Billed Balance increased from avg 17.35 to 246.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Existing E/M Code Zero-Balance Collection Dollar Impact increased from avg 2.74 to 98.94; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 29.14 to 436.00; 4-MEDICAID – X-Ray CPT Codes Charge Billed Balance increased from avg 11.37 to 123.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg 9.69 to 98.69; 4-MEDICAID – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 3.60 to 35.69; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 98.28 to 861.07</t>
   </si>
   <si>
     <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 245.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 160.00; 13-TRICARE – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 45.89 to 752.00; 17-AETNA – Medications Charge Billed Balance increased from avg 14.47 to 192.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -4.05 to 34.11; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 90.70</t>
   </si>
   <si>
-    <t>18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 145.00; 3-MEDICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 1.82 to 185.94; 3-MEDICARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 9.57 to 450.00; 2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 0.36 to 14.87; 15-UNITED HEALTHCARE – Medications Zero-Balance Collection Dollar Impact increased from avg 2.95 to 67.66; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 149.46</t>
-  </si>
-  <si>
-    <t>5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 89.00; 15-UNITED HEALTHCARE – DME Zero-Balance Collection Dollar Impact increased from avg 0.92 to 19.38; 17-AETNA – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 11.15 to 78.65; 12-HUMANA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 30.78 to 216.28; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 49.67; 17-AETNA – X-Ray CPT Codes Charge Billed Balance increased from avg 22.59 to 136.00</t>
-  </si>
-  <si>
-    <t>18-CIGNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -0.05 to 6.53; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 110.85; 12-HUMANA – Medications Charge Billed Balance increased from avg 2.86 to 40.00; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 736.00; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 210.00; 3-MEDICARE – DME Charge Billed Balance increased from avg 8.62 to 69.00</t>
-  </si>
-  <si>
-    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 9.06 to 407.68; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 192.67; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 841.78; 13-TRICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 25.52 to 337.34; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance increased from avg 64.00 to 814.36; 2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 0.36 to 3.57</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 20.27; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 167.92; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg 4.07 to 98.43; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 20.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 12.09 to 208.00; 4-MEDICAID – X-Ray CPT Codes Charge Billed Balance increased from avg 11.37 to 163.00</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 20.27; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 585.00; 3-MEDICARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 13.65 to 288.42; 2-BCBS – DME Labs per Visit increased from avg 0.05 to 1.00; 3-MEDICARE – X-Ray CPT Codes Charge Billed Balance increased from avg 3.31 to 36.46; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 15.12 to 140.44</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 46.18; 17-AETNA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 56.31 to 997.19; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 98.67; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 2187.00; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 15.12 to 151.96; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 245.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 0.36 to 76.94; 2-BCBS – X-Ray CPT Codes Charge Billed Balance increased from avg 1.10 to 123.00; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 88.71; 2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 267.63; 15-UNITED HEALTHCARE – Medications Charge Billed Balance increased from avg 3.48 to 110.00; 18-CIGNA – Medications Zero-Balance Collection Dollar Impact increased from avg 0.76 to 18.26</t>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 145.00; 3-MEDICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 2.08 to 185.94; 3-MEDICARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 9.57 to 450.00; 2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 0.36 to 14.87; 15-UNITED HEALTHCARE – Medications Zero-Balance Collection Dollar Impact increased from avg 3.67 to 67.66; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 149.46</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 89.00; 15-UNITED HEALTHCARE – DME Zero-Balance Collection Dollar Impact increased from avg 1.21 to 19.38; 12-HUMANA – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 30.05 to 216.28; 17-AETNA – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 11.49 to 78.65; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 49.67; 17-AETNA – X-Ray CPT Codes Charge Billed Balance increased from avg 22.59 to 136.00</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg -0.06 to 6.53; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 110.85; 12-HUMANA – Medications Charge Billed Balance increased from avg 2.86 to 40.00; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 736.00; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 210.00; 3-MEDICARE – DME Charge Billed Balance increased from avg 8.62 to 69.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 9.06 to 407.68; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 192.67; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 841.78; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance increased from avg 64.00 to 814.36; 13-TRICARE – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact increased from avg 28.64 to 337.34; 2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 0.36 to 3.57</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 20.27; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 167.92; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact increased from avg 4.39 to 98.43; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 20.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 12.09 to 208.00; 4-MEDICAID – X-Ray CPT Codes Charge Billed Balance increased from avg 11.37 to 163.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 20.27; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 585.00; 3-MEDICARE – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 18.72 to 288.42; 3-MEDICARE – X-Ray CPT Codes Charge Billed Balance increased from avg 3.31 to 36.46; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 15.12 to 140.44; 3-MEDICARE – New E/M Codes Charge Billed Balance increased from avg 45.73 to 290.71</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 46.18; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 98.67; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 15.12 to 151.96; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 245.00; 5-COMMERCIAL – X-Ray CPT Codes Charge Billed Balance increased from avg 17.35 to 123.00; 18-CIGNA – New E/M Codes Charge Billed Balance increased from avg 61.06 to 310.98</t>
+  </si>
+  <si>
+    <t>2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact increased from avg 0.36 to 76.94; 2-BCBS – X-Ray CPT Codes Charge Billed Balance increased from avg 1.10 to 123.00; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 88.71; 2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 267.63; 15-UNITED HEALTHCARE – Medications Charge Billed Balance increased from avg 3.48 to 110.00; 18-CIGNA – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg 15.12 to 298.92</t>
   </si>
   <si>
     <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 40.54; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact increased from avg -11.19 to 340.70; 2-BCBS – Medications Charge Billed Balance increased from avg 3.79 to 70.60; 18-CIGNA – X-Ray CPT Codes Charge Billed Balance increased from avg 6.24 to 72.00; 2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 35.52; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 520.17</t>
   </si>
   <si>
-    <t>18-CIGNA – Vaccines Labs per Visit increased from avg 0.31 to 2.50; 1-SELF PAY – Vaccines Charge Amount increased from avg 296.43 to 1400.00; 2-BCBS – Self-pay physical &amp; No Charge Payment per Visit increased from avg 7.67 to 35.00; 4-MEDICAID – Self-pay physical &amp; No Charge Payment per Visit increased from avg 15.32 to 65.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 652.20; 18-CIGNA – Vaccines Charge Amount increased from avg 165.00 to 532.00</t>
-  </si>
-  <si>
-    <t>3-MEDICARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 23.02 to 230.73; 4-MEDICAID – Medications Payment per Visit increased from avg 14.20 to 53.18; 4-MEDICAID – DME Charge Amount increased from avg 682.71 to 2507.08; 4-MEDICAID – Medications Charge Amount increased from avg 201.17 to 690.00; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 135.08 to 450.00; 4-MEDICAID – DME Visit Count increased from avg 1.67 to 5.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY – Vaccines Charge Amount increased from avg 296.43 to 2145.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 267.01 to 1382.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.17 to 142.38; 1-SELF PAY – Vaccines Visit Count increased from avg 2.07 to 7.00; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 23.95 to 70.54; 13-TRICARE – New E/M Codes Labs per Visit increased from avg 1.32 to 3.67</t>
+    <t>18-CIGNA – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 49.02 to 159.70; 17-AETNA – X-Ray CPT Codes NRV Zero Balance increased from avg 54.42 to 141.77; 15-UNITED HEALTHCARE – Lab/Test CPT Codes NRV Zero Balance increased from avg 34.40 to 76.25; 1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 0.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 28.43 to 230.73; 2-BCBS – Medications NRV Zero Balance increased from avg 18.08 to 67.53; 4-MEDICAID – Medications NRV Zero Balance increased from avg 16.26 to 53.18; 2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 45.56 to 98.08; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 12-HUMANA – New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 43.58 to 410.81; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes NRV Zero Balance increased from avg 27.53 to 65.24; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 0.00</t>
   </si>
   <si>
     <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 0.00</t>
   </si>
   <si>
-    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Existing E/M Code Labs per Visit decreased from avg 1.75 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 0.00; 17-AETNA – X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 11.15 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – After Hours Labs per Visit decreased from avg 2.15 to 0.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to -37.05; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 5.70 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 11.15 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to -177.97; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 5.70 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.16 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – New E/M Codes Visit Count decreased from avg 8.71 to 2.00; 17-AETNA – New E/M Codes Charge Amount decreased from avg 2631.41 to 620.00; 17-AETNA – Existing E/M Code Charge Amount decreased from avg 1291.98 to 405.00; 17-AETNA – New E/M Codes Labs per Visit decreased from avg 1.59 to 0.50; 17-AETNA – Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 555.00; 17-AETNA – Existing E/M Code Visit Count decreased from avg 5.52 to 2.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – New E/M Codes Visit Count decreased from avg 8.71 to 2.00; 17-AETNA – New E/M Codes Charge Amount decreased from avg 2631.41 to 620.00; 17-AETNA – Existing E/M Code Charge Amount decreased from avg 1291.98 to 650.00; 17-AETNA – Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 4.00; 17-AETNA – Existing E/M Code Visit Count decreased from avg 5.52 to 3.00; 17-AETNA – Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 911.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – New E/M Codes Labs per Visit decreased from avg 1.59 to 0.00; 17-AETNA – Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA – X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA – New E/M Codes Visit Count decreased from avg 8.71 to 2.00; 17-AETNA – New E/M Codes Charge Amount decreased from avg 2631.41 to 620.00; 17-AETNA – X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 123.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -3.54; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – DME Charge Billed Balance decreased from avg 149.25 to 0.00; 17-AETNA – DME Zero-Balance Collection Dollar Impact decreased from avg 10.48 to 0.00; 17-AETNA – DME Zero Balance Collection Rate decreased from avg 0.38 to 0.10; 17-AETNA – DME Payment per Visit decreased from avg 126.37 to 75.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to -15.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -1.02; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 5.70 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA – Medications Zero-Balance Collection Dollar Impact decreased from avg 3.36 to 0.00; 17-AETNA – Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA – X-Ray CPT Codes Payment per Visit decreased from avg 49.48 to 25.20; 17-AETNA – Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA – Medications Charge Amount decreased from avg 135.48 to 94.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to -0.26; 17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA – Medications Zero-Balance Collection Dollar Impact decreased from avg 3.36 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 5.70 to 0.00; 17-AETNA – Vaccines Zero Balance Collection Rate decreased from avg 0.54 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -222.20; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to -132.51; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to -63.72; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -70.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to -6.56; 17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA – Medications Zero-Balance Collection Dollar Impact decreased from avg 3.36 to 0.00; 17-AETNA – Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.00; 17-AETNA – Medications Payment per Visit decreased from avg 14.32 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 0.00; 17-AETNA – New E/M Codes Labs per Visit decreased from avg 1.59 to 1.00; 17-AETNA – Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 1102.00; 17-AETNA – New E/M Codes Visit Count decreased from avg 8.71 to 7.00; 17-AETNA – Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.43</t>
-  </si>
-  <si>
-    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA – Medications Zero-Balance Collection Dollar Impact decreased from avg 3.36 to 0.00; 17-AETNA – Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.00; 17-AETNA – Medications Payment per Visit decreased from avg 14.32 to 0.00</t>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 565.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 4.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 5.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Labs per Visit increased from avg 1.60 to 7.00; 17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 3.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.67; 17-AETNA – Medications Charge Amount increased from avg 135.48 to 305.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 464.00; 17-AETNA – Medications Visit Count increased from avg 1.48 to 3.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 5.00; 17-AETNA – Existing E/M Code Labs per Visit increased from avg 1.75 to 4.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Labs per Visit increased from avg 1.60 to 9.00; 17-AETNA – Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 6.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 0.00; 17-AETNA – X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 11.49 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 7.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – New E/M Codes Labs per Visit increased from avg 1.59 to 3.50; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.66; 17-AETNA – Procedures &amp; Surgical CPT Codes Collection Rate increased from avg 0.30 to 0.66; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to -37.05; 17-AETNA – After Hours Labs per Visit increased from avg 2.15 to 5.00; 17-AETNA – Existing E/M Code Labs per Visit increased from avg 1.75 to 4.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 4.00; 17-AETNA – DME Payment per Visit increased from avg 174.97 to 368.10; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – DME Payment per Visit increased from avg 174.97 to 529.98; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Charge Amount increased from avg 135.48 to 334.00; 17-AETNA – Medications Visit Count increased from avg 1.48 to 3.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to -177.97; 17-AETNA – New E/M Codes Labs per Visit increased from avg 1.59 to 5.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Collection Rate increased from avg 0.30 to 0.50</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Visit Count increased from avg 1.48 to 3.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Labs per Visit increased from avg 1.75 to 2.50; 17-AETNA – After Hours Payment per Visit increased from avg 5.52 to 7.60; 17-AETNA – Existing E/M Code NRV Zero Balance decreased from avg 150.29 to 114.30; 17-AETNA – Lab/Test CPT Codes NRV Zero Balance decreased from avg 86.49 to 73.89; 17-AETNA – New E/M Codes NRV Zero Balance decreased from avg 213.66 to 204.75; 17-AETNA – New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Labs per Visit increased from avg 1.75 to 2.67; 17-AETNA – Existing E/M Code NRV Zero Balance decreased from avg 150.29 to 121.34; 17-AETNA – Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 91.06; 17-AETNA – After Hours NRV Zero Balance decreased from avg 5.52 to 5.07; 17-AETNA – New E/M Codes NRV Zero Balance decreased from avg 213.66 to 205.00; 17-AETNA – New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Labs per Visit increased from avg 1.75 to 3.33; 17-AETNA – After Hours Charge Amount increased from avg 170.58 to 322.00; 17-AETNA – After Hours Visit Count increased from avg 3.75 to 7.00; 17-AETNA – Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 4.00; 17-AETNA – X-Ray CPT Codes NRV Zero Balance decreased from avg 54.42 to 39.91; 17-AETNA – Lab/Test CPT Codes NRV Zero Balance decreased from avg 86.49 to 68.61</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 6.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 4744.00; 17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.33; 17-AETNA – X-Ray CPT Codes Visit Count increased from avg 2.12 to 6.00; 17-AETNA – X-Ray CPT Codes Charge Amount increased from avg 292.71 to 760.00; 17-AETNA – Lab/Test CPT Codes Visit Count increased from avg 7.50 to 18.00; 17-AETNA – New E/M Codes Visit Count increased from avg 8.71 to 18.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Zero Balance Collection Rate increased from avg 0.19 to 0.67; 17-AETNA – X-Ray CPT Codes Payment per Visit increased from avg 50.98 to 159.11; 17-AETNA – Medications Payment per Visit increased from avg 18.88 to 51.89; 17-AETNA – Medications Charge Amount increased from avg 135.48 to 350.00; 17-AETNA – Medications Collection Rate increased from avg 0.18 to 0.44; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to -15.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Lab/Test CPT Codes Visit Count increased from avg 7.50 to 21.00; 17-AETNA – Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 4359.00; 17-AETNA – New E/M Codes Charge Amount increased from avg 2631.41 to 6745.00; 17-AETNA – New E/M Codes Visit Count increased from avg 8.71 to 22.00; 17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00; 17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 4470.00; 17-AETNA – New E/M Codes Charge Amount increased from avg 2631.41 to 7365.00; 17-AETNA – New E/M Codes Visit Count increased from avg 8.71 to 24.00; 17-AETNA – Lab/Test CPT Codes Visit Count increased from avg 7.50 to 19.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to -0.26; 17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -222.20; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to -132.51; 17-AETNA – Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 4615.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to -63.72; 17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00; 17-AETNA – Lab/Test CPT Codes Visit Count increased from avg 7.50 to 18.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -70.00; 17-AETNA – X-Ray CPT Codes Collection Rate increased from avg 0.36 to 1.00; 17-AETNA – X-Ray CPT Codes Payment per Visit increased from avg 50.98 to 131.50; 17-AETNA – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 4.00; 17-AETNA – X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 1.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.63</t>
+  </si>
+  <si>
+    <t>17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.76; 17-AETNA – Lab/Test CPT Codes Collection Rate increased from avg 0.38 to 0.60; 17-AETNA – New E/M Codes Payment per Visit increased from avg 205.14 to 271.21; 17-AETNA – New E/M Codes Collection Rate increased from avg 0.68 to 0.87</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Labs per Visit increased from avg 1.60 to 4.00; 17-AETNA – X-Ray CPT Codes Charge Amount increased from avg 292.71 to 650.00; 17-AETNA – X-Ray CPT Codes Payment per Visit increased from avg 50.98 to 103.03; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00</t>
   </si>
   <si>
     <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -14.56; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 0.00; 17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00</t>
   </si>
   <si>
-    <t>17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA – Medications Zero-Balance Collection Dollar Impact decreased from avg 3.36 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 5.70 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 56.31 to 5.92; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 61.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 56.31 to 11.77; 17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 0.50; 17-AETNA – X-Ray CPT Codes Payment per Visit decreased from avg 49.48 to 20.04; 17-AETNA – Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 35.52; 17-AETNA – New E/M Codes Labs per Visit decreased from avg 1.59 to 1.17; 17-AETNA – Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.18</t>
-  </si>
-  <si>
-    <t>17-AETNA – Medications Zero-Balance Collection Dollar Impact decreased from avg 3.36 to 0.00; 17-AETNA – Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.00; 17-AETNA – Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA – Medications Payment per Visit decreased from avg 14.32 to 0.00; 17-AETNA – DME Zero-Balance Collection Dollar Impact decreased from avg 10.48 to 0.00; 17-AETNA – DME Zero Balance Collection Rate decreased from avg 0.38 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Medications Zero-Balance Collection Dollar Impact decreased from avg 3.36 to 0.00; 17-AETNA – Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.00; 17-AETNA – Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA – Medications Payment per Visit decreased from avg 14.32 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 5.70 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.16 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA – Medications Zero-Balance Collection Dollar Impact decreased from avg 3.36 to 0.00; 17-AETNA – Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.00; 17-AETNA – Medications Payment per Visit decreased from avg 14.32 to 0.00; 17-AETNA – Medications Charge Amount decreased from avg 135.48 to 0.00; 17-AETNA – DME Zero-Balance Collection Dollar Impact decreased from avg 10.48 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to -108.32; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to -45.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to -11.97; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to -3.10; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 5.70 to 0.00</t>
+    <t>17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA – Medications Zero-Balance Collection Dollar Impact decreased from avg 4.43 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 9.69 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes NRV Zero Balance decreased from avg 34.92 to 5.92; 17-AETNA – Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.64</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 540.00; 17-AETNA – Existing E/M Code Charge Amount increased from avg 1291.98 to 1960.00; 17-AETNA – Lab/Test CPT Codes Visit Count increased from avg 7.50 to 11.00; 17-AETNA – Existing E/M Code Visit Count increased from avg 5.52 to 8.00; 17-AETNA – New E/M Codes Charge Amount increased from avg 2631.41 to 3720.00; 17-AETNA – New E/M Codes Visit Count increased from avg 8.71 to 12.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – DME Charge Billed Balance decreased from avg 149.25 to 25.00; 17-AETNA – Medications Charge Amount increased from avg 135.48 to 192.00; 17-AETNA – X-Ray CPT Codes Visit Count increased from avg 2.12 to 3.00; 17-AETNA – Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.58; 17-AETNA – Medications Visit Count increased from avg 1.48 to 2.00; 17-AETNA – X-Ray CPT Codes NRV Zero Balance decreased from avg 54.42 to 35.65</t>
+  </si>
+  <si>
+    <t>17-AETNA – Lab/Test CPT Codes NRV Zero Balance decreased from avg 86.49 to 30.07; 17-AETNA – DME Charge Amount increased from avg 429.55 to 630.92; 17-AETNA – Existing E/M Code Visit Count increased from avg 5.52 to 8.00; 17-AETNA – X-Ray CPT Codes Visit Count increased from avg 2.12 to 3.00; 17-AETNA – X-Ray CPT Codes Charge Amount increased from avg 292.71 to 414.00; 17-AETNA – New E/M Codes Charge Amount increased from avg 2631.41 to 3720.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 2.88; 17-AETNA – X-Ray CPT Codes Visit Count increased from avg 2.12 to 4.00; 17-AETNA – Medications Labs per Visit increased from avg 1.60 to 3.00; 17-AETNA – X-Ray CPT Codes Charge Amount increased from avg 292.71 to 505.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 17.37</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Collection Rate increased from avg 0.30 to 1.01; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to -108.32; 17-AETNA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 76.58 to 229.10; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to -45.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to -11.97; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to -3.10</t>
   </si>
   <si>
     <t>17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to -190.76; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -210.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 0.00</t>
   </si>
   <si>
-    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 74.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 75.45</t>
-  </si>
-  <si>
-    <t>17-AETNA – X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 11.15 to 0.00; 17-AETNA – X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA – Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 3.00; 17-AETNA – X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 123.00; 17-AETNA – Existing E/M Code Labs per Visit decreased from avg 1.75 to 0.75</t>
-  </si>
-  <si>
-    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -64.56; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to -11.31; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg 98.28 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -40.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 5.70 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 0.00; 17-AETNA – X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 11.15 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 5.70 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.16 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 2.12; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 20.72; 17-AETNA – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 56.31 to 8.50</t>
-  </si>
-  <si>
-    <t>17-AETNA – Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 56.31 to 0.00; 17-AETNA – X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA – New E/M Codes Labs per Visit decreased from avg 1.59 to 0.33; 17-AETNA – Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 36.20</t>
-  </si>
-  <si>
-    <t>17-AETNA – Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 0.00; 17-AETNA – New E/M Codes Labs per Visit decreased from avg 1.59 to 0.22; 17-AETNA – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 56.31 to 11.19; 17-AETNA – Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 1.33; 17-AETNA – Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 777.00</t>
-  </si>
-  <si>
-    <t>17-AETNA – X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA – DME Payment per Visit decreased from avg 126.37 to 0.00; 17-AETNA – Existing E/M Code Labs per Visit decreased from avg 1.75 to 0.29; 17-AETNA – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 56.31 to 12.82; 17-AETNA – Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 397.00; 17-AETNA – Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 3.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to -50.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to -2.77; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – After Hours Zero Balance Collection Rate decreased from avg 0.01 to 0.00; 2-BCBS – After Hours Payment per Visit decreased from avg 0.65 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -118.35; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -130.33; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to -20.62; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – After Hours Zero Balance Collection Rate decreased from avg 0.01 to 0.00; 2-BCBS – After Hours Payment per Visit decreased from avg 0.65 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – After Hours Zero Balance Collection Rate decreased from avg 0.01 to 0.00; 2-BCBS – After Hours Payment per Visit decreased from avg 0.65 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to -2.48; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – After Hours Zero Balance Collection Rate decreased from avg 0.01 to 0.00; 2-BCBS – After Hours Payment per Visit decreased from avg 0.65 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -150.46; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -179.32; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to -7.93; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to -13.57; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – After Hours Zero Balance Collection Rate decreased from avg 0.01 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to -355.92; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -82.30; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – After Hours Zero Balance Collection Rate decreased from avg 0.01 to 0.00; 2-BCBS – After Hours Payment per Visit decreased from avg 0.65 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to 0.00; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to -2.48; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – Vaccines Labs per Visit decreased from avg 0.10 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -107.62; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -37.97; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to 0.00; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to 0.00; 2-BCBS – Medications Labs per Visit decreased from avg 1.33 to 0.00; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – After Hours Zero Balance Collection Rate decreased from avg 0.01 to 0.00; 2-BCBS – After Hours Labs per Visit decreased from avg 1.97 to 0.00; 2-BCBS – After Hours Payment per Visit decreased from avg 0.65 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – After Hours Zero Balance Collection Rate decreased from avg 0.01 to 0.00; 2-BCBS – After Hours Payment per Visit decreased from avg 0.65 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -50.00; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – After Hours Zero Balance Collection Rate decreased from avg 0.01 to 0.00; 2-BCBS – After Hours Labs per Visit decreased from avg 1.97 to 0.00; 2-BCBS – After Hours Payment per Visit decreased from avg 0.65 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS – Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.17 to 0.00; 2-BCBS – Self-pay physical &amp; No Charge Payment per Visit decreased from avg 7.67 to 0.00; 2-BCBS – Self-pay physical &amp; No Charge Charge Amount decreased from avg 15.08 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 3.72</t>
-  </si>
-  <si>
-    <t>2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.00; 2-BCBS – Self-pay physical &amp; No Charge Charge Amount decreased from avg 15.08 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 9.26; 2-BCBS – Medications Charge Amount decreased from avg 363.59 to 150.00; 2-BCBS – Medications Visit Count decreased from avg 3.91 to 2.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 4.65; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 179.00; 2-BCBS – Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 3957.00; 2-BCBS – New E/M Codes Charge Amount decreased from avg 8921.72 to 5599.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -62.32; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -71.07; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.36 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -204.90; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -256.10; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -560.87; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -457.10; 2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.36 to -8.56; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -268.05; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -10.22; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00</t>
+    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00; 17-AETNA – Existing E/M Code Charge Amount increased from avg 1291.98 to 2205.00; 17-AETNA – Existing E/M Code Visit Count increased from avg 5.52 to 9.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 11.49 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.56; 17-AETNA – X-Ray CPT Codes NRV Zero Balance decreased from avg 54.42 to 39.91; 17-AETNA – New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.77; 17-AETNA – Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.70</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 76.58 to 997.19; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 2187.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -64.56; 17-AETNA – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg 51.63 to -11.31; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 62.39 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -40.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 9.69 to 0.00; 17-AETNA – X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 11.49 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 31.17</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 2.12; 17-AETNA – Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 2385.00; 17-AETNA – New E/M Codes Charge Amount increased from avg 2631.41 to 3955.00; 17-AETNA – New E/M Codes Visit Count increased from avg 8.71 to 13.00; 17-AETNA – Lab/Test CPT Codes Visit Count increased from avg 7.50 to 11.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Collection Rate increased from avg 0.30 to 0.41</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Payment per Visit increased from avg 50.98 to 141.77; 17-AETNA – X-Ray CPT Codes Charge Amount increased from avg 292.71 to 480.00; 17-AETNA – Lab/Test CPT Codes NRV Zero Balance decreased from avg 86.49 to 56.77; 17-AETNA – Existing E/M Code Charge Amount increased from avg 1291.98 to 1715.00; 17-AETNA – Existing E/M Code Visit Count increased from avg 5.52 to 7.00; 17-AETNA – Medications NRV Zero Balance decreased from avg 19.97 to 14.90</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes NRV Zero Balance decreased from avg 34.92 to 22.38; 17-AETNA – Lab/Test CPT Codes NRV Zero Balance decreased from avg 86.49 to 59.94; 17-AETNA – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 2.00; 17-AETNA – Medications Payment per Visit increased from avg 18.88 to 21.84; 17-AETNA – New E/M Codes Payment per Visit increased from avg 205.14 to 226.96; 17-AETNA – Existing E/M Code Payment per Visit increased from avg 141.04 to 149.41</t>
+  </si>
+  <si>
+    <t>17-AETNA – DME Charge Amount increased from avg 429.55 to 1055.13; 17-AETNA – X-Ray CPT Codes Visit Count increased from avg 2.12 to 4.00; 17-AETNA – X-Ray CPT Codes Charge Amount increased from avg 292.71 to 529.00; 17-AETNA – DME Visit Count increased from avg 1.17 to 2.00; 17-AETNA – Procedures &amp; Surgical CPT Codes NRV Zero Balance decreased from avg 34.92 to 12.82; 17-AETNA – Lab/Test CPT Codes NRV Zero Balance decreased from avg 86.49 to 33.29</t>
+  </si>
+  <si>
+    <t>2-BCBS – Medications Labs per Visit increased from avg 1.33 to 4.50; 2-BCBS – After Hours Collection Rate increased from avg 0.05 to 0.15; 2-BCBS – After Hours Zero Balance Collection Rate increased from avg 0.05 to 0.15; 2-BCBS – After Hours Payment per Visit increased from avg 2.07 to 6.73; 2-BCBS – X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1783.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to -50.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1782.00; 2-BCBS – Self-pay physical &amp; No Charge Zero Balance Collection Rate increased from avg 0.38 to 1.00; 2-BCBS – Self-pay physical &amp; No Charge Collection Rate increased from avg 0.38 to 1.00; 2-BCBS – X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1401.00; 2-BCBS – Medications Labs per Visit increased from avg 1.33 to 2.75; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -118.35; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -130.33; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to -20.62; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – DME Payment per Visit increased from avg 145.60 to 473.50; 2-BCBS – Medications Charge Amount increased from avg 363.59 to 766.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1552.00; 2-BCBS – Medications Visit Count increased from avg 3.91 to 10.00; 2-BCBS – Medications Charge Amount increased from avg 363.59 to 893.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 12.00; 2-BCBS – X-Ray CPT Codes Visit Count increased from avg 5.04 to 11.00; 2-BCBS – X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1414.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.60; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to -2.48; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Medications Visit Count increased from avg 3.91 to 9.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 4.80; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -150.46; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -179.32; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.71; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to -7.93; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to -13.57; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to -355.92; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -82.30; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Vaccines Labs per Visit increased from avg 0.10 to 2.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.50; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.27 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.67; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.27 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to -2.48; 2-BCBS – Medications Charge Amount increased from avg 363.59 to 756.00; 2-BCBS – Medications Visit Count increased from avg 3.91 to 8.00; 2-BCBS – X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1338.00; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.27 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 14.00; 2-BCBS – Medications Visit Count increased from avg 3.91 to 10.00; 2-BCBS – Medications Charge Amount increased from avg 363.59 to 925.00; 2-BCBS – DME Charge Amount increased from avg 616.33 to 1466.85; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 52.00; 2-BCBS – Vaccines Visit Count increased from avg 1.31 to 3.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -107.62; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -37.97; 2-BCBS – X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.67; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 52.00; 2-BCBS – X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 2.00; 2-BCBS – Vaccines Visit Count increased from avg 1.31 to 3.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 52.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Vaccines Labs per Visit increased from avg 0.10 to 1.00; 2-BCBS – Medications Labs per Visit increased from avg 1.33 to 3.20; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – DME Labs per Visit increased from avg 0.05 to 0.50; 2-BCBS – DME Charge Amount increased from avg 616.33 to 1482.97; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -50.00; 2-BCBS – Vaccines Payment per Visit increased from avg 69.62 to 345.09; 2-BCBS – Vaccines Zero Balance Collection Rate increased from avg 0.64 to 1.64; 2-BCBS – Vaccines Collection Rate increased from avg 0.64 to 1.64; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.80; 2-BCBS – X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.56; 2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance decreased from avg 45.56 to 3.72; 2-BCBS – X-Ray CPT Codes Visit Count increased from avg 5.04 to 9.00; 2-BCBS – X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1038.00; 2-BCBS – DME Charge Amount increased from avg 616.33 to 965.66</t>
+  </si>
+  <si>
+    <t>2-BCBS – Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.17 to 2.00; 2-BCBS – DME Charge Amount increased from avg 616.33 to 1680.52; 2-BCBS – Medications Labs per Visit increased from avg 1.33 to 3.00; 2-BCBS – DME Visit Count increased from avg 1.61 to 3.00; 2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance decreased from avg 45.56 to 11.57; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.60</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.75; 2-BCBS – Vaccines Visit Count increased from avg 1.31 to 3.00; 2-BCBS – Vaccines Charge Amount increased from avg 137.31 to 275.05; 2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance decreased from avg 45.56 to 4.65; 2-BCBS – X-Ray CPT Codes Visit Count increased from avg 5.04 to 9.00; 2-BCBS – X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1150.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -62.32; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -71.07; 2-BCBS – X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 2.33; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.36 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -204.90; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -256.10; 2-BCBS – X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1508.00; 2-BCBS – X-Ray CPT Codes Visit Count increased from avg 5.04 to 11.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -560.87; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -457.10; 2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.36 to -8.56; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -268.05; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 231.76; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -10.22</t>
   </si>
   <si>
     <t>2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg -4.05 to -290.82; 2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.36 to -9.77; 2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -83.00; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -170.34; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -177.00; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -232.60</t>
   </si>
   <si>
-    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -87.98; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to 0.00; 2-BCBS – Medications Labs per Visit decreased from avg 1.33 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -90.00; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -72.37; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – Vaccines Labs per Visit decreased from avg 0.10 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -201.15; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -329.34; 2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -22.08; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to -1.65; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.36 to -50.99; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to -40.25; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -372.10; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -305.12; 2-BCBS – After Hours Zero-Balance Collection Dollar Impact decreased from avg 0.08 to 0.00; 2-BCBS – After Hours Zero Balance Collection Rate decreased from avg 0.01 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -222.92; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -306.29; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to 0.00; 2-BCBS – Medications Zero Balance Collection Rate decreased from avg 0.16 to 0.00; 2-BCBS – Medications Payment per Visit decreased from avg 15.88 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.36 to -19.11; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 220.00; 2-BCBS – X-Ray CPT Codes Visit Count decreased from avg 5.04 to 2.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -195.15; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -252.85; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to 0.00; 2-BCBS – Medications Zero Balance Collection Rate decreased from avg 0.16 to 0.00; 2-BCBS – Medications Labs per Visit decreased from avg 1.33 to 0.00</t>
+    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -87.98; 2-BCBS – X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 3.50; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 118.42; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -90.00; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -72.37; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -201.15; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -329.34; 2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -22.08; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to -1.65; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.36 to -50.99; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to -40.25; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -372.10; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -305.12; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 316.71; 2-BCBS – DME Charge Amount increased from avg 616.33 to 1507.97</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -222.92; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -306.29; 2-BCBS – Medications Labs per Visit increased from avg 1.33 to 3.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.36 to -19.11; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 86.31; 2-BCBS – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.59; 2-BCBS – Procedures &amp; Surgical CPT Codes Collection Rate increased from avg 0.31 to 0.56</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -195.15; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -252.85; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1493.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Vaccines NRV Zero Balance decreased from avg 69.01 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00</t>
   </si>
   <si>
     <t>2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.36 to -22.39; 2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -195.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to -29.00; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -150.97; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -183.77; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00</t>
   </si>
   <si>
-    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -297.48; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -256.81; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Zero Balance Collection Rate decreased from avg 0.31 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – DME Payment per Visit decreased from avg 126.81 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -13.16; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -164.83; 2-BCBS – Vaccines Charge Billed Balance decreased from avg -0.69 to -20.00; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -167.31; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -80.61; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -65.54; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -757.42; 2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -129.48; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -776.79; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -152.16; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to -2.04; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -147.63; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -314.63; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to -17.33; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -153.13; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -269.24; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -68.29; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -74.02; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -47.06; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -148.28; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -85.52; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Labs per Visit decreased from avg 1.33 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 10.54</t>
-  </si>
-  <si>
-    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -86.67; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.09 to -2.09; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Zero Balance Collection Rate decreased from avg 0.31 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – DME Payment per Visit decreased from avg 126.81 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg -4.05 to -235.56; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -94.32; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.25</t>
-  </si>
-  <si>
-    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00; 2-BCBS – Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.17 to 0.00; 2-BCBS – Self-pay physical &amp; No Charge Charge Amount decreased from avg 15.08 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 1624.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 12.25; 2-BCBS – X-Ray CPT Codes Visit Count decreased from avg 5.04 to 2.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS – X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 75.00; 2-BCBS – X-Ray CPT Codes Visit Count decreased from avg 5.04 to 1.00; 2-BCBS – Medications Labs per Visit decreased from avg 1.33 to 0.50; 2-BCBS – Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 3010.00</t>
-  </si>
-  <si>
-    <t>2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – DME Payment per Visit decreased from avg 126.81 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00; 2-BCBS – Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS – X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 104.00</t>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -297.48; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -256.81; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS – X-Ray CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 0.36 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -13.16; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS – Medications Payment per Visit increased from avg 16.62 to 32.67; 2-BCBS – Medications Charge Amount increased from avg 363.59 to 580.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -164.83; 2-BCBS – Vaccines Charge Billed Balance decreased from avg -0.69 to -20.00; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -167.31; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -80.61; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -65.54; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -757.42; 2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -129.48; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -776.79; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -152.16; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 155.60; 2-BCBS – Lab/Test CPT Codes Zero-Balance Collection Dollar Impact decreased from avg 23.63 to -2.04</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -147.63; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -314.63; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to -17.33; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -153.13; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -269.24; 2-BCBS – Procedures &amp; Surgical CPT Codes Collection Rate increased from avg 0.31 to 0.66</t>
+  </si>
+  <si>
+    <t>2-BCBS – DME Labs per Visit increased from avg 0.05 to 1.00; 2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -68.29; 2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -74.02; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -47.06; 2-BCBS – DME Zero Balance Collection Rate increased from avg 0.36 to 1.00; 2-BCBS – DME Collection Rate increased from avg 0.37 to 1.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -148.28; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -85.52; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 10.54; 2-BCBS – Medications Payment per Visit increased from avg 16.62 to 26.58</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Zero-Balance Collection Dollar Impact decreased from avg -11.19 to -86.67; 2-BCBS – Medications Zero-Balance Collection Dollar Impact decreased from avg 2.30 to -2.09; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance decreased from avg 45.56 to 16.79; 2-BCBS – Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.33</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Zero-Balance Collection Dollar Impact decreased from avg -4.05 to -235.56; 2-BCBS – Existing E/M Code Zero-Balance Collection Dollar Impact decreased from avg -16.11 to -94.32; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 110.22; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 929.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Self-pay physical &amp; No Charge Payment per Visit increased from avg 18.42 to 35.00; 2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance decreased from avg 45.56 to 18.37; 2-BCBS – Lab/Test CPT Codes NRV Zero Balance decreased from avg 42.48 to 29.62; 2-BCBS – X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 55.13; 2-BCBS – Existing E/M Code NRV Zero Balance decreased from avg 141.16 to 129.00; 2-BCBS – X-Ray CPT Codes NRV Zero Balance decreased from avg 49.50 to 45.92</t>
+  </si>
+  <si>
+    <t>2-BCBS – Medications Payment per Visit increased from avg 16.62 to 33.77; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 69.12; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 793.00; 2-BCBS – X-Ray CPT Codes NRV Zero Balance decreased from avg 49.50 to 33.96; 2-BCBS – Lab/Test CPT Codes NRV Zero Balance decreased from avg 42.48 to 29.32; 2-BCBS – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 6.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance decreased from avg 45.56 to 22.38; 2-BCBS – X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 57.81; 2-BCBS – Medications Payment per Visit increased from avg 16.62 to 18.27; 2-BCBS – Vaccines Payment per Visit increased from avg 69.62 to 75.59; 2-BCBS – Lab/Test CPT Codes NRV Zero Balance decreased from avg 42.48 to 39.54; 2-BCBS – Existing E/M Code NRV Zero Balance decreased from avg 141.16 to 133.45</t>
   </si>
 </sst>
 </file>
@@ -1004,13 +1058,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
@@ -1118,7 +1172,7 @@
         <v>516</v>
       </c>
       <c r="D2">
-        <v>1.253202724113714</v>
+        <v>3.82556621045239</v>
       </c>
       <c r="E2">
         <v>104157.77</v>
@@ -1127,34 +1181,34 @@
         <v>28.068965517241381</v>
       </c>
       <c r="G2">
-        <v>10.380272712947029</v>
+        <v>10.56238276054259</v>
       </c>
       <c r="H2">
-        <v>74.128161888585552</v>
+        <v>75.428655956806338</v>
       </c>
       <c r="I2">
-        <v>74.846835094815503</v>
+        <v>76.159937464899969</v>
       </c>
       <c r="J2">
-        <v>0.43554057061271179</v>
+        <v>0.44318163325504012</v>
       </c>
       <c r="K2">
-        <v>0.43219024906774861</v>
+        <v>0.43977253413911249</v>
       </c>
       <c r="L2">
-        <v>1.7064900923255379</v>
+        <v>1.7064900923255391</v>
       </c>
       <c r="M2">
         <v>47000.03</v>
       </c>
       <c r="N2">
-        <v>46556.644687299733</v>
+        <v>46527.012242774057</v>
       </c>
       <c r="O2">
-        <v>443.38531270026579</v>
+        <v>473.01775722593447</v>
       </c>
       <c r="P2">
-        <v>0.95235667363549847</v>
+        <v>1.016651906977752</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
@@ -1169,7 +1223,7 @@
         <v>126</v>
       </c>
       <c r="U2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1192,28 +1246,28 @@
         <v>405</v>
       </c>
       <c r="D3">
-        <v>1.2298199659108879</v>
+        <v>3.8124418943237521</v>
       </c>
       <c r="E3">
-        <v>74188.039999999994</v>
+        <v>74188.040000000008</v>
       </c>
       <c r="F3">
         <v>1.0717741935483871</v>
       </c>
       <c r="G3">
-        <v>1.3986195842805811</v>
+        <v>1.445240237089934</v>
       </c>
       <c r="H3">
-        <v>60.855900084682347</v>
+        <v>62.884430087505081</v>
       </c>
       <c r="I3">
-        <v>60.975322767734063</v>
+        <v>63.007833526658523</v>
       </c>
       <c r="J3">
-        <v>0.3910519848391012</v>
+        <v>0.4040870510004046</v>
       </c>
       <c r="K3">
-        <v>0.39040717986268331</v>
+        <v>0.40342075252477277</v>
       </c>
       <c r="L3">
         <v>2.0372369923982832</v>
@@ -1222,13 +1276,13 @@
         <v>31610.29</v>
       </c>
       <c r="N3">
-        <v>31952.259489398039</v>
+        <v>31649.551966696061</v>
       </c>
       <c r="O3">
-        <v>341.96948939804503</v>
+        <v>39.261966696059972</v>
       </c>
       <c r="P3">
-        <v>-1.070251352682938</v>
+        <v>-0.1240522037638139</v>
       </c>
       <c r="Q3" t="s">
         <v>23</v>
@@ -1240,10 +1294,10 @@
         <v>77</v>
       </c>
       <c r="T3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1266,7 +1320,7 @@
         <v>365</v>
       </c>
       <c r="D4">
-        <v>1.2859633774052781</v>
+        <v>3.793591963345571</v>
       </c>
       <c r="E4">
         <v>69928.02</v>
@@ -1275,37 +1329,37 @@
         <v>-1.581864406779661</v>
       </c>
       <c r="G4">
-        <v>-2.731451537033657</v>
+        <v>-2.8777792979461752</v>
       </c>
       <c r="H4">
-        <v>62.284351393328507</v>
+        <v>65.621013075113979</v>
       </c>
       <c r="I4">
-        <v>62.275780491918617</v>
+        <v>65.611983018271417</v>
       </c>
       <c r="J4">
-        <v>0.37714646618905717</v>
+        <v>0.39735074116347102</v>
       </c>
       <c r="K4">
-        <v>0.37805783430400219</v>
+        <v>0.39831093257028799</v>
       </c>
       <c r="L4">
-        <v>2.010170209492244</v>
+        <v>2.0101702094922431</v>
       </c>
       <c r="M4">
-        <v>29340.77</v>
+        <v>29340.76999999999</v>
       </c>
       <c r="N4">
-        <v>30155.365174374721</v>
+        <v>30025.184761716431</v>
       </c>
       <c r="O4">
-        <v>814.59517437472095</v>
+        <v>684.41476171643808</v>
       </c>
       <c r="P4">
-        <v>-2.701327507275368</v>
+        <v>-2.279468942982493</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R4" t="s">
         <v>28</v>
@@ -1314,19 +1368,19 @@
         <v>78</v>
       </c>
       <c r="T4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1340,7 +1394,7 @@
         <v>484</v>
       </c>
       <c r="D5">
-        <v>1.15900644973155</v>
+        <v>3.7088206391409599</v>
       </c>
       <c r="E5">
         <v>86214.87</v>
@@ -1349,19 +1403,19 @@
         <v>-2.34375</v>
       </c>
       <c r="G5">
-        <v>-2.2665139462432822</v>
+        <v>-2.4176148759928342</v>
       </c>
       <c r="H5">
-        <v>73.230221894345817</v>
+        <v>78.1122366873022</v>
       </c>
       <c r="I5">
-        <v>73.038728658415081</v>
+        <v>77.907977235642747</v>
       </c>
       <c r="J5">
-        <v>0.40710054272929108</v>
+        <v>0.43424057891124379</v>
       </c>
       <c r="K5">
-        <v>0.40797139153978151</v>
+        <v>0.4351694843091003</v>
       </c>
       <c r="L5">
         <v>1.9650903784599929</v>
@@ -1370,13 +1424,13 @@
         <v>37248.69</v>
       </c>
       <c r="N5">
-        <v>38218.384590934147</v>
+        <v>38457.874123281319</v>
       </c>
       <c r="O5">
-        <v>969.69459093415207</v>
+        <v>1209.1841232813169</v>
       </c>
       <c r="P5">
-        <v>-2.537246409844792</v>
+        <v>-3.1441782751826901</v>
       </c>
       <c r="Q5" t="s">
         <v>22</v>
@@ -1391,7 +1445,7 @@
         <v>126</v>
       </c>
       <c r="U5" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1414,10 +1468,10 @@
         <v>449</v>
       </c>
       <c r="D6">
-        <v>1.139301896373244</v>
+        <v>3.7343784381123002</v>
       </c>
       <c r="E6">
-        <v>80847.569999999992</v>
+        <v>80847.570000000007</v>
       </c>
       <c r="F6">
         <v>3.3728813559322028</v>
@@ -1426,16 +1480,16 @@
         <v>3.4235838205977678</v>
       </c>
       <c r="H6">
-        <v>75.241478926577713</v>
+        <v>75.241478926577699</v>
       </c>
       <c r="I6">
-        <v>75.73258644194371</v>
+        <v>75.732586441943695</v>
       </c>
       <c r="J6">
         <v>0.41799365526023818</v>
       </c>
       <c r="K6">
-        <v>0.41599673970426382</v>
+        <v>0.41599673970426371</v>
       </c>
       <c r="L6">
         <v>2.105482066881033</v>
@@ -1444,13 +1498,13 @@
         <v>35962.17</v>
       </c>
       <c r="N6">
-        <v>35937.765052657021</v>
+        <v>35543.509047541433</v>
       </c>
       <c r="O6">
-        <v>24.404947342976811</v>
+        <v>418.66095245856559</v>
       </c>
       <c r="P6">
-        <v>6.7908917839542893E-2</v>
+        <v>1.177883005019519</v>
       </c>
       <c r="Q6" t="s">
         <v>23</v>
@@ -1462,10 +1516,10 @@
         <v>80</v>
       </c>
       <c r="T6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U6" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1488,43 +1542,43 @@
         <v>458</v>
       </c>
       <c r="D7">
-        <v>1.081621252742208</v>
+        <v>3.5693501340492859</v>
       </c>
       <c r="E7">
-        <v>80800.289999999994</v>
+        <v>80800.290000000008</v>
       </c>
       <c r="F7">
         <v>-6.122727272727273</v>
       </c>
       <c r="G7">
-        <v>-8.8161484447929723</v>
+        <v>-9.8621321585819715</v>
       </c>
       <c r="H7">
-        <v>58.287775045025988</v>
+        <v>65.2032737791816</v>
       </c>
       <c r="I7">
-        <v>56.308621004621948</v>
+        <v>62.989304852627932</v>
       </c>
       <c r="J7">
-        <v>0.37505150148533772</v>
+        <v>0.41954913725478438</v>
       </c>
       <c r="K7">
-        <v>0.38475762478133002</v>
+        <v>0.43040683450114869</v>
       </c>
       <c r="L7">
-        <v>1.758785969985432</v>
+        <v>1.7587859699854309</v>
       </c>
       <c r="M7">
-        <v>35947.040000000001</v>
+        <v>35947.040000000008</v>
       </c>
       <c r="N7">
-        <v>34540.057642502958</v>
+        <v>35058.865794566373</v>
       </c>
       <c r="O7">
-        <v>1406.982357497043</v>
+        <v>888.17420543363551</v>
       </c>
       <c r="P7">
-        <v>4.073480050495613</v>
+        <v>2.533379746618301</v>
       </c>
       <c r="Q7" t="s">
         <v>21</v>
@@ -1536,10 +1590,10 @@
         <v>81</v>
       </c>
       <c r="T7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="U7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1562,7 +1616,7 @@
         <v>433</v>
       </c>
       <c r="D8">
-        <v>1.1615245150653219</v>
+        <v>3.667972152837859</v>
       </c>
       <c r="E8">
         <v>80246.880000000005</v>
@@ -1571,19 +1625,19 @@
         <v>-0.93199999999999994</v>
       </c>
       <c r="G8">
-        <v>0.9267667444415032</v>
+        <v>0.97554394151737178</v>
       </c>
       <c r="H8">
-        <v>70.534963987566016</v>
+        <v>74.247330513227382</v>
       </c>
       <c r="I8">
-        <v>70.511629723753785</v>
+        <v>74.222768130267156</v>
       </c>
       <c r="J8">
-        <v>0.40884719062614611</v>
+        <v>0.43036546381699592</v>
       </c>
       <c r="K8">
-        <v>0.40872056796538969</v>
+        <v>0.43023217680567333</v>
       </c>
       <c r="L8">
         <v>1.7829461936215529</v>
@@ -1592,13 +1646,13 @@
         <v>35708.6</v>
       </c>
       <c r="N8">
-        <v>35653.184344629582</v>
+        <v>35775.293697167079</v>
       </c>
       <c r="O8">
-        <v>55.415655370416061</v>
+        <v>66.693697167080245</v>
       </c>
       <c r="P8">
-        <v>0.1554297502146208</v>
+        <v>-0.18642389837979581</v>
       </c>
       <c r="Q8" t="s">
         <v>23</v>
@@ -1610,10 +1664,10 @@
         <v>82</v>
       </c>
       <c r="T8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="U8" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1636,43 +1690,43 @@
         <v>482</v>
       </c>
       <c r="D9">
-        <v>1.1361799973619859</v>
+        <v>3.6925849914264561</v>
       </c>
       <c r="E9">
-        <v>85608.46</v>
+        <v>85608.459999999992</v>
       </c>
       <c r="F9">
         <v>8.1075384615384625</v>
       </c>
       <c r="G9">
-        <v>6.2027120346512428</v>
+        <v>6.7196047042055129</v>
       </c>
       <c r="H9">
-        <v>64.268090330463721</v>
+        <v>68.482391335740033</v>
       </c>
       <c r="I9">
-        <v>67.252731356104746</v>
+        <v>72.85712563578015</v>
       </c>
       <c r="J9">
-        <v>0.39304507048026849</v>
+        <v>0.42579882635362432</v>
       </c>
       <c r="K9">
-        <v>0.38385653796249608</v>
+        <v>0.40902745848462702</v>
       </c>
       <c r="L9">
         <v>2.063387612369934</v>
       </c>
       <c r="M9">
-        <v>36306.25</v>
+        <v>36306.250000000007</v>
       </c>
       <c r="N9">
-        <v>37017.191384552643</v>
+        <v>37210.529267743063</v>
       </c>
       <c r="O9">
-        <v>710.94138455263601</v>
+        <v>904.27926774305524</v>
       </c>
       <c r="P9">
-        <v>-1.9205708427930961</v>
+        <v>-2.4301703994491519</v>
       </c>
       <c r="Q9" t="s">
         <v>23</v>
@@ -1684,10 +1738,10 @@
         <v>83</v>
       </c>
       <c r="T9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="U9" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1710,28 +1764,28 @@
         <v>381</v>
       </c>
       <c r="D10">
-        <v>1.204956056291437</v>
+        <v>3.681810172001613</v>
       </c>
       <c r="E10">
-        <v>66856.55</v>
+        <v>66856.549999999988</v>
       </c>
       <c r="F10">
         <v>-1.857454545454545</v>
       </c>
       <c r="G10">
-        <v>-1.4609900577216131</v>
+        <v>-1.639886799483443</v>
       </c>
       <c r="H10">
-        <v>61.330828851926441</v>
+        <v>67.463911737119091</v>
       </c>
       <c r="I10">
-        <v>61.162184407482002</v>
+        <v>67.278402848230201</v>
       </c>
       <c r="J10">
-        <v>0.37509439988830962</v>
+        <v>0.42102432640524529</v>
       </c>
       <c r="K10">
-        <v>0.37616902179437611</v>
+        <v>0.42223053466715682</v>
       </c>
       <c r="L10">
         <v>1.8241555858179901</v>
@@ -1740,13 +1794,13 @@
         <v>29620.74</v>
       </c>
       <c r="N10">
-        <v>28970.076607561179</v>
+        <v>29196.135995283141</v>
       </c>
       <c r="O10">
-        <v>650.66339243882612</v>
+        <v>424.6040047168608</v>
       </c>
       <c r="P10">
-        <v>2.2459843695028519</v>
+        <v>1.454315751870243</v>
       </c>
       <c r="Q10" t="s">
         <v>23</v>
@@ -1758,10 +1812,10 @@
         <v>84</v>
       </c>
       <c r="T10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="U10" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1784,7 +1838,7 @@
         <v>318</v>
       </c>
       <c r="D11">
-        <v>1.144050105235729</v>
+        <v>3.6228253332464759</v>
       </c>
       <c r="E11">
         <v>55533.57</v>
@@ -1793,19 +1847,19 @@
         <v>4.7738596491228069</v>
       </c>
       <c r="G11">
-        <v>-0.12741990692780261</v>
+        <v>-0.1424104842134262</v>
       </c>
       <c r="H11">
-        <v>59.154214432617763</v>
+        <v>66.113533777631616</v>
       </c>
       <c r="I11">
-        <v>59.332440455058872</v>
+        <v>66.312727567418747</v>
       </c>
       <c r="J11">
-        <v>0.39626663368211512</v>
+        <v>0.4428862376447168</v>
       </c>
       <c r="K11">
-        <v>0.39558006271018431</v>
+        <v>0.44211889361726481</v>
       </c>
       <c r="L11">
         <v>1.817865433530254</v>
@@ -1814,13 +1868,13 @@
         <v>24459.74</v>
       </c>
       <c r="N11">
-        <v>23972.559960628801</v>
+        <v>24545.232877674989</v>
       </c>
       <c r="O11">
-        <v>487.18003937120011</v>
+        <v>85.49287767498754</v>
       </c>
       <c r="P11">
-        <v>2.032240362194599</v>
+        <v>-0.34830746198683338</v>
       </c>
       <c r="Q11" t="s">
         <v>23</v>
@@ -1832,10 +1886,10 @@
         <v>85</v>
       </c>
       <c r="T11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="U11" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1858,28 +1912,28 @@
         <v>333</v>
       </c>
       <c r="D12">
-        <v>0.99279076969045799</v>
+        <v>3.7229653863392169</v>
       </c>
       <c r="E12">
-        <v>61681.71</v>
+        <v>61681.710000000006</v>
       </c>
       <c r="F12">
         <v>24.263333333333328</v>
       </c>
       <c r="G12">
-        <v>2.9184704594486441</v>
+        <v>3.4334946581748751</v>
       </c>
       <c r="H12">
-        <v>58.571108450868117</v>
+        <v>68.907186412786032</v>
       </c>
       <c r="I12">
-        <v>59.709998376623368</v>
+        <v>70.247056913674555</v>
       </c>
       <c r="J12">
-        <v>0.38947725700267027</v>
+        <v>0.45820853765020031</v>
       </c>
       <c r="K12">
-        <v>0.36968452087901149</v>
+        <v>0.43492296574001349</v>
       </c>
       <c r="L12">
         <v>1.3034723191981259</v>
@@ -1888,13 +1942,13 @@
         <v>27164.76</v>
       </c>
       <c r="N12">
-        <v>26793.35338295978</v>
+        <v>27736.95384146737</v>
       </c>
       <c r="O12">
-        <v>371.40661704021841</v>
+        <v>572.19384146737502</v>
       </c>
       <c r="P12">
-        <v>1.386189372161337</v>
+        <v>-2.0629296379760791</v>
       </c>
       <c r="Q12" t="s">
         <v>23</v>
@@ -1906,10 +1960,10 @@
         <v>86</v>
       </c>
       <c r="T12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="U12" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1932,7 +1986,7 @@
         <v>396</v>
       </c>
       <c r="D13">
-        <v>1.1337402610096361</v>
+        <v>3.75924402334774</v>
       </c>
       <c r="E13">
         <v>68290.27</v>
@@ -1944,16 +1998,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>56.963165118095837</v>
+        <v>58.830809876066184</v>
       </c>
       <c r="I13">
-        <v>56.963165118095837</v>
+        <v>58.830809876066184</v>
       </c>
       <c r="J13">
-        <v>0.37231401242102452</v>
+        <v>0.39092971304207569</v>
       </c>
       <c r="K13">
-        <v>0.37231401242102452</v>
+        <v>0.39092971304207569</v>
       </c>
       <c r="L13">
         <v>1.700802207390782</v>
@@ -1962,13 +2016,13 @@
         <v>27476.09</v>
       </c>
       <c r="N13">
-        <v>29287.266268868789</v>
+        <v>28698.70182474234</v>
       </c>
       <c r="O13">
-        <v>1811.176268868792</v>
+        <v>1222.611824742344</v>
       </c>
       <c r="P13">
-        <v>-6.184176605086563</v>
+        <v>-4.2601642130316826</v>
       </c>
       <c r="Q13" t="s">
         <v>22</v>
@@ -1980,10 +2034,10 @@
         <v>87</v>
       </c>
       <c r="T13" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="U13" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2006,7 +2060,7 @@
         <v>272</v>
       </c>
       <c r="D14">
-        <v>1.1988269996426839</v>
+        <v>3.6595771568039819</v>
       </c>
       <c r="E14">
         <v>44036.04</v>
@@ -2015,19 +2069,19 @@
         <v>-1.042068965517241</v>
       </c>
       <c r="G14">
-        <v>-1.831465517241379</v>
+        <v>-2.0427884615384611</v>
       </c>
       <c r="H14">
-        <v>62.509995294934953</v>
+        <v>67.140365316781995</v>
       </c>
       <c r="I14">
-        <v>62.143702191486668</v>
+        <v>66.74693939085607</v>
       </c>
       <c r="J14">
-        <v>0.38067347744513969</v>
+        <v>0.42459734022727119</v>
       </c>
       <c r="K14">
-        <v>0.38216855133676531</v>
+        <v>0.42626492264485361</v>
       </c>
       <c r="L14">
         <v>1.5194035849208261</v>
@@ -2036,13 +2090,13 @@
         <v>20575.77</v>
       </c>
       <c r="N14">
-        <v>19715.428977304819</v>
+        <v>19528.593183724559</v>
       </c>
       <c r="O14">
-        <v>860.34102269517825</v>
+        <v>1047.176816275442</v>
       </c>
       <c r="P14">
-        <v>4.3637956023455002</v>
+        <v>5.3622747241628002</v>
       </c>
       <c r="Q14" t="s">
         <v>21</v>
@@ -2054,10 +2108,10 @@
         <v>88</v>
       </c>
       <c r="T14" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="U14" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -2080,7 +2134,7 @@
         <v>352</v>
       </c>
       <c r="D15">
-        <v>1.086238134629872</v>
+        <v>3.7160778289969292</v>
       </c>
       <c r="E15">
         <v>65324.84</v>
@@ -2089,19 +2143,19 @@
         <v>20.452000000000002</v>
       </c>
       <c r="G15">
-        <v>15.4439160123069</v>
+        <v>16.456631816392601</v>
       </c>
       <c r="H15">
-        <v>62.361885862143552</v>
+        <v>66.451189853103784</v>
       </c>
       <c r="I15">
-        <v>64.154895198135208</v>
+        <v>68.361773571783417</v>
       </c>
       <c r="J15">
-        <v>0.38511082223696552</v>
+        <v>0.41036399090824188</v>
       </c>
       <c r="K15">
-        <v>0.35547939568990322</v>
+        <v>0.37878951999743782</v>
       </c>
       <c r="L15">
         <v>2.1240479890479889</v>
@@ -2110,13 +2164,13 @@
         <v>26750.36</v>
       </c>
       <c r="N15">
-        <v>27840.963727131952</v>
+        <v>27636.29684884744</v>
       </c>
       <c r="O15">
-        <v>1090.603727131951</v>
+        <v>885.93684884743561</v>
       </c>
       <c r="P15">
-        <v>-3.9172628426979381</v>
+        <v>-3.2057002922386229</v>
       </c>
       <c r="Q15" t="s">
         <v>22</v>
@@ -2128,10 +2182,10 @@
         <v>89</v>
       </c>
       <c r="T15" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="U15" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2154,7 +2208,7 @@
         <v>342</v>
       </c>
       <c r="D16">
-        <v>1.162272358512012</v>
+        <v>3.6703337637221418</v>
       </c>
       <c r="E16">
         <v>62627.59</v>
@@ -2163,19 +2217,19 @@
         <v>21.016999999999999</v>
       </c>
       <c r="G16">
-        <v>18.090776730173939</v>
+        <v>19.3829750680435</v>
       </c>
       <c r="H16">
-        <v>65.706060458058289</v>
+        <v>69.16427416637714</v>
       </c>
       <c r="I16">
-        <v>66.189816147135119</v>
+        <v>70.917660157644761</v>
       </c>
       <c r="J16">
-        <v>0.40046228918097532</v>
+        <v>0.42906673840818782</v>
       </c>
       <c r="K16">
-        <v>0.39381004736879133</v>
+        <v>0.41453689196714871</v>
       </c>
       <c r="L16">
         <v>1.687856337441241</v>
@@ -2184,13 +2238,13 @@
         <v>27416.39</v>
       </c>
       <c r="N16">
-        <v>27844.135748454199</v>
+        <v>27595.47037888004</v>
       </c>
       <c r="O16">
-        <v>427.74574845420278</v>
+        <v>179.08037888004401</v>
       </c>
       <c r="P16">
-        <v>-1.5362148508342539</v>
+        <v>-0.64894845574765658</v>
       </c>
       <c r="Q16" t="s">
         <v>23</v>
@@ -2205,7 +2259,7 @@
         <v>126</v>
       </c>
       <c r="U16" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2228,7 +2282,7 @@
         <v>259</v>
       </c>
       <c r="D17">
-        <v>1.182957255430434</v>
+        <v>3.6145916138152172</v>
       </c>
       <c r="E17">
         <v>47318.98</v>
@@ -2237,19 +2291,19 @@
         <v>1.380727272727273</v>
       </c>
       <c r="G17">
-        <v>2.5459443957386498</v>
+        <v>2.745626309129916</v>
       </c>
       <c r="H17">
-        <v>76.97282452298434</v>
+        <v>81.41356439931036</v>
       </c>
       <c r="I17">
-        <v>77.14790950413223</v>
+        <v>83.19872593582889</v>
       </c>
       <c r="J17">
-        <v>0.42677508341890968</v>
+        <v>0.46024763898117721</v>
       </c>
       <c r="K17">
-        <v>0.42982202630710098</v>
+        <v>0.45461945090174138</v>
       </c>
       <c r="L17">
         <v>1.5674812713082511</v>
@@ -2258,13 +2312,13 @@
         <v>21838.43</v>
       </c>
       <c r="N17">
-        <v>22461.26205708972</v>
+        <v>22781.840765286699</v>
       </c>
       <c r="O17">
-        <v>622.83205708971946</v>
+        <v>943.4107652866951</v>
       </c>
       <c r="P17">
-        <v>-2.772916568564443</v>
+        <v>-4.1410646971257714</v>
       </c>
       <c r="Q17" t="s">
         <v>22</v>
@@ -2276,10 +2330,10 @@
         <v>91</v>
       </c>
       <c r="T17" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U17" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2302,7 +2356,7 @@
         <v>320</v>
       </c>
       <c r="D18">
-        <v>1.1839270815587699</v>
+        <v>3.749102424936106</v>
       </c>
       <c r="E18">
         <v>59745.47</v>
@@ -2311,19 +2365,19 @@
         <v>1.6964912280701749</v>
       </c>
       <c r="G18">
-        <v>4.0986353953204278</v>
+        <v>4.2476766824229886</v>
       </c>
       <c r="H18">
-        <v>66.636289642461549</v>
+        <v>67.826223386076919</v>
       </c>
       <c r="I18">
-        <v>67.158275831111311</v>
+        <v>69.600394952242624</v>
       </c>
       <c r="J18">
-        <v>0.42946444959717672</v>
+        <v>0.44508133867343758</v>
       </c>
       <c r="K18">
-        <v>0.43068969322622958</v>
+        <v>0.43838058060526952</v>
       </c>
       <c r="L18">
         <v>1.8141773996612709</v>
@@ -2332,13 +2386,13 @@
         <v>25951.37</v>
       </c>
       <c r="N18">
-        <v>26707.053324308239</v>
+        <v>26739.63237118892</v>
       </c>
       <c r="O18">
-        <v>755.68332430823648</v>
+        <v>788.26237118892095</v>
       </c>
       <c r="P18">
-        <v>-2.829527148247494</v>
+        <v>-2.947917758354254</v>
       </c>
       <c r="Q18" t="s">
         <v>22</v>
@@ -2350,10 +2404,10 @@
         <v>92</v>
       </c>
       <c r="T18" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="U18" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2376,7 +2430,7 @@
         <v>275</v>
       </c>
       <c r="D19">
-        <v>1.1704715005345001</v>
+        <v>3.696225791161579</v>
       </c>
       <c r="E19">
         <v>52579.07</v>
@@ -2385,19 +2439,19 @@
         <v>-0.83850000000000002</v>
       </c>
       <c r="G19">
-        <v>-0.22568829810416161</v>
+        <v>-0.24180889082588741</v>
       </c>
       <c r="H19">
-        <v>72.53632329059829</v>
+        <v>75.037575817860301</v>
       </c>
       <c r="I19">
-        <v>71.826820512820504</v>
+        <v>76.957307692307694</v>
       </c>
       <c r="J19">
-        <v>0.40421591002322649</v>
+        <v>0.43308847502488562</v>
       </c>
       <c r="K19">
-        <v>0.41542760182525179</v>
+        <v>0.42975269154336398</v>
       </c>
       <c r="L19">
         <v>1.954093452843453</v>
@@ -2406,16 +2460,16 @@
         <v>24325.55</v>
       </c>
       <c r="N19">
-        <v>23582.63640458904</v>
+        <v>23935.172238873591</v>
       </c>
       <c r="O19">
-        <v>742.91359541095517</v>
+        <v>390.37776112641592</v>
       </c>
       <c r="P19">
-        <v>3.1502567510492101</v>
+        <v>1.630979536016856</v>
       </c>
       <c r="Q19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R19" t="s">
         <v>43</v>
@@ -2424,19 +2478,19 @@
         <v>93</v>
       </c>
       <c r="T19" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="U19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2450,7 +2504,7 @@
         <v>313</v>
       </c>
       <c r="D20">
-        <v>1.1909634735829631</v>
+        <v>3.713003770582179</v>
       </c>
       <c r="E20">
         <v>54834.27</v>
@@ -2459,19 +2513,19 @@
         <v>25.965094339622642</v>
       </c>
       <c r="G20">
-        <v>10.553342839782211</v>
+        <v>10.967199421734451</v>
       </c>
       <c r="H20">
-        <v>64.454446960611222</v>
+        <v>66.982072331615583</v>
       </c>
       <c r="I20">
-        <v>65.318366068448753</v>
+        <v>67.87987062015263</v>
       </c>
       <c r="J20">
-        <v>0.39908161985568141</v>
+        <v>0.41473187945786499</v>
       </c>
       <c r="K20">
-        <v>0.38992811943512989</v>
+        <v>0.40521941823650759</v>
       </c>
       <c r="L20">
         <v>1.4569887644110731</v>
@@ -2480,16 +2534,16 @@
         <v>24475.18</v>
       </c>
       <c r="N20">
-        <v>24700.730845011771</v>
+        <v>23859.66039302506</v>
       </c>
       <c r="O20">
-        <v>225.55084501177041</v>
+        <v>615.51960697493632</v>
       </c>
       <c r="P20">
-        <v>-0.91313429722796913</v>
+        <v>2.5797500753819289</v>
       </c>
       <c r="Q20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R20" t="s">
         <v>44</v>
@@ -2498,19 +2552,19 @@
         <v>94</v>
       </c>
       <c r="T20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="U20" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2524,7 +2578,7 @@
         <v>310</v>
       </c>
       <c r="D21">
-        <v>1.1521351222843981</v>
+        <v>3.727495983861286</v>
       </c>
       <c r="E21">
         <v>54324.62</v>
@@ -2533,19 +2587,19 @@
         <v>10.13709090909091</v>
       </c>
       <c r="G21">
-        <v>1.842176099961776</v>
+        <v>2.0263937099579539</v>
       </c>
       <c r="H21">
-        <v>63.713785577694757</v>
+        <v>67.389580899484841</v>
       </c>
       <c r="I21">
-        <v>62.527732513015941</v>
+        <v>68.780505764317525</v>
       </c>
       <c r="J21">
-        <v>0.39365316216850499</v>
+        <v>0.43301847838535562</v>
       </c>
       <c r="K21">
-        <v>0.41088880916204679</v>
+        <v>0.43459393276754948</v>
       </c>
       <c r="L21">
         <v>1.7529160276583931</v>
@@ -2554,16 +2608,16 @@
         <v>24504.18</v>
       </c>
       <c r="N21">
-        <v>23876.782904222251</v>
+        <v>24095.853925189451</v>
       </c>
       <c r="O21">
-        <v>627.3970957777492</v>
+        <v>408.32607481054953</v>
       </c>
       <c r="P21">
-        <v>2.6276450152202182</v>
+        <v>1.694590596698843</v>
       </c>
       <c r="Q21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R21" t="s">
         <v>45</v>
@@ -2572,19 +2626,19 @@
         <v>95</v>
       </c>
       <c r="T21" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="U21" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2598,28 +2652,28 @@
         <v>301</v>
       </c>
       <c r="D22">
-        <v>1.275564913149448</v>
+        <v>3.8266947394483419</v>
       </c>
       <c r="E22">
-        <v>55277.99</v>
+        <v>55277.989999999991</v>
       </c>
       <c r="F22">
         <v>17.07017543859649</v>
       </c>
       <c r="G22">
-        <v>5.2717314094462688</v>
+        <v>6.1324222518048437</v>
       </c>
       <c r="H22">
-        <v>64.686398808087972</v>
+        <v>75.247443511449276</v>
       </c>
       <c r="I22">
-        <v>65.475113897722565</v>
+        <v>76.164928411636453</v>
       </c>
       <c r="J22">
-        <v>0.35380968355378162</v>
+        <v>0.41157452984827658</v>
       </c>
       <c r="K22">
-        <v>0.3495537218135259</v>
+        <v>0.40662371721165258</v>
       </c>
       <c r="L22">
         <v>1.564564126158329</v>
@@ -2628,13 +2682,13 @@
         <v>24780.58</v>
       </c>
       <c r="N22">
-        <v>24466.901109315218</v>
+        <v>24757.876640269529</v>
       </c>
       <c r="O22">
-        <v>313.67889068477598</v>
+        <v>22.70335973046895</v>
       </c>
       <c r="P22">
-        <v>1.282054025899299</v>
+        <v>9.1701562538449508E-2</v>
       </c>
       <c r="Q22" t="s">
         <v>23</v>
@@ -2646,10 +2700,10 @@
         <v>96</v>
       </c>
       <c r="T22" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="U22" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2672,7 +2726,7 @@
         <v>288</v>
       </c>
       <c r="D23">
-        <v>1.1682313575401719</v>
+        <v>3.642133055860536</v>
       </c>
       <c r="E23">
         <v>50183.360000000001</v>
@@ -2681,19 +2735,19 @@
         <v>6.993584905660378</v>
       </c>
       <c r="G23">
-        <v>-1.370561015230094</v>
+        <v>-1.5455262512169139</v>
       </c>
       <c r="H23">
-        <v>70.395292712528573</v>
+        <v>79.38192582476627</v>
       </c>
       <c r="I23">
-        <v>69.30942797349401</v>
+        <v>78.157440055216654</v>
       </c>
       <c r="J23">
-        <v>0.41199924075065852</v>
+        <v>0.46459488850606168</v>
       </c>
       <c r="K23">
-        <v>0.41842843169512589</v>
+        <v>0.47184482723067378</v>
       </c>
       <c r="L23">
         <v>1.5389817729440369</v>
@@ -2702,16 +2756,16 @@
         <v>23883.61</v>
       </c>
       <c r="N23">
-        <v>23064.518047241669</v>
+        <v>23831.875574299749</v>
       </c>
       <c r="O23">
-        <v>819.09195275832826</v>
+        <v>51.734425700247812</v>
       </c>
       <c r="P23">
-        <v>3.5513074718519211</v>
+        <v>0.21708079810570219</v>
       </c>
       <c r="Q23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R23" t="s">
         <v>47</v>
@@ -2723,16 +2777,16 @@
         <v>126</v>
       </c>
       <c r="U23" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2746,7 +2800,7 @@
         <v>302</v>
       </c>
       <c r="D24">
-        <v>1.07826416370989</v>
+        <v>3.7140210083340661</v>
       </c>
       <c r="E24">
         <v>49683.519999999997</v>
@@ -2755,19 +2809,19 @@
         <v>3.9087096774193548</v>
       </c>
       <c r="G24">
-        <v>4.3370817849698566</v>
+        <v>4.7175275555812473</v>
       </c>
       <c r="H24">
-        <v>63.553452056337612</v>
+        <v>65.671900458215546</v>
       </c>
       <c r="I24">
-        <v>61.371347284694423</v>
+        <v>66.754798800895699</v>
       </c>
       <c r="J24">
-        <v>0.40522242115019169</v>
+        <v>0.44076824756687522</v>
       </c>
       <c r="K24">
-        <v>0.41507614249141372</v>
+        <v>0.4289120139077941</v>
       </c>
       <c r="L24">
         <v>1.897552587092435</v>
@@ -2776,13 +2830,13 @@
         <v>23209.87</v>
       </c>
       <c r="N24">
-        <v>21738.611652546719</v>
+        <v>21730.26890132319</v>
       </c>
       <c r="O24">
-        <v>1471.2583474532839</v>
+        <v>1479.601098676816</v>
       </c>
       <c r="P24">
-        <v>6.7679499085256598</v>
+        <v>6.8089405860353667</v>
       </c>
       <c r="Q24" t="s">
         <v>21</v>
@@ -2794,10 +2848,10 @@
         <v>98</v>
       </c>
       <c r="T24" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="U24" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="V24">
         <v>1</v>
@@ -2820,46 +2874,46 @@
         <v>275</v>
       </c>
       <c r="D25">
-        <v>1.2229871772613949</v>
+        <v>3.7409019539760311</v>
       </c>
       <c r="E25">
         <v>47268.62</v>
       </c>
       <c r="F25">
-        <v>0.59692307692307567</v>
+        <v>0.59692307692307511</v>
       </c>
       <c r="G25">
-        <v>13.147978172027759</v>
+        <v>13.95295642745803</v>
       </c>
       <c r="H25">
-        <v>63.133984274272727</v>
+        <v>65.659343645243638</v>
       </c>
       <c r="I25">
-        <v>64.558535585141357</v>
+        <v>67.140877008547008</v>
       </c>
       <c r="J25">
-        <v>0.39419291586758742</v>
+        <v>0.41832717602274572</v>
       </c>
       <c r="K25">
-        <v>0.37887013738784192</v>
+        <v>0.40206626824832198</v>
       </c>
       <c r="L25">
-        <v>1.443130800823109</v>
+        <v>1.4431308008231081</v>
       </c>
       <c r="M25">
         <v>21325.84</v>
       </c>
       <c r="N25">
-        <v>21507.454482786179</v>
+        <v>20766.711134083711</v>
       </c>
       <c r="O25">
-        <v>181.61448278618261</v>
+        <v>559.12886591628921</v>
       </c>
       <c r="P25">
-        <v>-0.84442574518309699</v>
+        <v>2.6924285810409789</v>
       </c>
       <c r="Q25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R25" t="s">
         <v>49</v>
@@ -2868,19 +2922,19 @@
         <v>99</v>
       </c>
       <c r="T25" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="U25" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2894,7 +2948,7 @@
         <v>299</v>
       </c>
       <c r="D26">
-        <v>1.1703227388668931</v>
+        <v>3.7573519510989741</v>
       </c>
       <c r="E26">
         <v>47751.199999999997</v>
@@ -2903,34 +2957,34 @@
         <v>11.8072131147541</v>
       </c>
       <c r="G26">
-        <v>12.93610144784177</v>
+        <v>13.374613361327929</v>
       </c>
       <c r="H26">
-        <v>72.162809424445754</v>
+        <v>74.609006354087981</v>
       </c>
       <c r="I26">
-        <v>71.002147886721659</v>
+        <v>73.409000357457984</v>
       </c>
       <c r="J26">
-        <v>0.43604511160892712</v>
+        <v>0.45082630183295858</v>
       </c>
       <c r="K26">
-        <v>0.42896740542880191</v>
+        <v>0.44350867340943922</v>
       </c>
       <c r="L26">
-        <v>1.7118116290765131</v>
+        <v>1.711811629076512</v>
       </c>
       <c r="M26">
         <v>22153.67</v>
       </c>
       <c r="N26">
-        <v>22350.667312942121</v>
+        <v>21734.916627067931</v>
       </c>
       <c r="O26">
-        <v>196.99731294211961</v>
+        <v>418.75337293207491</v>
       </c>
       <c r="P26">
-        <v>-0.88139342858926017</v>
+        <v>1.926638965849879</v>
       </c>
       <c r="Q26" t="s">
         <v>23</v>
@@ -2942,10 +2996,10 @@
         <v>100</v>
       </c>
       <c r="T26" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="U26" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2968,28 +3022,28 @@
         <v>230</v>
       </c>
       <c r="D27">
-        <v>1.4910826560894459</v>
+        <v>3.8933824909002208</v>
       </c>
       <c r="E27">
         <v>48561.61</v>
       </c>
       <c r="F27">
-        <v>63.726382978723407</v>
+        <v>63.7263829787234</v>
       </c>
       <c r="G27">
-        <v>20.202819184631998</v>
+        <v>22.082151201807068</v>
       </c>
       <c r="H27">
-        <v>82.630307899534429</v>
+        <v>86.302766028402615</v>
       </c>
       <c r="I27">
-        <v>79.093718829043297</v>
+        <v>86.451274068954291</v>
       </c>
       <c r="J27">
-        <v>0.43159956620585838</v>
+        <v>0.47174836306221729</v>
       </c>
       <c r="K27">
-        <v>0.44028085115136062</v>
+        <v>0.45984888898031001</v>
       </c>
       <c r="L27">
         <v>1.875067866915693</v>
@@ -2998,13 +3052,13 @@
         <v>21848.21</v>
       </c>
       <c r="N27">
-        <v>23475.571997481911</v>
+        <v>23177.022480609368</v>
       </c>
       <c r="O27">
-        <v>1627.361997481908</v>
+        <v>1328.812480609366</v>
       </c>
       <c r="P27">
-        <v>-6.9321505676473674</v>
+        <v>-5.7333183402703787</v>
       </c>
       <c r="Q27" t="s">
         <v>22</v>
@@ -3016,10 +3070,10 @@
         <v>101</v>
       </c>
       <c r="T27" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="U27" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3042,7 +3096,7 @@
         <v>400</v>
       </c>
       <c r="D28">
-        <v>1.2703455129227821</v>
+        <v>3.881611289486278</v>
       </c>
       <c r="E28">
         <v>87649.02</v>
@@ -3051,16 +3105,16 @@
         <v>43.781999999999996</v>
       </c>
       <c r="G28">
-        <v>30.816942789128639</v>
+        <v>33.898637068041502</v>
       </c>
       <c r="H28">
-        <v>78.831537716120224</v>
+        <v>78.831537716120252</v>
       </c>
       <c r="I28">
-        <v>76.047174390760745</v>
+        <v>83.651891829836828</v>
       </c>
       <c r="J28">
-        <v>0.38224566220163841</v>
+        <v>0.42047022842180232</v>
       </c>
       <c r="K28">
         <v>0.40293408730727981</v>
@@ -3072,13 +3126,13 @@
         <v>38653.370000000003</v>
       </c>
       <c r="N28">
-        <v>39264.45658881795</v>
+        <v>39333.798454200158</v>
       </c>
       <c r="O28">
-        <v>611.0865888179469</v>
+        <v>680.4284542001551</v>
       </c>
       <c r="P28">
-        <v>-1.5563352759910021</v>
+        <v>-1.7298823936173831</v>
       </c>
       <c r="Q28" t="s">
         <v>23</v>
@@ -3090,10 +3144,10 @@
         <v>102</v>
       </c>
       <c r="T28" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="U28" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3116,28 +3170,28 @@
         <v>373</v>
       </c>
       <c r="D29">
-        <v>1.4758199891283841</v>
+        <v>3.9614115497656619</v>
       </c>
       <c r="E29">
-        <v>80813.460000000006</v>
+        <v>80813.459999999992</v>
       </c>
       <c r="F29">
         <v>81.304901960784321</v>
       </c>
       <c r="G29">
-        <v>15.302489285715129</v>
+        <v>17.736976217533439</v>
       </c>
       <c r="H29">
-        <v>77.179067508678926</v>
+        <v>83.747498786013296</v>
       </c>
       <c r="I29">
-        <v>78.43631950069026</v>
+        <v>90.914824875800079</v>
       </c>
       <c r="J29">
-        <v>0.44736356747456879</v>
+        <v>0.51853504411825024</v>
       </c>
       <c r="K29">
-        <v>0.43932485587444892</v>
+        <v>0.47671420531057218</v>
       </c>
       <c r="L29">
         <v>1.4220969821832989</v>
@@ -3146,13 +3200,13 @@
         <v>37610.19</v>
       </c>
       <c r="N29">
-        <v>37435.333620335368</v>
+        <v>38066.032535421102</v>
       </c>
       <c r="O29">
-        <v>174.85637966463401</v>
+        <v>455.84253542110667</v>
       </c>
       <c r="P29">
-        <v>0.46708914481170732</v>
+        <v>-1.197504717616519</v>
       </c>
       <c r="Q29" t="s">
         <v>23</v>
@@ -3164,10 +3218,10 @@
         <v>103</v>
       </c>
       <c r="T29" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="U29" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3190,7 +3244,7 @@
         <v>454</v>
       </c>
       <c r="D30">
-        <v>1.501809316409815</v>
+        <v>3.952129780025829</v>
       </c>
       <c r="E30">
         <v>95882.49</v>
@@ -3199,37 +3253,37 @@
         <v>111.6844</v>
       </c>
       <c r="G30">
-        <v>17.97222970897694</v>
+        <v>18.721072613517649</v>
       </c>
       <c r="H30">
-        <v>70.371641905433123</v>
+        <v>71.807797862686854</v>
       </c>
       <c r="I30">
-        <v>71.17269827051075</v>
+        <v>72.625202316847705</v>
       </c>
       <c r="J30">
-        <v>0.38425927700347368</v>
+        <v>0.40027008021195182</v>
       </c>
       <c r="K30">
-        <v>0.38919163453208189</v>
+        <v>0.40540795263758528</v>
       </c>
       <c r="L30">
         <v>1.489966456210964</v>
       </c>
       <c r="M30">
-        <v>40645.57</v>
+        <v>40645.569999999992</v>
       </c>
       <c r="N30">
-        <v>42734.801405546947</v>
+        <v>41563.891931192193</v>
       </c>
       <c r="O30">
-        <v>2089.2314055469542</v>
+        <v>918.32193119219301</v>
       </c>
       <c r="P30">
-        <v>-4.8888290967365373</v>
+        <v>-2.209422382082141</v>
       </c>
       <c r="Q30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R30" t="s">
         <v>54</v>
@@ -3238,19 +3292,19 @@
         <v>104</v>
       </c>
       <c r="T30" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="U30" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -3264,7 +3318,7 @@
         <v>397</v>
       </c>
       <c r="D31">
-        <v>1.522344668267041</v>
+        <v>3.9260467760571052</v>
       </c>
       <c r="E31">
         <v>90558</v>
@@ -3273,19 +3327,19 @@
         <v>58.00938775510204</v>
       </c>
       <c r="G31">
-        <v>11.24411029242291</v>
+        <v>12.52185009838005</v>
       </c>
       <c r="H31">
-        <v>78.851795307277627</v>
+        <v>82.207190852268155</v>
       </c>
       <c r="I31">
-        <v>77.619174332754312</v>
+        <v>86.439535052385494</v>
       </c>
       <c r="J31">
-        <v>0.39943777312480422</v>
+        <v>0.44482842916171372</v>
       </c>
       <c r="K31">
-        <v>0.41016157832396422</v>
+        <v>0.42761526250796261</v>
       </c>
       <c r="L31">
         <v>1.5812402632504361</v>
@@ -3294,13 +3348,13 @@
         <v>43466.07</v>
       </c>
       <c r="N31">
-        <v>41164.250757557747</v>
+        <v>41278.343799426642</v>
       </c>
       <c r="O31">
-        <v>2301.819242442245</v>
+        <v>2187.7262005733569</v>
       </c>
       <c r="P31">
-        <v>5.5917919070095818</v>
+        <v>5.2999369625962194</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
@@ -3312,10 +3366,10 @@
         <v>105</v>
       </c>
       <c r="T31" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="U31" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -3338,7 +3392,7 @@
         <v>462</v>
       </c>
       <c r="D32">
-        <v>1.510700610517</v>
+        <v>3.85228655681835</v>
       </c>
       <c r="E32">
         <v>102359.21</v>
@@ -3347,19 +3401,19 @@
         <v>53.269019607843141</v>
       </c>
       <c r="G32">
-        <v>16.504345705237931</v>
+        <v>17.908970871641149</v>
       </c>
       <c r="H32">
-        <v>83.108836762014093</v>
+        <v>84.771013497254387</v>
       </c>
       <c r="I32">
-        <v>82.66368993746714</v>
+        <v>89.698897591719671</v>
       </c>
       <c r="J32">
-        <v>0.40664288758695621</v>
+        <v>0.44125079291350572</v>
       </c>
       <c r="K32">
-        <v>0.42572012934758058</v>
+        <v>0.43423453193453232</v>
       </c>
       <c r="L32">
         <v>1.3808061834359411</v>
@@ -3368,13 +3422,13 @@
         <v>46804.33</v>
       </c>
       <c r="N32">
-        <v>46961.445061774481</v>
+        <v>46916.620696260063</v>
       </c>
       <c r="O32">
-        <v>157.11506177447879</v>
+        <v>112.2906962600609</v>
       </c>
       <c r="P32">
-        <v>-0.33456181249917882</v>
+        <v>-0.2393409725458171</v>
       </c>
       <c r="Q32" t="s">
         <v>23</v>
@@ -3386,10 +3440,10 @@
         <v>106</v>
       </c>
       <c r="T32" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="U32" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3412,43 +3466,43 @@
         <v>414</v>
       </c>
       <c r="D33">
-        <v>1.4965295523380651</v>
+        <v>3.9907454729015068</v>
       </c>
       <c r="E33">
-        <v>91703.8</v>
+        <v>91703.799999999988</v>
       </c>
       <c r="F33">
         <v>164.3133333333333</v>
       </c>
       <c r="G33">
-        <v>57.880351783259357</v>
+        <v>66.148973466582135</v>
       </c>
       <c r="H33">
-        <v>82.871078942577427</v>
+        <v>86.474169331385141</v>
       </c>
       <c r="I33">
-        <v>83.009055074022754</v>
+        <v>94.867491513168872</v>
       </c>
       <c r="J33">
-        <v>0.43983697038692587</v>
+        <v>0.50267082329934387</v>
       </c>
       <c r="K33">
-        <v>0.43365756059724508</v>
+        <v>0.45251223714495148</v>
       </c>
       <c r="L33">
         <v>1.433169152353416</v>
       </c>
       <c r="M33">
-        <v>44343.99</v>
+        <v>44343.990000000013</v>
       </c>
       <c r="N33">
-        <v>42570.071491996343</v>
+        <v>42154.857504999687</v>
       </c>
       <c r="O33">
-        <v>1773.9185080036621</v>
+        <v>2189.1324950003182</v>
       </c>
       <c r="P33">
-        <v>4.167055505972499</v>
+        <v>5.1930729329133198</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
@@ -3460,10 +3514,10 @@
         <v>107</v>
       </c>
       <c r="T33" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="U33" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="V33">
         <v>1</v>
@@ -3486,46 +3540,46 @@
         <v>348</v>
       </c>
       <c r="D34">
-        <v>1.283018867924528</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>76798.98</v>
+        <v>76798.98000000001</v>
       </c>
       <c r="F34">
         <v>111.21528301886789</v>
       </c>
       <c r="G34">
-        <v>44.159960558921227</v>
+        <v>53.192679764155109</v>
       </c>
       <c r="H34">
-        <v>85.000565628908021</v>
+        <v>97.935434311567946</v>
       </c>
       <c r="I34">
-        <v>85.617329137057908</v>
+        <v>103.1299646423652</v>
       </c>
       <c r="J34">
-        <v>0.43411008734746098</v>
+        <v>0.52290533248671422</v>
       </c>
       <c r="K34">
-        <v>0.42273944805075259</v>
+        <v>0.48706936405847578</v>
       </c>
       <c r="L34">
         <v>1.1003059032470801</v>
       </c>
       <c r="M34">
-        <v>35643.440000000002</v>
+        <v>35643.44000000001</v>
       </c>
       <c r="N34">
-        <v>36400.092767666938</v>
+        <v>37593.723655914277</v>
       </c>
       <c r="O34">
-        <v>756.65276766693569</v>
+        <v>1950.283655914267</v>
       </c>
       <c r="P34">
-        <v>-2.0787110969646938</v>
+        <v>-5.187790583781255</v>
       </c>
       <c r="Q34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R34" t="s">
         <v>58</v>
@@ -3534,19 +3588,19 @@
         <v>108</v>
       </c>
       <c r="T34" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="U34" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
@@ -3560,7 +3614,7 @@
         <v>329</v>
       </c>
       <c r="D35">
-        <v>1.3713942307692311</v>
+        <v>3.9618055555555549</v>
       </c>
       <c r="E35">
         <v>67499.05</v>
@@ -3569,19 +3623,19 @@
         <v>54.782115384615388</v>
       </c>
       <c r="G35">
-        <v>22.106366787717899</v>
+        <v>24.45810793534746</v>
       </c>
       <c r="H35">
-        <v>87.367589633061385</v>
+        <v>92.716625733044737</v>
       </c>
       <c r="I35">
-        <v>86.617297164209816</v>
+        <v>95.831903245508741</v>
       </c>
       <c r="J35">
-        <v>0.46225101059142049</v>
+        <v>0.5114266500160396</v>
       </c>
       <c r="K35">
-        <v>0.45680898739835879</v>
+        <v>0.48477688458601348</v>
       </c>
       <c r="L35">
         <v>1.398052712623856</v>
@@ -3590,16 +3644,16 @@
         <v>33771.230000000003</v>
       </c>
       <c r="N35">
-        <v>32709.435645284921</v>
+        <v>32994.112280849957</v>
       </c>
       <c r="O35">
-        <v>1061.794354715079</v>
+        <v>777.11771915003192</v>
       </c>
       <c r="P35">
-        <v>3.2461408574260648</v>
+        <v>2.3553224058132241</v>
       </c>
       <c r="Q35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R35" t="s">
         <v>59</v>
@@ -3608,19 +3662,19 @@
         <v>109</v>
       </c>
       <c r="T35" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="U35" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -3634,7 +3688,7 @@
         <v>346</v>
       </c>
       <c r="D36">
-        <v>1.416866454845193</v>
+        <v>3.967226073566541</v>
       </c>
       <c r="E36">
         <v>69660.75</v>
@@ -3643,19 +3697,19 @@
         <v>114.07125000000001</v>
       </c>
       <c r="G36">
-        <v>35.516243531495327</v>
+        <v>42.317226335398693</v>
       </c>
       <c r="H36">
-        <v>65.107630552648416</v>
+        <v>74.408720631598186</v>
       </c>
       <c r="I36">
-        <v>70.195598262288783</v>
+        <v>83.637308567833458</v>
       </c>
       <c r="J36">
-        <v>0.40881465477223589</v>
+        <v>0.48709831206904702</v>
       </c>
       <c r="K36">
-        <v>0.39456028995332149</v>
+        <v>0.45092604566093891</v>
       </c>
       <c r="L36">
         <v>1.0919104209282779</v>
@@ -3664,13 +3718,13 @@
         <v>31989.18</v>
       </c>
       <c r="N36">
-        <v>31895.627230307789</v>
+        <v>32112.86813309462</v>
       </c>
       <c r="O36">
-        <v>93.552769692207221</v>
+        <v>123.68813309461621</v>
       </c>
       <c r="P36">
-        <v>0.29330907655991068</v>
+        <v>-0.38516688257797399</v>
       </c>
       <c r="Q36" t="s">
         <v>23</v>
@@ -3682,10 +3736,10 @@
         <v>110</v>
       </c>
       <c r="T36" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="U36" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3708,7 +3762,7 @@
         <v>305</v>
       </c>
       <c r="D37">
-        <v>1.373106281989976</v>
+        <v>3.9747813426025611</v>
       </c>
       <c r="E37">
         <v>64071.94</v>
@@ -3717,19 +3771,19 @@
         <v>84.962909090909093</v>
       </c>
       <c r="G37">
-        <v>15.520853368755461</v>
+        <v>19.85225430887326</v>
       </c>
       <c r="H37">
-        <v>76.95787919340944</v>
+        <v>84.653667112750412</v>
       </c>
       <c r="I37">
-        <v>71.030670179315635</v>
+        <v>90.853182787496735</v>
       </c>
       <c r="J37">
-        <v>0.36323560275095429</v>
+        <v>0.46460367793726731</v>
       </c>
       <c r="K37">
-        <v>0.40541799550322521</v>
+        <v>0.44595979505354771</v>
       </c>
       <c r="L37">
         <v>0.80705564455029088</v>
@@ -3738,13 +3792,13 @@
         <v>30141.74</v>
       </c>
       <c r="N37">
-        <v>30169.168804838471</v>
+        <v>30585.472343267451</v>
       </c>
       <c r="O37">
-        <v>27.428804838476939</v>
+        <v>443.73234326745302</v>
       </c>
       <c r="P37">
-        <v>-9.0916673959137898E-2</v>
+        <v>-1.4507944761727001</v>
       </c>
       <c r="Q37" t="s">
         <v>23</v>
@@ -3756,10 +3810,10 @@
         <v>111</v>
       </c>
       <c r="T37" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="U37" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3782,7 +3836,7 @@
         <v>322</v>
       </c>
       <c r="D38">
-        <v>1.378564994647576</v>
+        <v>3.990582879242984</v>
       </c>
       <c r="E38">
         <v>64744.55</v>
@@ -3791,34 +3845,34 @@
         <v>122.14472727272729</v>
       </c>
       <c r="G38">
-        <v>50.39502716869157</v>
+        <v>56.565846822000744</v>
       </c>
       <c r="H38">
-        <v>75.699033526055047</v>
+        <v>80.066285460250526</v>
       </c>
       <c r="I38">
-        <v>81.206509863873492</v>
+        <v>91.15016413291923</v>
       </c>
       <c r="J38">
-        <v>0.43595580333021289</v>
+        <v>0.48933814659513708</v>
       </c>
       <c r="K38">
-        <v>0.41902299572663371</v>
+        <v>0.44319739932624719</v>
       </c>
       <c r="L38">
-        <v>0.78116826578056531</v>
+        <v>0.78116826578056542</v>
       </c>
       <c r="M38">
         <v>30871.119999999999</v>
       </c>
       <c r="N38">
-        <v>31292.652441857452</v>
+        <v>30635.44539314121</v>
       </c>
       <c r="O38">
-        <v>421.53244185744921</v>
+        <v>235.67460685879271</v>
       </c>
       <c r="P38">
-        <v>-1.3470652340534801</v>
+        <v>0.76928735271972415</v>
       </c>
       <c r="Q38" t="s">
         <v>23</v>
@@ -3830,10 +3884,10 @@
         <v>112</v>
       </c>
       <c r="T38" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="U38" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3856,7 +3910,7 @@
         <v>317</v>
       </c>
       <c r="D39">
-        <v>1.407407407407407</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>63840.13</v>
@@ -3865,34 +3919,34 @@
         <v>188.5224074074074</v>
       </c>
       <c r="G39">
-        <v>49.476227491376527</v>
+        <v>63.612292488912693</v>
       </c>
       <c r="H39">
-        <v>63.278602952852403</v>
+        <v>77.660103623955223</v>
       </c>
       <c r="I39">
-        <v>67.804647062069947</v>
+        <v>87.177403365518487</v>
       </c>
       <c r="J39">
-        <v>0.38504079037710082</v>
+        <v>0.49505244477055821</v>
       </c>
       <c r="K39">
-        <v>0.36007370559774998</v>
+        <v>0.44190863868814778</v>
       </c>
       <c r="L39">
-        <v>0.75050874540375145</v>
+        <v>0.75050874540375134</v>
       </c>
       <c r="M39">
         <v>28055.05</v>
       </c>
       <c r="N39">
-        <v>29348.170653975711</v>
+        <v>29350.405406639351</v>
       </c>
       <c r="O39">
-        <v>1293.1206539757079</v>
+        <v>1295.3554066393519</v>
       </c>
       <c r="P39">
-        <v>-4.406137163443721</v>
+        <v>-4.4134157218364329</v>
       </c>
       <c r="Q39" t="s">
         <v>22</v>
@@ -3904,10 +3958,10 @@
         <v>113</v>
       </c>
       <c r="T39" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="U39" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -3930,28 +3984,28 @@
         <v>327</v>
       </c>
       <c r="D40">
-        <v>1.1940779236163781</v>
+        <v>3.933433160148069</v>
       </c>
       <c r="E40">
         <v>65306.92</v>
       </c>
       <c r="F40">
-        <v>166.39517857142849</v>
+        <v>166.3951785714286</v>
       </c>
       <c r="G40">
-        <v>54.471954781321678</v>
+        <v>72.629273041762232</v>
       </c>
       <c r="H40">
-        <v>63.821466043290748</v>
+        <v>68.730809585082341</v>
       </c>
       <c r="I40">
-        <v>58.807250530883863</v>
+        <v>78.409667374511812</v>
       </c>
       <c r="J40">
-        <v>0.34851764920152828</v>
+        <v>0.46469019893537111</v>
       </c>
       <c r="K40">
-        <v>0.36690235560670481</v>
+        <v>0.39512561373029742</v>
       </c>
       <c r="L40">
         <v>0.78448032551647395</v>
@@ -3960,16 +4014,16 @@
         <v>28477.45</v>
       </c>
       <c r="N40">
-        <v>29377.714127608218</v>
+        <v>28748.100787845779</v>
       </c>
       <c r="O40">
-        <v>900.26412760821768</v>
+        <v>270.65078784578151</v>
       </c>
       <c r="P40">
-        <v>-3.064445803025154</v>
+        <v>-0.94145623685933399</v>
       </c>
       <c r="Q40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R40" t="s">
         <v>64</v>
@@ -3978,19 +4032,19 @@
         <v>114</v>
       </c>
       <c r="T40" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="U40" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
@@ -4004,7 +4058,7 @@
         <v>303</v>
       </c>
       <c r="D41">
-        <v>1.43301416661443</v>
+        <v>3.9973553068718299</v>
       </c>
       <c r="E41">
         <v>67191.94</v>
@@ -4013,19 +4067,19 @@
         <v>60.524339622641513</v>
       </c>
       <c r="G41">
-        <v>10.54693528781225</v>
+        <v>12.15190370117498</v>
       </c>
       <c r="H41">
-        <v>79.478040003745576</v>
+        <v>84.246722403970296</v>
       </c>
       <c r="I41">
-        <v>74.156768430234663</v>
+        <v>85.441494060922537</v>
       </c>
       <c r="J41">
-        <v>0.36143203021261577</v>
+        <v>0.41643255654931821</v>
       </c>
       <c r="K41">
-        <v>0.40972349831556037</v>
+        <v>0.43430690821449403</v>
       </c>
       <c r="L41">
         <v>0.84139516557590044</v>
@@ -4034,13 +4088,13 @@
         <v>30479.26</v>
       </c>
       <c r="N41">
-        <v>31733.15190278539</v>
+        <v>31596.14107927322</v>
       </c>
       <c r="O41">
-        <v>1253.8919027853881</v>
+        <v>1116.8810792732179</v>
       </c>
       <c r="P41">
-        <v>-3.9513626211058082</v>
+        <v>-3.5348654649661699</v>
       </c>
       <c r="Q41" t="s">
         <v>22</v>
@@ -4052,10 +4106,10 @@
         <v>115</v>
       </c>
       <c r="T41" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="U41" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4078,7 +4132,7 @@
         <v>227</v>
       </c>
       <c r="D42">
-        <v>1.43906976744186</v>
+        <v>3.9974160206718339</v>
       </c>
       <c r="E42">
         <v>50059.35</v>
@@ -4087,19 +4141,19 @@
         <v>34.5946</v>
       </c>
       <c r="G42">
-        <v>-4.2107188507570648</v>
+        <v>-5.3983575009705946</v>
       </c>
       <c r="H42">
-        <v>69.153674634920634</v>
+        <v>73.56773897331982</v>
       </c>
       <c r="I42">
-        <v>58.994585753184012</v>
+        <v>75.634084298953866</v>
       </c>
       <c r="J42">
-        <v>0.33382923818802379</v>
+        <v>0.42798620280515881</v>
       </c>
       <c r="K42">
-        <v>0.38141885726410452</v>
+        <v>0.40576474177032401</v>
       </c>
       <c r="L42">
         <v>0.98196703296703292</v>
@@ -4108,13 +4162,13 @@
         <v>22660.3</v>
       </c>
       <c r="N42">
-        <v>23152.994246500009</v>
+        <v>22991.60941403174</v>
       </c>
       <c r="O42">
-        <v>492.69424650001019</v>
+        <v>331.30941403173711</v>
       </c>
       <c r="P42">
-        <v>-2.1279936463271469</v>
+        <v>-1.441001402144295</v>
       </c>
       <c r="Q42" t="s">
         <v>23</v>
@@ -4126,10 +4180,10 @@
         <v>116</v>
       </c>
       <c r="T42" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="U42" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4152,7 +4206,7 @@
         <v>359</v>
       </c>
       <c r="D43">
-        <v>1.474485255761147</v>
+        <v>3.9578288444114982</v>
       </c>
       <c r="E43">
         <v>76741.75</v>
@@ -4161,19 +4215,19 @@
         <v>86.680196078431379</v>
       </c>
       <c r="G43">
-        <v>6.7097767327903961</v>
+        <v>8.1475860326740523</v>
       </c>
       <c r="H43">
-        <v>83.465733936952972</v>
+        <v>86.872498587440845</v>
       </c>
       <c r="I43">
-        <v>69.768834575152994</v>
+        <v>84.719299126971492</v>
       </c>
       <c r="J43">
-        <v>0.35030460832695071</v>
+        <v>0.42536988153986871</v>
       </c>
       <c r="K43">
-        <v>0.42035235074505439</v>
+        <v>0.43750958955097502</v>
       </c>
       <c r="L43">
         <v>1.0177159916882159</v>
@@ -4182,16 +4236,16 @@
         <v>36644.300000000003</v>
       </c>
       <c r="N43">
-        <v>35791.188347260453</v>
+        <v>35293.024701944829</v>
       </c>
       <c r="O43">
-        <v>853.11165273954975</v>
+        <v>1351.2752980551741</v>
       </c>
       <c r="P43">
-        <v>2.3835801272154442</v>
+        <v>3.828731907981556</v>
       </c>
       <c r="Q43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R43" t="s">
         <v>67</v>
@@ -4200,19 +4254,19 @@
         <v>117</v>
       </c>
       <c r="T43" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="U43" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
@@ -4226,7 +4280,7 @@
         <v>351</v>
       </c>
       <c r="D44">
-        <v>1.393947673780819</v>
+        <v>3.888380353178075</v>
       </c>
       <c r="E44">
         <v>72034.86</v>
@@ -4235,19 +4289,19 @@
         <v>13.43660377358491</v>
       </c>
       <c r="G44">
-        <v>1.788876255402204</v>
+        <v>2.0610965551373228</v>
       </c>
       <c r="H44">
-        <v>77.193985874773219</v>
+        <v>80.221201007117273</v>
       </c>
       <c r="I44">
-        <v>76.756525241871415</v>
+        <v>88.43686603954751</v>
       </c>
       <c r="J44">
-        <v>0.40756443400743247</v>
+        <v>0.46958510874769388</v>
       </c>
       <c r="K44">
-        <v>0.42598876437141509</v>
+        <v>0.44269420611147059</v>
       </c>
       <c r="L44">
         <v>0.84694928517251544</v>
@@ -4256,13 +4310,13 @@
         <v>33799.46</v>
       </c>
       <c r="N44">
-        <v>34133.441030239257</v>
+        <v>34339.754775460278</v>
       </c>
       <c r="O44">
-        <v>333.98103023925802</v>
+        <v>540.2947754602792</v>
       </c>
       <c r="P44">
-        <v>-0.9784569623185071</v>
+        <v>-1.573379830441836</v>
       </c>
       <c r="Q44" t="s">
         <v>23</v>
@@ -4274,10 +4328,10 @@
         <v>118</v>
       </c>
       <c r="T44" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="U44" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4300,7 +4354,7 @@
         <v>293</v>
       </c>
       <c r="D45">
-        <v>1.5329031633806749</v>
+        <v>3.9417509915503062</v>
       </c>
       <c r="E45">
         <v>58133.5</v>
@@ -4309,19 +4363,19 @@
         <v>67.030185185185189</v>
       </c>
       <c r="G45">
-        <v>23.744458037407149</v>
+        <v>28.493349644888578</v>
       </c>
       <c r="H45">
-        <v>64.582084837789964</v>
+        <v>72.654845442513704</v>
       </c>
       <c r="I45">
-        <v>67.455270992855247</v>
+        <v>80.946325191426297</v>
       </c>
       <c r="J45">
-        <v>0.40257005583278122</v>
+        <v>0.48308406699933742</v>
       </c>
       <c r="K45">
-        <v>0.39754206470739151</v>
+        <v>0.44723482279581539</v>
       </c>
       <c r="L45">
         <v>1.1043983617877779</v>
@@ -4330,13 +4384,13 @@
         <v>27433.96</v>
       </c>
       <c r="N45">
-        <v>27139.920012803359</v>
+        <v>27212.84970694191</v>
       </c>
       <c r="O45">
-        <v>294.0399871966365</v>
+        <v>221.11029305808921</v>
       </c>
       <c r="P45">
-        <v>1.0834224531904371</v>
+        <v>0.8125216412071854</v>
       </c>
       <c r="Q45" t="s">
         <v>23</v>
@@ -4348,10 +4402,10 @@
         <v>119</v>
       </c>
       <c r="T45" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="U45" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4374,7 +4428,7 @@
         <v>300</v>
       </c>
       <c r="D46">
-        <v>1.6188950998827529</v>
+        <v>3.9194302418214009</v>
       </c>
       <c r="E46">
         <v>60882.64</v>
@@ -4383,37 +4437,37 @@
         <v>38.998260869565222</v>
       </c>
       <c r="G46">
-        <v>10.624715768717181</v>
+        <v>14.374615451793829</v>
       </c>
       <c r="H46">
-        <v>94.973018681978715</v>
+        <v>104.0180680802624</v>
       </c>
       <c r="I46">
-        <v>63.293950136326643</v>
+        <v>85.632991360912499</v>
       </c>
       <c r="J46">
-        <v>0.36733139845649249</v>
+        <v>0.49697777438231339</v>
       </c>
       <c r="K46">
-        <v>0.43064467775201187</v>
+        <v>0.47165845658553679</v>
       </c>
       <c r="L46">
-        <v>0.86826743872779677</v>
+        <v>0.86826743872779688</v>
       </c>
       <c r="M46">
-        <v>29872.15</v>
+        <v>29872.149999999991</v>
       </c>
       <c r="N46">
-        <v>30794.031152391799</v>
+        <v>29784.50357140402</v>
       </c>
       <c r="O46">
-        <v>921.88115239180115</v>
+        <v>87.646428595973703</v>
       </c>
       <c r="P46">
-        <v>-2.993700785160756</v>
+        <v>0.29426855608270958</v>
       </c>
       <c r="Q46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R46" t="s">
         <v>70</v>
@@ -4422,19 +4476,19 @@
         <v>120</v>
       </c>
       <c r="T46" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="U46" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
@@ -4448,28 +4502,28 @@
         <v>334</v>
       </c>
       <c r="D47">
-        <v>1.350694990374167</v>
+        <v>3.980995761102808</v>
       </c>
       <c r="E47">
-        <v>65073.93</v>
+        <v>65073.930000000008</v>
       </c>
       <c r="F47">
         <v>53.702500000000001</v>
       </c>
       <c r="G47">
-        <v>14.732341883579171</v>
+        <v>19.6431225114389</v>
       </c>
       <c r="H47">
-        <v>65.640004033664752</v>
+        <v>76.580004705942216</v>
       </c>
       <c r="I47">
-        <v>59.848024992864268</v>
+        <v>79.797366657152367</v>
       </c>
       <c r="J47">
-        <v>0.32978202883673241</v>
+        <v>0.43970937178230968</v>
       </c>
       <c r="K47">
-        <v>0.36408858586749299</v>
+        <v>0.42477001684540849</v>
       </c>
       <c r="L47">
         <v>1.1934800318728891</v>
@@ -4478,13 +4532,13 @@
         <v>31500.77</v>
       </c>
       <c r="N47">
-        <v>29079.525220155541</v>
+        <v>29722.915441554709</v>
       </c>
       <c r="O47">
-        <v>2421.2447798444591</v>
+        <v>1777.8545584452911</v>
       </c>
       <c r="P47">
-        <v>8.326287178052862</v>
+        <v>5.981427232268496</v>
       </c>
       <c r="Q47" t="s">
         <v>21</v>
@@ -4496,10 +4550,10 @@
         <v>121</v>
       </c>
       <c r="T47" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="U47" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="V47">
         <v>1</v>
@@ -4522,43 +4576,43 @@
         <v>325</v>
       </c>
       <c r="D48">
-        <v>1.445744943193676</v>
+        <v>3.956775634003745</v>
       </c>
       <c r="E48">
         <v>67860.05</v>
       </c>
       <c r="F48">
-        <v>80.667307692307688</v>
+        <v>80.667307692307702</v>
       </c>
       <c r="G48">
-        <v>30.18389349671509</v>
+        <v>36.501452600678718</v>
       </c>
       <c r="H48">
-        <v>87.596123339863325</v>
+        <v>91.099968273457847</v>
       </c>
       <c r="I48">
-        <v>73.296876155910397</v>
+        <v>88.638082793193973</v>
       </c>
       <c r="J48">
-        <v>0.39102662974449548</v>
+        <v>0.47286941271427368</v>
       </c>
       <c r="K48">
-        <v>0.44870700298664618</v>
+        <v>0.46665528310611187</v>
       </c>
       <c r="L48">
         <v>1.028220732806618</v>
       </c>
       <c r="M48">
-        <v>32899.29</v>
+        <v>32899.289999999994</v>
       </c>
       <c r="N48">
-        <v>32868.687133479652</v>
+        <v>32437.811180017568</v>
       </c>
       <c r="O48">
-        <v>30.602866520348471</v>
+        <v>461.47881998242519</v>
       </c>
       <c r="P48">
-        <v>9.310644625406031E-2</v>
+        <v>1.4226570881166809</v>
       </c>
       <c r="Q48" t="s">
         <v>23</v>
@@ -4570,10 +4624,10 @@
         <v>122</v>
       </c>
       <c r="T48" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="U48" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4596,7 +4650,7 @@
         <v>284</v>
       </c>
       <c r="D49">
-        <v>1.537888302174016</v>
+        <v>3.9661329898172002</v>
       </c>
       <c r="E49">
         <v>55908.05</v>
@@ -4605,19 +4659,19 @@
         <v>103.9604081632653</v>
       </c>
       <c r="G49">
-        <v>39.874045281746277</v>
+        <v>50.098159456553027</v>
       </c>
       <c r="H49">
-        <v>79.373578580433175</v>
+        <v>84.550116313939682</v>
       </c>
       <c r="I49">
-        <v>82.014847310552597</v>
+        <v>103.0442953388994</v>
       </c>
       <c r="J49">
-        <v>0.3892603964860844</v>
+        <v>0.48907075455943938</v>
       </c>
       <c r="K49">
-        <v>0.37624017424414002</v>
+        <v>0.41899473949915578</v>
       </c>
       <c r="L49">
         <v>1.0153909865644559</v>
@@ -4626,16 +4680,16 @@
         <v>27868.52</v>
       </c>
       <c r="N49">
-        <v>27367.951061219679</v>
+        <v>27136.907931097841</v>
       </c>
       <c r="O49">
-        <v>500.56893878032503</v>
+        <v>731.61206890215908</v>
       </c>
       <c r="P49">
-        <v>1.8290333012529749</v>
+        <v>2.6960037995477011</v>
       </c>
       <c r="Q49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R49" t="s">
         <v>73</v>
@@ -4644,19 +4698,19 @@
         <v>123</v>
       </c>
       <c r="T49" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="U49" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -4670,28 +4724,28 @@
         <v>345</v>
       </c>
       <c r="D50">
-        <v>1.4241974314036749</v>
+        <v>3.9727612560207781</v>
       </c>
       <c r="E50">
         <v>66632.08</v>
       </c>
       <c r="F50">
-        <v>98.717924528301893</v>
+        <v>98.717924528301879</v>
       </c>
       <c r="G50">
-        <v>23.04172755207399</v>
+        <v>32.137146322629498</v>
       </c>
       <c r="H50">
-        <v>73.687212416341609</v>
+        <v>88.759596774229678</v>
       </c>
       <c r="I50">
-        <v>67.26649199056294</v>
+        <v>93.819054618416729</v>
       </c>
       <c r="J50">
-        <v>0.37933068850215718</v>
+        <v>0.52906648659511391</v>
       </c>
       <c r="K50">
-        <v>0.40333492842649937</v>
+        <v>0.48583525469555622</v>
       </c>
       <c r="L50">
         <v>0.77387011432965125</v>
@@ -4700,16 +4754,16 @@
         <v>32220.68</v>
       </c>
       <c r="N50">
-        <v>31431.423734747859</v>
+        <v>32477.661961722151</v>
       </c>
       <c r="O50">
-        <v>789.25626525213738</v>
+        <v>256.98196172215103</v>
       </c>
       <c r="P50">
-        <v>2.5110420447789128</v>
+        <v>-0.79125757890154591</v>
       </c>
       <c r="Q50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R50" t="s">
         <v>74</v>
@@ -4718,19 +4772,19 @@
         <v>124</v>
       </c>
       <c r="T50" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="U50" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -4744,28 +4798,28 @@
         <v>310</v>
       </c>
       <c r="D51">
-        <v>1.3824615172382331</v>
+        <v>3.8563400217698089</v>
       </c>
       <c r="E51">
         <v>61719.87</v>
       </c>
       <c r="F51">
-        <v>164.7150943396226</v>
+        <v>164.71509433962271</v>
       </c>
       <c r="G51">
-        <v>55.00957401599787</v>
+        <v>72.887685571197181</v>
       </c>
       <c r="H51">
-        <v>69.898937654406481</v>
+        <v>80.53573251485966</v>
       </c>
       <c r="I51">
-        <v>78.56616835994194</v>
+        <v>104.1001730769231</v>
       </c>
       <c r="J51">
-        <v>0.35082835750762631</v>
+        <v>0.46484757369760482</v>
       </c>
       <c r="K51">
-        <v>0.33023278213026602</v>
+        <v>0.3889408322867578</v>
       </c>
       <c r="L51">
         <v>1.0371377640225059</v>
@@ -4774,13 +4828,13 @@
         <v>28842.07</v>
       </c>
       <c r="N51">
-        <v>28376.136209669159</v>
+        <v>28654.780410976098</v>
       </c>
       <c r="O51">
-        <v>465.93379033084062</v>
+        <v>187.28958902389789</v>
       </c>
       <c r="P51">
-        <v>1.641991661190553</v>
+        <v>0.65360678510786052</v>
       </c>
       <c r="Q51" t="s">
         <v>23</v>
@@ -4792,10 +4846,10 @@
         <v>125</v>
       </c>
       <c r="T51" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="U51" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="V51">
         <v>0</v>

--- a/data/revenue-data.xlsx
+++ b/data/revenue-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/Revenue_Performance_Analysis-2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61AC9EBD-220F-0E44-AB09-A40FDF321FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D0AF0-C104-7D42-A58A-7623088E67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="820" windowWidth="26800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1480" windowWidth="25800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/revenue-data.xlsx
+++ b/data/revenue-data.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/Revenue_Performance_Analysis-2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A03A355E-DB4D-4D4A-B01F-0D078121F85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA868D9-5081-7D44-BA9E-5E0F5BB4F57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="760" windowWidth="29340" windowHeight="18860" xr2:uid="{5688CC9A-D0EF-724A-8F74-A5755DE93DA0}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="21660" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="revenue-data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'revenue-data'!$A$1:$AF$51</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="233">
   <si>
     <t>Year</t>
   </si>
@@ -121,931 +118,639 @@
     <t>Zero-Balance Collection Narrative</t>
   </si>
   <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 7.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 3.86; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 1109.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit increased from avg 125.79 to 158.43; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 20.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1205.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 60.25; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.20; 1-SELF PAY ‚Äì New E/M Codes Visit Count increased from avg 13.36 to 19.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount increased from avg 2031.01 to 2846.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 154.53; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 1.50; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 57.50; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.50; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 105.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count increased from avg 2.31 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount increased from avg 531.67 to 895.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 1.25; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* increased from avg 205.83 to 305.01; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.21; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.21; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 2.50; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit increased from avg 135.45 to 156.88; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 135.40 to 156.88; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.44 to 0.51; 12-HUMANA ‚Äì New E/M Codes Collection Rate* increased from avg 0.44 to 0.51; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 895.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 92.85; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.54 to 92.85; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.41; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.41; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 1.50; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 371.39; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 9.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 1296.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.33; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 2.89; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 355.61; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 10.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 3.81; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 2950.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 102.50; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 113.89; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.39; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.35; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 2.40; 13-TRICARE ‚Äì New E/M Codes Payment Amount* increased from avg 298.18 to 1024.98; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.29; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.23 to 0.29; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 2.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 23.45 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 17.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 3.95; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 4080.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 100.38; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 1.88; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1626.01; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 18.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 3736.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.11; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 513.26; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 3.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 623.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit increased from avg 21.82 to 69.82; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* increased from avg 22.82 to 69.82; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.34; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* increased from avg 0.16 to 0.34; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* increased from avg 46.29 to 209.45; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 15.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 3.85; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 4500.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 140.40; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 1.93; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 2105.95; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 349.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 66.40; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 27.53 to 66.40; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.38; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.38; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 54.50 to 132.80; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 384.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 1.00; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 8.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 3.88; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1875.00; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.50; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 738.44; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 17.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 3823.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 48.57; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 48.57; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 2.88; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 825.73; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Payment per Visit increased from avg 26.22 to 49.62; 18-CIGNA ‚Äì Medications NRV Zero Balance* increased from avg 26.82 to 49.62; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.22 to 0.35; 18-CIGNA ‚Äì Medications Collection Rate* increased from avg 0.22 to 0.35; 18-CIGNA ‚Äì Medications Labs per Visit increased from avg 1.77 to 5.00; 18-CIGNA ‚Äì Medications Payment Amount* increased from avg 45.71 to 49.62; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 13.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 3805.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.23; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1872.72; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 314.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 51.31 to 100.59; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 49.02 to 100.59; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.30 to 0.32; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.32; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 5.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 70.38 to 100.59; 18-CIGNA ‚Äì Vaccines Charge Billed Balance decreased from avg 7.00 to 0.00; 18-CIGNA ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.56 to 0.57; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 35.14; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 35.14; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.27 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 6.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 1215.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 502.72; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 3.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 7.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 930.05; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.59; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.59; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* increased from avg 273.10 to 549.02; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.29; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.27 to 0.29; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.39 to 2.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.48 to 2.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 207.62 to 218.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.55 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 28.74 to 31.76; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 30.60 to 31.76; 3-MEDICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.29; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.20 to 0.29; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 45.10 to 63.52; 4-MEDICAID ‚Äì After Hours Visit Count increased from avg 7.28 to 14.00; 4-MEDICAID ‚Äì After Hours Charge Amount increased from avg 323.84 to 644.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency decreased from avg -0.33 to -8.15; 4-MEDICAID ‚Äì After Hours Payment Amount* increased from avg 146.06 to 264.80; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 20.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 3.95; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount increased from avg 3214.84 to 4815.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 4.71; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 89.58; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 89.64; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.37; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.37; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.25; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* increased from avg 1068.72 to 1791.64; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 18.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 4343.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 6.05; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 63.32; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 66.42; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.26; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.26; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.44; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 1139.73; 4-MEDICAID ‚Äì Medications Visit Count increased from avg 2.12 to 3.00; 4-MEDICAID ‚Äì Medications Charge Amount increased from avg 201.17 to 300.00; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 17.01; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 17.01; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.17; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.17; 4-MEDICAID ‚Äì Medications Payment Amount* increased from avg 31.28 to 51.03; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 18.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 3.90; 4-MEDICAID ‚Äì New E/M Codes Charge Amount increased from avg 4589.26 to 5430.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 118.91; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 133.77; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.44; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.39; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* increased from avg 1765.78 to 2140.39; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 3.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.24; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.24; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 75.55; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 135.10; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 135.10; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.46; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.46; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 230.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* increased from avg 161.13 to 230.00; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.55 to 0.74; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* increased from avg 0.48 to 0.74; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* increased from avg 360.69 to 460.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 42.78 to 43.50; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 42.19 to 43.50</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.71; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 2.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 64.00; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 32.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 0.50; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.56; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.74; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 45.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 22.50; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 10.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 575.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 1.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 105.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.87 to 3.82; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 76.25; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 76.25; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.34; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.39 to 0.34; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 258.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 39.97 to 27.71; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 40.10 to 27.71; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 55.41; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 1.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 310.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 156.88; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.60; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 98.89 to 230.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 25.52 to 76.73; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 39.51; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 68.62 to 44.45; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.27; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 199.38 to 310.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 61.56 to 120.36; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 200.53 to 30.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 47.27 to 8.83; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.55 to 8.83; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 48.14 to 8.83; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 128.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.31 to 26.34; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.20 to 26.34; 13-TRICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 26.34; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 225.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 82.60; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 95.65; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.42; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.40; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 293.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.50 to 43.68; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 28.51; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 30.19; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.14; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 140.40; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.47; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.47; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 19.91; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 19.91; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.16; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.16; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 59.72; 17-AETNA ‚Äì After Hours Visit Count decreased from avg 3.75 to 2.00; 17-AETNA ‚Äì After Hours Charge Amount decreased from avg 170.58 to 92.00; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 16.00; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.71; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 895.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 124.87; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 124.87; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.56; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.56; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.50; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 499.47; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 6.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 1470.00; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.37; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.37; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 547.89; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 7.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.87; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 2095.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 204.82; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 204.82; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.68; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1433.72; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 92.31; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 92.31; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.39; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.39; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.22; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.22; 18-CIGNA ‚Äì Medications Visit Count decreased from avg 1.75 to 1.00; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 142.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.77; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 144.06; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 144.06; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.49; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Vaccines Visit Count decreased from avg 1.12 to 1.00; 18-CIGNA ‚Äì Vaccines Charge Amount decreased from avg 165.00 to 86.00; 18-CIGNA ‚Äì Vaccines Upfront Collections Efficiency increased from avg -17.25 to 0.00; 18-CIGNA ‚Äì Vaccines Payment per Visit decreased from avg 81.62 to 48.90; 18-CIGNA ‚Äì Vaccines NRV Zero Balance* decreased from avg 58.47 to 48.90; 18-CIGNA ‚Äì Vaccines Collection Rate* decreased from avg 0.59 to 0.57; 18-CIGNA ‚Äì Vaccines Labs per Visit decreased from avg 0.31 to 0.00; 18-CIGNA ‚Äì Vaccines Payment Amount* decreased from avg 111.17 to 48.90; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 128.00; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 35.14; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.82; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to -3.40; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.80 to 2.67; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.83; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 5.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 283.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 6.35; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 10.72; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 13.40; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.21; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.19; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 53.59; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 86.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 58.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 58.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 58.80; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.36; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.36; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.64; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.52; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 83.79; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 83.79; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 1.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 393.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 29.07; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 29.07; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.22; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.22; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 87.22; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 78.43; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 78.43; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 1.14; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 30.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 28.43 to 8.65; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 28.43 to 8.65; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 8.65; 4-MEDICAID ‚Äì After Hours Payment per Visit decreased from avg 20.66 to 18.91; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* decreased from avg 20.63 to 18.33; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.46 to 0.40; 4-MEDICAID ‚Äì After Hours Collection Rate* decreased from avg 0.46 to 0.41; 4-MEDICAID ‚Äì After Hours Labs per Visit decreased from avg 2.04 to 1.93; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance increased from avg 390.86 to 620.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 162.82 to 275.89; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.39; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 2.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 208.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 17.69; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 17.69; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.17; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.17; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 1.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 35.38; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 319.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 25.18; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 25.18; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 5-COMMERCIAL ‚Äì After Hours Visit Count decreased from avg 1.75 to 1.00; 5-COMMERCIAL ‚Äì After Hours Charge Amount decreased from avg 80.50 to 46.00; 5-COMMERCIAL ‚Äì After Hours Labs per Visit decreased from avg 2.12 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 293.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 135.10; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 620.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 1.50; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 2.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 176.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 20.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 20.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.23; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.23; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 1.50; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 40.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 128.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.34 to 0.34; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.37 to 0.34; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.10 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 46.81 to 43.50</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Payment per Visit increased from avg 5.52 to 8.00; 17-AETNA ‚Äì After Hours NRV Zero Balance* increased from avg 5.52 to 8.00; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.12 to 0.17; 17-AETNA ‚Äì After Hours Collection Rate* increased from avg 0.12 to 0.17; 17-AETNA ‚Äì After Hours Labs per Visit increased from avg 2.15 to 3.50; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 91.31; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 91.31; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.83; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.68; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 2.43</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 26.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 1150.00; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Payment per Visit increased from avg 2.07 to 6.73; 2-BCBS ‚Äì After Hours NRV Zero Balance* increased from avg 2.08 to 6.73; 2-BCBS ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.05 to 0.15; 2-BCBS ‚Äì After Hours Collection Rate* increased from avg 0.05 to 0.15; 2-BCBS ‚Äì After Hours Labs per Visit increased from avg 1.97 to 2.46; 2-BCBS ‚Äì After Hours Payment Amount* increased from avg 50.09 to 175.00; 2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 3.00; 2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 1595.72; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Payment per Visit increased from avg 145.60 to 259.19; 2-BCBS ‚Äì DME NRV Zero Balance* increased from avg 140.68 to 259.19; 2-BCBS ‚Äì DME Zero Balance Collection Rate increased from avg 0.36 to 0.49; 2-BCBS ‚Äì DME Collection Rate* increased from avg 0.37 to 0.49; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 777.56; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 39.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 8676.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 144.66; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 144.19; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.65; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.65; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.15; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 5641.83; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 58.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 13183.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to -50.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to -2.77; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 51.10; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 50.40; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.22; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.20 to 0.22; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 2963.90; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 4.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 436.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 19.79; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 19.79; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.18; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.18; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 4.50; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 79.15; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 53.00; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 15749.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 189.99; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 189.99; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 1.91; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 10069.33; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.00; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.68; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.68; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 11.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1783.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 57.61; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 57.61; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 633.76</t>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – After Hours Upfront Collections Efficiency decreased from avg -0.33 to -8.15; 15-UNITED HEALTHCARE – Medications Payment Amount* increased from avg 46.29 to 209.45; 13-TRICARE – Lab/Test CPT Codes Visit Count increased from avg 2.59 to 9.00; 13-TRICARE – New E/M Codes Payment Amount* increased from avg 298.18 to 1024.98; 15-UNITED HEALTHCARE – Medications Payment per Visit increased from avg 21.82 to 69.82; 15-UNITED HEALTHCARE – Medications NRV Zero Balance* increased from avg 22.82 to 69.82</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 4.00; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 3.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 108.38; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 68.64 to 216.76; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.84; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.27 to 0.84</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 5.00; 1-SELF PAY – Existing E/M Code Labs per Visit increased from avg 0.91 to 2.88; 3-MEDICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.00; 5-COMMERCIAL – Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 1371.00; 12-HUMANA – X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.26 to 0.65; 12-HUMANA – X-Ray CPT Codes Collection Rate* increased from avg 0.26 to 0.65</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -145.36; 12-HUMANA – Medications Labs per Visit increased from avg 0.96 to 5.00; 12-HUMANA – Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 1799.00; 5-COMMERCIAL – Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 659.65; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -150.00; 13-TRICARE – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 7.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Medications Payment Amount* increased from avg 46.29 to 337.58; 1-SELF PAY – X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 2.50; 15-UNITED HEALTHCARE – Medications Payment per Visit increased from avg 21.82 to 112.53; 15-UNITED HEALTHCARE – Medications NRV Zero Balance* increased from avg 22.82 to 112.53; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.50; 15-UNITED HEALTHCARE – Medications Collection Rate* increased from avg 0.16 to 0.52</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -122.59; 12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to -250.00; 12-HUMANA – New E/M Codes Upfront Collections Efficiency decreased from avg -6.89 to -225.56; 3-MEDICARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -132.53; 12-HUMANA – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg -12.86 to -180.04; 3-MEDICARE – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to -8.49</t>
+  </si>
+  <si>
+    <t>12-HUMANA – Medications Labs per Visit increased from avg 0.96 to 4.00; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to -53.44; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.00; 12-HUMANA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.51 to 4.00; 15-UNITED HEALTHCARE – DME Payment per Visit increased from avg 73.28 to 181.96; 15-UNITED HEALTHCARE – DME NRV Zero Balance* increased from avg 73.88 to 181.96</t>
+  </si>
+  <si>
+    <t>12-HUMANA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to -4.07; 1-SELF PAY – X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 9.00; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 9.00; 1-SELF PAY – New E/M Codes Labs per Visit increased from avg 0.86 to 3.50; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 3.67; 1-SELF PAY – Medications Labs per Visit increased from avg 1.13 to 4.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -102.16; 3-MEDICARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -101.04; 18-CIGNA – X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 3.00; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 4.00; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 2.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.43 to 4.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Medications Labs per Visit increased from avg 1.45 to 7.00; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 36.72 to 119.46; 5-COMMERCIAL – X-Ray CPT Codes Labs per Visit increased from avg 1.10 to 3.00; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 135.08 to 349.00; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 3.00; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 28.43 to 59.73</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – DME Charge Amount increased from avg 133.93 to 689.80; 13-TRICARE – Vaccines Labs per Visit increased from avg 0.50 to 2.00; 3-MEDICARE – Medications Labs per Visit increased from avg 0.90 to 3.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.82 to 2.00; 4-MEDICAID – Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.43 to 1.00; 13-TRICARE – Existing E/M Code Payment Amount* increased from avg 209.33 to 466.48</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.50; 18-CIGNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 7.00; 18-CIGNA – X-Ray CPT Codes Charge Amount increased from avg 240.79 to 607.00; 1-SELF PAY – Existing E/M Code Labs per Visit increased from avg 0.91 to 2.20; 4-MEDICAID – X-Ray CPT Codes Charge Amount increased from avg 339.20 to 769.00; 4-MEDICAID – X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 152.74</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -60.44; 3-MEDICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.00; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -106.22; 13-TRICARE – New E/M Codes Labs per Visit increased from avg 1.32 to 3.50; 12-HUMANA – New E/M Codes Labs per Visit increased from avg 0.90 to 2.00; 12-HUMANA – Existing E/M Code Payment Amount* increased from avg 205.83 to 451.23</t>
+  </si>
+  <si>
+    <t>13-TRICARE – X-Ray CPT Codes Labs per Visit increased from avg 0.82 to 6.00; 13-TRICARE – Medications Labs per Visit increased from avg 1.42 to 6.00; 5-COMMERCIAL – New E/M Codes Labs per Visit increased from avg 1.75 to 5.67; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 4.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 5.50; 5-COMMERCIAL – Medications Labs per Visit increased from avg 1.73 to 5.00</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to -3.92; 5-COMMERCIAL – New E/M Codes Labs per Visit increased from avg 1.75 to 5.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 5.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 1.00; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 5.00; 13-TRICARE – New E/M Codes Payment Amount* increased from avg 298.18 to 678.62</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -14.70; 3-MEDICARE – X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to -4.99; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 155.00; 18-CIGNA – New E/M Codes Labs per Visit increased from avg 1.98 to 5.00; 1-SELF PAY – X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 218.50; 3-MEDICARE – DME Charge Amount increased from avg 319.54 to 689.80</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 135.81; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 54.50 to 271.61; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 27.53 to 135.81; 5-COMMERCIAL – Medications Labs per Visit increased from avg 1.73 to 5.00; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.00; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 647.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -20.77; 15-UNITED HEALTHCARE – Vaccines Labs per Visit increased from avg 0.57 to 8.00; 3-MEDICARE – Medications Charge Billed Balance decreased from avg 1.05 to -2.50; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 415.00; 3-MEDICARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -25.87; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 6.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -20.77; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 655.00; 1-SELF PAY – DME Charge Amount increased from avg 133.93 to 705.92; 3-MEDICARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -24.20; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 8.00; 15-UNITED HEALTHCARE – Self-pay physical &amp; No Charge Charge Amount increased from avg 17.33 to 52.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -20.77; 3-MEDICARE – Medications Labs per Visit increased from avg 0.90 to 4.00; 1-SELF PAY – Vaccines Labs per Visit increased from avg 0.68 to 3.00; 1-SELF PAY – X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 287.00; 13-TRICARE – Medications Labs per Visit increased from avg 1.42 to 4.00; 5-COMMERCIAL – New E/M Codes Labs per Visit increased from avg 1.75 to 4.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Medications Labs per Visit increased from avg 1.13 to 4.00; 15-UNITED HEALTHCARE – DME Payment per Visit increased from avg 73.28 to 207.02; 15-UNITED HEALTHCARE – DME NRV Zero Balance* increased from avg 73.88 to 207.02; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 135.08 to 360.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 4.20; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 5.00</t>
+  </si>
+  <si>
+    <t>13-TRICARE – Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to -204.76; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 4.00; 1-SELF PAY – Medications Labs per Visit increased from avg 1.13 to 3.00; 13-TRICARE – Existing E/M Code Charge Billed Balance decreased from avg 88.96 to -55.40; 13-TRICARE – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to -14.26; 13-TRICARE – Existing E/M Code Labs per Visit increased from avg 1.42 to 3.33</t>
+  </si>
+  <si>
+    <t>13-TRICARE – Existing E/M Code Labs per Visit increased from avg 1.42 to 7.00; 13-TRICARE – Medications Labs per Visit increased from avg 1.42 to 7.00; 13-TRICARE – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 7.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 49.02 to 201.33; 18-CIGNA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 51.31 to 201.33; 3-MEDICARE – New E/M Codes Payment Amount* increased from avg 273.10 to 869.67</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 2.00; 15-UNITED HEALTHCARE – Medications Labs per Visit increased from avg 1.45 to 3.00; 3-MEDICARE – New E/M Codes Labs per Visit increased from avg 1.15 to 2.33; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 38.45 to 73.49; 13-TRICARE – New E/M Codes Labs per Visit increased from avg 1.32 to 2.50; 13-TRICARE – Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 112.73</t>
+  </si>
+  <si>
+    <t>18-CIGNA – X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 2.00; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 6.00; 5-COMMERCIAL – New E/M Codes Payment per Visit increased from avg 142.42 to 342.70; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 3.00; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.67; 5-COMMERCIAL – Existing E/M Code Labs per Visit increased from avg 2.15 to 5.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to -329.00; 18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -33.96; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -463.00; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 3.00; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -116.80; 5-COMMERCIAL – Existing E/M Code Payment per Visit increased from avg 115.74 to 409.50</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -383.59; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -313.71; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -122.70; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -208.13; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 4.00; 18-CIGNA – X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 3.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -70.00; 1-SELF PAY – X-Ray CPT Codes Visit Count increased from avg 2.51 to 8.00; 1-SELF PAY – X-Ray CPT Codes Charge Amount increased from avg 235.81 to 735.00; 12-HUMANA – Existing E/M Code Labs per Visit increased from avg 1.20 to 3.00; 4-MEDICAID – Medications Labs per Visit increased from avg 1.26 to 3.00; 4-MEDICAID – X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.67</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -150.00; 18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -47.43; 3-MEDICARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -154.66; 18-CIGNA – Existing E/M Code Upfront Collections Efficiency decreased from avg -18.20 to -163.95; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -204.84; 5-COMMERCIAL – New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to -129.00</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -85.21; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -317.35; 15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -203.50; 18-CIGNA – New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to -163.48; 18-CIGNA – Existing E/M Code Upfront Collections Efficiency decreased from avg -18.20 to -208.94; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -266.78</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -273.29; 15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -127.16; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to -223.08; 5-COMMERCIAL – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to -148.26; 18-CIGNA – New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to -66.78; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -109.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -48.64; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -160.99; 15-UNITED HEALTHCARE – DME Labs per Visit increased from avg 0.10 to 2.00; 18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -18.72; 18-CIGNA – New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to -148.04; 3-MEDICARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -50.26</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -15.53; 15-UNITED HEALTHCARE – Vaccines Charge Billed Balance decreased from avg -10.71 to -150.00; 15-UNITED HEALTHCARE – Vaccines Payment per Visit increased from avg 82.57 to 318.92; 15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -15.14; 15-UNITED HEALTHCARE – Vaccines Payment Amount* increased from avg 90.91 to 318.92; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance decreased from avg 64.00 to -73.99</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -18.59; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -202.89; 3-MEDICARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -50.26; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 166.19; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 54.50 to 332.39; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 27.53 to 166.19</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -92.15; 5-COMMERCIAL – Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to -39.70; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -135.15; 18-CIGNA – New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to -117.84; 15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -51.44; 4-MEDICAID – Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.43 to 3.00</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -293.19; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -166.67; 12-HUMANA – X-Ray CPT Codes Charge Billed Balance decreased from avg -1.21 to -25.51; 15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -133.31; 18-CIGNA – Existing E/M Code Upfront Collections Efficiency decreased from avg -18.20 to -300.32; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -243.09</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -54.03; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -110.00; 15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -61.14; 13-TRICARE – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.55 to 373.44; 13-TRICARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 47.27 to 373.44; 13-TRICARE – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 48.14 to 373.44</t>
+  </si>
+  <si>
+    <t>12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to -105.00; 12-HUMANA – New E/M Codes Upfront Collections Efficiency decreased from avg -6.89 to -104.90; 13-TRICARE – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 200.53 to 752.00; 12-HUMANA – Medications Charge Amount increased from avg 103.29 to 355.00; 12-HUMANA – Medications Payment Amount* increased from avg 12.94 to 40.91; 15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -8.58</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to -134.15; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 200.00; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to -5.18; 18-CIGNA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 51.31 to 182.96; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to -16.34; 3-MEDICARE – New E/M Codes Charge Amount increased from avg 667.84 to 1860.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -88.35; 12-HUMANA – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 30.05 to 216.28; 12-HUMANA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 35.91 to 216.28; 12-HUMANA – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 53.34 to 216.28; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 114.54; 18-CIGNA – Medications Charge Amount increased from avg 210.12 to 730.00</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – Self-pay physical &amp; No Charge Charge Amount increased from avg 7.86 to 45.00; 12-HUMANA – New E/M Codes Charge Billed Balance decreased from avg 0.44 to -1.25; 15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -24.47; 4-MEDICAID – Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to -110.00; 18-CIGNA – New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to -20.00; 4-MEDICAID – New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to -191.91</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -164.28; 3-MEDICARE – New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to -110.54; 18-CIGNA – New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to -90.00; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 62.96 to 296.13; 3-MEDICARE – New E/M Codes Charge Billed Balance decreased from avg 45.73 to -123.57; 5-COMMERCIAL – X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to -35.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -209.42; 4-MEDICAID – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 43.58 to 532.54; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 266.27; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 68.64 to 532.54; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 267.01 to 2000.00; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -137.70</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -73.35; 3-MEDICARE – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to -11.46; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -40.52; 5-COMMERCIAL – New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to -52.21; 3-MEDICARE – New E/M Codes Charge Amount increased from avg 667.84 to 2170.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 3.00</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – Self-pay physical &amp; No Charge Charge Amount increased from avg 7.86 to 65.00; 4-MEDICAID – Self-pay physical &amp; No Charge Charge Billed Balance decreased from avg -11.50 to -61.00; 15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -14.10; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -25.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to -5.11; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 3.00</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – DME Upfront Collections Efficiency decreased from avg 6.87 to -93.40; 18-CIGNA – Existing E/M Code Upfront Collections Efficiency decreased from avg -18.20 to -71.17; 5-COMMERCIAL – Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 1.00; 1-SELF PAY – X-Ray CPT Codes Visit Count increased from avg 2.51 to 9.00; 1-SELF PAY – X-Ray CPT Codes Charge Amount increased from avg 235.81 to 800.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 3.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg -0.06 to -150.00; 3-MEDICARE – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to -121.51; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -262.19; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 62.96 to 381.15; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -162.00; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 95.70 to 381.15</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Vaccines Labs per Visit increased from avg 0.31 to 2.50; 1-SELF PAY – Vaccines Charge Amount increased from avg 296.43 to 1400.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 652.20; 18-CIGNA – Vaccines Payment Amount* increased from avg 111.17 to 413.69; 18-CIGNA – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 70.38 to 235.34; 18-CIGNA – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 49.02 to 159.70</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 28.43 to 230.73; 3-MEDICARE – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 28.43 to 230.73; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 36.72 to 230.73; 4-MEDICAID – DME Charge Amount increased from avg 682.71 to 2507.08; 4-MEDICAID – Medications Payment per Visit increased from avg 15.29 to 53.18; 4-MEDICAID – Medications Charge Amount increased from avg 201.17 to 690.00</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 43.58 to 410.81; 1-SELF PAY – Vaccines Charge Amount increased from avg 296.43 to 2145.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 68.64 to 427.15; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 267.01 to 1382.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 142.38; 1-SELF PAY – Vaccines Visit Count increased from avg 2.07 to 7.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 225.00; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 293.00; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 82.60; 2-BCBS – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 6.35; 13-TRICARE – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 25.52 to 76.73; 13-TRICARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 98.89 to 230.00</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 12.20 to 54.56; 18-CIGNA – New E/M Codes Upfront Collections Efficiency increased from avg 15.12 to 32.15; 12-HUMANA – New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA – New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE – Medications Labs per Visit decreased from avg 1.45 to 0.00</t>
+  </si>
+  <si>
+    <t>12-HUMANA – New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA – Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 165.58; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance increased from avg 64.00 to 199.00; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 12-HUMANA – New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – X-Ray CPT Codes Upfront Collections Efficiency increased from avg 0.55 to 7.38; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 55.28; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 49.00; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg 0.19 to 5.51; 12-HUMANA – Existing E/M Code Charge Billed Balance increased from avg 10.28 to 100.00; 5-COMMERCIAL – New E/M Codes Upfront Collections Efficiency increased from avg 41.75 to 278.37; 5-COMMERCIAL – New E/M Codes Charge Billed Balance increased from avg 122.16 to 287.00; 12-HUMANA – New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 1.82 to 20.68; 1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.00; 13-TRICARE – New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Charge Billed Balance increased from avg 14.47 to 100.00; 17-AETNA – Medications Upfront Collections Efficiency increased from avg 3.36 to 18.78; 17-AETNA – Existing E/M Code Upfront Collections Efficiency increased from avg 51.63 to 204.56; 17-AETNA – Existing E/M Code Charge Billed Balance increased from avg 63.76 to 245.00; 1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE – New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA – Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 76.76; 5-COMMERCIAL – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 20.86 to 135.79; 18-CIGNA – New E/M Codes Upfront Collections Efficiency increased from avg 15.12 to 90.65; 5-COMMERCIAL – Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 293.00; 5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg 0.19 to 0.64; 5-COMMERCIAL – New E/M Codes Charge Billed Balance increased from avg 122.16 to 310.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 160.00; 2-BCBS – New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 284.35; 2-BCBS – After Hours Upfront Collections Efficiency increased from avg 0.08 to 1.60; 2-BCBS – Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 96.94; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 364.54; 2-BCBS – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 12.26</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 17.57; 2-BCBS – New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 30.27; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE – New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 186.19; 18-CIGNA – New E/M Codes Upfront Collections Efficiency increased from avg 15.12 to 72.48; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 1.82 to 12.33; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.66 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 205.00; 15-UNITED HEALTHCARE – Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 65.97; 15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 21.94; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 29.34; 17-AETNA – Existing E/M Code Charge Billed Balance increased from avg 63.76 to 241.00; 2-BCBS – Medications Upfront Collections Efficiency increased from avg 2.09 to 6.84; 17-AETNA – Existing E/M Code Upfront Collections Efficiency increased from avg 51.63 to 143.36; 1-SELF PAY – Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY – New E/M Codes Labs per Visit decreased from avg 0.86 to 0.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Existing E/M Code Upfront Collections Efficiency increased from avg 1.93 to 167.50; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 241.00; 5-COMMERCIAL – Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 293.00; 1-SELF PAY – Medications Charge Amount decreased from avg 65.92 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 2.76 to 89.00; 15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 138.67; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance increased from avg 64.00 to 310.00; 4-MEDICAID – X-Ray CPT Codes Upfront Collections Efficiency increased from avg 3.46 to 11.27; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA – New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 18-CIGNA – X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 12-HUMANA – New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 17-AETNA – New E/M Codes Labs per Visit decreased from avg 1.59 to 0.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.00; 2-BCBS – DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS – Vaccines Labs per Visit decreased from avg 0.10 to 0.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 20.86 to 567.00; 2-BCBS – New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 230.61; 2-BCBS – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 66.03; 4-MEDICAID – Vaccines Charge Billed Balance increased from avg 51.20 to 411.00; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 416.22; 5-COMMERCIAL – Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 525.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 9.90; 2-BCBS – X-Ray CPT Codes Upfront Collections Efficiency increased from avg 0.36 to 32.81; 2-BCBS – New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 714.85; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 1243.38; 13-TRICARE – X-Ray CPT Codes Upfront Collections Efficiency increased from avg 1.30 to 26.10; 13-TRICARE – Medications Upfront Collections Efficiency increased from avg 2.17 to 21.77</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 31.40; 12-HUMANA – New E/M Codes Charge Billed Balance increased from avg 0.44 to 79.87; 17-AETNA – Medications Upfront Collections Efficiency increased from avg 3.36 to 78.70; 3-MEDICARE – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 4.95 to 104.00; 12-HUMANA – New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 110.74; 4-MEDICAID – X-Ray CPT Codes Charge Billed Balance increased from avg 11.37 to 128.00</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – Medications Charge Billed Balance increased from avg 3.82 to 110.00; 4-MEDICAID – Medications Upfront Collections Efficiency increased from avg 1.09 to 17.85; 15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 96.81; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance increased from avg 101.89 to 781.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 62.39 to 475.17; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 37.41</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 148.79; 13-TRICARE – Existing E/M Code Charge Billed Balance increased from avg 88.96 to 735.00; 13-TRICARE – Existing E/M Code Upfront Collections Efficiency increased from avg 33.42 to 274.20; 2-BCBS – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.63 to 158.72; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.50 to 140.31; 18-CIGNA – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 12.20 to 69.21</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 205.00; 12-HUMANA – New E/M Codes Charge Billed Balance increased from avg 0.44 to 55.00; 13-TRICARE – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 25.52 to 491.52; 2-BCBS – New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 159.50; 13-TRICARE – Existing E/M Code Upfront Collections Efficiency increased from avg 33.42 to 321.00; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 446.33</t>
+  </si>
+  <si>
+    <t>4-MEDICAID – Medications Upfront Collections Efficiency increased from avg 1.09 to 20.93; 17-AETNA – DME Upfront Collections Efficiency increased from avg 10.48 to 188.61; 17-AETNA – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg 5.70 to 66.02; 4-MEDICAID – Medications Charge Billed Balance increased from avg 3.82 to 40.00; 4-MEDICAID – Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 1782.00; 4-MEDICAID – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 70.81 to 527.27</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 213.84; 18-CIGNA – X-Ray CPT Codes Charge Billed Balance increased from avg 6.24 to 115.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Upfront Collections Efficiency increased from avg 5.67 to 98.76; 18-CIGNA – X-Ray CPT Codes Upfront Collections Efficiency increased from avg 2.18 to 31.18; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 12.09 to 152.00; 5-COMMERCIAL – New E/M Codes Upfront Collections Efficiency increased from avg 41.75 to 480.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Existing E/M Code Upfront Collections Efficiency increased from avg 1.93 to 63.81; 2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 96.00; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.50 to 202.12; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 220.00; 18-CIGNA – New E/M Codes Upfront Collections Efficiency increased from avg 15.12 to 111.96; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 62.39 to 457.11</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 462.26; 2-BCBS – Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 371.95; 12-HUMANA – Existing E/M Code Charge Billed Balance increased from avg 10.28 to 195.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 25.65; 13-TRICARE – Existing E/M Code Charge Billed Balance increased from avg 88.96 to 735.00; 13-TRICARE – Existing E/M Code Upfront Collections Efficiency increased from avg 33.42 to 267.60</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 8.81 to 358.55; 2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 125.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 17.97 to 436.00; 5-COMMERCIAL – X-Ray CPT Codes Upfront Collections Efficiency increased from avg 3.19 to 63.75; 2-BCBS – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 68.99; 18-CIGNA – Vaccines Charge Billed Balance increased from avg 7.00 to 131.00</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Existing E/M Code Upfront Collections Efficiency increased from avg 1.93 to 98.94; 17-AETNA – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg 5.70 to 98.69; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 29.14 to 436.00; 3-MEDICARE – New E/M Codes Upfront Collections Efficiency increased from avg 13.65 to 156.59; 5-COMMERCIAL – New E/M Codes Upfront Collections Efficiency increased from avg 41.75 to 452.62; 4-MEDICAID – X-Ray CPT Codes Charge Billed Balance increased from avg 11.37 to 123.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 245.00; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 160.00; 13-TRICARE – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 45.89 to 752.00; 17-AETNA – Medications Charge Billed Balance increased from avg 14.47 to 192.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 34.11; 2-BCBS – New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 90.70</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 145.00; 3-MEDICARE – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 1.82 to 185.94; 3-MEDICARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 9.57 to 450.00; 2-BCBS – X-Ray CPT Codes Upfront Collections Efficiency increased from avg 0.36 to 14.87; 15-UNITED HEALTHCARE – Medications Upfront Collections Efficiency increased from avg 2.95 to 67.66; 2-BCBS – New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 149.46</t>
+  </si>
+  <si>
+    <t>5-COMMERCIAL – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 89.00; 15-UNITED HEALTHCARE – DME Upfront Collections Efficiency increased from avg 0.92 to 19.38; 17-AETNA – X-Ray CPT Codes Upfront Collections Efficiency increased from avg 11.15 to 78.65; 2-BCBS – New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 49.67; 17-AETNA – X-Ray CPT Codes Charge Billed Balance increased from avg 22.59 to 136.00; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 368.00</t>
+  </si>
+  <si>
+    <t>18-CIGNA – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 6.53; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 110.85; 12-HUMANA – Medications Charge Billed Balance increased from avg 2.86 to 40.00; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 736.00; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 210.00; 3-MEDICARE – DME Charge Billed Balance increased from avg 8.62 to 69.00</t>
+  </si>
+  <si>
+    <t>15-UNITED HEALTHCARE – New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 407.68; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 192.67; 15-UNITED HEALTHCARE – Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 841.78; 13-TRICARE – Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 25.52 to 337.34; 15-UNITED HEALTHCARE – New E/M Codes Charge Billed Balance increased from avg 64.00 to 814.36; 2-BCBS – X-Ray CPT Codes Upfront Collections Efficiency increased from avg 0.36 to 3.57</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 20.27; 15-UNITED HEALTHCARE – Existing E/M Code Charge Billed Balance increased from avg -7.36 to 167.92; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg 4.07 to 98.43; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 20.00; 4-MEDICAID – Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 12.09 to 208.00; 4-MEDICAID – X-Ray CPT Codes Charge Billed Balance increased from avg 11.37 to 163.00</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 20.27; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 585.00; 3-MEDICARE – New E/M Codes Upfront Collections Efficiency increased from avg 13.65 to 288.42; 3-MEDICARE – X-Ray CPT Codes Charge Billed Balance increased from avg 3.31 to 36.46; 18-CIGNA – New E/M Codes Upfront Collections Efficiency increased from avg 15.12 to 140.44; 3-MEDICARE – New E/M Codes Charge Billed Balance increased from avg 45.73 to 290.71</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 46.18; 2-BCBS – New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 98.67; 18-CIGNA – New E/M Codes Upfront Collections Efficiency increased from avg 15.12 to 151.96; 5-COMMERCIAL – Existing E/M Code Charge Billed Balance increased from avg 25.96 to 245.00; 5-COMMERCIAL – X-Ray CPT Codes Charge Billed Balance increased from avg 17.35 to 123.00; 17-AETNA – X-Ray CPT Codes Upfront Collections Efficiency increased from avg 11.15 to 58.02</t>
+  </si>
+  <si>
+    <t>2-BCBS – X-Ray CPT Codes Upfront Collections Efficiency increased from avg 0.36 to 76.94; 2-BCBS – X-Ray CPT Codes Charge Billed Balance increased from avg 1.10 to 123.00; 18-CIGNA – Existing E/M Code Charge Billed Balance increased from avg -1.08 to 88.71; 2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 267.63; 15-UNITED HEALTHCARE – Medications Charge Billed Balance increased from avg 3.48 to 110.00; 18-CIGNA – Medications Upfront Collections Efficiency increased from avg 0.76 to 18.26</t>
+  </si>
+  <si>
+    <t>3-MEDICARE – Existing E/M Code Charge Billed Balance increased from avg 0.15 to 40.54; 2-BCBS – New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 340.70; 2-BCBS – Medications Charge Billed Balance increased from avg 3.79 to 70.60; 18-CIGNA – X-Ray CPT Codes Charge Billed Balance increased from avg 6.24 to 72.00; 2-BCBS – Existing E/M Code Charge Billed Balance increased from avg -4.13 to 35.52; 2-BCBS – New E/M Codes Charge Billed Balance increased from avg 52.44 to 520.17</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 12-HUMANA – Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.00; 13-TRICARE – Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 12-HUMANA – New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 18-CIGNA – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.00; 18-CIGNA – Vaccines Labs per Visit decreased from avg 0.31 to 0.00; 18-CIGNA – X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00</t>
+  </si>
+  <si>
+    <t>1-SELF PAY – Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 0.00; 1-SELF PAY – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY – X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 15-UNITED HEALTHCARE – Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 0.00; 15-UNITED HEALTHCARE – X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 18-CIGNA – X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 565.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 4.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 5.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Labs per Visit increased from avg 1.60 to 7.00; 17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 3.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.67; 17-AETNA – Medications Charge Amount increased from avg 135.48 to 305.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 464.00; 17-AETNA – Medications Visit Count increased from avg 1.48 to 3.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 5.00; 17-AETNA – Existing E/M Code Labs per Visit increased from avg 1.75 to 4.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Labs per Visit increased from avg 1.60 to 9.00; 17-AETNA – Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 6.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA – X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA – X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 7.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – New E/M Codes Labs per Visit increased from avg 1.59 to 3.50; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 34.92 to 150.69; 17-AETNA – Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.66; 17-AETNA – Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.30 to 0.66; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to -37.05; 17-AETNA – After Hours Labs per Visit increased from avg 2.15 to 5.00; 17-AETNA – Existing E/M Code Labs per Visit increased from avg 1.75 to 4.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 4.00; 17-AETNA – DME Payment per Visit increased from avg 174.97 to 368.10; 17-AETNA – DME NRV Zero Balance* increased from avg 179.12 to 368.10</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 34.92 to 137.69; 17-AETNA – DME Payment per Visit increased from avg 174.97 to 529.98; 17-AETNA – DME NRV Zero Balance* increased from avg 179.12 to 529.98; 17-AETNA – DME Payment Amount* increased from avg 200.73 to 529.98; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Charge Amount increased from avg 135.48 to 334.00; 17-AETNA – Medications Visit Count increased from avg 1.48 to 3.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to -177.97; 17-AETNA – New E/M Codes Labs per Visit increased from avg 1.59 to 5.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Visit Count increased from avg 1.48 to 3.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Labs per Visit increased from avg 1.75 to 2.50; 17-AETNA – After Hours Payment per Visit increased from avg 5.52 to 7.60; 17-AETNA – After Hours NRV Zero Balance* increased from avg 5.52 to 7.60; 17-AETNA – New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Labs per Visit increased from avg 1.75 to 2.67; 17-AETNA – Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 91.06; 17-AETNA – Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 91.06; 17-AETNA – New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – After Hours Payment Amount* increased from avg 18.58 to 46.40; 17-AETNA – Existing E/M Code Labs per Visit increased from avg 1.75 to 3.33; 17-AETNA – After Hours Charge Amount increased from avg 170.58 to 322.00; 17-AETNA – After Hours Visit Count increased from avg 3.75 to 7.00; 17-AETNA – Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 4.00; 17-AETNA – After Hours Payment per Visit increased from avg 5.52 to 6.63</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 6.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 2015.22; 17-AETNA – Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 4744.00; 17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.33; 17-AETNA – X-Ray CPT Codes Visit Count increased from avg 2.12 to 6.00; 17-AETNA – X-Ray CPT Codes Charge Amount increased from avg 292.71 to 760.00; 17-AETNA – Lab/Test CPT Codes Visit Count increased from avg 7.50 to 18.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Payment Amount* increased from avg 31.94 to 155.66; 17-AETNA – Medications Zero Balance Collection Rate increased from avg 0.19 to 0.67; 17-AETNA – Medications NRV Zero Balance* increased from avg 19.97 to 66.96; 17-AETNA – X-Ray CPT Codes Payment per Visit increased from avg 50.98 to 159.11; 17-AETNA – X-Ray CPT Codes Payment Amount* increased from avg 106.71 to 318.23; 17-AETNA – X-Ray CPT Codes NRV Zero Balance* increased from avg 54.42 to 159.11</t>
+  </si>
+  <si>
+    <t>17-AETNA – Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 1920.34; 17-AETNA – Lab/Test CPT Codes Visit Count increased from avg 7.50 to 21.00; 17-AETNA – Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 4359.00; 17-AETNA – New E/M Codes Charge Amount increased from avg 2631.41 to 6745.00; 17-AETNA – New E/M Codes Visit Count increased from avg 8.71 to 22.00; 17-AETNA – X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 2402.40; 17-AETNA – New E/M Codes Payment Amount* increased from avg 1816.92 to 5807.42; 17-AETNA – Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 4470.00; 17-AETNA – New E/M Codes Charge Amount increased from avg 2631.41 to 7365.00; 17-AETNA – New E/M Codes Visit Count increased from avg 8.71 to 24.00; 17-AETNA – Lab/Test CPT Codes Visit Count increased from avg 7.50 to 19.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -222.20; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to -132.51; 17-AETNA – Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 2380.16; 17-AETNA – Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 4615.00; 17-AETNA – Existing E/M Code Payment Amount* increased from avg 810.88 to 2183.16; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to -63.72</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -70.00; 17-AETNA – X-Ray CPT Codes Collection Rate* increased from avg 0.36 to 1.00; 17-AETNA – Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 1664.38; 17-AETNA – X-Ray CPT Codes Payment per Visit increased from avg 50.98 to 131.50; 17-AETNA – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 4.00; 17-AETNA – X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 1.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.76; 17-AETNA – Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.60; 17-AETNA – New E/M Codes Payment per Visit increased from avg 205.14 to 271.21; 17-AETNA – New E/M Codes Collection Rate* increased from avg 0.68 to 0.87</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Payment Amount* increased from avg 106.71 to 412.14; 17-AETNA – Medications Labs per Visit increased from avg 1.60 to 4.00; 17-AETNA – Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 1496.15; 17-AETNA – X-Ray CPT Codes Charge Amount increased from avg 292.71 to 650.00; 17-AETNA – Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 187.02; 17-AETNA – Existing E/M Code Payment Amount* increased from avg 810.88 to 1641.88</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -14.56; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA – Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA – Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.64; 17-AETNA – Existing E/M Code Payment Amount* increased from avg 810.88 to 1154.83</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 540.00; 17-AETNA – Existing E/M Code Charge Amount increased from avg 1291.98 to 1960.00; 17-AETNA – Lab/Test CPT Codes Visit Count increased from avg 7.50 to 11.00; 17-AETNA – Existing E/M Code Payment Amount* increased from avg 810.88 to 1182.88; 17-AETNA – Existing E/M Code Visit Count increased from avg 5.52 to 8.00; 17-AETNA – New E/M Codes Charge Amount increased from avg 2631.41 to 3720.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA – DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00; 17-AETNA – DME Charge Billed Balance decreased from avg 149.25 to 25.00; 17-AETNA – Medications Charge Amount increased from avg 135.48 to 192.00; 17-AETNA – X-Ray CPT Codes Visit Count increased from avg 2.12 to 3.00; 17-AETNA – Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.58</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA – DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00; 17-AETNA – DME Charge Amount increased from avg 429.55 to 630.92; 17-AETNA – Existing E/M Code Visit Count increased from avg 5.52 to 8.00; 17-AETNA – X-Ray CPT Codes Visit Count increased from avg 2.12 to 3.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA – Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA – DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 2.88; 17-AETNA – X-Ray CPT Codes Visit Count increased from avg 2.12 to 4.00; 17-AETNA – Medications Labs per Visit increased from avg 1.60 to 3.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.30 to 1.01; 17-AETNA – New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to -108.32; 17-AETNA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 76.58 to 229.10; 17-AETNA – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 94.17 to 229.10; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to -45.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to -11.97</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to -190.76; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -210.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA – New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA – Existing E/M Code Payment Amount* increased from avg 810.88 to 1459.20; 17-AETNA – Existing E/M Code Charge Amount increased from avg 1291.98 to 2205.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA – X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA – Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 152.69; 17-AETNA – Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.56; 17-AETNA – Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 172.35; 17-AETNA – New E/M Codes NRV Zero Balance* increased from avg 213.66 to 237.89</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 76.58 to 997.19; 17-AETNA – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 94.17 to 997.19; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 2187.00; 17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -64.56; 17-AETNA – DME Payment Amount* increased from avg 200.73 to 460.13; 17-AETNA – Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to -11.31</t>
+  </si>
+  <si>
+    <t>17-AETNA – Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -40.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA – X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA – X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA – Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 31.17</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 2.12; 17-AETNA – Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 2385.00; 17-AETNA – New E/M Codes Charge Amount increased from avg 2631.41 to 3955.00; 17-AETNA – New E/M Codes Visit Count increased from avg 8.71 to 13.00; 17-AETNA – Lab/Test CPT Codes Visit Count increased from avg 7.50 to 11.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – X-Ray CPT Codes Payment per Visit increased from avg 50.98 to 141.77; 17-AETNA – X-Ray CPT Codes NRV Zero Balance* increased from avg 54.42 to 141.77; 17-AETNA – X-Ray CPT Codes Charge Amount increased from avg 292.71 to 480.00; 17-AETNA – X-Ray CPT Codes Payment Amount* increased from avg 106.71 to 141.77; 17-AETNA – Existing E/M Code Charge Amount increased from avg 1291.98 to 1715.00; 17-AETNA – Existing E/M Code Visit Count increased from avg 5.52 to 7.00</t>
+  </si>
+  <si>
+    <t>17-AETNA – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 2.00; 17-AETNA – Medications Payment per Visit increased from avg 18.88 to 21.84; 17-AETNA – New E/M Codes Payment Amount* increased from avg 1816.92 to 2042.68; 17-AETNA – New E/M Codes Payment per Visit increased from avg 205.14 to 226.96; 17-AETNA – Medications NRV Zero Balance* increased from avg 19.97 to 21.84; 17-AETNA – Existing E/M Code Payment per Visit increased from avg 141.04 to 149.41</t>
+  </si>
+  <si>
+    <t>17-AETNA – DME Charge Amount increased from avg 429.55 to 1055.13; 17-AETNA – X-Ray CPT Codes Payment Amount* increased from avg 106.71 to 217.77; 17-AETNA – X-Ray CPT Codes Visit Count increased from avg 2.12 to 4.00; 17-AETNA – X-Ray CPT Codes Charge Amount increased from avg 292.71 to 529.00; 17-AETNA – DME Visit Count increased from avg 1.17 to 2.00; 17-AETNA – New E/M Codes Charge Amount increased from avg 2631.41 to 3720.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – After Hours Payment Amount* increased from avg 50.09 to 175.00; 2-BCBS – Medications Labs per Visit increased from avg 1.33 to 4.50; 2-BCBS – After Hours Collection Rate* increased from avg 0.05 to 0.15; 2-BCBS – After Hours Zero Balance Collection Rate increased from avg 0.05 to 0.15; 2-BCBS – After Hours Payment per Visit increased from avg 2.07 to 6.73; 2-BCBS – After Hours NRV Zero Balance* increased from avg 2.08 to 6.73</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1782.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 592.27; 2-BCBS – Self-pay physical &amp; No Charge Zero Balance Collection Rate increased from avg 0.38 to 1.00; 2-BCBS – Self-pay physical &amp; No Charge Collection Rate* increased from avg 0.38 to 1.00; 2-BCBS – X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1401.00; 2-BCBS – Medications Labs per Visit increased from avg 1.33 to 2.75</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -118.35; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -130.33; 2-BCBS – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to -20.62; 2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – DME NRV Zero Balance* increased from avg 140.68 to 473.50; 2-BCBS – DME Payment per Visit increased from avg 145.60 to 473.50; 2-BCBS – Medications Charge Amount increased from avg 363.59 to 766.00; 2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 731.66; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1552.00; 2-BCBS – Medications Visit Count increased from avg 3.91 to 10.00; 2-BCBS – Medications Charge Amount increased from avg 363.59 to 893.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 12.00; 2-BCBS – Medications Payment Amount* increased from avg 67.30 to 156.57</t>
+  </si>
+  <si>
+    <t>2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.60; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to -2.48; 2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Medications Visit Count increased from avg 3.91 to 9.00; 2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 4.80; 2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -150.46; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -179.32; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.71; 2-BCBS – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to -7.93; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to -13.57; 2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to -355.92; 2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -82.30; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 469.56; 2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Vaccines Labs per Visit increased from avg 0.10 to 2.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.50; 2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.67; 2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to -2.48; 2-BCBS – Medications Charge Amount increased from avg 363.59 to 756.00; 2-BCBS – Medications Visit Count increased from avg 3.91 to 8.00; 2-BCBS – X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1338.00; 2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 14.00; 2-BCBS – Medications Payment Amount* increased from avg 67.30 to 181.65; 2-BCBS – Medications Visit Count increased from avg 3.91 to 10.00; 2-BCBS – Medications Charge Amount increased from avg 363.59 to 925.00; 2-BCBS – DME Charge Amount increased from avg 616.33 to 1466.85; 2-BCBS – X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 599.09</t>
+  </si>
+  <si>
+    <t>2-BCBS – Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 52.00; 2-BCBS – Vaccines Visit Count increased from avg 1.31 to 3.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -107.62; 2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -37.97; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 466.34; 2-BCBS – X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.67; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 52.00; 2-BCBS – X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 2.00; 2-BCBS – Vaccines Visit Count increased from avg 1.31 to 3.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 52.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Vaccines Labs per Visit increased from avg 0.10 to 1.00; 2-BCBS – Medications Labs per Visit increased from avg 1.33 to 3.20; 2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – DME Labs per Visit increased from avg 0.05 to 0.50; 2-BCBS – DME Charge Amount increased from avg 616.33 to 1482.97; 2-BCBS – DME Payment Amount* increased from avg 258.71 to 517.86; 2-BCBS – After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -50.00; 2-BCBS – Vaccines NRV Zero Balance* increased from avg 69.01 to 345.09; 2-BCBS – Vaccines Payment per Visit increased from avg 69.62 to 345.09; 2-BCBS – Vaccines Payment Amount* increased from avg 88.21 to 345.09; 2-BCBS – Vaccines Zero Balance Collection Rate increased from avg 0.64 to 1.64; 2-BCBS – Vaccines Collection Rate* increased from avg 0.64 to 1.64</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.80; 2-BCBS – X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.56; 2-BCBS – X-Ray CPT Codes Visit Count increased from avg 5.04 to 9.00; 2-BCBS – X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 438.71; 2-BCBS – X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1038.00; 2-BCBS – DME Charge Amount increased from avg 616.33 to 965.66</t>
+  </si>
+  <si>
+    <t>2-BCBS – Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.17 to 2.00; 2-BCBS – DME Charge Amount increased from avg 616.33 to 1680.52; 2-BCBS – DME Payment Amount* increased from avg 258.71 to 689.69; 2-BCBS – Medications Labs per Visit increased from avg 1.33 to 3.00; 2-BCBS – DME Visit Count increased from avg 1.61 to 3.00; 2-BCBS – Self-pay physical &amp; No Charge NRV Zero Balance* increased from avg 14.27 to 25.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.75; 2-BCBS – Vaccines Visit Count increased from avg 1.31 to 3.00; 2-BCBS – X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 574.75; 2-BCBS – Vaccines Charge Amount increased from avg 137.31 to 275.05; 2-BCBS – Vaccines Payment Amount* increased from avg 88.21 to 159.70; 2-BCBS – X-Ray CPT Codes Visit Count increased from avg 5.04 to 9.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -62.32; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -71.07; 2-BCBS – X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 2.33; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS – X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -204.90; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -256.10; 2-BCBS – X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1508.00; 2-BCBS – X-Ray CPT Codes Visit Count increased from avg 5.04 to 11.00; 2-BCBS – X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 527.57; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -560.87; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -457.10; 2-BCBS – X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to -8.56; 2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -268.05; 2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 231.76; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 231.76</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg -4.05 to -290.82; 2-BCBS – X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to -9.77; 2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -83.00; 2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -170.34; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -177.00; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -232.60</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -87.98; 2-BCBS – X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 3.50; 2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 118.42; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 118.42; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 473.70; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -90.00; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -72.37; 2-BCBS – Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 2648.14; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -201.15; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -329.34; 2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -22.08; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to -1.65; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to -50.99; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to -40.25; 2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -372.10; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -305.12; 2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 316.71; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 316.71</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -222.92; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -306.29; 2-BCBS – Medications Labs per Visit increased from avg 1.33 to 3.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to -19.11; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 517.88; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 90.76; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 86.31</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -195.15; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -252.85; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1493.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to -22.39; 2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -195.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to -29.00; 2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -150.97; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -183.77; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -297.48; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -256.81; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS – X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -13.16; 2-BCBS – Medications NRV Zero Balance* increased from avg 18.08 to 39.74; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS – Medications Payment per Visit increased from avg 16.62 to 32.67</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -164.83; 2-BCBS – Vaccines Charge Billed Balance decreased from avg -0.69 to -20.00; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -167.31; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -80.61; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -65.54; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -757.42; 2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -129.48; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -776.79; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -152.16; 2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 155.60; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 155.60</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -147.63; 2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -314.63; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to -17.33; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -153.13; 2-BCBS – New E/M Codes Charge Billed Balance decreased from avg 52.44 to -269.24; 2-BCBS – Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.66</t>
+  </si>
+  <si>
+    <t>2-BCBS – DME Labs per Visit increased from avg 0.05 to 1.00; 2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -68.29; 2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -74.02; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -47.06; 2-BCBS – DME Zero Balance Collection Rate increased from avg 0.36 to 1.00; 2-BCBS – DME Collection Rate* increased from avg 0.37 to 1.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -148.28; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -85.52; 2-BCBS – Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 10.54; 2-BCBS – Medications Payment per Visit increased from avg 16.62 to 26.58</t>
+  </si>
+  <si>
+    <t>2-BCBS – New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -86.67; 2-BCBS – Medications Upfront Collections Efficiency decreased from avg 2.09 to -2.09; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS – Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.33; 2-BCBS – X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.63</t>
+  </si>
+  <si>
+    <t>2-BCBS – Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg -4.05 to -235.56; 2-BCBS – Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -94.32; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 110.22; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 440.86; 2-BCBS – DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS – X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – Self-pay physical &amp; No Charge Payment per Visit increased from avg 18.42 to 35.00; 2-BCBS – Self-pay physical &amp; No Charge Payment Amount* increased from avg 18.42 to 35.00; 2-BCBS – X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 55.13; 2-BCBS – Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 3.91; 2-BCBS – New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.85</t>
+  </si>
+  <si>
+    <t>2-BCBS – Medications NRV Zero Balance* increased from avg 18.08 to 67.53; 2-BCBS – Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 98.08; 2-BCBS – Medications Payment per Visit increased from avg 16.62 to 33.77; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 414.71; 2-BCBS – Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 69.12; 2-BCBS – Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 793.00</t>
+  </si>
+  <si>
+    <t>2-BCBS – X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 59.11; 2-BCBS – X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 57.81; 2-BCBS – Medications Payment per Visit increased from avg 16.62 to 18.27; 2-BCBS – Vaccines NRV Zero Balance* increased from avg 69.01 to 75.59; 2-BCBS – Vaccines Payment per Visit increased from avg 69.62 to 75.59; 2-BCBS – New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.92</t>
   </si>
   <si>
     <t>Improved Upfront Collections Efficiency; Investigate Billing Timeliness or Collections</t>
   </si>
   <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 7.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 3.77; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 1045.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.14; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 68.20; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.47; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 3.95; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 5.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 165.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 1.20; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 61.25; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.67; 12-HUMANA ‚Äì Existing E/M Code Visit Count increased from avg 2.31 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount increased from avg 531.67 to 895.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.39; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 1.50; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* increased from avg 205.83 to 347.66; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 4.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 825.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 43.08; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 43.08; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.21; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.21; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 71.45 to 172.33; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 12-HUMANA ‚Äì New E/M Codes Labs per Visit increased from avg 0.90 to 2.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 735.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 1.67; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 219.11; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 128.59; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 128.59; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.41; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.41; 13-TRICARE ‚Äì New E/M Codes Payment Amount* increased from avg 298.18 to 385.78; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 200.53 to 230.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 47.27 to 100.28; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.55 to 100.28; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.44; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.23 to 0.44; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 2.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 48.14 to 100.28; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 142.26; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 142.26; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.58; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.58; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 2.50; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1138.12; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 18.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 3955.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 41.64; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 41.64; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.19; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.19; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.06; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 749.49; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 4.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 406.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 2.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 14.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 3.92; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 4265.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 164.71; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 164.71; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.47 to 0.54; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.54; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 2.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 2305.92; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 419.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 37.83; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 32.14 to 37.83; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.27; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.27; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 2.33; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 113.48; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 5.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1140.00; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 3.20; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 10.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 2327.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 56.02; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 62.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.26; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.24; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.50; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 560.25; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 7.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 1945.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 159.55; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 160.98; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.50 to 0.59; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.57; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.71; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1116.84; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 3.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 67.06; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 67.06; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.29; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.29; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 134.12; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 28.43 to 30.39; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 28.43 to 30.39; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.84; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.27 to 0.84; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.55 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.00; 4-MEDICAID ‚Äì After Hours Visit Count increased from avg 7.28 to 9.00; 4-MEDICAID ‚Äì After Hours Charge Amount increased from avg 323.84 to 414.00; 4-MEDICAID ‚Äì After Hours Payment Amount* increased from avg 146.06 to 185.36; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.35; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.35; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.15; 4-MEDICAID ‚Äì Medications Charge Amount increased from avg 201.17 to 260.00; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 19.35; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 19.35; 4-MEDICAID ‚Äì Medications Payment Amount* increased from avg 31.28 to 38.70; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 119.00; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.41; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.14; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 267.01 to 480.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 108.38; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 43.58 to 108.38; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.20 to 0.45; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.20 to 0.45; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 2.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 68.64 to 216.76; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 4.00; 5-COMMERCIAL ‚Äì After Hours Visit Count increased from avg 1.75 to 2.00; 5-COMMERCIAL ‚Äì After Hours Charge Amount increased from avg 80.50 to 92.00; 5-COMMERCIAL ‚Äì After Hours Labs per Visit increased from avg 2.12 to 4.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 911.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 80.49; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 80.49; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 3.67; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 241.47; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.18 to 3.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 280.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 2.67; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.10 to 3.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit increased from avg 0.68 to 3.00; 12-HUMANA ‚Äì Medications Charge Billed Balance decreased from avg 2.86 to 0.00; 12-HUMANA ‚Äì Medications Payment per Visit increased from avg 10.76 to 11.49; 12-HUMANA ‚Äì Medications NRV Zero Balance* increased from avg 10.79 to 11.49; 12-HUMANA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.11 to 0.12; 12-HUMANA ‚Äì Medications Collection Rate* increased from avg 0.11 to 0.12; 12-HUMANA ‚Äì Medications Labs per Visit increased from avg 0.96 to 2.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.51 to 2.00; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.33 to 2.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 166.67 to 259.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.21 to 2.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 40.50 to 53.94; 3-MEDICARE ‚Äì Vaccines Payment per Visit increased from avg 19.21 to 21.90; 3-MEDICARE ‚Äì Vaccines NRV Zero Balance* increased from avg 19.21 to 21.90; 3-MEDICARE ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.34 to 0.49; 3-MEDICARE ‚Äì Vaccines Collection Rate* increased from avg 0.34 to 0.49; 3-MEDICARE ‚Äì Vaccines Payment Amount* increased from avg 19.21 to 21.90; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 650.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 2.67; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 324.14; 5-COMMERCIAL ‚Äì Medications Charge Amount increased from avg 69.73 to 100.00; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance decreased from avg 14.77 to 0.00; 5-COMMERCIAL ‚Äì Medications Payment per Visit increased from avg 14.74 to 33.64; 5-COMMERCIAL ‚Äì Medications NRV Zero Balance* increased from avg 15.12 to 33.64; 5-COMMERCIAL ‚Äì Medications Zero Balance Collection Rate increased from avg 0.21 to 0.34; 5-COMMERCIAL ‚Äì Medications Collection Rate* increased from avg 0.21 to 0.34; 5-COMMERCIAL ‚Äì Medications Labs per Visit increased from avg 1.73 to 5.00; 5-COMMERCIAL ‚Äì Medications Payment Amount* increased from avg 14.74 to 33.64</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 91.43; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 15.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 1023.00; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 2.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 29.00; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 14.50; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 1.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 10.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1440.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 144.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.50; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 33.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 12.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 735.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.87 to 3.78; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 86.91; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 86.91; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.39; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.37 to 2.00; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 1.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 310.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 122.08; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 135.40 to 122.08; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.44 to 0.39; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.39; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 122.08; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 73.04; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 73.04; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.30; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.37 to 0.30; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 385.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 6.21; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 68.62 to 6.21; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.05; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.05; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 2.67; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 18.62; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 3.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 930.00; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 8.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 1960.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 11.16; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 11.16; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.11; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.11; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 44.62; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 1.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 89.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 14.34; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 14.34; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.16; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.16; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 14.34; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 1.33; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 1.33; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.12 to 0.03; 17-AETNA ‚Äì After Hours Collection Rate* decreased from avg 0.12 to 0.03; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 2.00; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 8.00; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 980.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 135.44; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 135.44; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.55; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.55; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.25; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 541.76; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.35; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.35; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 176.18; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 176.18; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.56; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.56; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1585.64; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.81; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 69.26; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 69.26; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.30; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.30; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 346.29; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 36.23 to 66.45; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 12.20 to 54.56; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.58; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 15.12 to 32.15; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 30.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.30 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 2.80; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 24.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.74; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 5353.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 3435.75; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 34.29; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 34.29; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.17; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.17; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.17; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.70; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 176.19; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 176.19; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 47.15; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 47.15; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.34; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.34; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.50; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 405.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 81.16; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 81.16; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.40; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.40; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 162.32; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 460.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 620.04; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 33.20; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 33.20; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.41 to 0.21; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.38 to 0.21; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 1.00; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 132.78; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 36.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.39 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 30.39; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.48 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 207.62 to 128.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 28.74 to 16.28; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 30.60 to 16.28; 3-MEDICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.13; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.20 to 0.13; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 45.10 to 16.28; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment per Visit decreased from avg 20.66 to 20.60; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* decreased from avg 20.63 to 20.60; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.46 to 0.45; 4-MEDICAID ‚Äì After Hours Collection Rate* decreased from avg 0.46 to 0.45; 4-MEDICAID ‚Äì After Hours Labs per Visit decreased from avg 2.04 to 1.67; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 9.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.41; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 1780.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 70.02; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 70.02; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.22; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 630.15; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 13.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 1749.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 28.18; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 28.18; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.21; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 366.38; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 2.00; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.15; 4-MEDICAID ‚Äì Medications Collection Rate* decreased from avg 0.15 to 0.15; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 1.00; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 14.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.69; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 4100.00; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 119.00; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.41; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1666.01; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 1.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 128.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 24.94; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.27; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.27; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.67; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 545.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 55.29; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 55.29; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.20; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.20; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 1.50; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 110.58; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 16.79; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 16.79; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.18; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.18; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 50.36; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 128.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 42.78 to 29.04; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 42.19 to 29.04; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.34 to 0.23; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.37 to 0.23; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 46.81 to 29.04; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 1.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 75.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 75.00; 12-HUMANA ‚Äì Medications Visit Count decreased from avg 1.14 to 1.00; 12-HUMANA ‚Äì Medications Charge Amount decreased from avg 103.29 to 94.00; 12-HUMANA ‚Äì Medications Payment Amount* decreased from avg 12.94 to 11.49; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.36 to 1.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 155.71 to 119.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -12.86 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 35.91 to 17.68; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 30.05 to 17.68; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.21 to 0.15; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 53.34 to 17.68; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 26.97; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.05 to 26.97; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.26 to 0.21; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.26 to 0.21; 17-AETNA ‚Äì Medications Payment per Visit decreased from avg 18.88 to 18.07; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 18.07; 17-AETNA ‚Äì Medications Labs per Visit decreased from avg 1.60 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 39.53; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.28; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 1.75; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 256.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 40.08; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 40.08; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.31; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.31; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 80.16; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.08 to 1.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -2.92 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.17 to 0.00; 3-MEDICARE ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì Vaccines Charge Amount decreased from avg 65.50 to 45.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.81 to 3.69; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 108.05; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 108.05; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.50; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.50; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 6.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 276.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 8.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 2120.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 91.71; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 91.71; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.25; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 733.65; 17-AETNA ‚Äì New E/M Codes Visit Count increased from avg 8.71 to 9.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.04; 17-AETNA ‚Äì New E/M Codes Charge Amount increased from avg 2631.41 to 2850.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 2.33; 17-AETNA ‚Äì Medications Visit Count increased from avg 1.48 to 2.00; 17-AETNA ‚Äì Medications Charge Amount increased from avg 135.48 to 160.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.19 to 0.23; 17-AETNA ‚Äì Medications Collection Rate* increased from avg 0.18 to 0.23; 17-AETNA ‚Äì Medications Payment Amount* increased from avg 31.94 to 36.14; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 4.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 565.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 34.92 to 39.53; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.28; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 94.17 to 158.11; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 1.50</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 25.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 1104.00; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Labs per Visit increased from avg 1.97 to 2.28; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 143.16; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 143.16; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.00; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 39.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 7705.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.03; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1337.40; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 4.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 436.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 18.69; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 18.69; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.17; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 2.75; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 74.74; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 35.00; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 10034.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.61; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.61; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.17; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 6166.71; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 10.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1782.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 59.23; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 59.23; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.33; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.33; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.20; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 592.27; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 10.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1401.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 471.52; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 25.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 18.42 to 25.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge NRV Zero Balance* increased from avg 14.27 to 25.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Zero Balance Collection Rate increased from avg 0.38 to 1.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Collection Rate* increased from avg 0.38 to 1.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Payment Amount* increased from avg 18.42 to 25.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 8.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 1045.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 2.88; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.77; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 125.00; 1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 47.50; 1-SELF PAY ‚Äì Medications Labs per Visit increased from avg 1.13 to 2.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 160.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 4.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 2.25; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.67; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 92.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count increased from avg 2.31 to 5.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount increased from avg 531.67 to 1135.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* increased from avg 205.83 to 290.75; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 393.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 2.50; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 91.95; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.38; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 3.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 523.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 99.71; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 99.71; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.38; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.38; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 199.41; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 37.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to -22.18; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 116.40; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 119.80; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.39; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.43; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.44; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.44; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 2.20; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 12.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 2754.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.17; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 2.29; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 4.50; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 5.00; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 7.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1630.00; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.43; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 512.15; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 10.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 2313.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 66.99; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 66.99; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.29; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.29; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 669.88; 18-CIGNA ‚Äì Medications Visit Count increased from avg 1.75 to 3.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.22 to 0.26; 18-CIGNA ‚Äì Medications Collection Rate* increased from avg 0.22 to 0.26; 18-CIGNA ‚Äì Medications Payment Amount* increased from avg 45.71 to 50.57; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 150.59; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.59; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.50 to 0.51; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.51; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.60; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 67.06; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 67.06; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.29; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.29; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 134.12; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.43; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 2.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.55 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.00; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 26.48; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 26.48; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.46 to 0.58; 4-MEDICAID ‚Äì After Hours Collection Rate* increased from avg 0.46 to 0.58; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 2.75; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.34; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.24; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.10; 4-MEDICAID ‚Äì Medications Charge Amount increased from avg 201.17 to 265.00; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 33.86; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 33.86; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 2.00; 4-MEDICAID ‚Äì Medications Payment Amount* increased from avg 31.28 to 33.86; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 126.19; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 126.19; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.44; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.44; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 2.50; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 3.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 377.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.67; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 75.74; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 6.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 1371.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 228.80; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 855.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 2.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.18 to 4.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 325.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.10 to 2.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.36 to 2.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.22; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.21 to 0.22; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 31.67 to 34.28; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 31.05 to 34.28; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.26 to 0.65; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.26 to 0.65; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 980.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 3.00; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance decreased from avg 14.77 to 0.00; 5-COMMERCIAL ‚Äì Medications Labs per Visit increased from avg 1.73 to 2.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.68; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 112.50; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 13.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 991.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 50.77; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 2.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 12.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.78; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1920.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.50; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 15.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 3.75; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 15.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 560.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 39.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 1.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 92.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 58.15; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 58.15; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.26; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.39 to 0.26; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 39.97 to 35.44; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 40.10 to 35.44; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.18; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.19 to 0.18; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 70.88; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 1.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 310.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 123.67; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 135.40 to 123.67; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.44 to 0.40; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.40; 12-HUMANA ‚Äì New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 123.67; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 1.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 245.00; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 91.95; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.38; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 91.95; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 2.50; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.56; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 545.00; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 1.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 232.80; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 10.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.67; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 2195.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 96.17; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 96.17; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 961.71; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 24.83; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 24.83; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.11; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.11; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 297.95; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 150.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 11.36; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 11.36; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.08; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.08; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 11.36; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 7.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.71; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 2020.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 123.96; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 123.96; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.43; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.43; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 867.70; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 60.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 1.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 1.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.05; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.05; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 115.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 23.93; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 23.93; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.21; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 23.93; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 5.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.40; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 970.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 110.07; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 110.07; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.57; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.57; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 550.33; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 7.00; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.37; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.37; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 201.78; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 201.78; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.65; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.65; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1816.01; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.82; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 73.16; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 73.16; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.31; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.31; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 194.00; 18-CIGNA ‚Äì Medications Payment per Visit decreased from avg 26.22 to 16.86; 18-CIGNA ‚Äì Medications NRV Zero Balance* decreased from avg 26.82 to 16.86; 18-CIGNA ‚Äì Medications Labs per Visit decreased from avg 1.77 to 1.67; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 5.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.77; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1475.00; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 752.94; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 30.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.30 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 2.80; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.61 to 0.59; 2-BCBS ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.59; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.16; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.16; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 13.63; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 13.63; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.77; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 181.58; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 178.04; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 36.20; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 36.20; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 86.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 58.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 58.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 58.80; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 2.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 263.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 103.59; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 1.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 245.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 80.10; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 80.10; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.33; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.33; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 80.10; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 460.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.00; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 2.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 310.02; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 66.50; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 66.50; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 132.99; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.48 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 207.62 to 128.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 28.74 to 20.65; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 30.60 to 20.65; 3-MEDICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.16; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.20 to 0.16; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 45.10 to 20.65; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 4.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 184.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 105.92; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 8.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.44; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 1620.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 69.25; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 69.25; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.34; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.62; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 553.99; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 10.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 1691.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 40.81; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 40.81; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.24; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 408.08; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.13; 4-MEDICAID ‚Äì Medications Collection Rate* decreased from avg 0.15 to 0.13; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 12.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.64; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 3480.00; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.50; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1514.23; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 2.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 180.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 14.61; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 14.61; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.16; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.16; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 29.22; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 25.25; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 25.25; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.20; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.20; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 38.13; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 38.13; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.17; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.17; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.67; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 59.45; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 59.45; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.21; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.21; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 178.36; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 18.65; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 18.65; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.23; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.23; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 1.75; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 74.60; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 128.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 42.78 to 23.80; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 42.19 to 23.80; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.34 to 0.19; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.37 to 0.19; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 46.81 to 23.80; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 155.71 to 144.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -12.86 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 35.91 to 15.99; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 30.05 to 15.99; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.51 to 1.50; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 53.34 to 31.98; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 166.67 to 53.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 40.50 to 34.28; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 30.00; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 121.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 47.22; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 47.22; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.39; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 47.22; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 41.16; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 41.16; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.17; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.17; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 164.66; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00; 5-COMMERCIAL ‚Äì Medications Charge Amount decreased from avg 69.73 to 15.00; 5-COMMERCIAL ‚Äì Medications Payment per Visit decreased from avg 14.74 to 0.19; 5-COMMERCIAL ‚Äì Medications NRV Zero Balance* decreased from avg 15.12 to 0.19; 5-COMMERCIAL ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.21 to 0.01; 5-COMMERCIAL ‚Äì Medications Collection Rate* decreased from avg 0.21 to 0.01; 5-COMMERCIAL ‚Äì Medications Payment Amount* decreased from avg 14.74 to 0.19; 17-AETNA ‚Äì DME Visit Count decreased from avg 1.17 to 1.00; 17-AETNA ‚Äì DME Charge Amount decreased from avg 429.55 to 275.00; 17-AETNA ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.00 to 1.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 4.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 184.00; 17-AETNA ‚Äì After Hours Payment per Visit increased from avg 5.52 to 8.00; 17-AETNA ‚Äì After Hours NRV Zero Balance* increased from avg 5.52 to 8.00; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.12 to 0.17; 17-AETNA ‚Äì After Hours Collection Rate* increased from avg 0.12 to 0.17; 17-AETNA ‚Äì After Hours Labs per Visit increased from avg 2.15 to 2.75; 17-AETNA ‚Äì After Hours Payment Amount* increased from avg 18.58 to 32.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 2183.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 116.31; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 116.31; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.29; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 814.17; 17-AETNA ‚Äì New E/M Codes Visit Count increased from avg 8.71 to 9.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì New E/M Codes Charge Amount increased from avg 2631.41 to 2790.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 1.78; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 5.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.36 to 0.39; 17-AETNA ‚Äì DME Charge Billed Balance decreased from avg 149.25 to 0.00; 17-AETNA ‚Äì DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00; 17-AETNA ‚Äì DME Payment per Visit increased from avg 174.97 to 235.00; 17-AETNA ‚Äì DME NRV Zero Balance* increased from avg 179.12 to 235.00; 17-AETNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.58 to 0.85; 17-AETNA ‚Äì DME Collection Rate* increased from avg 0.54 to 0.85; 17-AETNA ‚Äì DME Payment Amount* increased from avg 200.73 to 235.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 22.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 966.00; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Labs per Visit increased from avg 1.97 to 2.32; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 25.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 3.99; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 6108.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 145.13; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 145.13; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.64; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 3628.34; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 37.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 10131.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to -20.62; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 43.88; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 43.51; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.59; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1623.40; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 7.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 470.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.20; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.20; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 1.57; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 95.42; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 37.00; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 10729.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to -130.33; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -118.35; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.62; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.63; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.16; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 6718.45; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 10.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 976.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.37; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.37; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.70; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 362.02; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.68; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.68; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 51.80; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 51.80; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.39; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.39; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.50</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 7.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 800.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit increased from avg 125.79 to 135.71; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.71; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 23.00; 1-SELF PAY ‚Äì Medications Visit Count increased from avg 2.00 to 3.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 80.00; 1-SELF PAY ‚Äì Medications Labs per Visit increased from avg 1.13 to 1.67; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 168.75; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 3.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 2.33; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 24.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 1335.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 55.62; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.75; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 1.50; 12-HUMANA ‚Äì Existing E/M Code Visit Count increased from avg 2.31 to 3.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount increased from avg 531.67 to 735.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 134.56; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 134.56; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.55; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.55; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 2.67; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* increased from avg 205.83 to 403.67; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 5.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 1799.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 58.96; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 58.96; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.60; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 71.45 to 294.82; 12-HUMANA ‚Äì New E/M Codes Visit Count increased from avg 2.13 to 3.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount increased from avg 654.68 to 930.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 12-HUMANA ‚Äì New E/M Codes Labs per Visit increased from avg 0.90 to 3.33; 12-HUMANA ‚Äì New E/M Codes Payment Amount* increased from avg 300.52 to 367.62; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 650.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 86.34; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.40; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 4.67; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 259.02; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 4.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 951.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 76.83; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 76.83; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.32; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 4.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 307.34; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.34; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 2.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.29; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.23 to 0.29; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 7.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 12.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 2515.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 1.92; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1045.76; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 15.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 3024.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 4.19; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 39.30; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 41.52; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.20; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.19; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 2.80; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 589.50; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 3.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 294.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to -3.89; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit increased from avg 21.82 to 23.02; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.22; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* increased from avg 0.16 to 0.23; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* increased from avg 46.29 to 69.07; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 3.92; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to -150.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -145.36; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 152.11; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.51; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 2.36; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 1673.20; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 5.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1140.00; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 98.94; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.43; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.60; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 494.68; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 7.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 1988.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 77.27; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 77.27; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.27; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.27; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.14; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 540.88; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 150.98; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.98; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 3.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 68.84; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 68.84; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.28 to 0.66; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.27 to 0.66; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 61.27 to 68.84; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 5.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 1055.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 1.80; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 403.10; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 4.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 876.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 58.94; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 58.94; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.27; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.27; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 2.75; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 235.78; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 6.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.43; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 1.83; 4-MEDICAID ‚Äì After Hours Visit Count increased from avg 7.28 to 11.00; 4-MEDICAID ‚Äì After Hours Charge Amount increased from avg 323.84 to 506.00; 4-MEDICAID ‚Äì After Hours Payment Amount* increased from avg 146.06 to 211.84; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 22.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount increased from avg 3214.84 to 4210.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* increased from avg 1068.72 to 1385.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 18.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 3451.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 44.50; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.33; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 801.08; 4-MEDICAID ‚Äì Medications Charge Amount increased from avg 201.17 to 232.00; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 16.69; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 16.69; 4-MEDICAID ‚Äì Medications Payment Amount* increased from avg 31.28 to 33.38; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 16.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 115.71; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.41; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.06; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* increased from avg 1765.78 to 1851.35; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 5.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 267.01 to 447.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.20 to 0.27; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.20 to 0.27; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 68.64 to 118.99; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 3.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 426.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 27.57 to 31.75; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 27.38 to 31.75; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.22; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.22; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 95.24; 5-COMMERCIAL ‚Äì After Hours Visit Count increased from avg 1.75 to 6.00; 5-COMMERCIAL ‚Äì After Hours Charge Amount increased from avg 80.50 to 276.00; 5-COMMERCIAL ‚Äì After Hours Labs per Visit increased from avg 2.12 to 3.00; 5-COMMERCIAL ‚Äì After Hours Payment Amount* increased from avg 43.37 to 102.20; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 8.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 2073.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 82.46; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 82.46; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.32; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 3.25; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 659.65; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 8.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 2330.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 2.88; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* increased from avg 360.69 to 1110.66; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.18 to 8.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 765.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 38.45 to 46.62; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.35 to 0.49; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.39 to 0.49; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 2.88; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 95.70 to 372.94; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.10 to 2.00; 12-HUMANA ‚Äì Medications Charge Amount increased from avg 103.29 to 150.00; 12-HUMANA ‚Äì Medications Charge Billed Balance decreased from avg 2.86 to 0.00; 12-HUMANA ‚Äì Medications Payment per Visit increased from avg 10.76 to 12.02; 12-HUMANA ‚Äì Medications NRV Zero Balance* increased from avg 10.79 to 12.02; 12-HUMANA ‚Äì Medications Labs per Visit increased from avg 0.96 to 5.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.36 to 2.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.51 to 5.00; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.33 to 2.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 166.67 to 256.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.21 to 2.50; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 40.50 to 49.58; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 980.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 438.22; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance decreased from avg 14.77 to 0.00; 5-COMMERCIAL ‚Äì Medications Zero Balance Collection Rate increased from avg 0.21 to 0.34; 5-COMMERCIAL ‚Äì Medications Collection Rate* increased from avg 0.21 to 0.34; 18-CIGNA ‚Äì DME Charge Billed Balance decreased from avg 2.46 to 0.00; 18-CIGNA ‚Äì DME Upfront Collections Efficiency decreased from avg 2.44 to 0.00; 18-CIGNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.49 to 0.50; 18-CIGNA ‚Äì DME Collection Rate* increased from avg 0.48 to 0.50; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.43 to 1.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.68; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 985.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 42.83; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 1.04; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 26.67; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 4.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.18; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 640.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.25; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 30.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 10.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 2.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 160.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 80.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.16; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.19 to 0.16; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 122.54; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 135.40 to 122.54; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.44 to 0.40; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.40; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.50; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 86.34; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.40; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.32; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 1.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 235.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 80.41; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 80.41; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.34; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 80.41; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 200.53 to 30.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 47.27 to 8.83; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.55 to 8.83; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 48.14 to 8.83; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.60; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 87.15; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 87.15; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.42; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.42; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 22.17; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 11.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 3312.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 138.48; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.46; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 1.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 119.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 251.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 10.65; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 10.65; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.08; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.08; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 21.31; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 4.80; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 4.80; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.12 to 0.10; 17-AETNA ‚Äì After Hours Collection Rate* decreased from avg 0.12 to 0.10; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 1.40; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.74; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 895.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 114.87; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 114.87; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.51; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.51; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 0.50; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 459.47; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 7.00; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.36; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.36; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.64; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 190.46; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 190.46; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.68; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.77; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 98.94; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.43; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 3.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 930.00; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.49; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 452.94; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 105.00; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 2-BCBS ‚Äì After Hours Labs per Visit decreased from avg 1.97 to 1.92; 2-BCBS ‚Äì DME Visit Count decreased from avg 1.61 to 1.00; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.84; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.17; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 1.29; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.67; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 173.96; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 173.96; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.61 to 0.61; 2-BCBS ‚Äì New E/M Codes Collection Rate* decreased from avg 0.61 to 0.61; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 375.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 17.03; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 17.03; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.27; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.27; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 1.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 102.16; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 5.00; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.37; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.37; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.75; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 80.62; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 80.62; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.38; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.38; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 310.06; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 22.05; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 22.05; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 132.28; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment per Visit decreased from avg 20.66 to 19.26; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* decreased from avg 20.63 to 19.26; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.46 to 0.42; 4-MEDICAID ‚Äì After Hours Collection Rate* decreased from avg 0.46 to 0.42; 4-MEDICAID ‚Äì After Hours Labs per Visit decreased from avg 2.04 to 1.55; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.53; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 62.95; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 62.95; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.33; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.33; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 44.50; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 2.00; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.14; 4-MEDICAID ‚Äì Medications Collection Rate* decreased from avg 0.15 to 0.14; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.62; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 4510.00; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 115.71; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.41; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 23.80; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 23.80; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 1.20; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.67; 5-COMMERCIAL ‚Äì After Hours Payment per Visit decreased from avg 23.47 to 17.03; 5-COMMERCIAL ‚Äì After Hours NRV Zero Balance* decreased from avg 23.47 to 17.03; 5-COMMERCIAL ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.51 to 0.37; 5-COMMERCIAL ‚Äì After Hours Collection Rate* decreased from avg 0.51 to 0.37; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.32; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.72; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 138.83; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 138.83; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.48; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.48; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 46.62; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 128.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 42.78 to 32.93; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 42.19 to 32.93; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.34 to 0.26; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.37 to 0.26; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 46.81 to 32.93; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 1.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 85.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 85.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 12-HUMANA ‚Äì Medications Visit Count decreased from avg 1.14 to 1.00; 12-HUMANA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.11 to 0.08; 12-HUMANA ‚Äì Medications Collection Rate* decreased from avg 0.11 to 0.08; 12-HUMANA ‚Äì Medications Payment Amount* decreased from avg 12.94 to 12.02; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 155.71 to 149.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -12.86 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 35.91 to 12.30; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 30.05 to 12.30; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.17; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.21 to 0.17; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 53.34 to 24.60; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 24.79; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.05 to 24.79; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.26 to 0.19; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.26 to 0.19; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Charge Amount decreased from avg 135.48 to 15.00; 17-AETNA ‚Äì Medications Payment per Visit decreased from avg 18.88 to 0.41; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 0.41; 17-AETNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.19 to 0.03; 17-AETNA ‚Äì Medications Collection Rate* decreased from avg 0.18 to 0.03; 17-AETNA ‚Äì Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 0.41; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 121.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 7.13; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 34.92 to 7.13; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.18; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.18; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 21.40; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 40.83; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 40.83; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.24; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.24; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 109.56; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 109.56; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.45; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.45; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 1.75; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00; 5-COMMERCIAL ‚Äì Medications Charge Amount decreased from avg 69.73 to 15.00; 5-COMMERCIAL ‚Äì Medications Payment per Visit decreased from avg 14.74 to 5.13; 5-COMMERCIAL ‚Äì Medications NRV Zero Balance* decreased from avg 15.12 to 5.13; 5-COMMERCIAL ‚Äì Medications Labs per Visit decreased from avg 1.73 to 0.00; 5-COMMERCIAL ‚Äì Medications Payment Amount* decreased from avg 14.74 to 5.13; 17-AETNA ‚Äì DME Visit Count decreased from avg 1.17 to 1.00; 17-AETNA ‚Äì DME Zero Balance Collection Rate decreased from avg 0.58 to 0.43; 17-AETNA ‚Äì DME Collection Rate* decreased from avg 0.54 to 0.43; 1-SELF PAY ‚Äì After Hours Visit Count decreased from avg 1.00 to 1.00; 18-CIGNA ‚Äì DME Visit Count decreased from avg 1.36 to 1.00; 18-CIGNA ‚Äì DME Charge Amount decreased from avg 561.12 to 215.70; 18-CIGNA ‚Äì DME Payment per Visit decreased from avg 226.34 to 107.85; 18-CIGNA ‚Äì DME NRV Zero Balance* decreased from avg 228.13 to 107.85; 18-CIGNA ‚Äì DME Payment Amount* decreased from avg 272.63 to 107.85; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.14 to 1.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 7.86 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -11.50 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 5.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 230.00; 17-AETNA ‚Äì After Hours Payment Amount* increased from avg 18.58 to 24.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 2034.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 104.91; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 104.91; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.43; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 734.35; 17-AETNA ‚Äì New E/M Codes Visit Count increased from avg 8.71 to 10.00; 17-AETNA ‚Äì New E/M Codes Charge Amount increased from avg 2631.41 to 2800.01; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.68; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 2.20; 17-AETNA ‚Äì New E/M Codes Payment Amount* increased from avg 1816.92 to 1904.64; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 3.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 3.33; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.12 to 3.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 292.71 to 515.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 1.33; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 106.71 to 122.49; 17-AETNA ‚Äì DME Charge Amount increased from avg 429.55 to 777.05; 17-AETNA ‚Äì DME Charge Billed Balance decreased from avg 149.25 to 0.00; 17-AETNA ‚Äì DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00; 17-AETNA ‚Äì DME Payment per Visit increased from avg 174.97 to 333.10; 17-AETNA ‚Äì DME NRV Zero Balance* increased from avg 179.12 to 333.10; 17-AETNA ‚Äì DME Payment Amount* increased from avg 200.73 to 333.10</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 37.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 1702.00; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 852.05; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Payment per Visit increased from avg 145.60 to 473.50; 2-BCBS ‚Äì DME NRV Zero Balance* increased from avg 140.68 to 473.50; 2-BCBS ‚Äì DME Zero Balance Collection Rate increased from avg 0.36 to 0.56; 2-BCBS ‚Äì DME Collection Rate* increased from avg 0.37 to 0.56; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 473.50; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 31.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 7165.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 144.76; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 144.76; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.63; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.63; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.16; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 4487.70; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 42.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 9888.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 56.92; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 56.92; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.24; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.20 to 0.24; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.31; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 2390.73; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 7.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 766.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 18.84; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 18.84; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.17; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 131.90; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 38.00; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 10805.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.08; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 6610.64; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 6.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 791.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 58.10; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 58.10; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 0.80; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 290.49</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 6.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.17; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 21.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1685.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 80.24; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.52; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 84.00; 1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 42.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 157.31; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 1.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 155.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 155.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.80; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 2.50; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 94.99; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 94.99; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.39; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 2.50; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 3.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 12-HUMANA ‚Äì New E/M Codes Visit Count increased from avg 2.13 to 3.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount increased from avg 654.68 to 930.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 12-HUMANA ‚Äì New E/M Codes Labs per Visit increased from avg 0.90 to 1.33; 12-HUMANA ‚Äì New E/M Codes Payment Amount* increased from avg 300.52 to 370.81; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 97.06; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.54 to 97.06; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.40; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 2.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 80.53; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 80.53; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.38; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.38; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 4.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 161.06; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 214.90; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 214.90; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.69; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.69; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 2.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* increased from avg 298.18 to 429.80; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.44; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.44; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 2.10; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 14.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 2377.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.07; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 3.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 644.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit increased from avg 21.82 to 112.53; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* increased from avg 22.82 to 112.53; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.52; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* increased from avg 0.16 to 0.52; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 2.33; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* increased from avg 46.29 to 337.58; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 144.88; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 165.58; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.47 to 0.53; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 2.75; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 4.48; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 5.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.26; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.26; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 79.08; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 6.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1215.00; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 96.74; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.48; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.48; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 580.43; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 45.47; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.24; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.24; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.83; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.22 to 0.33; 18-CIGNA ‚Äì Medications Collection Rate* increased from avg 0.22 to 0.33; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 3.50; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 6.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 83.26; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 83.26; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.28; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.28; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 132.99; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 88.40 to 132.99; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.43; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 1.50; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 207.62 to 259.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.55 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 28.74 to 53.27; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 30.60 to 53.27; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.20 to 0.21; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 45.10 to 53.27; 4-MEDICAID ‚Äì After Hours Visit Count increased from avg 7.28 to 9.00; 4-MEDICAID ‚Äì After Hours Charge Amount increased from avg 323.84 to 414.00; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 2.33; 4-MEDICAID ‚Äì After Hours Payment Amount* increased from avg 146.06 to 158.88; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 19.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount increased from avg 3214.84 to 4145.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 77.58; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.42; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* increased from avg 1068.72 to 1474.08; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 21.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 4516.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 51.57; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 51.57; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.24; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.62; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 1083.02; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.40; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.31; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 4.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 4.75; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.25; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.25; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.50; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 555.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 68.45; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 68.45; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.37; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.37; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 205.35; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.36 to 2.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.51 to 4.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.21 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 810.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 348.99; 18-CIGNA ‚Äì DME Charge Amount increased from avg 561.12 to 689.80; 18-CIGNA ‚Äì DME Charge Billed Balance decreased from avg 2.46 to 0.00; 18-CIGNA ‚Äì DME Upfront Collections Efficiency decreased from avg 2.44 to 0.00; 18-CIGNA ‚Äì DME Payment per Visit increased from avg 226.34 to 344.90; 18-CIGNA ‚Äì DME NRV Zero Balance* increased from avg 228.13 to 344.90; 18-CIGNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.49 to 0.50; 18-CIGNA ‚Äì DME Collection Rate* increased from avg 0.48 to 0.50; 18-CIGNA ‚Äì DME Payment Amount* increased from avg 272.63 to 344.90; 13-TRICARE ‚Äì Medications Charge Billed Balance decreased from avg 39.88 to 0.00; 13-TRICARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.17 to 0.00; 13-TRICARE ‚Äì Medications Payment per Visit increased from avg 11.74 to 11.79; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance decreased from avg 131.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.62; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 480.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 90.00; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 2.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 13.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.74; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1940.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 1.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 15.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 705.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 45.33; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 2.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 160.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 40.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 490.00; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.39; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 189.99; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 358.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 39.97 to 10.87; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 40.10 to 10.87; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.09; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.19 to 0.09; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 32.61; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 123.60; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 135.40 to 123.60; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.44 to 0.40; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.40; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 2.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 490.00; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.40; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 194.11; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 422.00; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 620.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 10.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.54; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 2025.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 88.30; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 88.30; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 883.03; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.50 to 31.94; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 21.29; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 22.93; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.14; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.13; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 298.12; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 8.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 2480.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 64.00 to 199.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 165.58; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.47; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 1159.05; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 119.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 6.64; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 13.28; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.15; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.11; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 13.28; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 309.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 26.36; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 26.36; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.12 to 0.09; 17-AETNA ‚Äì After Hours Collection Rate* decreased from avg 0.12 to 0.09; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 1.17; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 5.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.78; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 1140.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 138.35; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 138.35; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.61; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.61; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.20; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 691.76; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 7.00; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.35; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.35; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 8.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.38; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 2105.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 157.27; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 157.27; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.60; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.60; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1258.17; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.48; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 96.74; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 1.50; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 6.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1141.00; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 45.47; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 272.83; 18-CIGNA ‚Äì Medications Visit Count decreased from avg 1.75 to 1.00; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 76.00; 18-CIGNA ‚Äì Medications Payment per Visit decreased from avg 26.22 to 24.97; 18-CIGNA ‚Äì Medications NRV Zero Balance* decreased from avg 26.82 to 24.97; 18-CIGNA ‚Äì Medications Labs per Visit decreased from avg 1.77 to 0.00; 18-CIGNA ‚Äì Medications Payment Amount* decreased from avg 45.71 to 24.97; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 4.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.48; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1090.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 128.72; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 128.72; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.47; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.47; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 514.88; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 30.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.30 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 2.80; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 121.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 34.38 to 32.03; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 34.64 to 32.03; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.26; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.26; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 32.03; 2-BCBS ‚Äì After Hours Payment per Visit decreased from avg 2.07 to 0.56; 2-BCBS ‚Äì After Hours NRV Zero Balance* decreased from avg 2.08 to 0.56; 2-BCBS ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.05 to 0.01; 2-BCBS ‚Äì After Hours Collection Rate* decreased from avg 0.05 to 0.01; 2-BCBS ‚Äì After Hours Payment Amount* decreased from avg 50.09 to 17.89; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.75; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.19; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.19; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 15.66; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 15.66; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.18; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.74; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 174.79; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 174.79; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 86.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 58.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 58.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 58.80; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 47.62; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 47.62; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.37; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.37; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 1.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 293.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 83.26; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 2.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 620.02; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 265.98; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.48 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.21; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.67 to 0.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment per Visit decreased from avg 20.66 to 17.65; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* decreased from avg 20.63 to 17.65; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.46 to 0.38; 4-MEDICAID ‚Äì After Hours Collection Rate* decreased from avg 0.46 to 0.38; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.62; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 77.58; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.24; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 13.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.51; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 3580.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 110.93; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 110.93; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.40; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1442.14; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 120.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 10.80; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 201.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 25.35; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 25.35; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 50.70; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 2.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 176.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 22.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 22.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.25; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.25; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 0.50; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 44.00; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 1.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 95.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 95.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 155.71 to 149.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -12.86 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 35.91 to 12.19; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 30.05 to 12.19; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.16; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.21 to 0.16; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 53.34 to 24.39; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 166.67 to 128.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 24.29; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.05 to 24.29; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.26 to 0.19; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.26 to 0.19; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 40.50 to 24.29; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.19 to 0.14; 17-AETNA ‚Äì Medications Collection Rate* decreased from avg 0.18 to 0.14; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 21.73; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 149.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 7.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 34.92 to 7.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.14; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.14; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 21.00; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 128.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 40.08; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 40.08; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.31; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.31; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 40.08; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.81 to 3.59; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 87.25; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 87.25; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.43; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.43; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 1.50; 18-CIGNA ‚Äì DME Visit Count decreased from avg 1.36 to 1.00; 13-TRICARE ‚Äì Medications Visit Count decreased from avg 1.35 to 1.00; 13-TRICARE ‚Äì Medications Charge Amount decreased from avg 156.35 to 150.00; 13-TRICARE ‚Äì Medications NRV Zero Balance* decreased from avg 12.96 to 11.79; 13-TRICARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.12 to 0.08; 13-TRICARE ‚Äì Medications Collection Rate* decreased from avg 0.10 to 0.08; 13-TRICARE ‚Äì Medications Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Medications Payment Amount* decreased from avg 14.88 to 11.79; 15-UNITED HEALTHCARE ‚Äì DME Visit Count decreased from avg 1.38 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount decreased from avg 547.64 to 215.70; 15-UNITED HEALTHCARE ‚Äì DME Payment per Visit decreased from avg 73.28 to 47.89; 15-UNITED HEALTHCARE ‚Äì DME NRV Zero Balance* decreased from avg 73.88 to 47.89; 15-UNITED HEALTHCARE ‚Äì DME Zero Balance Collection Rate decreased from avg 0.23 to 0.22; 15-UNITED HEALTHCARE ‚Äì DME Collection Rate* decreased from avg 0.22 to 0.22; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment Amount* decreased from avg 116.98 to 47.89</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 6.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 276.00; 17-AETNA ‚Äì After Hours Payment Amount* increased from avg 18.58 to 24.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 1931.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 97.46; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 97.46; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.57; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 682.24; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 2.38; 17-AETNA ‚Äì Medications Charge Amount increased from avg 135.48 to 150.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 21.73; 17-AETNA ‚Äì Medications NRV Zero Balance* increased from avg 19.97 to 21.73; 17-AETNA ‚Äì Medications Labs per Visit increased from avg 1.60 to 7.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 3.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 3.67; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 32.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 1472.00; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Labs per Visit increased from avg 1.97 to 2.03; 2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 2.00; 2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 782.05; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Payment per Visit increased from avg 145.60 to 197.25; 2-BCBS ‚Äì DME NRV Zero Balance* increased from avg 140.68 to 197.25; 2-BCBS ‚Äì DME Zero Balance Collection Rate increased from avg 0.36 to 0.50; 2-BCBS ‚Äì DME Collection Rate* increased from avg 0.37 to 0.50; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 394.50; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 35.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 7851.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 142.45; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 142.45; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 1.97; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 4985.87; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 51.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 11476.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 43.61; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 43.61; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.06; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 2224.06; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 10.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 893.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.18; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 2.50; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 156.57; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 43.00; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 12180.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.62; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.62; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.26; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 7515.81; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 12.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1552.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 60.97; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 60.97; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.47; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.47; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.08; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 731.66; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.68; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.68; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 11.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1414.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 523.84</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 10.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 1120.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.30; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 84.58; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.67; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 3.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 2.67; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 19.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 95.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count increased from avg 2.31 to 3.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount increased from avg 531.67 to 565.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 93.21; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 93.21; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.49; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.49; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* increased from avg 205.83 to 279.63; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 4.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 848.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 71.45 to 155.66; 12-HUMANA ‚Äì New E/M Codes Visit Count increased from avg 2.13 to 5.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount increased from avg 654.68 to 1550.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to -250.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -6.89 to -225.56; 12-HUMANA ‚Äì New E/M Codes Payment per Visit increased from avg 135.45 to 193.22; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 135.40 to 148.11; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.44 to 0.48; 12-HUMANA ‚Äì New E/M Codes Collection Rate* increased from avg 0.44 to 0.62; 12-HUMANA ‚Äì New E/M Codes Labs per Visit increased from avg 0.90 to 2.20; 12-HUMANA ‚Äì New E/M Codes Payment Amount* increased from avg 300.52 to 966.12; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 650.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.38; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 1.67; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 244.13; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 4.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 912.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 80.99; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 80.99; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.36; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.36; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 3.75; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 323.96; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 1015.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 93.80; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.37; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 2.50; 13-TRICARE ‚Äì New E/M Codes Payment Amount* increased from avg 298.18 to 375.21; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 23.45 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 15.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 3673.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 51.52; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 51.52; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.21; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.21; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.07; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 772.86; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 12.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 3495.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 145.95; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 145.95; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.47 to 0.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 2.92; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 1751.44; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.21 to 5.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 293.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.23; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.23; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 3.40; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 54.50 to 66.31; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.24; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 2.50; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 9.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1950.00; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.42; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 810.86; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 12.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 2542.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 54.59; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 54.59; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.26; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.26; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.25; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 655.03; 18-CIGNA ‚Äì Medications Visit Count increased from avg 1.75 to 2.00; 18-CIGNA ‚Äì Medications Charge Amount increased from avg 210.12 to 243.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Payment per Visit increased from avg 26.22 to 36.97; 18-CIGNA ‚Äì Medications NRV Zero Balance* increased from avg 26.82 to 36.97; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.22 to 0.30; 18-CIGNA ‚Äì Medications Collection Rate* increased from avg 0.22 to 0.30; 18-CIGNA ‚Äì Medications Labs per Visit increased from avg 1.77 to 2.00; 18-CIGNA ‚Äì Medications Payment Amount* increased from avg 45.71 to 73.94; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 10.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 2800.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 156.46; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 156.46; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.50 to 0.56; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.56; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.60; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1564.58; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.43 to 2.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 2.00; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 3.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 240.79 to 399.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 61.27 to 75.21; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 6.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 3.86; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 1385.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -122.59; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -132.53; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 112.89; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.49; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 677.34; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 5.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 913.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to -8.49; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 44.71; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 51.43; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.24; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.24; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.20; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 223.54; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 8.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to -26.60; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to -42.62; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.45; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 2.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.29; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.27 to 0.29; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.39 to 5.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.48 to 2.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 207.62 to 343.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to -4.91; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 28.74 to 45.13; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 30.60 to 61.21; 3-MEDICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.28; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.20 to 0.26; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 45.10 to 90.27; 4-MEDICAID ‚Äì After Hours Visit Count increased from avg 7.28 to 9.00; 4-MEDICAID ‚Äì After Hours Charge Amount increased from avg 323.84 to 368.00; 4-MEDICAID ‚Äì After Hours Payment Amount* increased from avg 146.06 to 156.03; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.36; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.24; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 17.73; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 17.73; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.18; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.18; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 3.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 124.11; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 1.77; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.45; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.45; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 87.02; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 87.02; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.30; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 3.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.36 to 3.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 155.71 to 540.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg -12.86 to -180.04; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 35.91 to 84.32; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.21 to 0.47; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.51 to 2.67; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 53.34 to 252.97; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.33 to 3.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 166.67 to 308.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.21 to 2.67; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 40.50 to 75.89; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit increased from avg 115.74 to 155.78; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 114.13 to 155.78; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.54 to 0.97; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* increased from avg 0.53 to 0.97; 13-TRICARE ‚Äì Medications Charge Billed Balance decreased from avg 39.88 to 0.00; 13-TRICARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.17 to 0.00; 13-TRICARE ‚Äì Medications Collection Rate* increased from avg 0.10 to 0.11; 13-TRICARE ‚Äì Medications Labs per Visit increased from avg 1.42 to 5.00; 13-TRICARE ‚Äì DME Charge Billed Balance decreased from avg 98.54 to 0.00; 3-MEDICARE ‚Äì DME Charge Billed Balance decreased from avg 8.62 to 0.00; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.53; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 112.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 12.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 1015.00; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 1.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 10.00; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 10.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 1.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 7.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.33; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 720.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 102.86; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.71; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 15.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 5.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 635.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 33.42; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.11; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 1.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 95.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.87 to 3.32; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.33; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 39.97 to 38.91; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 40.10 to 38.91; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.18; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.19 to 0.18; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.57; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 81.38; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 81.38; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.38; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.25; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 93.80; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.37; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 136.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.31 to 29.86; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.20 to 29.86; 13-TRICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.22; 13-TRICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.22; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 29.86; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 8.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.60; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 1705.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 88.76; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 88.76; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.42; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.42; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.38; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 710.08; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 94.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 12.18; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 12.18; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.13; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.13; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 12.18; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.74; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 13.26; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 13.26; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 251.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 29.64; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 29.64; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.24; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 59.28; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 5.33; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 5.33; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.12 to 0.12; 17-AETNA ‚Äì After Hours Collection Rate* decreased from avg 0.12 to 0.12; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 1.33; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 5.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.60; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 1055.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 103.52; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 103.52; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.49; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.49; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.60; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 517.62; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 1494.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 63.25; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 63.25; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.34; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.34; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.75; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 505.96; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 8.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.76; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 2330.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 196.68; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 196.68; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.68; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.68; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1573.47; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.64; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 90.10; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 90.10; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.42; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 1.56; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.59; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 119.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 15.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 15.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.30 to 0.27; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.27; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 31.61; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 34.38 to 25.07; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 34.64 to 25.07; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.19; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.19; 2-BCBS ‚Äì DME Visit Count decreased from avg 1.61 to 1.00; 2-BCBS ‚Äì DME Charge Amount decreased from avg 616.33 to 188.61; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Payment per Visit decreased from avg 145.60 to 50.30; 2-BCBS ‚Äì DME NRV Zero Balance* decreased from avg 140.68 to 50.30; 2-BCBS ‚Äì DME Zero Balance Collection Rate decreased from avg 0.36 to 0.27; 2-BCBS ‚Äì DME Collection Rate* decreased from avg 0.37 to 0.27; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì DME Payment Amount* decreased from avg 258.71 to 50.30; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.85; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 9.40; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 9.40; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.14; 2-BCBS ‚Äì Medications Collection Rate* decreased from avg 0.17 to 0.14; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 56.41; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.82; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 300.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 5.85; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 5.85; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.18; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.18; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 52.69; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 58.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 58.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.39; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.39; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 88.01; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.39; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.82 to 3.50; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 545.07; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 30.57; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 17.41; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 244.52; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 30.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 28.43 to 8.65; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 28.43 to 8.65; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 8.65; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 0.55 to 7.38; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment per Visit decreased from avg 20.66 to 17.34; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* decreased from avg 20.63 to 17.34; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.46 to 0.42; 4-MEDICAID ‚Äì After Hours Collection Rate* decreased from avg 0.46 to 0.42; 4-MEDICAID ‚Äì After Hours Labs per Visit decreased from avg 2.04 to 1.22; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 12.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.63; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2430.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 72.69; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 72.69; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 0.83; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 872.32; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 13.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 1992.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 36.40; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 36.40; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.24; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.54; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 473.26; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 100.00; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 17.73; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 13.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.78; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 3880.00; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 124.11; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1613.39; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 1.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 52.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 23.62; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 23.62; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 23.62; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 293.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.30; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 87.02; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 1.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 235.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 106.46; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 106.46; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.45; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.45; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 106.46; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 89.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 128.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 42.78 to 4.22; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 42.19 to 4.22; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.34 to 0.03; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.37 to 0.03; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.10 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 46.81 to 4.22; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 30.05 to 14.04; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.14; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 25.30; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.05 to 25.30; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.26 to 0.25; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.26 to 0.25; 17-AETNA ‚Äì Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 37.18; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 37.18; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.29; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.29; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.08 to 1.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 15.08 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -2.92 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.17 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 1.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.81 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 160.00; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 155.78; 17-AETNA ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.00 to 1.00; 13-TRICARE ‚Äì Medications Visit Count decreased from avg 1.35 to 1.00; 13-TRICARE ‚Äì Medications Charge Amount decreased from avg 156.35 to 100.00; 13-TRICARE ‚Äì Medications Payment per Visit decreased from avg 11.74 to 11.20; 13-TRICARE ‚Äì Medications NRV Zero Balance* decreased from avg 12.96 to 11.20; 13-TRICARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.12 to 0.11; 13-TRICARE ‚Äì Medications Payment Amount* decreased from avg 14.88 to 11.20; 13-TRICARE ‚Äì After Hours Visit Count decreased from avg 1.00 to 1.00; 13-TRICARE ‚Äì After Hours Labs per Visit decreased from avg 3.00 to 3.00; 13-TRICARE ‚Äì DME Visit Count decreased from avg 1.00 to 1.00; 13-TRICARE ‚Äì DME Charge Amount decreased from avg 418.70 to 220.20; 13-TRICARE ‚Äì DME Payment per Visit decreased from avg 180.57 to 79.53; 13-TRICARE ‚Äì DME NRV Zero Balance* decreased from avg 180.57 to 79.53; 13-TRICARE ‚Äì DME Zero Balance Collection Rate decreased from avg 0.53 to 0.36; 13-TRICARE ‚Äì DME Collection Rate* decreased from avg 0.53 to 0.36; 13-TRICARE ‚Äì DME Payment Amount* decreased from avg 180.57 to 79.53; 3-MEDICARE ‚Äì DME Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì DME Charge Amount decreased from avg 319.54 to 188.61; 4-MEDICAID ‚Äì DME Visit Count decreased from avg 1.67 to 1.00; 4-MEDICAID ‚Äì DME Charge Amount decreased from avg 682.71 to 524.80</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 6.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 276.00; 17-AETNA ‚Äì After Hours Payment Amount* increased from avg 18.58 to 32.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 8.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 1.75; 17-AETNA ‚Äì Medications Visit Count increased from avg 1.48 to 2.00; 17-AETNA ‚Äì Medications Charge Amount increased from avg 135.48 to 180.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 20.67; 17-AETNA ‚Äì Medications NRV Zero Balance* increased from avg 19.97 to 20.67; 17-AETNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.19 to 0.23; 17-AETNA ‚Äì Medications Collection Rate* increased from avg 0.18 to 0.23; 17-AETNA ‚Äì Medications Payment Amount* increased from avg 31.94 to 41.34; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.12 to 4.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 292.71 to 510.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 106.71 to 148.73</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 29.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 1288.00; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Labs per Visit increased from avg 1.97 to 2.03; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 34.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 7614.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 144.14; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 144.14; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 1.88; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 4900.93; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 49.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 10720.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 48.33; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 48.33; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.22; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.20 to 0.22; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.06; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 2368.27; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 6.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 393.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 2.33; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 39.00; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 11405.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 188.94; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 188.94; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.65; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.65; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.21; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 7368.73; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 9.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.67; 2-BCBS ‚Äì Vaccines Visit Count increased from avg 1.31 to 2.00; 2-BCBS ‚Äì Vaccines Charge Amount increased from avg 137.31 to 172.00; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.68; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.68; 2-BCBS ‚Äì Vaccines Payment Amount* increased from avg 88.21 to 117.60; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 9.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1200.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 52.37; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 52.37; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 471.30</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 7.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 3.85; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 800.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.86; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1580.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 92.94; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.53; 1-SELF PAY ‚Äì Medications Visit Count increased from avg 2.00 to 4.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 155.00; 1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 38.75; 1-SELF PAY ‚Äì Medications Labs per Visit increased from avg 1.13 to 1.50; 1-SELF PAY ‚Äì New E/M Codes Visit Count increased from avg 13.36 to 15.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 3.80; 1-SELF PAY ‚Äì New E/M Codes Charge Amount increased from avg 2031.01 to 2240.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 245.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 122.50; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 21.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count increased from avg 2.31 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount increased from avg 531.67 to 895.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.39; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 1.50; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* increased from avg 205.83 to 350.04; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 595.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 62.08; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 62.08; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.21; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.21; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 71.45 to 124.15; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.41; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.41; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 112.73; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 112.73; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.38; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.38; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 3.00; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 1165.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 115.07; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 115.07; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.40; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.40; 13-TRICARE ‚Äì New E/M Codes Payment Amount* increased from avg 298.18 to 460.29; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 1.67; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 12.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 2424.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to -53.44; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to -2.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 35.73; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.18; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 4.25; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 428.81; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 2.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 300.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit increased from avg 21.82 to 23.05; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* increased from avg 22.82 to 23.05; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 14.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 4040.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 2.57; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 1762.31; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 515.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 30.37; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 1.67; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 91.10; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 49.74; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 49.74; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.27; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.27; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.60; 18-CIGNA ‚Äì Medications Visit Count increased from avg 1.75 to 2.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Labs per Visit increased from avg 1.77 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 147.23; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.50 to 0.54; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.54; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 3.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 930.04; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 107.72; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 88.40 to 107.72; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.46; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.46; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* increased from avg 273.10 to 430.86; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 4-MEDICAID ‚Äì After Hours Visit Count increased from avg 7.28 to 10.00; 4-MEDICAID ‚Äì After Hours Charge Amount increased from avg 323.84 to 414.00; 4-MEDICAID ‚Äì After Hours Payment Amount* increased from avg 146.06 to 158.88; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 15.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.35; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 1.80; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* increased from avg 1068.72 to 1095.89; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 22.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 4501.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 49.86; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 49.86; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.24; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 1096.99; 4-MEDICAID ‚Äì Medications Charge Amount increased from avg 201.17 to 232.00; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 19.51; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 19.51; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.17; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.17; 4-MEDICAID ‚Äì Medications Payment Amount* increased from avg 31.28 to 39.02; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 24.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount increased from avg 4589.26 to 6924.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.39; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* increased from avg 1765.78 to 2718.93; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 5.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 267.01 to 446.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.20 to 0.24; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.20 to 0.24; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 68.64 to 107.12; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 4.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 423.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.23; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.23; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 95.79; 5-COMMERCIAL ‚Äì After Hours Payment per Visit increased from avg 23.47 to 28.66; 5-COMMERCIAL ‚Äì After Hours NRV Zero Balance* increased from avg 23.47 to 28.66; 5-COMMERCIAL ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.51 to 0.62; 5-COMMERCIAL ‚Äì After Hours Collection Rate* increased from avg 0.51 to 0.62; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 4.50; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 150.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 4.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 38.45 to 40.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.35 to 0.45; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.39 to 0.45; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 42.78 to 58.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 42.19 to 58.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.34 to 0.46; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.37 to 0.46; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 46.81 to 58.00; 1-SELF PAY ‚Äì Vaccines Visit Count increased from avg 2.07 to 4.00; 1-SELF PAY ‚Äì Vaccines Charge Amount increased from avg 296.43 to 440.00; 12-HUMANA ‚Äì Medications Charge Amount increased from avg 103.29 to 150.00; 12-HUMANA ‚Äì Medications Charge Billed Balance decreased from avg 2.86 to 0.00; 12-HUMANA ‚Äì Medications Payment per Visit increased from avg 10.76 to 12.26; 12-HUMANA ‚Äì Medications NRV Zero Balance* increased from avg 10.79 to 12.26; 12-HUMANA ‚Äì Medications Labs per Visit increased from avg 0.96 to 4.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.24; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.21 to 0.24; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.51 to 4.00; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.33 to 3.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 166.67 to 384.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.21 to 1.33; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 40.50 to 73.37; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 2.50; 18-CIGNA ‚Äì DME Charge Amount increased from avg 561.12 to 630.92; 18-CIGNA ‚Äì DME Charge Billed Balance decreased from avg 2.46 to 0.00; 18-CIGNA ‚Äì DME Upfront Collections Efficiency decreased from avg 2.44 to 0.00; 18-CIGNA ‚Äì DME Payment per Visit increased from avg 226.34 to 315.46; 18-CIGNA ‚Äì DME NRV Zero Balance* increased from avg 228.13 to 315.46; 18-CIGNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.49 to 0.50; 18-CIGNA ‚Äì DME Collection Rate* increased from avg 0.48 to 0.50; 18-CIGNA ‚Äì DME Payment Amount* increased from avg 272.63 to 315.46; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount increased from avg 547.64 to 705.92; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance decreased from avg 131.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment per Visit increased from avg 73.28 to 181.96; 15-UNITED HEALTHCARE ‚Äì DME NRV Zero Balance* increased from avg 73.88 to 181.96; 15-UNITED HEALTHCARE ‚Äì DME Zero Balance Collection Rate increased from avg 0.23 to 0.26; 15-UNITED HEALTHCARE ‚Äì DME Collection Rate* increased from avg 0.22 to 0.26; 15-UNITED HEALTHCARE ‚Äì DME Payment Amount* increased from avg 116.98 to 181.96</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 114.29; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 17.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 149.33; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.67; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 740.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 36.43; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.14; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 2.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 160.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 80.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.87 to 3.75; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 87.51; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 87.51; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.39; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 1.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 160.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 64.91; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 64.91; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 64.91; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 293.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 112.73; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.69; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 0.75; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 9.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.77; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 2035.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to -0.97; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 82.14; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 81.17; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.36; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.36; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 739.22; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 34.11; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.18; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.15; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 46.10; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.72; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 125.88; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 125.88; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.44; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.44; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 30.37; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.18; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.18; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.12 to 0.09; 17-AETNA ‚Äì After Hours Collection Rate* decreased from avg 0.12 to 0.09; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 1.50; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 16.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 76.53; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 76.53; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.33; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.33; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.67; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 7.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.59; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 1945.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 168.55; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 168.55; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.61; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.61; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1179.85; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.50; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 810.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 74.36; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 74.36; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 1.50; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 297.42; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 5.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 908.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 248.72; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 183.00; 18-CIGNA ‚Äì Medications Payment per Visit decreased from avg 26.22 to 11.96; 18-CIGNA ‚Äì Medications NRV Zero Balance* decreased from avg 26.82 to 11.96; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.22 to 0.13; 18-CIGNA ‚Äì Medications Collection Rate* decreased from avg 0.22 to 0.13; 18-CIGNA ‚Äì Medications Payment Amount* decreased from avg 45.71 to 23.93; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 4.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.48; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1090.00; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 147.23; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 588.90; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 104.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 23.46; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 23.46; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.30 to 0.23; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.23; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 23.46; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 123.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 34.38 to 32.03; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 34.64 to 32.03; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.26; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.26; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 32.03; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.72; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 55.28; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.19; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.18; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 13.69; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 13.69; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 2-BCBS ‚Äì Medications Collection Rate* decreased from avg 0.17 to 0.15; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.78; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 19.62; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 19.62; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.18; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.18; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 156.99; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 86.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 58.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 58.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 58.80; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 5.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 647.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 48.50; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 48.50; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.37; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.37; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 242.48; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 1.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 160.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 56.69; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 56.69; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.35; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.35; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 1.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 56.69; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 88.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 2.20; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 2.20; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.05; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.05; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 4.40; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 89.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.39 to 0.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment per Visit decreased from avg 20.66 to 15.89; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* decreased from avg 20.63 to 15.89; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.46 to 0.38; 4-MEDICAID ‚Äì After Hours Collection Rate* decreased from avg 0.46 to 0.38; 4-MEDICAID ‚Äì After Hours Labs per Visit decreased from avg 2.04 to 1.40; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.58; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 3126.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 73.06; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 73.06; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.35; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.24; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.77; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 2.00; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 1.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.73; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 113.29; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 113.29; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.39; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.50; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 21.42; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 21.42; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 1.20; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 23.95; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 23.95; 5-COMMERCIAL ‚Äì After Hours Visit Count decreased from avg 1.75 to 1.00; 5-COMMERCIAL ‚Äì After Hours Charge Amount decreased from avg 80.50 to 46.00; 5-COMMERCIAL ‚Äì After Hours Labs per Visit decreased from avg 2.12 to 0.00; 5-COMMERCIAL ‚Äì After Hours Payment Amount* decreased from avg 43.37 to 28.66; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 410.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 47.29; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 47.29; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.23; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.23; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 94.58; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 1.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 310.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 150.00; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.48; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.48; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 150.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 2.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 176.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 40.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 2.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 80.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 125.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.10 to 0.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 110.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 12-HUMANA ‚Äì Medications Visit Count decreased from avg 1.14 to 1.00; 12-HUMANA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.11 to 0.08; 12-HUMANA ‚Äì Medications Collection Rate* decreased from avg 0.11 to 0.08; 12-HUMANA ‚Äì Medications Payment Amount* decreased from avg 12.94 to 12.26; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.36 to 1.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 155.71 to 30.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -12.86 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 35.91 to 7.06; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 30.05 to 7.06; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 53.34 to 7.06; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 24.46; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.05 to 24.46; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.26 to 0.19; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.26 to 0.19; 17-AETNA ‚Äì Medications Payment per Visit decreased from avg 18.88 to 18.05; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 18.05; 17-AETNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.19 to 0.16; 17-AETNA ‚Äì Medications Collection Rate* decreased from avg 0.18 to 0.16; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 128.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.81 to 3.60; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 405.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 76.42; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 76.42; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.38; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.38; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 152.85; 18-CIGNA ‚Äì DME Visit Count decreased from avg 1.36 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Visit Count decreased from avg 1.38 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 4.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 184.00; 17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 6.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.15; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 1550.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 190.52; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 190.52; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.74; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.74; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 1.83; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 1143.12; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 9.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 2079.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 688.81; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 1.86; 17-AETNA ‚Äì Medications Visit Count increased from avg 1.48 to 2.00; 17-AETNA ‚Äì Medications Charge Amount increased from avg 135.48 to 232.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Labs per Visit increased from avg 1.60 to 3.00; 17-AETNA ‚Äì Medications Payment Amount* increased from avg 31.94 to 36.10; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 3.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 24.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 1104.00; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Labs per Visit increased from avg 1.97 to 3.21; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 29.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 6425.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 147.64; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 148.98; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.67; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.67; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.62; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 4281.60; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 47.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 11163.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to -2.48; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 3.30; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 43.93; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 43.78; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.17; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 2064.72; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 7.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 619.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 2.29; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 95.84; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 36.00; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 10485.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 194.62; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 194.62; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.67; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.67; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.03; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 7006.40; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 8.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 894.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.00; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.68; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.68; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.60</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 6.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.67; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 24.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1725.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 71.88; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.54; 1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 35.00; 1-SELF PAY ‚Äì Medications Labs per Visit increased from avg 1.13 to 4.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 160.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 3.50; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 3.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 3.67; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 23.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 1060.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.70; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 9.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 3.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 848.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to -4.07; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 62.29; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 66.61; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.22; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.22; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 2.67; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 71.45 to 186.87; 12-HUMANA ‚Äì New E/M Codes Visit Count increased from avg 2.13 to 3.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount increased from avg 654.68 to 855.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 12-HUMANA ‚Äì New E/M Codes Labs per Visit increased from avg 0.90 to 2.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 91.95; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.38; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 3.50; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.32; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 3.50; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 90.99; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 140.95; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.45; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 200.53 to 230.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 47.27 to 90.05; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.55 to 90.05; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.39; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.23 to 0.39; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 2.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 48.14 to 90.05; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 13.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 2930.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 100.74; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.45; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.45; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 1.92; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1309.65; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 14.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 3050.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 47.54; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 47.54; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.22; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.22; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.29; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 665.61; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 3.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 342.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 15.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 4269.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 1986.18; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.21 to 4.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 238.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 2.25; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 4.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 439.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 53.67; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 32.14 to 53.67; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.49; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.49; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 1.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 214.69; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 5.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 57.35; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 57.35; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.27; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.27; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 344.13; 18-CIGNA ‚Äì Medications Visit Count increased from avg 1.75 to 2.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Labs per Visit increased from avg 1.77 to 4.00; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 8.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 2180.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 146.66; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.50 to 0.54; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.54; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1173.30; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.43 to 3.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 449.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 51.31 to 58.31; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 49.02 to 58.31; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.30 to 0.39; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.39; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 70.38 to 174.94; 18-CIGNA ‚Äì Vaccines Charge Billed Balance decreased from avg 7.00 to 0.00; 18-CIGNA ‚Äì Vaccines NRV Zero Balance* increased from avg 58.47 to 69.16; 18-CIGNA ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.56 to 0.62; 18-CIGNA ‚Äì Vaccines Collection Rate* increased from avg 0.59 to 0.62; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 4.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 240.79 to 480.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 61.27 to 97.24; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 7.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.13; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 1795.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 104.98; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 104.98; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 2.14; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 734.88; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 4.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 1146.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 67.92; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 67.92; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.24; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.24; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.75; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 271.70; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 9.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.40; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 1.67; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.33 to 2.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.29; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.27 to 0.29; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.39 to 3.50; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.48 to 4.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 207.62 to 607.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.55 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 28.74 to 31.80; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 30.60 to 31.80; 3-MEDICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.21; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.20 to 0.21; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 45.10 to 127.22; 4-MEDICAID ‚Äì After Hours Visit Count increased from avg 7.28 to 12.00; 4-MEDICAID ‚Äì After Hours Charge Amount increased from avg 323.84 to 460.00; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 22.07; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 22.07; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.46 to 0.58; 4-MEDICAID ‚Äì After Hours Collection Rate* increased from avg 0.46 to 0.58; 4-MEDICAID ‚Äì After Hours Payment Amount* increased from avg 146.06 to 264.80; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 14.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.36; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 21.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 4258.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 52.31; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 52.31; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.26; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.26; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 1098.59; 4-MEDICAID ‚Äì Medications Visit Count increased from avg 2.12 to 3.00; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 1.33; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 23.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount increased from avg 4589.26 to 6890.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* increased from avg 1765.78 to 2647.02; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 2.50; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 3.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 371.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.33; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 72.17; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 11.23; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 102.81; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.35; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.32; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* increased from avg 161.13 to 227.93; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.55 to 0.97; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 4.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.18 to 4.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 630.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 38.45 to 38.83; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 95.70 to 156.48; 1-SELF PAY ‚Äì Vaccines Payment per Visit increased from avg 124.23 to 140.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit increased from avg 0.68 to 9.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 650.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit increased from avg 115.74 to 132.43; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 114.13 to 132.43; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.54 to 0.61; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* increased from avg 0.53 to 0.61; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 397.29; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance decreased from avg 14.77 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 1.14 to 2.00; 15-UNITED HEALTHCARE ‚Äì DME Visit Count increased from avg 1.38 to 2.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount increased from avg 547.64 to 819.53; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance decreased from avg 131.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment Amount* increased from avg 116.98 to 136.68; 3-MEDICARE ‚Äì DME Charge Amount increased from avg 319.54 to 630.92; 3-MEDICARE ‚Äì DME Charge Billed Balance decreased from avg 8.62 to 0.00; 3-MEDICARE ‚Äì Medications Charge Amount increased from avg 105.60 to 150.00; 3-MEDICARE ‚Äì Medications Charge Billed Balance decreased from avg 1.05 to 0.00; 3-MEDICARE ‚Äì Medications Payment per Visit increased from avg 12.53 to 13.11; 3-MEDICARE ‚Äì Medications NRV Zero Balance* increased from avg 12.05 to 13.11; 3-MEDICARE ‚Äì Medications Payment Amount* increased from avg 12.53 to 13.11</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.55; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 480.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 80.00; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 1.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 35.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 4.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 640.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 105.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 35.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 46.09; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 1.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 80.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 80.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.87 to 3.44; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 405.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance increased from avg 10.28 to 100.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 31.46; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.39 to 0.16; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 1.00; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 62.93; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.92 to 3.69; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 94.74; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 135.40 to 94.74; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.44 to 0.33; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.33; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 284.23; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 2.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 490.00; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 91.95; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.38; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 183.90; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 357.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 56.37; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 68.62 to 56.37; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.32; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 112.73; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 620.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 61.56 to 112.14; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 84.88; 13-TRICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.32 to 0.27; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 169.76; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.78; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 100.74; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 15.07; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 15.07; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.13; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.13; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 45.22; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.67; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 132.41; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 132.41; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.47; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.47; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 1.53; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 7.38; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 7.38; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.12; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.12; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 29.53; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 2.67; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 2.67; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.12 to 0.07; 17-AETNA ‚Äì After Hours Collection Rate* decreased from avg 0.12 to 0.07; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 1.17; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 16.00; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 3.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 735.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 140.29; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 140.29; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.57; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.57; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.67; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 420.88; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 5.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 1446.00; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.32; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.32; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 458.92; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 7.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.56; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 1945.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 174.74; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 174.74; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.63; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.63; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1223.17; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.33; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 970.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 77.91; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 77.91; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.40; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.40; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 0.60; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 389.57; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 6.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1291.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 2.67; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 200.00; 18-CIGNA ‚Äì Medications Payment per Visit decreased from avg 26.22 to 12.50; 18-CIGNA ‚Äì Medications NRV Zero Balance* decreased from avg 26.82 to 12.50; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.22 to 0.13; 18-CIGNA ‚Äì Medications Collection Rate* decreased from avg 0.22 to 0.13; 18-CIGNA ‚Äì Medications Payment Amount* decreased from avg 45.71 to 25.01; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.46; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 146.66; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.62; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.33; 18-CIGNA ‚Äì Vaccines Visit Count decreased from avg 1.12 to 1.00; 18-CIGNA ‚Äì Vaccines Charge Amount decreased from avg 165.00 to 112.00; 18-CIGNA ‚Äì Vaccines Upfront Collections Efficiency increased from avg -17.25 to 0.00; 18-CIGNA ‚Äì Vaccines Payment per Visit decreased from avg 81.62 to 69.16; 18-CIGNA ‚Äì Vaccines Labs per Visit decreased from avg 0.31 to 0.00; 18-CIGNA ‚Äì Vaccines Payment Amount* decreased from avg 111.17 to 69.16; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 34.38 to 24.31; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 34.64 to 24.31; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.20; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.20; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.25; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.63; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 135.97; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 135.97; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 39.75; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 39.75; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.19; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.19; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 8.55; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 8.55; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.16; 2-BCBS ‚Äì Medications Collection Rate* decreased from avg 0.17 to 0.16; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.77; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 329.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 6.64; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 6.64; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.12; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.12; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 39.82; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 44.99; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 44.99; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.38; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.82 to 3.45; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 545.09; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 24.38; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 24.38; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.41 to 0.40; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 219.44; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 60.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 28.43 to 8.65; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 28.43 to 8.65; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 17.30; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.67 to 0.50; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Labs per Visit decreased from avg 2.04 to 0.83; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.64; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 3005.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 76.23; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 76.23; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.36; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 1067.29; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.48; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 166.00; 4-MEDICAID ‚Äì Medications Payment per Visit decreased from avg 15.29 to 6.16; 4-MEDICAID ‚Äì Medications NRV Zero Balance* decreased from avg 16.26 to 6.16; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.11; 4-MEDICAID ‚Äì Medications Collection Rate* decreased from avg 0.15 to 0.11; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 18.49; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.80; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 115.09; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 115.09; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.38; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.38; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.48; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 2.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 91.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 6.44; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 6.44; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.14; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.14; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 12.88; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 24.06; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 24.06; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.19; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 325.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 51.41; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 102.81; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.29; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 522.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance increased from avg 122.16 to 287.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 41.75 to 278.37; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 113.97; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.44; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 227.93; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 49.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg 0.19 to 5.51; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 39.12; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.26; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.25; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 2.00; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 1.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 140.00; 17-AETNA ‚Äì Medications Payment per Visit decreased from avg 18.88 to 9.06; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 9.06; 17-AETNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.19 to 0.09; 17-AETNA ‚Äì Medications Collection Rate* decreased from avg 0.18 to 0.09; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 27.19; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 44.45; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.29; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 47.97; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 47.97; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.28; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.28; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 15.08 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -2.92 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.17 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.81 to 3.67; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 0.00; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00; 5-COMMERCIAL ‚Äì Medications Charge Amount decreased from avg 69.73 to 18.00; 5-COMMERCIAL ‚Äì Medications Payment per Visit decreased from avg 14.74 to 2.72; 5-COMMERCIAL ‚Äì Medications NRV Zero Balance* decreased from avg 15.12 to 2.72; 5-COMMERCIAL ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.21 to 0.15; 5-COMMERCIAL ‚Äì Medications Collection Rate* decreased from avg 0.21 to 0.15; 5-COMMERCIAL ‚Äì Medications Labs per Visit decreased from avg 1.73 to 0.00; 5-COMMERCIAL ‚Äì Medications Payment Amount* decreased from avg 14.74 to 2.72; 17-AETNA ‚Äì DME Visit Count decreased from avg 1.17 to 1.00; 17-AETNA ‚Äì DME Zero Balance Collection Rate decreased from avg 0.58 to 0.50; 17-AETNA ‚Äì DME Collection Rate* decreased from avg 0.54 to 0.50; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 7.86 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -11.50 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.43 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment per Visit decreased from avg 73.28 to 68.34; 15-UNITED HEALTHCARE ‚Äì DME NRV Zero Balance* decreased from avg 73.88 to 68.34; 15-UNITED HEALTHCARE ‚Äì DME Zero Balance Collection Rate decreased from avg 0.23 to 0.17; 15-UNITED HEALTHCARE ‚Äì DME Collection Rate* decreased from avg 0.22 to 0.17; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 3-MEDICARE ‚Äì DME Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì Medications Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.11 to 0.09; 3-MEDICARE ‚Äì Medications Collection Rate* decreased from avg 0.11 to 0.09; 3-MEDICARE ‚Äì Medications Labs per Visit decreased from avg 0.90 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 6.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 230.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 91.78; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 91.78; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.60; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 1.86; 17-AETNA ‚Äì Medications Visit Count increased from avg 1.48 to 3.00; 17-AETNA ‚Äì Medications Charge Amount increased from avg 135.48 to 305.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Labs per Visit increased from avg 1.60 to 2.33; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 3.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 464.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 34.92 to 44.45; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.29; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 2.67; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 94.17 to 133.36; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.12 to 3.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 292.71 to 515.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.67; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 106.71 to 143.92; 17-AETNA ‚Äì DME Charge Amount increased from avg 429.55 to 630.92; 17-AETNA ‚Äì DME Charge Billed Balance decreased from avg 149.25 to 0.00; 17-AETNA ‚Äì DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00; 17-AETNA ‚Äì DME Payment per Visit increased from avg 174.97 to 317.19; 17-AETNA ‚Äì DME NRV Zero Balance* increased from avg 179.12 to 317.19; 17-AETNA ‚Äì DME Payment Amount* increased from avg 200.73 to 317.19</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 27.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 1242.00; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Labs per Visit increased from avg 1.97 to 2.48; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 28.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 6034.00; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.63; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.63; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.61; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 3807.10; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 49.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 10284.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.10; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1947.98; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 9.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 475.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 1.78; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 76.97; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 42.00; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 12095.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 189.41; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 189.41; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.66; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.66; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 1.95; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 7955.31; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 6.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.00; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 6.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 719.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.17; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 269.94; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 1.08 to 2.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 24.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 2034.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 72.08; 1-SELF PAY ‚Äì New E/M Codes Visit Count increased from avg 13.36 to 16.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount increased from avg 2031.01 to 2550.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 1.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 5.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 316.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 63.20; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 1.60; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 17.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 905.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.59; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 94.91; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 94.91; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.39; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 94.59; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.40; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.40; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 11.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 3.89; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 2610.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 99.44; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 2.73; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1093.80; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 17.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 3124.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 33.40; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.18; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.18; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.29; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 567.73; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 15.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 4275.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 140.58; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.47 to 0.49; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.49; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 1.73; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 2108.76; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.21 to 3.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 434.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 29.87; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 27.53 to 29.87; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.21; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.21; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 54.50 to 89.60; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 342.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 41.53; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 32.14 to 41.53; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.24; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 1.50; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 83.07; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 7.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1630.00; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 95.25; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.41; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 666.76; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 8.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 2315.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 72.37; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 72.37; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.25; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.25; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.62; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 578.93; 18-CIGNA ‚Äì Medications Charge Amount increased from avg 210.12 to 250.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Payment per Visit increased from avg 26.22 to 50.78; 18-CIGNA ‚Äì Medications NRV Zero Balance* increased from avg 26.82 to 50.78; 18-CIGNA ‚Äì Medications Labs per Visit increased from avg 1.77 to 2.00; 18-CIGNA ‚Äì Medications Payment Amount* increased from avg 45.71 to 50.78; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.50 to 0.51; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.51; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 3.40; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.43 to 4.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 179.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 4.50; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 4.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 240.79 to 515.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 35.85; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 35.85; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.27 to 0.28; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 3.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 61.27 to 143.41; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 6.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 1300.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -102.16; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -101.04; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 108.17; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.50; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 649.05; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 6.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 1111.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 42.95; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 47.51; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.25; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.23; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 2.50; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 257.70; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 10.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 1165.10; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.42; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 1.50; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* increased from avg 273.10 to 485.60; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.33 to 2.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.29; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.27 to 0.29; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.39 to 2.50; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.48 to 2.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 207.62 to 243.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.55 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 45.10 to 49.22; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 22.70; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 22.70; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.46 to 0.49; 4-MEDICAID ‚Äì After Hours Collection Rate* increased from avg 0.46 to 0.49; 4-MEDICAID ‚Äì After Hours Payment Amount* increased from avg 146.06 to 158.88; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.35; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.35; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.27; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 19.35; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 19.35; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.18; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.18; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 4.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 117.78; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.41; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 4.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 27.57 to 46.96; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 27.38 to 46.96; 5-COMMERCIAL ‚Äì After Hours Visit Count increased from avg 1.75 to 2.00; 5-COMMERCIAL ‚Äì After Hours Charge Amount increased from avg 80.50 to 92.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 523.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 5.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 1460.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* increased from avg 360.69 to 545.05; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit increased from avg 0.68 to 2.00; 12-HUMANA ‚Äì Medications Charge Billed Balance decreased from avg 2.86 to 0.00; 12-HUMANA ‚Äì Medications Payment per Visit increased from avg 10.76 to 12.21; 12-HUMANA ‚Äì Medications NRV Zero Balance* increased from avg 10.79 to 12.21; 12-HUMANA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.11 to 0.15; 12-HUMANA ‚Äì Medications Collection Rate* increased from avg 0.11 to 0.15; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.17; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 730.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 367.97; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 3.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 320.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 106.67; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 1.12; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.47; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 140.25; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 54.71; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 1.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 80.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 80.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 490.00; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.39; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 189.82; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 1.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 235.00; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 94.59; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 94.59; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 99.44; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.42; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.42; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 33.40; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.67; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 140.58; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.24; 17-AETNA ‚Äì After Hours Visit Count decreased from avg 3.75 to 3.00; 17-AETNA ‚Äì After Hours Charge Amount decreased from avg 170.58 to 138.00; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 5.33; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 5.33; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.12 to 0.12; 17-AETNA ‚Äì After Hours Collection Rate* decreased from avg 0.12 to 0.12; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 16.00; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 1.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 245.00; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 160.44; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 6.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 1166.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 65.10; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 65.10; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.33; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.33; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 390.58; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 6.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.84; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 1785.00; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1283.72; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.80; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 95.25; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.41; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 1.71; 18-CIGNA ‚Äì Medications Visit Count decreased from avg 1.75 to 1.00; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.22 to 0.20; 18-CIGNA ‚Äì Medications Collection Rate* decreased from avg 0.22 to 0.20; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 5.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.60; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1400.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 141.88; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 141.88; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 709.40; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 8.60; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 8.60; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.30 to 0.19; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.19; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 34.41; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.28; 2-BCBS ‚Äì After Hours Labs per Visit decreased from avg 1.97 to 1.96; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Collection Rate* decreased from avg 0.37 to 0.37; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 22.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.85; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 5084.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 3145.55; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 28.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 6064.00; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 42.21; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.19; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.19; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 1181.98; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 15.97; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 15.97; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 30.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.68; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 8550.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 171.19; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 171.19; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.61 to 0.60; 2-BCBS ‚Äì New E/M Codes Collection Rate* decreased from avg 0.61 to 0.60; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 5135.67; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 5.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 239.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 3.77; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 3.77; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.08; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.08; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 18.86; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 86.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 58.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 58.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 58.80; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 48.43; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 48.43; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.36; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.36; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.43; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.69; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 88.95; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 1.33; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 1.82 to 20.68; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.82 to 3.74; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 48.56; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 53.96; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 60.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 28.43 to 8.65; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 28.43 to 8.65; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 17.30; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 28.74 to 24.61; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 30.60 to 24.61; 3-MEDICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.20; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.20 to 0.20; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 7.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 322.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Labs per Visit decreased from avg 2.04 to 1.00; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 9.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.52; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 1865.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 73.42; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 73.42; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.78; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 660.79; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 11.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 1694.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 32.52; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 32.52; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.21; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 357.73; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 110.00; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 19.35; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 14.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.80; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 4040.00; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 117.78; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.41; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.43; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1648.88; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 2.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 149.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 10.87; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 10.87; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.15; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.15; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 21.74; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 1.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 259.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.18; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.18; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 46.96; 5-COMMERCIAL ‚Äì After Hours Labs per Visit decreased from avg 2.12 to 1.50; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 14.22; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 14.22; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.08; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.08; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 42.66; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.57; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 109.01; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 109.01; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.37; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.37; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 0.80; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 2.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 118.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 7.25; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 7.25; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.12; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.12; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 0.50; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 14.50; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 2.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 85.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 42.50; 12-HUMANA ‚Äì Medications Visit Count decreased from avg 1.14 to 1.00; 12-HUMANA ‚Äì Medications Charge Amount decreased from avg 103.29 to 80.00; 12-HUMANA ‚Äì Medications Labs per Visit decreased from avg 0.96 to 0.00; 12-HUMANA ‚Äì Medications Payment Amount* decreased from avg 12.94 to 12.21; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 30.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 91.99; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 91.99; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.50; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.50; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 0.50; 17-AETNA ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.00 to 1.00; 17-AETNA ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 4.00 to 4.00; 17-AETNA ‚Äì Self-pay physical &amp; No Charge NRV Zero Balance* decreased from avg 4.00 to 4.00; 17-AETNA ‚Äì Self-pay physical &amp; No Charge Payment Amount* decreased from avg 4.00 to 4.00; 4-MEDICAID ‚Äì DME Visit Count decreased from avg 1.67 to 1.00; 4-MEDICAID ‚Äì DME Charge Amount decreased from avg 682.71 to 630.92; 5-COMMERCIAL ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.00 to 1.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Labs per Visit increased from avg 2.15 to 3.33; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 160.44; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 160.44; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.65; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.65; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 4.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.67; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 213.95; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 213.95; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.72; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.72; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 3.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 5.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 23.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 1058.00; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 2.00; 2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 819.53; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Payment per Visit increased from avg 145.60 to 151.34; 2-BCBS ‚Äì DME NRV Zero Balance* increased from avg 140.68 to 151.34; 2-BCBS ‚Äì DME Zero Balance Collection Rate increased from avg 0.36 to 0.37; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 302.67; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 142.98; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 142.98; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 42.21; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.29; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 7.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 608.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.18; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.18; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 1.57; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 111.82; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 1.87; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 4.80; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.68; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.68; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 7.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 943.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 339.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 6.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.33; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 22.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1105.00; 1-SELF PAY ‚Äì Medications Visit Count increased from avg 2.00 to 3.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 97.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 168.78; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 60.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.57; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 105.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.41; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.41; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 98.50; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 98.50; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.43; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.43; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 197.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.34; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 2.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.45; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.45; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 2.17; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 55.67; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 55.67; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.17; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.75; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 7.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 3.88; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 3.50; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 387.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 39.94; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 32.14 to 39.94; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 79.88; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 110.57; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 110.57; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.51; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.51; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 7.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 1731.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 48.67; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 48.67; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 340.70; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 3.81; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 175.78; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 175.78; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.50 to 0.60; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.60; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.60; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 3.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 1.50; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.33 to 2.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 135.08 to 349.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 28.43 to 59.73; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 28.43 to 59.73; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.34; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.27 to 0.34; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.39 to 2.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 36.72 to 119.46; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 21.18; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 21.18; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 4.20; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 77.29; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.34; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.54; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 16.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 3356.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 230.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 61.90; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 52.58; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 56.08; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.27; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.25; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 841.26; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 3.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 235.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 89.22; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 1.88; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 3.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 267.01 to 408.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 36.81; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.20 to 0.27; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.20 to 0.27; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 68.64 to 110.42; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.00; 5-COMMERCIAL ‚Äì After Hours Payment per Visit increased from avg 23.47 to 28.66; 5-COMMERCIAL ‚Äì After Hours NRV Zero Balance* increased from avg 23.47 to 28.66; 5-COMMERCIAL ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.51 to 0.62; 5-COMMERCIAL ‚Äì After Hours Collection Rate* increased from avg 0.51 to 0.62; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 143.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.18 to 3.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 264.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 38.45 to 40.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.35 to 0.45; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.39 to 0.45; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 95.70 to 120.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 42.78 to 43.50; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 42.19 to 43.50; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.10 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 650.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 3.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 1.14 to 2.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount increased from avg 547.64 to 630.92; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance decreased from avg 131.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00; 4-MEDICAID ‚Äì Vaccines Charge Billed Balance decreased from avg 51.20 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.56; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 405.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 67.50; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 45.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 0.91; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 32.33; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 9.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.60; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1440.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.56; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 60.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 30.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 14.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 840.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 1.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 105.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 2.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.50; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 405.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 82.13; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 82.13; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 164.26; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 460.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 2.00; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 470.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 80.41; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 80.41; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.34; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 160.82; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 6.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.69; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 1300.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 96.70; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 96.70; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 580.18; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 4.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 1307.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.17; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 222.69; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 150.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 21.29; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 21.29; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.14; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.14; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 21.29; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 7.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 2155.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 126.33; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 126.33; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.41; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.41; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 0.29; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 884.29; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 119.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 7.39; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 7.39; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.12; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.12; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 14.78; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.21; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.12 to 0.09; 17-AETNA ‚Äì After Hours Collection Rate* decreased from avg 0.12 to 0.09; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 16.00; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 1.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 245.00; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 150.00; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.61; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 0.00; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 150.00; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 2.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 353.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 62.14; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 62.14; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.35; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.35; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 124.29; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 5.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.80; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 1475.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 194.00; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 194.00; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.66; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.66; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 970.00; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 3.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.60; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 650.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 331.72; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.20; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.20; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 2.71; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 5.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1475.00; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 878.92; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.77; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 141.62; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.20; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.20; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 325.00; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 0.75; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 25.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.69; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 7225.00; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 5002.47; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 530.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 25.46; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 25.46; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 178.21; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 4.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 486.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 48.62; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 48.62; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 194.48; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.38; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 405.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 87.06; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 87.06; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 174.11; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 397.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 28.34; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 28.34; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.21; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 85.02; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.82 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 470.04; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 43.89; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 43.89; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.38 to 0.37; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 175.54; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 5.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 230.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.46 to 0.46; 4-MEDICAID ‚Äì After Hours Collection Rate* decreased from avg 0.46 to 0.46; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 105.92; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 13.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.77; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2930.00; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 77.29; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.34; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 1004.83; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 8.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.42; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 2105.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 88.75; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 101.43; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.38; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.34; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 709.99; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 36.81; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 0.67; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 1.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 128.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 24.94; 5-COMMERCIAL ‚Äì After Hours Visit Count decreased from avg 1.75 to 1.00; 5-COMMERCIAL ‚Äì After Hours Charge Amount decreased from avg 80.50 to 46.00; 5-COMMERCIAL ‚Äì After Hours Labs per Visit decreased from avg 2.12 to 2.00; 5-COMMERCIAL ‚Äì After Hours Payment Amount* decreased from avg 43.37 to 28.66; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 473.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 43.31; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 43.31; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.27; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.27; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 129.94; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 620.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 143.00; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.46; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.46; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 286.01; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 40.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 1.67; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 128.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.34 to 0.34; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.37 to 0.34; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 46.81 to 43.50; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Charge Amount decreased from avg 135.48 to 110.00; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 19.69; 17-AETNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.19 to 0.18; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 19.69; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 104.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.08 to 1.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 15.08 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -2.92 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.17 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.81 to 3.74; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 80.40; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 80.40; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.37; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.37; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 241.19; 17-AETNA ‚Äì DME Visit Count decreased from avg 1.17 to 1.00; 17-AETNA ‚Äì DME Charge Amount decreased from avg 429.55 to 5.00; 17-AETNA ‚Äì DME Payment per Visit decreased from avg 174.97 to 2.80; 17-AETNA ‚Äì DME NRV Zero Balance* decreased from avg 179.12 to 2.80; 17-AETNA ‚Äì DME Zero Balance Collection Rate decreased from avg 0.58 to 0.56; 17-AETNA ‚Äì DME Payment Amount* decreased from avg 200.73 to 2.80; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 7.86 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -11.50 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.43 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Visit Count decreased from avg 1.38 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Payment per Visit decreased from avg 73.28 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME NRV Zero Balance* decreased from avg 73.88 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Zero Balance Collection Rate decreased from avg 0.23 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Collection Rate* decreased from avg 0.22 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment Amount* decreased from avg 116.98 to 0.00; 4-MEDICAID ‚Äì DME Visit Count decreased from avg 1.67 to 1.00; 4-MEDICAID ‚Äì DME Charge Amount decreased from avg 682.71 to 188.61; 4-MEDICAID ‚Äì DME Payment per Visit decreased from avg 108.06 to 43.74; 4-MEDICAID ‚Äì DME NRV Zero Balance* decreased from avg 137.19 to 43.74; 4-MEDICAID ‚Äì DME Zero Balance Collection Rate decreased from avg 0.28 to 0.23; 4-MEDICAID ‚Äì DME Collection Rate* decreased from avg 0.26 to 0.23; 4-MEDICAID ‚Äì DME Payment Amount* decreased from avg 198.76 to 43.74; 13-TRICARE ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.00 to 1.00; 17-AETNA ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 17-AETNA ‚Äì Vaccines Charge Amount decreased from avg 100.13 to 86.00; 17-AETNA ‚Äì Vaccines Payment per Visit decreased from avg 61.15 to 47.99; 17-AETNA ‚Äì Vaccines NRV Zero Balance* decreased from avg 61.15 to 47.99; 17-AETNA ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.61 to 0.56; 17-AETNA ‚Äì Vaccines Collection Rate* decreased from avg 0.61 to 0.56; 17-AETNA ‚Äì Vaccines Payment Amount* decreased from avg 61.15 to 47.99; 4-MEDICAID ‚Äì Vaccines Visit Count decreased from avg 1.10 to 1.00; 4-MEDICAID ‚Äì Vaccines Charge Amount decreased from avg 141.20 to 86.00; 4-MEDICAID ‚Äì Vaccines Payment per Visit decreased from avg 43.37 to 13.30; 4-MEDICAID ‚Äì Vaccines NRV Zero Balance* decreased from avg 33.40 to 13.30; 4-MEDICAID ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.33 to 0.15; 4-MEDICAID ‚Äì Vaccines Collection Rate* decreased from avg 0.46 to 0.15; 4-MEDICAID ‚Äì Vaccines Payment Amount* decreased from avg 50.52 to 13.30</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 4.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 184.00; 17-AETNA ‚Äì After Hours Labs per Visit increased from avg 2.15 to 2.25; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 150.00; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.61; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 6.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 2.40; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 19.69; 17-AETNA ‚Äì Medications Collection Rate* increased from avg 0.18 to 0.18; 17-AETNA ‚Äì Medications Labs per Visit increased from avg 1.60 to 9.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì DME Charge Billed Balance decreased from avg 149.25 to 0.00; 17-AETNA ‚Äì DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00; 17-AETNA ‚Äì DME Collection Rate* increased from avg 0.54 to 0.56</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 20.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 920.00; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Labs per Visit increased from avg 1.97 to 2.15; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 26.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 5860.00; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 141.62; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.63; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.63; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.12; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 3682.05; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 38.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 9100.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to -13.57; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to -7.93; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 48.64; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 49.22; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.32; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1848.38; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 4.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 18.25; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 18.25; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.22; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.22; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 73.02; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to -179.32; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -150.46; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 200.10; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 193.49; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.67; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.69; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.84; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 7.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.34; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.34; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.71; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.40; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.40; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.25</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 4.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit increased from avg 125.79 to 160.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 115.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 0.89; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 155.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 77.50; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 1025.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 72.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.60; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 735.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 155.49; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.54 to 155.49; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.63; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.63; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 466.48; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 4.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 690.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 171.32; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 134.56; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 134.56; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.43; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.43; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 2.50; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.29; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.23 to 0.29; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 2.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 23.45 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.82 to 2.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.44; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.44; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 3.90; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 144.71; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 144.71; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 4.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 5.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1140.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 126.34; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 126.34; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.55; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.55; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.00; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 631.72; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 49.08; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 49.08; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.60; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 165.02; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 165.02; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.50 to 0.58; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.58; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 990.12; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.43 to 2.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 3.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 240.79 to 273.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.28 to 0.33; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.27 to 0.33; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 61.27 to 90.12; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 5.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 970.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 2.20; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 407.87; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 4.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 876.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 58.94; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 58.94; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.27; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.27; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 2.75; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 235.78; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 5.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 2.20; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 22.70; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 22.70; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.46 to 0.49; 4-MEDICAID ‚Äì After Hours Collection Rate* increased from avg 0.46 to 0.49; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 2.43; 4-MEDICAID ‚Äì After Hours Payment Amount* increased from avg 146.06 to 158.88; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 15.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.93; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 20.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 4972.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 51.43; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 51.43; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.45; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 1028.65; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 2.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.27; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 3.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 267.01 to 275.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 30.37; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.20 to 0.33; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.20 to 0.33; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 2.67; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 68.64 to 91.11; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.21; 1-SELF PAY ‚Äì Vaccines Visit Count increased from avg 2.07 to 3.00; 1-SELF PAY ‚Äì Vaccines Charge Amount increased from avg 296.43 to 350.00; 12-HUMANA ‚Äì Medications Visit Count increased from avg 1.14 to 2.00; 12-HUMANA ‚Äì Medications Charge Amount increased from avg 103.29 to 115.00; 12-HUMANA ‚Äì Medications Charge Billed Balance decreased from avg 2.86 to 0.00; 18-CIGNA ‚Äì DME Visit Count increased from avg 1.36 to 2.00; 18-CIGNA ‚Äì DME Charge Billed Balance decreased from avg 2.46 to 0.00; 18-CIGNA ‚Äì DME Upfront Collections Efficiency decreased from avg 2.44 to 0.00; 18-CIGNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.49 to 0.50; 18-CIGNA ‚Äì DME Collection Rate* increased from avg 0.48 to 0.50; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.43 to 1.00; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00; 4-MEDICAID ‚Äì DME Collection Rate* increased from avg 0.26 to 0.28; 3-MEDICARE ‚Äì Medications Charge Billed Balance decreased from avg 1.05 to 0.00; 3-MEDICARE ‚Äì Medications Labs per Visit increased from avg 0.90 to 3.00; 4-MEDICAID ‚Äì Vaccines Charge Billed Balance decreased from avg 51.20 to 0.00; 1-SELF PAY ‚Äì DME Charge Amount increased from avg 133.93 to 689.80; 13-TRICARE ‚Äì Vaccines Payment per Visit increased from avg 45.04 to 46.66; 13-TRICARE ‚Äì Vaccines NRV Zero Balance* increased from avg 45.04 to 46.66; 13-TRICARE ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.43 to 0.54; 13-TRICARE ‚Äì Vaccines Collection Rate* increased from avg 0.43 to 0.54; 13-TRICARE ‚Äì Vaccines Labs per Visit increased from avg 0.50 to 2.00; 13-TRICARE ‚Äì Vaccines Payment Amount* increased from avg 45.04 to 46.66</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 1.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 160.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 15.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 525.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 36.33; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 1.13; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 2.00; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 17.50; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 0.50; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 9.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.53; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1590.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 142.22; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 15.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 490.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 89.98; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 89.98; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.37; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.39 to 0.37; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 179.96; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 1.33; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 42.83; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 68.62 to 42.83; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.25; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.25; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 2.25; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 620.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 269.13; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 200.53 to 30.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 47.27 to 8.57; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.55 to 8.57; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 48.14 to 8.57; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 128.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.31 to 26.34; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.20 to 26.34; 13-TRICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 26.34; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 6.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.59; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 1215.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 88.41; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 88.41; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 0.50; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 530.46; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 6.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 847.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 21.07; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 21.07; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.78 to 2.50; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 126.44; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 90.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 10.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 3085.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.47; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.47; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 1.20; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 1447.12; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 1.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 119.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 15.84; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 15.84; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.13; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.13; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 15.84; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 128.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 29.04; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 29.04; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.23; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 29.04; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 1.25; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.42; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 810.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg 63.76 to 245.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 51.63 to 204.56; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 117.94; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.58; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 471.74; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 5.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 1339.00; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.60; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 564.73; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 7.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.46; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 1870.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 171.12; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 171.12; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.64; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.64; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 0.71; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1197.83; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.79; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 5.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1339.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.18; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.18; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 245.40; 18-CIGNA ‚Äì Medications Visit Count decreased from avg 1.75 to 1.00; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 94.00; 18-CIGNA ‚Äì Medications Labs per Visit decreased from avg 1.77 to 0.00; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 6.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.72; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1710.00; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.33; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 119.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 14.40; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 14.40; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.30 to 0.24; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.24; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 28.81; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 34.38 to 30.04; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 34.64 to 30.04; 2-BCBS ‚Äì After Hours Visit Count decreased from avg 19.95 to 14.00; 2-BCBS ‚Äì After Hours Charge Amount decreased from avg 906.21 to 644.00; 2-BCBS ‚Äì DME Charge Amount decreased from avg 616.33 to 556.16; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Payment per Visit decreased from avg 145.60 to 111.23; 2-BCBS ‚Äì DME NRV Zero Balance* decreased from avg 140.68 to 111.23; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì DME Payment Amount* decreased from avg 258.71 to 222.46; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 18.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.71; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 3811.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 127.30; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 127.30; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.61 to 0.60; 2-BCBS ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.60; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 2291.37; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 41.10; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.16; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 3.00; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 190.00; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 12.33; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 12.33; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 0.00; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 37.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.72; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 181.90; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 112.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 75.72; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 4.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 446.00; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 220.38; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.40; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 81.57; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 81.57; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 0.05; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 7.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 322.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.71; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 3090.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 66.35; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 66.35; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.32; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.32; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 995.19; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.21; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 11.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.63; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 3035.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 105.57; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 105.57; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.38; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.38; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1161.32; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 30.37; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 215.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 22.59; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 22.59; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.21; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 45.19; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 116.67; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 12-HUMANA ‚Äì Medications Payment per Visit decreased from avg 10.76 to 5.71; 12-HUMANA ‚Äì Medications NRV Zero Balance* decreased from avg 10.79 to 5.71; 12-HUMANA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.11 to 0.10; 12-HUMANA ‚Äì Medications Collection Rate* decreased from avg 0.11 to 0.10; 12-HUMANA ‚Äì Medications Labs per Visit decreased from avg 0.96 to 0.00; 12-HUMANA ‚Äì Medications Payment Amount* decreased from avg 12.94 to 11.41; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.36 to 1.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 155.71 to 61.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -12.86 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.51 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 166.67 to 128.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 24.79; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.05 to 24.79; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.26 to 0.19; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.26 to 0.19; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 40.50 to 24.79; 17-AETNA ‚Äì Medications Charge Billed Balance increased from avg 14.47 to 100.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency increased from avg 3.36 to 18.78; 17-AETNA ‚Äì Medications Payment per Visit decreased from avg 18.88 to 8.82; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 17.65; 17-AETNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.19 to 0.19; 17-AETNA ‚Äì Medications Collection Rate* decreased from avg 0.18 to 0.09; 17-AETNA ‚Äì Medications Labs per Visit decreased from avg 1.60 to 1.00; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 17.65; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 125.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 75.00; 18-CIGNA ‚Äì DME Charge Amount decreased from avg 561.12 to 220.70; 18-CIGNA ‚Äì DME Payment per Visit decreased from avg 226.34 to 55.17; 18-CIGNA ‚Äì DME NRV Zero Balance* decreased from avg 228.13 to 55.17; 18-CIGNA ‚Äì DME Payment Amount* decreased from avg 272.63 to 110.35; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.14 to 1.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 7.86 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -11.50 to 0.00; 4-MEDICAID ‚Äì DME Visit Count decreased from avg 1.67 to 1.00; 4-MEDICAID ‚Äì DME Charge Amount decreased from avg 682.71 to 5.00; 4-MEDICAID ‚Äì DME Payment per Visit decreased from avg 108.06 to 1.38; 4-MEDICAID ‚Äì DME NRV Zero Balance* decreased from avg 137.19 to 1.38; 4-MEDICAID ‚Äì DME Zero Balance Collection Rate decreased from avg 0.28 to 0.28; 4-MEDICAID ‚Äì DME Payment Amount* decreased from avg 198.76 to 1.38; 3-MEDICARE ‚Äì Medications Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì Medications Charge Amount decreased from avg 105.60 to 0.00; 4-MEDICAID ‚Äì Vaccines Visit Count decreased from avg 1.10 to 1.00; 4-MEDICAID ‚Äì Vaccines Charge Amount decreased from avg 141.20 to 86.00; 4-MEDICAID ‚Äì Vaccines Payment per Visit decreased from avg 43.37 to 13.30; 4-MEDICAID ‚Äì Vaccines NRV Zero Balance* decreased from avg 33.40 to 13.30; 4-MEDICAID ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.33 to 0.15; 4-MEDICAID ‚Äì Vaccines Collection Rate* decreased from avg 0.46 to 0.15; 4-MEDICAID ‚Äì Vaccines Payment Amount* decreased from avg 50.52 to 13.30; 1-SELF PAY ‚Äì DME Visit Count decreased from avg 1.33 to 1.00; 13-TRICARE ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 13-TRICARE ‚Äì Vaccines Charge Amount decreased from avg 110.25 to 86.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 4.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 184.00; 17-AETNA ‚Äì After Hours Payment per Visit increased from avg 5.52 to 6.00; 17-AETNA ‚Äì After Hours NRV Zero Balance* increased from avg 5.52 to 6.00; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.12 to 0.13; 17-AETNA ‚Äì After Hours Collection Rate* increased from avg 0.12 to 0.13; 17-AETNA ‚Äì After Hours Payment Amount* increased from avg 18.58 to 24.00; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 157.25; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.83; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 112.95; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 112.95; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.42; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.42; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì Medications Visit Count increased from avg 1.48 to 2.00; 17-AETNA ‚Äì Medications Charge Amount increased from avg 135.48 to 194.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 50.98 to 75.00; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 54.42 to 75.00; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.60; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.36 to 0.60</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Labs per Visit increased from avg 1.97 to 2.07; 2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 2.00; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Zero Balance Collection Rate increased from avg 0.36 to 0.40; 2-BCBS ‚Äì DME Collection Rate* increased from avg 0.37 to 0.40; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.22; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 31.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 8011.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to -355.92; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 53.48; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.20 to 0.21; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.19; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1657.96; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.19; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.19; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 36.00; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 10344.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 31.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -82.30; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 184.60; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.63; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 1.81; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 6645.61; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 9.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1127.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 52.17; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 52.17; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.42; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.42; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.11; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 469.56; 2-BCBS ‚Äì Vaccines Payment per Visit increased from avg 69.62 to 75.72; 2-BCBS ‚Äì Vaccines NRV Zero Balance* increased from avg 69.01 to 75.72; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.68; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.68; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 55.09; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 55.09; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.49; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.49</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 810.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 2.20; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 19.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1652.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.37; 1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 45.00; 1-SELF PAY ‚Äì Medications Labs per Visit increased from avg 1.13 to 2.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 1.33; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 17.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 945.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 55.59; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.47; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 97.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 66.61; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 66.61; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.50; 12-HUMANA ‚Äì New E/M Codes Charge Amount increased from avg 654.68 to 755.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit increased from avg 135.45 to 169.58; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 135.40 to 169.58; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.44 to 0.45; 12-HUMANA ‚Äì New E/M Codes Collection Rate* increased from avg 0.44 to 0.45; 12-HUMANA ‚Äì New E/M Codes Labs per Visit increased from avg 0.90 to 1.50; 12-HUMANA ‚Äì New E/M Codes Payment Amount* increased from avg 300.52 to 339.16; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 91.95; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.38; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 93.54; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.36; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 12.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 2940.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 100.22; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 1.75; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1202.65; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 15.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 3033.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.07; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 452.40; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 3.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.21; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* increased from avg 0.16 to 0.21; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 15.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 4425.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 1.67; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 2005.30; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.21 to 3.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 5.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 634.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 134.84; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 6.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1470.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 100.72; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 100.72; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.41; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.17; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 604.30; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 7.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 1994.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 78.03; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 78.03; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.27; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.27; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.14; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 546.24; 18-CIGNA ‚Äì Medications Visit Count increased from avg 1.75 to 2.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.50; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 7.00; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 4.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 240.79 to 607.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 61.27 to 115.85; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 104.64; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 104.64; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 2.50; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 3.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 548.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 46.17; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 46.17; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.25; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.25; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.33; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 138.52; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 6.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 1240.06; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 87.37; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.42; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 1.67; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* increased from avg 273.10 to 524.24; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.48 to 2.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 207.62 to 266.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.55 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.21; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.20 to 0.21; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.50; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 45.10 to 56.31; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 26.48; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 26.48; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.46 to 0.58; 4-MEDICAID ‚Äì After Hours Collection Rate* increased from avg 0.46 to 0.58; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 48.26; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 48.26; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.17; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.18; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.18; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 3.94; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 129.57; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 129.57; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 1.93; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* increased from avg 1765.78 to 1813.94; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 5.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 2.40; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 4.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 769.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 27.57 to 38.19; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 27.38 to 38.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 152.74; 5-COMMERCIAL ‚Äì After Hours Payment per Visit increased from avg 23.47 to 28.66; 5-COMMERCIAL ‚Äì After Hours NRV Zero Balance* increased from avg 23.47 to 28.66; 5-COMMERCIAL ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.51 to 0.62; 5-COMMERCIAL ‚Äì After Hours Collection Rate* increased from avg 0.51 to 0.62; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 4.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 785.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 183.10; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.18 to 3.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 264.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.35 to 0.41; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.39 to 0.41; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 95.70 to 109.25; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 42.78 to 43.50; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 42.19 to 43.50; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 565.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Medications Charge Amount increased from avg 69.73 to 94.00; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance decreased from avg 14.77 to 0.00; 5-COMMERCIAL ‚Äì Medications Payment per Visit increased from avg 14.74 to 32.75; 5-COMMERCIAL ‚Äì Medications NRV Zero Balance* increased from avg 15.12 to 32.75; 5-COMMERCIAL ‚Äì Medications Zero Balance Collection Rate increased from avg 0.21 to 0.35; 5-COMMERCIAL ‚Äì Medications Collection Rate* increased from avg 0.21 to 0.35; 5-COMMERCIAL ‚Äì Medications Payment Amount* increased from avg 14.74 to 32.75; 13-TRICARE ‚Äì Medications Charge Billed Balance decreased from avg 39.88 to 0.00; 13-TRICARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.17 to 0.00; 13-TRICARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.12 to 0.12; 13-TRICARE ‚Äì Medications Collection Rate* increased from avg 0.10 to 0.12; 15-UNITED HEALTHCARE ‚Äì DME Visit Count increased from avg 1.38 to 2.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount increased from avg 547.64 to 967.88; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance decreased from avg 131.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment per Visit increased from avg 73.28 to 121.11; 15-UNITED HEALTHCARE ‚Äì DME NRV Zero Balance* increased from avg 73.88 to 121.11; 15-UNITED HEALTHCARE ‚Äì DME Zero Balance Collection Rate increased from avg 0.23 to 0.25; 15-UNITED HEALTHCARE ‚Äì DME Collection Rate* increased from avg 0.22 to 0.25; 15-UNITED HEALTHCARE ‚Äì DME Payment Amount* increased from avg 116.98 to 242.22; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00; 4-MEDICAID ‚Äì Vaccines Charge Billed Balance decreased from avg 51.20 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 5.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.55; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 81.80; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 43.36; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 1.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 45.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 6.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 640.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 106.67; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 60.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 30.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 2.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 194.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 293.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 66.61; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 2.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 1.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 245.00; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 91.95; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.38; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 91.95; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 3.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.33; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 780.00; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 93.54; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.36; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 280.62; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 100.22; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.41; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.41; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 30.16; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 30.16; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.15; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 194.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 13.79; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 13.79; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 41.37; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.80; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 133.69; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 133.69; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.45; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.45; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 75.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 2.70; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 2.70; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.11; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.11; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 8.09; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 26.97; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 26.97; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.21; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.60; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 2.67; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 2.67; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.12 to 0.06; 17-AETNA ‚Äì After Hours Collection Rate* decreased from avg 0.12 to 0.06; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 16.00; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.45; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 810.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 128.51; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 128.51; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.63; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 514.03; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 6.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 935.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 40.21; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 40.21; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.26; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.26; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 241.24; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 4.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.50; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 1090.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 151.88; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 151.88; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.56; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.56; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 607.51; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.41; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 182.00; 18-CIGNA ‚Äì Medications Payment per Visit decreased from avg 26.22 to 12.50; 18-CIGNA ‚Äì Medications NRV Zero Balance* decreased from avg 26.82 to 12.50; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.22 to 0.14; 18-CIGNA ‚Äì Medications Collection Rate* decreased from avg 0.22 to 0.14; 18-CIGNA ‚Äì Medications Labs per Visit decreased from avg 1.77 to 1.50; 18-CIGNA ‚Äì Medications Payment Amount* decreased from avg 45.71 to 25.01; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 6.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.52; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1635.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 135.98; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 135.98; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.50; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.50; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 815.86; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 30.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.30 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 2.80; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 34.38 to 28.96; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 34.64 to 28.96; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.19; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.19; 2-BCBS ‚Äì After Hours Payment per Visit decreased from avg 2.07 to 0.66; 2-BCBS ‚Äì After Hours NRV Zero Balance* decreased from avg 2.08 to 0.66; 2-BCBS ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.05 to 0.01; 2-BCBS ‚Äì After Hours Collection Rate* decreased from avg 0.05 to 0.01; 2-BCBS ‚Äì After Hours Payment Amount* decreased from avg 50.09 to 21.05; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.73; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 136.98; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 136.98; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 33.45; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 33.45; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.18; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.18; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 15.12; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 15.12; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.17; 2-BCBS ‚Äì Medications Collection Rate* decreased from avg 0.17 to 0.17; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.51; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 8419.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 168.10; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 168.10; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 5211.08; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 525.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 4.09; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 4.09; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.08; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.08; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 40.88; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 86.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 58.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 58.80; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 58.80; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 3.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 308.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 48.52; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 48.52; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 145.55; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 490.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 209.28; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 87.37; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 104.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 28.43 to 9.80; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 28.43 to 9.80; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.09; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.27 to 0.09; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.39 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 9.80; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 28.74 to 28.16; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 30.60 to 28.16; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 5.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 230.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Labs per Visit decreased from avg 2.04 to 1.60; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 132.40; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 7.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.76; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 1545.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 70.52; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 70.52; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.32; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.32; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.57; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 493.61; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 12.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 2829.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.20; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.20; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 579.16; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 2.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 95.00; 4-MEDICAID ‚Äì Medications Payment per Visit decreased from avg 15.29 to 8.51; 4-MEDICAID ‚Äì Medications NRV Zero Balance* decreased from avg 16.26 to 8.51; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 0.00; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 17.02; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 14.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 4310.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 230.72; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 8.17; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 8.17; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.18; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.18; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 40.83; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.20; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.20; 5-COMMERCIAL ‚Äì After Hours Visit Count decreased from avg 1.75 to 1.00; 5-COMMERCIAL ‚Äì After Hours Charge Amount decreased from avg 80.50 to 46.00; 5-COMMERCIAL ‚Äì After Hours Labs per Visit decreased from avg 2.12 to 1.00; 5-COMMERCIAL ‚Äì After Hours Payment Amount* decreased from avg 43.37 to 28.66; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 45.77; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 45.77; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.23; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.23; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.45; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 545.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 124.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 124.00; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.46; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.46; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 1.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 248.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 36.42; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 36.42; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 2.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 128.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.34 to 0.34; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.37 to 0.34; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.10 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 46.81 to 43.50; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 30.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.08 to 1.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 15.08 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -2.92 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.17 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.81 to 3.38; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 74.11; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 74.11; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.39; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.39; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 222.32; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00; 5-COMMERCIAL ‚Äì Medications Labs per Visit decreased from avg 1.73 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.14 to 1.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 7.86 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -11.50 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 42.88 to 4.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge NRV Zero Balance* decreased from avg 22.00 to 4.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.43 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Payment Amount* decreased from avg 42.88 to 4.00; 13-TRICARE ‚Äì Medications Visit Count decreased from avg 1.35 to 1.00; 13-TRICARE ‚Äì Medications Charge Amount decreased from avg 156.35 to 90.00; 13-TRICARE ‚Äì Medications Payment per Visit decreased from avg 11.74 to 11.00; 13-TRICARE ‚Äì Medications NRV Zero Balance* decreased from avg 12.96 to 11.00; 13-TRICARE ‚Äì Medications Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Medications Payment Amount* decreased from avg 14.88 to 11.00; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 4-MEDICAID ‚Äì DME Visit Count decreased from avg 1.67 to 1.00; 4-MEDICAID ‚Äì DME Charge Amount decreased from avg 682.71 to 188.61; 4-MEDICAID ‚Äì DME Payment per Visit decreased from avg 108.06 to 43.74; 4-MEDICAID ‚Äì DME NRV Zero Balance* decreased from avg 137.19 to 43.74; 4-MEDICAID ‚Äì DME Zero Balance Collection Rate decreased from avg 0.28 to 0.23; 4-MEDICAID ‚Äì DME Collection Rate* decreased from avg 0.26 to 0.23; 4-MEDICAID ‚Äì DME Payment Amount* decreased from avg 198.76 to 43.74; 4-MEDICAID ‚Äì Vaccines Visit Count decreased from avg 1.10 to 1.00; 4-MEDICAID ‚Äì Vaccines Charge Amount decreased from avg 141.20 to 86.00; 4-MEDICAID ‚Äì Vaccines Payment per Visit decreased from avg 43.37 to 13.30; 4-MEDICAID ‚Äì Vaccines NRV Zero Balance* decreased from avg 33.40 to 13.30; 4-MEDICAID ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.33 to 0.15; 4-MEDICAID ‚Äì Vaccines Collection Rate* decreased from avg 0.46 to 0.15; 4-MEDICAID ‚Äì Vaccines Payment Amount* decreased from avg 50.52 to 13.30; 1-SELF PAY ‚Äì DME Visit Count decreased from avg 1.33 to 1.00; 1-SELF PAY ‚Äì DME Charge Amount decreased from avg 133.93 to 25.00; 1-SELF PAY ‚Äì DME Payment per Visit decreased from avg 42.67 to 25.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Visit Count decreased from avg 1.14 to 1.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Amount decreased from avg 146.94 to 86.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Billed Balance increased from avg -10.71 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment per Visit decreased from avg 82.57 to 42.91; 15-UNITED HEALTHCARE ‚Äì Vaccines NRV Zero Balance* decreased from avg 65.18 to 42.91; 15-UNITED HEALTHCARE ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.59 to 0.50; 15-UNITED HEALTHCARE ‚Äì Vaccines Collection Rate* decreased from avg 0.60 to 0.50; 15-UNITED HEALTHCARE ‚Äì Vaccines Labs per Visit decreased from avg 0.57 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment Amount* decreased from avg 90.91 to 42.91</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 6.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 276.00; 17-AETNA ‚Äì After Hours Labs per Visit increased from avg 2.15 to 3.50; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.63; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.50; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.50; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 2.75; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 7.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 32.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 1426.00; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Labs per Visit increased from avg 1.97 to 2.41; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 29.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 6425.00; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.10; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 3972.42; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 39.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 7348.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.03; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1304.45; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 5.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 447.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 2.60; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 75.62; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 31.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.62; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.62; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 10.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.50; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.68; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.68; 2-BCBS ‚Äì Vaccines Labs per Visit increased from avg 0.10 to 2.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.47; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.47; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.33</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 53.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 74.80; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.53; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 189.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count increased from avg 2.31 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount increased from avg 531.67 to 895.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 112.81; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 112.81; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.50; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.50; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* increased from avg 205.83 to 451.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 460.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 53.65; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 53.65; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 71.45 to 107.30; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 12-HUMANA ‚Äì New E/M Codes Labs per Visit increased from avg 0.90 to 2.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.41; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.41; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 2.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 583.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 71.06; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 71.06; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.37; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.37; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 3.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 213.17; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 100.10; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.37; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 3.50; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -60.44; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -106.22; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 115.31; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.47; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 1.80; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 32.94; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.00; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 2.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 250.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 1.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.47 to 0.51; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.51; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.23; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 1.50; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.29; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.29; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 980.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 347.08; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 67.06; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 67.06; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.29; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.29; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.55 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 2.00; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 3.50; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.33; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 1.50; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.40; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 2.50; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 27.57 to 35.21; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 27.38 to 35.21; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.23; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.23; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 70.42; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 1024.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 168.49; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* increased from avg 161.13 to 168.49; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.55 to 0.66; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* increased from avg 0.48 to 0.66; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* increased from avg 360.69 to 673.96; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.18 to 4.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 294.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 2.25; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 42.78 to 49.61; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 42.19 to 49.61; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.34 to 0.54; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.37 to 0.54; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 46.81 to 49.61; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.21 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 694.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 326.30; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge NRV Zero Balance* increased from avg 22.00 to 40.00; 5-COMMERCIAL ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.72 to 0.89; 5-COMMERCIAL ‚Äì Vaccines Collection Rate* increased from avg 0.72 to 0.89</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 3.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.60; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 320.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 106.67; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 13.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 525.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 41.15; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 1.08; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 1.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 53.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 12.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.77; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1280.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 106.67; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.67; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 15.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 815.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 1.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 189.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.87 to 3.69; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.50; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.37 to 2.00; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 1.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.92 to 3.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 235.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 82.47; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 135.40 to 82.47; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.44 to 0.35; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.35; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 82.47; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 1.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 160.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 64.91; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 64.91; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 64.91; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.55; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 545.00; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 100.10; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.37; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 200.21; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 5.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 1225.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 94.06; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.38; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 576.55; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 5.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 1060.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 32.94; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.16; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.16; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 164.72; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 18.86; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 18.86; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.15; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 37.71; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 7.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.38; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 1870.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 136.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 136.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 0.86; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 952.03; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 119.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 6.84; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 6.84; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.12; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.12; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 1.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 13.69; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 243.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 28.46; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 28.46; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 56.93; 17-AETNA ‚Äì After Hours Visit Count decreased from avg 3.75 to 2.00; 17-AETNA ‚Äì After Hours Charge Amount decreased from avg 170.58 to 92.00; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.12 to 0.09; 17-AETNA ‚Äì After Hours Collection Rate* decreased from avg 0.12 to 0.09; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 1.00; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 8.00; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 149.73; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.61; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.39; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.88; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 2.00; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 620.00; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 510.00; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 1.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 245.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 90.86; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 90.86; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 90.86; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 2.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 262.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 37.34; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 37.34; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 2.50; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 74.68; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 3.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.62; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 915.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 134.85; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 134.85; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.44; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.44; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.67; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 404.54; 2-BCBS ‚Äì After Hours Visit Count decreased from avg 19.95 to 16.00; 2-BCBS ‚Äì After Hours Charge Amount decreased from avg 906.21 to 736.00; 2-BCBS ‚Äì After Hours Labs per Visit decreased from avg 1.97 to 1.75; 2-BCBS ‚Äì After Hours Payment Amount* decreased from avg 50.09 to 38.94; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 22.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.75; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 4924.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 139.00; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 139.00; 2-BCBS ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.69 to 1.68; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 3058.11; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 24.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 4127.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 25.90; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 25.90; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.15; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.15; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 621.58; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 2.00; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 265.00; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 2-BCBS ‚Äì Medications Collection Rate* decreased from avg 0.17 to 0.15; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 38.88; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 20.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.76; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 5819.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 176.23; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 176.23; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.61 to 0.61; 2-BCBS ‚Äì New E/M Codes Collection Rate* decreased from avg 0.61 to 0.61; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 3524.66; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 285.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 7.26; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 7.26; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.15; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.15; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 43.54; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 86.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 58.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 58.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 58.80; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 4.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 436.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 48.15; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 48.15; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 192.59; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 86.77; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 86.77; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.35; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.35; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 0.50; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 1.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 230.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 67.06; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 0.04; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 0.50; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.48 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 207.62 to 128.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 28.74 to 24.95; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 30.60 to 24.95; 3-MEDICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.19; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.20 to 0.19; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 45.10 to 24.95; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 6.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 276.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment per Visit decreased from avg 20.66 to 17.65; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* decreased from avg 20.63 to 17.65; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.46 to 0.38; 4-MEDICAID ‚Äì After Hours Collection Rate* decreased from avg 0.46 to 0.38; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 105.92; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 7.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.57; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 1460.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 63.93; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 63.93; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.31; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.31; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 0.86; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 447.48; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 9.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 1565.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 40.05; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 40.05; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 360.45; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 2.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 165.00; 4-MEDICAID ‚Äì Medications Payment per Visit decreased from avg 15.29 to 8.27; 4-MEDICAID ‚Äì Medications NRV Zero Balance* decreased from avg 16.26 to 8.27; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.10; 4-MEDICAID ‚Äì Medications Collection Rate* decreased from avg 0.15 to 0.10; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 16.53; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 10.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.55; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 2725.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 91.81; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 91.81; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.34; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.34; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 918.10; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 2.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 91.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 6.44; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 6.44; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.14; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.14; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 12.88; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 301.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 5-COMMERCIAL ‚Äì After Hours Visit Count decreased from avg 1.75 to 1.00; 5-COMMERCIAL ‚Äì After Hours Charge Amount decreased from avg 80.50 to 46.00; 5-COMMERCIAL ‚Äì After Hours Labs per Visit decreased from avg 2.12 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 219.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 9.54; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 9.54; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.09; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.09; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.50; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 19.07; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.29; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 1.25; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 20.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 20.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.27; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.27; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 80.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 92.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.10 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.36 to 1.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 155.71 to 104.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -12.86 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 35.91 to 17.31; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 30.05 to 17.31; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.17; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.21 to 0.17; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.51 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 53.34 to 17.31; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 166.67 to 128.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 24.70; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.05 to 24.70; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.26 to 0.19; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.26 to 0.19; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 40.50 to 24.70; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 29.13; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 30.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 108.77; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 108.77; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.47; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.47; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 1.33; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.14 to 1.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 7.86 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -11.50 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 42.88 to 40.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.43 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Payment Amount* decreased from avg 42.88 to 40.00; 13-TRICARE ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 4.00 to 4.00; 3-MEDICARE ‚Äì Self-pay physical &amp; No Charge NRV Zero Balance* decreased from avg 4.00 to 4.00; 3-MEDICARE ‚Äì Self-pay physical &amp; No Charge Payment Amount* decreased from avg 4.00 to 4.00; 5-COMMERCIAL ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 5-COMMERCIAL ‚Äì Vaccines Charge Amount decreased from avg 148.50 to 86.00; 5-COMMERCIAL ‚Äì Vaccines Payment per Visit decreased from avg 96.93 to 76.86; 5-COMMERCIAL ‚Äì Vaccines NRV Zero Balance* decreased from avg 96.93 to 76.86; 5-COMMERCIAL ‚Äì Vaccines Payment Amount* decreased from avg 96.93 to 76.86</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 7.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 1715.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 149.73; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.61; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.29; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 1048.08; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 8.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 1894.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 91.35; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 91.35; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.39; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 730.77; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 255.00; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 255.00; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.82; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.82; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 3.50; 17-AETNA ‚Äì Medications Charge Amount increased from avg 135.48 to 150.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 29.13; 17-AETNA ‚Äì Medications NRV Zero Balance* increased from avg 19.97 to 29.13; 17-AETNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.19 to 0.19; 17-AETNA ‚Äì Medications Collection Rate* increased from avg 0.18 to 0.19; 17-AETNA ‚Äì Medications Labs per Visit increased from avg 1.60 to 3.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 2.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Payment per Visit increased from avg 2.07 to 2.43; 2-BCBS ‚Äì After Hours NRV Zero Balance* increased from avg 2.08 to 2.43; 2-BCBS ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.05 to 0.05; 2-BCBS ‚Äì After Hours Collection Rate* increased from avg 0.05 to 0.05; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.04; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 19.44; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 19.44; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 2.50; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 1.80; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 6.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.67; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.68; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.68; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.44; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.44; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 725.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 160.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 985.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 63.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.47; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount increased from avg 235.81 to 259.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 129.50; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 95.94; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 95.94; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.39; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 54.74; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 54.74; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.24; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.24; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 5.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 1225.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 100.93; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.54 to 100.93; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.41; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.41; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 504.66; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 951.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 69.53; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 69.53; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 3.67; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 208.59; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 5.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 3.88; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 1475.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 102.00; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.35; 13-TRICARE ‚Äì New E/M Codes Payment Amount* increased from avg 298.18 to 510.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.16 to 2.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 3.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 23.45 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.82 to 6.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 15.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 3330.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 1.93; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1237.05; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 11.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 2718.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 36.80; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 36.80; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.09; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 404.81; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 2.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.21 to 4.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 336.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.27; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.27; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 2.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 54.50 to 89.53; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 4.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 478.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 94.57; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 5.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1184.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 136.00; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 136.00; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.57; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.57; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 3.60; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 680.01; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 7.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.14; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 50.98; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 152.48; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 162.98; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.50 to 0.62; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.56; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 4.00; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 2.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 240.79 to 291.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 39.47; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 39.47; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 1.50; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 61.27 to 78.94; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 97.82; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 97.82; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 2.67; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 6.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 1103.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.23; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.17; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 255.94; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 8.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 1400.07; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 83.90; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.48; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.48; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 2.38; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* increased from avg 273.10 to 671.21; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.29; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.27 to 0.29; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.39 to 3.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.48 to 2.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 207.62 to 301.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.55 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 28.74 to 40.51; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 30.60 to 40.51; 3-MEDICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.27; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.20 to 0.27; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 45.10 to 81.02; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 26.48; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 26.48; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.46 to 0.58; 4-MEDICAID ‚Äì After Hours Collection Rate* increased from avg 0.46 to 0.58; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to -4.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to -12.78; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.34; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 3.57; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to -13.32; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 53.44; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 50.73; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 4.18; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 4.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 124.62; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 124.62; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.45; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 5.50; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 3.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 558.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 27.57 to 33.65; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 27.38 to 33.65; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 100.96; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 4.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 1141.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 98.25; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 131.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.46; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.34; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 5.50; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 393.00; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 930.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 5.67; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.18 to 4.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 294.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 5.50; 12-HUMANA ‚Äì Medications Charge Billed Balance decreased from avg 2.86 to 0.00; 12-HUMANA ‚Äì Medications Labs per Visit increased from avg 0.96 to 2.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.51 to 2.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.21 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit increased from avg 115.74 to 150.00; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 114.13 to 150.00; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.54 to 0.94; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* increased from avg 0.53 to 0.94; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 5.00; 5-COMMERCIAL ‚Äì Medications Visit Count increased from avg 1.07 to 2.00; 5-COMMERCIAL ‚Äì Medications Charge Amount increased from avg 69.73 to 100.00; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance decreased from avg 14.77 to 0.00; 5-COMMERCIAL ‚Äì Medications Labs per Visit increased from avg 1.73 to 5.00; 13-TRICARE ‚Äì Medications Charge Billed Balance decreased from avg 39.88 to 0.00; 13-TRICARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.17 to 0.00; 13-TRICARE ‚Äì Medications Payment per Visit increased from avg 11.74 to 11.86; 13-TRICARE ‚Äì Medications Labs per Visit increased from avg 1.42 to 6.00; 3-MEDICARE ‚Äì DME Charge Billed Balance decreased from avg 8.62 to 0.00; 4-MEDICAID ‚Äì DME Visit Count increased from avg 1.67 to 2.00; 4-MEDICAID ‚Äì DME Charge Amount increased from avg 682.71 to 1482.97; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00; 4-MEDICAID ‚Äì DME Payment per Visit increased from avg 108.06 to 130.05; 4-MEDICAID ‚Äì DME Payment Amount* increased from avg 198.76 to 260.10; 1-SELF PAY ‚Äì DME Payment per Visit increased from avg 42.67 to 50.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 4.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.50; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 121.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.50; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 13.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 610.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 29.23; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 1.00; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 2.00; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 5.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 1.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 8.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.57; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 960.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 120.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.50; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 90.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 45.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 15.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 2.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 490.00; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.39; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 1.00; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 191.87; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 230.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.37 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 54.74; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 1.20; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.22; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.22; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 102.00; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.35; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 200.53 to 119.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 47.27 to 8.93; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.55 to 8.93; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.15; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.23 to 0.15; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 48.14 to 17.86; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 128.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.31 to 26.95; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.20 to 26.95; 13-TRICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 26.95; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.75; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to -1.60; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 13.41; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 82.47; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 82.75; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.38; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.37; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.15; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 167.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 11.60; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 11.60; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.14; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.14; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 23.20; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 6.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 1635.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 122.82; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 122.82; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.45; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.45; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 0.83; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 736.92; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 22.38; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 22.38; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 23.64; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 23.64; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.20; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.20; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.50; 17-AETNA ‚Äì After Hours Visit Count decreased from avg 3.75 to 1.00; 17-AETNA ‚Äì After Hours Charge Amount decreased from avg 170.58 to 46.00; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 0.00; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 6.40; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 2.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.50; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 405.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 124.17; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 124.17; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.61; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 248.35; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 3.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 587.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 73.89; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 73.89; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.38; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.38; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 221.66; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 7.00; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 2230.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 190.56; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 190.56; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.60; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.60; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 1.29; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1333.89; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1304.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 36.54; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 36.54; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.20; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.20; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 255.77; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 6.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.44; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1635.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 15.12 to 90.65; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 0.67; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 914.88; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 30.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.30 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 2.80; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.27; 2-BCBS ‚Äì After Hours Payment per Visit decreased from avg 2.07 to 0.51; 2-BCBS ‚Äì After Hours NRV Zero Balance* decreased from avg 2.08 to 0.51; 2-BCBS ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.05 to 0.01; 2-BCBS ‚Äì After Hours Collection Rate* decreased from avg 0.05 to 0.01; 2-BCBS ‚Äì After Hours Labs per Visit decreased from avg 1.97 to 1.62; 2-BCBS ‚Äì After Hours Payment Amount* decreased from avg 50.09 to 12.35; 2-BCBS ‚Äì DME Visit Count decreased from avg 1.61 to 1.00; 2-BCBS ‚Äì DME Charge Amount decreased from avg 616.33 to 524.80; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì DME Payment Amount* decreased from avg 258.71 to 197.32; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.82; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.69 to 1.61; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 27.00; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 16.29; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 16.29; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.17; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 24.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.63; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 6900.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance increased from avg 52.44 to 60.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 76.76; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 171.08; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 173.04; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.61 to 0.61; 2-BCBS ‚Äì New E/M Codes Collection Rate* decreased from avg 0.61 to 0.60; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 4105.99; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 5.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 240.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 5.44; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 5.44; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.11; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.11; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 27.22; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.37; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.37; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 3.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 735.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.40; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.40; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 293.45; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 42.66; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 42.66; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.23; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.82 to 3.54; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 83.90; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 30.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 28.43 to 8.65; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 28.43 to 8.65; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 8.65; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 1.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 46.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Labs per Visit decreased from avg 2.04 to 0.00; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 26.48; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 7.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.67; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 1545.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 74.14; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 70.99; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.33; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 518.99; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 11.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 2505.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 587.84; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 2.00; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 11.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.81; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 3260.00; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1370.80; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 2.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 60.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 5.03; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 5.03; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.17; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.17; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 10.06; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.18; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.18; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 293.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 20.86 to 135.79; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance increased from avg 122.16 to 310.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 41.75 to 94.18; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 62.79; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 94.18; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.30; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.20; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 188.36; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg 0.19 to 0.64; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 0.38; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 0.50; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.01; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.01; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 1.50; 12-HUMANA ‚Äì Medications Visit Count decreased from avg 1.14 to 1.00; 12-HUMANA ‚Äì Medications Charge Amount decreased from avg 103.29 to 15.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.36 to 1.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 155.71 to 61.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -12.86 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 35.91 to 5.85; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 30.05 to 5.85; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.10; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.21 to 0.10; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 53.34 to 5.85; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 166.67 to 128.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 25.20; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.05 to 25.20; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.26 to 0.20; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.26 to 0.20; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 40.50 to 25.20; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 19.25; 17-AETNA ‚Äì Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 258.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 38.36; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 38.36; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.30; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.30; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 76.72; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 1.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.81 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 160.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 150.00; 13-TRICARE ‚Äì Medications Visit Count decreased from avg 1.35 to 1.00; 13-TRICARE ‚Äì Medications Charge Amount decreased from avg 156.35 to 150.00; 13-TRICARE ‚Äì Medications NRV Zero Balance* decreased from avg 12.96 to 11.86; 13-TRICARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.12 to 0.08; 13-TRICARE ‚Äì Medications Collection Rate* decreased from avg 0.10 to 0.08; 13-TRICARE ‚Äì Medications Payment Amount* decreased from avg 14.88 to 11.86; 3-MEDICARE ‚Äì DME Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì DME Charge Amount decreased from avg 319.54 to 0.00; 4-MEDICAID ‚Äì DME NRV Zero Balance* decreased from avg 137.19 to 130.05; 4-MEDICAID ‚Äì DME Zero Balance Collection Rate decreased from avg 0.28 to 0.18; 4-MEDICAID ‚Äì DME Collection Rate* decreased from avg 0.26 to 0.18; 17-AETNA ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 17-AETNA ‚Äì Vaccines Charge Amount decreased from avg 100.13 to 86.00; 17-AETNA ‚Äì Vaccines Payment per Visit decreased from avg 61.15 to 47.99; 17-AETNA ‚Äì Vaccines NRV Zero Balance* decreased from avg 61.15 to 47.99; 17-AETNA ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.61 to 0.56; 17-AETNA ‚Äì Vaccines Collection Rate* decreased from avg 0.61 to 0.56; 17-AETNA ‚Äì Vaccines Payment Amount* decreased from avg 61.15 to 47.99; 1-SELF PAY ‚Äì DME Visit Count decreased from avg 1.33 to 1.00; 1-SELF PAY ‚Äì DME Charge Amount decreased from avg 133.93 to 50.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Payment per Visit increased from avg 5.52 to 6.40; 17-AETNA ‚Äì After Hours NRV Zero Balance* increased from avg 5.52 to 6.40; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.12 to 0.14; 17-AETNA ‚Äì After Hours Collection Rate* increased from avg 0.12 to 0.14; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.61; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.67; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì Medications Visit Count increased from avg 1.48 to 2.00; 17-AETNA ‚Äì Medications Charge Amount increased from avg 135.48 to 188.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 19.25; 17-AETNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.19 to 0.20; 17-AETNA ‚Äì Medications Collection Rate* increased from avg 0.18 to 0.20; 17-AETNA ‚Äì Medications Payment Amount* increased from avg 31.94 to 38.50; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 230.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 76.58 to 150.69; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 34.92 to 150.69; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.66; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.30 to 0.66; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 2.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 94.17 to 150.69; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 24.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 1104.00; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Payment per Visit increased from avg 145.60 to 197.32; 2-BCBS ‚Äì DME NRV Zero Balance* increased from avg 140.68 to 197.32; 2-BCBS ‚Äì DME Zero Balance Collection Rate increased from avg 0.36 to 0.38; 2-BCBS ‚Äì DME Collection Rate* increased from avg 0.37 to 0.38; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 28.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 6435.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 146.72; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 146.72; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 4108.12; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 6425.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to -2.48; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 50.84; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 49.80; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.21; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.20 to 0.21; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.37; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1372.55; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 8.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 756.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.17; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 1.62; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 130.30; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.00; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 10.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1338.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 49.99; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 49.99; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.20; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 499.89</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 3.80; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 19.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1395.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 62.37; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.32; 1-SELF PAY ‚Äì New E/M Codes Visit Count increased from avg 13.36 to 17.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount increased from avg 2031.01 to 2886.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 1.18; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 3.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 2.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 61.11; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.56; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 100.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 1.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 42.92; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 42.92; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.19; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.19; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 980.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 94.93; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.54 to 94.93; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.39; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 379.71; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 883.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 73.18; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 73.18; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 219.53; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 6.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 1635.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 113.10; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.42; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.42; 13-TRICARE ‚Äì New E/M Codes Payment Amount* increased from avg 298.18 to 678.62; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.20 to 2.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 178.05 to 263.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 23.45 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.31 to 32.30; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 31.20 to 32.30; 13-TRICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.25; 13-TRICARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.25; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 37.55 to 64.60; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 11.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 2323.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 38.19; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 38.19; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.16; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.10; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 381.89; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 143.39; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 143.39; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.47 to 0.49; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.49; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 1.88; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.21 to 3.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 4.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 1.00; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.45; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.45; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 178.43; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 178.43; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.50 to 0.58; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.58; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 34.64; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 34.64; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 102.20; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 102.20; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 3.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 523.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 75.16; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 75.16; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.29; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.29; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 2.50; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 150.32; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.43; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 2.50; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 26.48; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 26.48; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.46 to 0.58; 4-MEDICAID ‚Äì After Hours Collection Rate* increased from avg 0.46 to 0.58; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 3.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 82.21; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 82.21; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.34; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 3.50; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 69.46; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 69.46; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 4.00; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.21; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.21; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 1.50; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 3.87; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to -5.10; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 127.58; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 126.38; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.25; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 5.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to -3.92; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.21; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.50; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 105.10; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 105.10; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.32; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.32; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 5.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 150.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 5.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 5.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.21 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 13-TRICARE ‚Äì DME Charge Billed Balance decreased from avg 98.54 to 0.00; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00; 4-MEDICAID ‚Äì Vaccines Charge Billed Balance decreased from avg 51.20 to 50.00; 1-SELF PAY ‚Äì DME Visit Count increased from avg 1.33 to 2.00; 1-SELF PAY ‚Äì DME Payment per Visit increased from avg 42.67 to 62.50</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 3.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 320.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 106.67; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.61; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 144.71; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 95.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 25.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 9.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 500.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 2.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 200.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.87 to 3.40; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 405.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 72.72; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 72.72; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.36; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.39 to 0.36; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 1.00; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 145.44; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 230.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.37 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 42.92; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.39; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.25; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.25; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 2.67; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.50; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 113.10; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 0.67; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 200.53 to 89.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 47.27 to 13.80; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.55 to 13.80; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.16; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.23 to 0.16; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.66 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 48.14 to 13.80; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.61; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 2355.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 84.75; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 84.75; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.40; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.40; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.45; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 932.22; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 10.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.16; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 8.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.77; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 2330.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 1147.09; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 90.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 1.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 1.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.05; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.05; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 4.50; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 222.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 23.27; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 23.27; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.21; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 46.54; 17-AETNA ‚Äì After Hours Visit Count decreased from avg 3.75 to 1.00; 17-AETNA ‚Äì After Hours Charge Amount decreased from avg 170.58 to 46.00; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 8.00; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 1.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 160.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 93.15; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 93.15; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.58; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.58; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 93.15; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 4.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 817.00; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 80.48; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.39; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 321.91; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 8.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.52; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 2180.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 160.32; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 160.32; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.59; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.59; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 1.38; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1282.58; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.24; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 725.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 81.43; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 81.43; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 0.75; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 325.70; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 4.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 674.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 29.73; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 29.73; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.18; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.18; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 2.50; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 118.93; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1240.00; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.75; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 713.72; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 135.00; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.26; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.26; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 34.64; 2-BCBS ‚Äì After Hours Upfront Collections Efficiency increased from avg 0.08 to 1.60; 2-BCBS ‚Äì After Hours Payment per Visit decreased from avg 2.07 to 1.53; 2-BCBS ‚Äì After Hours NRV Zero Balance* decreased from avg 2.08 to 1.60; 2-BCBS ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.05 to 0.03; 2-BCBS ‚Äì After Hours Collection Rate* decreased from avg 0.05 to 0.03; 2-BCBS ‚Äì After Hours Labs per Visit decreased from avg 1.97 to 1.83; 2-BCBS ‚Äì After Hours Payment Amount* decreased from avg 50.09 to 35.30; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Zero Balance Collection Rate decreased from avg 0.36 to 0.36; 2-BCBS ‚Äì DME Collection Rate* decreased from avg 0.37 to 0.36; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.79; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 160.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 96.94; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 130.65; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 135.15; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.61 to 0.61; 2-BCBS ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.59; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.63 to 37.40; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 39.04; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 40.13; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.19; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.18; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.64; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance increased from avg 52.44 to 364.54; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 284.35; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 162.77; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 171.96; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.61 to 0.61; 2-BCBS ‚Äì New E/M Codes Collection Rate* decreased from avg 0.61 to 0.58; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 5208.73; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 12.26; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 27.70; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 29.83; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 86.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 57.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 57.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 57.80; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 1.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 245.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 102.20; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 2.00; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 2.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 310.02; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 66.52; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 66.52; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 133.04; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 3.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 138.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 79.44; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 4.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 980.00; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.34; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 328.84; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 8.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 2449.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 555.69; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 2.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 80.00; 4-MEDICAID ‚Äì Medications Payment per Visit decreased from avg 15.29 to 8.51; 4-MEDICAID ‚Äì Medications NRV Zero Balance* decreased from avg 16.26 to 8.51; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 17.02; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 8.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 2405.00; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1020.68; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 1.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 30.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 2.70; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 220.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 23.40; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 46.79; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 325.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 105.10; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 1.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 310.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 150.00; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.48; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.48; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 150.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 88.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 166.67 to 128.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 19.76; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.05 to 19.76; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.26 to 0.15; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.26 to 0.15; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 40.50 to 19.76; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Charge Amount decreased from avg 135.48 to 110.00; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 19.69; 17-AETNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.19 to 0.18; 17-AETNA ‚Äì Medications Labs per Visit decreased from avg 1.60 to 1.00; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 19.69; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 104.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 17.10; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 34.92 to 17.10; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.16; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.16; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 17.10; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 227.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 45.35; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 45.35; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 90.70; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.81 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 320.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 76.89; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 76.89; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.48; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.48; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 153.78; 17-AETNA ‚Äì DME Visit Count decreased from avg 1.17 to 1.00; 17-AETNA ‚Äì DME Charge Amount decreased from avg 429.55 to 5.00; 17-AETNA ‚Äì DME Payment per Visit decreased from avg 174.97 to 2.80; 17-AETNA ‚Äì DME NRV Zero Balance* decreased from avg 179.12 to 2.80; 17-AETNA ‚Äì DME Zero Balance Collection Rate decreased from avg 0.58 to 0.56; 17-AETNA ‚Äì DME Payment Amount* decreased from avg 200.73 to 2.80; 13-TRICARE ‚Äì DME Visit Count decreased from avg 1.00 to 1.00; 13-TRICARE ‚Äì DME Charge Amount decreased from avg 418.70 to 278.08; 13-TRICARE ‚Äì DME Payment per Visit decreased from avg 180.57 to 142.65; 13-TRICARE ‚Äì DME NRV Zero Balance* decreased from avg 180.57 to 142.65; 13-TRICARE ‚Äì DME Zero Balance Collection Rate decreased from avg 0.53 to 0.51; 13-TRICARE ‚Äì DME Collection Rate* decreased from avg 0.53 to 0.51; 13-TRICARE ‚Äì DME Payment Amount* decreased from avg 180.57 to 142.65; 4-MEDICAID ‚Äì DME Visit Count decreased from avg 1.67 to 1.00; 4-MEDICAID ‚Äì DME Charge Amount decreased from avg 682.71 to 630.92; 17-AETNA ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 17-AETNA ‚Äì Vaccines Charge Amount decreased from avg 100.13 to 86.00; 17-AETNA ‚Äì Vaccines Payment per Visit decreased from avg 61.15 to 37.50; 17-AETNA ‚Äì Vaccines NRV Zero Balance* decreased from avg 61.15 to 37.50; 17-AETNA ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.61 to 0.44; 17-AETNA ‚Äì Vaccines Collection Rate* decreased from avg 0.61 to 0.44; 17-AETNA ‚Äì Vaccines Payment Amount* decreased from avg 61.15 to 37.50; 4-MEDICAID ‚Äì Vaccines Visit Count decreased from avg 1.10 to 1.00; 4-MEDICAID ‚Äì Vaccines Charge Amount decreased from avg 141.20 to 86.00; 4-MEDICAID ‚Äì Vaccines Payment per Visit decreased from avg 43.37 to 13.30; 4-MEDICAID ‚Äì Vaccines Collection Rate* decreased from avg 0.46 to 0.15; 4-MEDICAID ‚Äì Vaccines Payment Amount* decreased from avg 50.52 to 13.30; 1-SELF PAY ‚Äì DME Charge Amount decreased from avg 133.93 to 125.00; 15-UNITED HEALTHCARE ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.00 to 1.00; 15-UNITED HEALTHCARE ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 17.33 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Payment per Visit increased from avg 5.52 to 8.00; 17-AETNA ‚Äì After Hours NRV Zero Balance* increased from avg 5.52 to 8.00; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.12 to 0.17; 17-AETNA ‚Äì After Hours Collection Rate* increased from avg 0.12 to 0.17; 17-AETNA ‚Äì After Hours Labs per Visit increased from avg 2.15 to 3.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 80.48; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.39; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 19.69; 17-AETNA ‚Äì Medications Collection Rate* increased from avg 0.18 to 0.18; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.40; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.36 to 0.40; 17-AETNA ‚Äì DME Charge Billed Balance decreased from avg 149.25 to 0.00; 17-AETNA ‚Äì DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00; 17-AETNA ‚Äì DME Collection Rate* increased from avg 0.54 to 0.56</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Visit Count increased from avg 19.95 to 23.00; 2-BCBS ‚Äì After Hours Charge Amount increased from avg 906.21 to 1058.00; 2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 2.00; 2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 1466.85; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Payment per Visit increased from avg 145.60 to 261.20; 2-BCBS ‚Äì DME NRV Zero Balance* increased from avg 140.68 to 261.20; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 522.41; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 30.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 6629.00; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 1.80; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 3919.48; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 37.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 7845.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 25.48; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.30; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1444.57; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 10.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 925.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 18.17; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 18.17; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.20; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.20; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 2.20; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 181.65; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 32.00; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 8954.00; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.12; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 14.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 978.72; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.41; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.40; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.64; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 387.77; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.67; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.67; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 9.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1304.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 66.57; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 66.57; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.46; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.46; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.44; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 599.09</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 8.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 3.86; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 1280.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit increased from avg 125.79 to 160.75; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 52.73; 1-SELF PAY ‚Äì Medications Visit Count increased from avg 2.00 to 4.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 105.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 165.12; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 155.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 155.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount increased from avg 235.81 to 478.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 218.50; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.41; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.41; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.38; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 23.45 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 2438.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 111.72; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 111.72; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.46; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.46; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 1.90; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1117.16; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.56; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit increased from avg 21.82 to 22.17; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.24; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* increased from avg 0.16 to 0.24; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 3.25; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.21 to 3.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 434.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 29.95; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 27.53 to 29.95; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.21; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.21; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 2.67; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 54.50 to 89.86; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 379.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 82.27; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 149.36; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 149.36; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.74; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.74; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 3.50; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 85.96; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 85.96; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 4.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 150.98; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.98; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 5.00; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -14.70; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -14.42; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.45; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.47; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 343.42; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 5.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to -4.99; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.55 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 28.74 to 29.54; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.20 to 0.23; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 26.48; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 26.48; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.46 to 0.58; 4-MEDICAID ‚Äì After Hours Collection Rate* increased from avg 0.46 to 0.58; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 2.25; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 79.90; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.36; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.24; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 3.88; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 123.96; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.42; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.22; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.22; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 676.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 150.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 2.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 38.45 to 46.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.35 to 0.39; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.39 to 0.39; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 4.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.10 to 2.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit increased from avg 124.23 to 255.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 3.00; 13-TRICARE ‚Äì Medications Charge Billed Balance decreased from avg 39.88 to 0.00; 13-TRICARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.17 to 0.00; 13-TRICARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.12 to 0.12; 13-TRICARE ‚Äì Medications Collection Rate* increased from avg 0.10 to 0.12; 3-MEDICARE ‚Äì DME Charge Amount increased from avg 319.54 to 689.80; 3-MEDICARE ‚Äì DME Charge Billed Balance decreased from avg 8.62 to 0.00; 3-MEDICARE ‚Äì Medications Charge Billed Balance decreased from avg 1.05 to 0.00; 3-MEDICARE ‚Äì Medications NRV Zero Balance* increased from avg 12.05 to 12.29; 3-MEDICARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.11 to 0.13; 3-MEDICARE ‚Äì Medications Collection Rate* increased from avg 0.11 to 0.13; 15-UNITED HEALTHCARE ‚Äì Vaccines Visit Count increased from avg 1.14 to 2.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Amount increased from avg 146.94 to 172.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.59 to 0.68; 15-UNITED HEALTHCARE ‚Äì Vaccines Collection Rate* increased from avg 0.60 to 0.68; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment Amount* increased from avg 90.91 to 116.86</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.50; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 11.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 580.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 0.82; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 23.75; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 1.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 8.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.62; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1280.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.38; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 1.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 9.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 485.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 53.89; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.22; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 2.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 1.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 160.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 64.91; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 64.91; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 64.91; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 1.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 235.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 89.94; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 89.94; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 89.94; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 125.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.31 to 26.27; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.20 to 26.27; 13-TRICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 26.27; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 10.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 9.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 1696.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 17.40; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 17.40; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.09; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.09; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 156.58; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 94.00; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 22.17; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 22.17; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 4.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 1090.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 111.31; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 111.31; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.41; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.41; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 445.25; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 27.42; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 27.42; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.33; 17-AETNA ‚Äì After Hours Visit Count decreased from avg 3.75 to 1.00; 17-AETNA ‚Äì After Hours Charge Amount decreased from avg 170.58 to 46.00; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 8.00; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 3.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 694.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 140.23; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 135.44; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.55; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.61; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 420.70; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 4.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 1148.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 62.39 to 111.47; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.41; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.32; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 364.23; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 2.00; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 620.00; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 460.00; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 2.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.55; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 405.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 298.71; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 3.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1215.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.21; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.21; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 257.89; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 1.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 310.00; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.49; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 150.98; 2-BCBS ‚Äì DME Charge Amount decreased from avg 616.33 to 283.08; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Payment per Visit decreased from avg 145.60 to 58.09; 2-BCBS ‚Äì DME NRV Zero Balance* decreased from avg 140.68 to 58.09; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì DME Payment Amount* decreased from avg 258.71 to 116.18; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.61; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 131.96; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 131.96; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 5420.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.63 to 32.18; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 27.38; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 28.29; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.16; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.16; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 848.82; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 0.80; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 25.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.72; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 7225.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 30.27; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 166.85; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 167.55; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.61 to 0.58; 2-BCBS ‚Äì New E/M Codes Collection Rate* decreased from avg 0.61 to 0.58; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 4171.25; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 17.57; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 57.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 57.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 4.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 503.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 47.23; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 47.23; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.38; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.75; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 188.91; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.30; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 725.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 85.85; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 85.46; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 0.75; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 1.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 28.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 2.20; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 2.20; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.08; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.08; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 2.20; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.82 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 235.05; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 17.70; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 22.12; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.41 to 0.38; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.38 to 0.38; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 0.60; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 88.50; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.48 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 207.62 to 128.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.67 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 45.10 to 29.54; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 4.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 184.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 105.92; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 12.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.78; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2685.00; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 79.90; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.67; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 958.84; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 10.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 1533.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 36.04; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 36.04; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.24; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 360.45; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 6.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 1785.00; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 123.96; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.67; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 743.78; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 1.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 30.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 2.70; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 1.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 94.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 20.74; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 20.74; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 20.74; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 30.35; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 30.35; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.13; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.13; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.67; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 91.06; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 1.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 310.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 150.00; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.48; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.48; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 150.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 118.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 46.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 46.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 128.00; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 1.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 255.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 30.00; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 136.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 42.50; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 42.50; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.31; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.31; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 42.50; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.08 to 1.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -2.92 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 18.42 to 3.54; 2-BCBS ‚Äì Self-pay physical &amp; No Charge NRV Zero Balance* decreased from avg 14.27 to 3.54; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Zero Balance Collection Rate decreased from avg 0.38 to 0.07; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Collection Rate* decreased from avg 0.38 to 0.07; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.17 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Payment Amount* decreased from avg 18.42 to 3.54; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.81 to 3.25; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 364.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 87.38; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 87.38; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.48; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.48; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 174.75; 17-AETNA ‚Äì DME Visit Count decreased from avg 1.17 to 1.00; 17-AETNA ‚Äì DME Zero Balance Collection Rate decreased from avg 0.58 to 0.47; 17-AETNA ‚Äì DME Collection Rate* decreased from avg 0.54 to 0.47; 13-TRICARE ‚Äì Medications Visit Count decreased from avg 1.35 to 1.00; 13-TRICARE ‚Äì Medications Charge Amount decreased from avg 156.35 to 90.00; 13-TRICARE ‚Äì Medications Payment per Visit decreased from avg 11.74 to 11.00; 13-TRICARE ‚Äì Medications NRV Zero Balance* decreased from avg 12.96 to 11.00; 13-TRICARE ‚Äì Medications Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Medications Payment Amount* decreased from avg 14.88 to 11.00; 3-MEDICARE ‚Äì DME Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì Medications Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì Medications Charge Amount decreased from avg 105.60 to 94.00; 3-MEDICARE ‚Äì Medications Payment per Visit decreased from avg 12.53 to 12.29; 3-MEDICARE ‚Äì Medications Labs per Visit decreased from avg 0.90 to 0.00; 3-MEDICARE ‚Äì Medications Payment Amount* decreased from avg 12.53 to 12.29; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Billed Balance increased from avg -10.71 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment per Visit decreased from avg 82.57 to 58.43; 15-UNITED HEALTHCARE ‚Äì Vaccines NRV Zero Balance* decreased from avg 65.18 to 58.43; 15-UNITED HEALTHCARE ‚Äì Vaccines Labs per Visit decreased from avg 0.57 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Payment per Visit increased from avg 5.52 to 8.00; 17-AETNA ‚Äì After Hours NRV Zero Balance* increased from avg 5.52 to 8.00; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.12 to 0.17; 17-AETNA ‚Äì After Hours Collection Rate* increased from avg 0.12 to 0.17; 17-AETNA ‚Äì After Hours Labs per Visit increased from avg 2.15 to 5.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to -37.05; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 4.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 40.61; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 91.06; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 121.41; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 4.25; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 230.00; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 230.00; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.74; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.74; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 2.50; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 4.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì DME Charge Amount increased from avg 429.55 to 777.05; 17-AETNA ‚Äì DME Charge Billed Balance decreased from avg 149.25 to 0.00; 17-AETNA ‚Äì DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00; 17-AETNA ‚Äì DME Payment per Visit increased from avg 174.97 to 368.10; 17-AETNA ‚Äì DME NRV Zero Balance* increased from avg 179.12 to 368.10; 17-AETNA ‚Äì DME Payment Amount* increased from avg 200.73 to 368.10</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 2.00; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Zero Balance Collection Rate increased from avg 0.36 to 0.41; 2-BCBS ‚Äì DME Collection Rate* increased from avg 0.37 to 0.41; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 27.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 5724.00; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 1.74; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 3562.92; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 31.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 25.48; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 2.94; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 5.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 534.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 20.28; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 20.28; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.19; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.19; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 101.42; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 29.54; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 1.80; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 7.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 601.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 47.77; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 55.74; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.59; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.56; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.71; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 334.42; 2-BCBS ‚Äì Vaccines Visit Count increased from avg 1.31 to 3.00; 2-BCBS ‚Äì Vaccines Charge Amount increased from avg 137.31 to 258.00; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.67; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.67; 2-BCBS ‚Äì Vaccines Payment Amount* increased from avg 88.21 to 173.40; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 52.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 6.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.17; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 85.77; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.46; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 159.52; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 1.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 2.50; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.51 to 3.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount increased from avg 235.81 to 324.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 108.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 96.79; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 96.79; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.40; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 3.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 66.61; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 66.61; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 609.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 124.26; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.54 to 124.26; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.61; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.61; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 372.77; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.30; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 3.00; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 5.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 1400.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 110.20; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.39; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.39; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 1.80; 13-TRICARE ‚Äì New E/M Codes Payment Amount* increased from avg 298.18 to 551.02; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 23.45 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.52; 13-TRICARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.52; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to -3.26; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 12.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 3420.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 141.83; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.47 to 0.48; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 1.92; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 647.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 135.81; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 27.53 to 135.81; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.42; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.42; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 54.50 to 271.61; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 30.80; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.42; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.42; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 5.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 132.59; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 132.59; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 11.24; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 54.01; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.98; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Labs per Visit increased from avg 1.77 to 4.00; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 3.33; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 895.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 137.16; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 137.16; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.61; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.61; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 548.64; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.23; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 5.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 780.05; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.40; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* increased from avg 273.10 to 311.48; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.33 to 2.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 135.08 to 245.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 28.43 to 35.92; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 28.43 to 35.92; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.29; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.27 to 0.29; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 36.72 to 71.83; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.55 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 28.74 to 30.87; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 30.60 to 30.87; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 77.06; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.46; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 18.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 3203.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 673.44; 4-MEDICAID ‚Äì Medications Visit Count increased from avg 2.12 to 4.00; 4-MEDICAID ‚Äì Medications Charge Amount increased from avg 201.17 to 385.00; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 2.50; 4-MEDICAID ‚Äì Medications Payment Amount* increased from avg 31.28 to 55.52; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 125.01; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 125.01; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.43; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.43; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 5.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.00; 5-COMMERCIAL ‚Äì After Hours Labs per Visit increased from avg 2.12 to 5.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 4.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 730.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 3.50; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 168.38; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 146.15; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 4.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.18 to 4.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 294.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 3.50; 3-MEDICARE ‚Äì Vaccines Charge Amount increased from avg 65.50 to 86.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.50; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 570.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 3.00; 5-COMMERCIAL ‚Äì Medications Charge Amount increased from avg 69.73 to 100.00; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance decreased from avg 14.77 to 0.00; 5-COMMERCIAL ‚Äì Medications Payment per Visit increased from avg 14.74 to 23.98; 5-COMMERCIAL ‚Äì Medications NRV Zero Balance* increased from avg 15.12 to 23.98; 5-COMMERCIAL ‚Äì Medications Zero Balance Collection Rate increased from avg 0.21 to 0.24; 5-COMMERCIAL ‚Äì Medications Collection Rate* increased from avg 0.21 to 0.24; 5-COMMERCIAL ‚Äì Medications Labs per Visit increased from avg 1.73 to 5.00; 5-COMMERCIAL ‚Äì Medications Payment Amount* increased from avg 14.74 to 23.98; 13-TRICARE ‚Äì Medications Charge Billed Balance decreased from avg 39.88 to 0.00; 13-TRICARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.17 to 0.00; 13-TRICARE ‚Äì Medications Payment per Visit increased from avg 11.74 to 12.72; 13-TRICARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.12 to 0.13; 13-TRICARE ‚Äì Medications Collection Rate* increased from avg 0.10 to 0.13; 3-MEDICARE ‚Äì Medications Charge Billed Balance decreased from avg 1.05 to 0.00; 3-MEDICARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.11 to 0.11; 1-SELF PAY ‚Äì DME Visit Count increased from avg 1.33 to 2.00; 1-SELF PAY ‚Äì DME Charge Amount increased from avg 133.93 to 200.00; 1-SELF PAY ‚Äì DME Payment per Visit increased from avg 42.67 to 100.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Visit Count increased from avg 1.14 to 2.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Amount increased from avg 146.94 to 172.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.59 to 0.68; 15-UNITED HEALTHCARE ‚Äì Vaccines Collection Rate* increased from avg 0.60 to 0.68; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment Amount* increased from avg 90.91 to 116.86</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 320.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 53.33; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 13.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 945.00; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 2.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 60.00; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 30.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 10.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1600.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 15.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 7.50; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 13.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 475.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 35.77; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.31; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 1.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 245.00; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.40; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 96.79; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 293.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 66.61; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.43; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 385.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 38.22; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 68.62 to 38.22; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.30; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 114.67; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.50; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 110.20; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 53.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.31 to 27.74; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.20 to 27.74; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 27.74; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.59; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 810.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 56.56; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 56.56; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.28; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.28; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 0.25; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 226.26; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 8.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 1331.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 25.43; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 26.79; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 203.43; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.68; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 64.00 to 126.31; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 186.19; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 121.51; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.43; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 1458.08; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 145.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 30.80; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 61.59; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 5.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.32; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 970.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 131.13; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 131.13; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 655.66; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 4.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 848.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 75.66; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 75.66; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.36; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.36; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.50; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 302.62; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 1.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 325.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.41; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.41; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 132.59; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 4.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 781.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 41.07; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.22; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.21; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 164.28; 18-CIGNA ‚Äì Medications Visit Count decreased from avg 1.75 to 1.00; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 110.00; 18-CIGNA ‚Äì Medications Payment per Visit decreased from avg 26.22 to 23.81; 18-CIGNA ‚Äì Medications Collection Rate* decreased from avg 0.22 to 0.22; 18-CIGNA ‚Äì Medications Payment Amount* decreased from avg 45.71 to 23.81; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 3.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.67; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 855.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance increased from avg 61.06 to 77.03; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 15.12 to 72.48; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 110.46; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 128.72; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.47; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.39; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 331.39; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 30.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.30 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 2.80; 2-BCBS ‚Äì DME Visit Count decreased from avg 1.61 to 1.00; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Collection Rate* decreased from avg 0.37 to 0.37; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.71; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 132.79; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 132.79; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.18; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.18; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 0.60; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 26.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.71; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 7469.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 166.84; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 166.58; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.61 to 0.58; 2-BCBS ‚Äì New E/M Codes Collection Rate* decreased from avg 0.61 to 0.58; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 4337.71; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 86.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 57.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 57.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 57.80; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 3.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 531.00; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.38; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 200.48; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.67; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 0.75; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 365.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 42.51; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 42.51; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.23; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 85.02; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.82 to 3.26; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 62.30; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 62.30; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.41 to 0.40; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 0.80; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.39 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.48 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 207.62 to 199.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.16; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.20 to 0.16; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.67 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 45.10 to 30.87; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 7.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 322.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment per Visit decreased from avg 20.66 to 18.91; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* decreased from avg 20.63 to 18.91; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.46 to 0.41; 4-MEDICAID ‚Äì After Hours Collection Rate* decreased from avg 0.46 to 0.41; 4-MEDICAID ‚Äì After Hours Labs per Visit decreased from avg 2.04 to 1.57; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 132.40; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 13.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.66; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2760.00; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 77.06; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 1001.78; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 37.41; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 37.41; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.21; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.89; 4-MEDICAID ‚Äì Medications Payment per Visit decreased from avg 15.29 to 13.88; 4-MEDICAID ‚Äì Medications NRV Zero Balance* decreased from avg 16.26 to 13.88; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.14; 4-MEDICAID ‚Äì Medications Collection Rate* decreased from avg 0.15 to 0.14; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 14.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.79; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 4115.00; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1750.11; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 2.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 91.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 6.44; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 6.44; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.14; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.14; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 12.88; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 1.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 128.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 24.94; 5-COMMERCIAL ‚Äì After Hours Visit Count decreased from avg 1.75 to 1.00; 5-COMMERCIAL ‚Äì After Hours Charge Amount decreased from avg 80.50 to 46.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 42.10; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 42.10; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.23; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.23; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 620.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 146.15; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.47; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.47; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 292.30; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 11.38; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 11.38; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.15; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.15; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 45.50; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 128.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 30.37; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 30.37; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.24; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.24; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 30.37; 3-MEDICARE ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì Vaccines Payment per Visit decreased from avg 19.21 to 16.52; 3-MEDICARE ‚Äì Vaccines NRV Zero Balance* decreased from avg 19.21 to 16.52; 3-MEDICARE ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.34 to 0.19; 3-MEDICARE ‚Äì Vaccines Collection Rate* decreased from avg 0.34 to 0.19; 3-MEDICARE ‚Äì Vaccines Payment Amount* decreased from avg 19.21 to 16.52; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 105.78; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 105.78; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.37; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.37; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 211.56; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00; 13-TRICARE ‚Äì Medications Visit Count decreased from avg 1.35 to 1.00; 13-TRICARE ‚Äì Medications Charge Amount decreased from avg 156.35 to 100.00; 13-TRICARE ‚Äì Medications NRV Zero Balance* decreased from avg 12.96 to 12.72; 13-TRICARE ‚Äì Medications Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Medications Payment Amount* decreased from avg 14.88 to 12.72; 3-MEDICARE ‚Äì Medications Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì Medications Charge Amount decreased from avg 105.60 to 88.00; 3-MEDICARE ‚Äì Medications Payment per Visit decreased from avg 12.53 to 9.61; 3-MEDICARE ‚Äì Medications NRV Zero Balance* decreased from avg 12.05 to 9.61; 3-MEDICARE ‚Äì Medications Collection Rate* decreased from avg 0.11 to 0.11; 3-MEDICARE ‚Äì Medications Labs per Visit decreased from avg 0.90 to 0.00; 3-MEDICARE ‚Äì Medications Payment Amount* decreased from avg 12.53 to 9.61; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Billed Balance increased from avg -10.71 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment per Visit decreased from avg 82.57 to 58.43; 15-UNITED HEALTHCARE ‚Äì Vaccines NRV Zero Balance* decreased from avg 65.18 to 58.43; 15-UNITED HEALTHCARE ‚Äì Vaccines Labs per Visit decreased from avg 0.57 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.68; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.68; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 705.92; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Payment per Visit increased from avg 145.60 to 258.93; 2-BCBS ‚Äì DME NRV Zero Balance* increased from avg 140.68 to 258.93; 2-BCBS ‚Äì DME Zero Balance Collection Rate increased from avg 0.36 to 0.37; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 258.93; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 31.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 6612.00; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.32; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 4116.60; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 39.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 9279.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 4.93; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 41.66; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 42.59; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.23; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1624.69; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 5.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 442.50; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 20.83; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 20.83; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.24; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.24; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 104.17; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to -107.62; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -37.97; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.27; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 9.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1002.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 51.82; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 51.82; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.47; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.47; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.11; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 466.34; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.67; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.67; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 66.83; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 66.83; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.67</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 800.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit increased from avg 125.79 to 160.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.20; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 61.88; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.50; 1-SELF PAY ‚Äì Medications Visit Count increased from avg 2.00 to 3.00; 1-SELF PAY ‚Äì Medications Labs per Visit increased from avg 1.13 to 1.33; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 157.05; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 3.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 415.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 138.33; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 1.33; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 63.12; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.50; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.41; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.41; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 1.50; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 67.96; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 67.96; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 856.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.38; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 325.35; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.34; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.34; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 166.93; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 100.10; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.37; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 11.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 2344.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 33.18; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.36; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 364.97; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 2.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 275.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 2.89; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.21 to 3.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 32.31; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 32.14 to 32.31; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 1.50; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 4.33; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 4.60; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 145.92; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.50 to 0.58; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.58; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 895.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -20.77; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -25.87; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 2.25; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 380.59; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 3.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.24; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 5.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to -27.04; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.52; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 2.00; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 4.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 3.88; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 82.41; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 82.41; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.27; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.31; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 3.86; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 124.97; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 124.97; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 3.60; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 6.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.00; 5-COMMERCIAL ‚Äì After Hours Visit Count increased from avg 1.75 to 2.00; 5-COMMERCIAL ‚Äì After Hours Charge Amount increased from avg 80.50 to 92.00; 5-COMMERCIAL ‚Äì After Hours Labs per Visit increased from avg 2.12 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 572.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 71.83; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 71.83; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.38; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.38; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 5.67; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 215.48; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 930.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 3.33; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* increased from avg 360.69 to 409.32; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 4.50; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 1-SELF PAY ‚Äì Vaccines Visit Count increased from avg 2.07 to 3.00; 1-SELF PAY ‚Äì Vaccines Charge Amount increased from avg 296.43 to 305.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 5.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 980.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 3.40; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 506.17; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance decreased from avg 14.77 to 0.00; 13-TRICARE ‚Äì Medications Visit Count increased from avg 1.35 to 2.00; 13-TRICARE ‚Äì Medications Charge Amount increased from avg 156.35 to 354.00; 13-TRICARE ‚Äì Medications Charge Billed Balance decreased from avg 39.88 to 0.00; 13-TRICARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.17 to 0.00; 13-TRICARE ‚Äì Medications Payment per Visit increased from avg 11.74 to 18.43; 13-TRICARE ‚Äì Medications NRV Zero Balance* increased from avg 12.96 to 18.43; 13-TRICARE ‚Äì Medications Collection Rate* increased from avg 0.10 to 0.10; 13-TRICARE ‚Äì Medications Payment Amount* increased from avg 14.88 to 36.86; 3-MEDICARE ‚Äì Medications Charge Billed Balance decreased from avg 1.05 to -2.50; 3-MEDICARE ‚Äì Medications Payment per Visit increased from avg 12.53 to 14.79; 3-MEDICARE ‚Äì Medications Collection Rate* increased from avg 0.11 to 0.16; 3-MEDICARE ‚Äì Medications Labs per Visit increased from avg 0.90 to 1.00; 3-MEDICARE ‚Äì Medications Payment Amount* increased from avg 12.53 to 14.79; 15-UNITED HEALTHCARE ‚Äì Vaccines Labs per Visit increased from avg 0.57 to 8.00; 5-COMMERCIAL ‚Äì Vaccines Charge Amount increased from avg 148.50 to 211.00; 5-COMMERCIAL ‚Äì Vaccines Payment per Visit increased from avg 96.93 to 117.00; 5-COMMERCIAL ‚Äì Vaccines NRV Zero Balance* increased from avg 96.93 to 117.00; 5-COMMERCIAL ‚Äì Vaccines Payment Amount* increased from avg 96.93 to 117.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 5.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.25; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 8.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 495.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 62.00; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 20.67; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 11.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.46; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1600.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.27; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 8.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 345.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 1.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 64.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 64.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.87 to 3.55; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 405.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 82.12; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 82.12; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 164.24; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 293.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 67.96; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.47; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 81.34; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 81.34; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.38; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 492.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 55.64; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 68.62 to 55.64; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 1.67; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.38; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 545.00; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 100.10; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.37; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 0.50; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 200.21; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 200.53 to 89.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 47.27 to 10.32; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.55 to 10.32; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.12; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.23 to 0.12; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.66 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 48.14 to 10.32; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 10.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.42; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 1940.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 70.07; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 70.07; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.36; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.36; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.10; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 700.72; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 33.18; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.16; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.16; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 10.53; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 10.53; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.08; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.08; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 21.06; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 9.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.80; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 2752.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 137.94; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 137.94; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.45; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.45; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 1241.49; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 170.72; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 9.34; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 9.34; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.16; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.16; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 1.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 28.03; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 291.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 64.62; 17-AETNA ‚Äì After Hours Visit Count decreased from avg 3.75 to 2.00; 17-AETNA ‚Äì After Hours Charge Amount decreased from avg 170.58 to 92.00; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 16.00; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.76; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 895.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 116.65; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 116.65; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.52; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.52; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.25; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 466.61; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 5.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 1172.00; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.38; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.80; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 447.49; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 6.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.87; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 1785.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 183.68; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 183.68; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.62; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.62; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 1.50; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1102.09; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 3.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 735.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 90.26; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 90.26; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 270.77; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 5.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1150.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 38.49; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 38.49; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.17; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.17; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 192.47; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 5.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.17; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1250.00; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 145.92; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 729.61; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 121.00; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 22.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 5174.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 3314.56; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 24.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 5403.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 39.95; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 39.95; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.18; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.18; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 958.84; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 2.00; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 232.50; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 50.54; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 21.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.73; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 6060.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì New E/M Codes Labs per Visit decreased from avg 1.69 to 1.43; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 3865.96; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 4.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 375.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 27.12; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 27.12; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.29; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.29; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 108.48; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 57.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 57.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 1.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 128.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 26.24; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 26.24; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.20; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.20; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 26.24; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.76; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 95.15; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 85.87; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.40; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 413.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 1.82 to 12.33; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 29.22; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 42.73; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 87.66; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 310.05; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 32.02; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 160.08; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 4.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 184.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment per Visit decreased from avg 20.66 to 6.62; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* decreased from avg 20.63 to 6.62; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.46 to 0.14; 4-MEDICAID ‚Äì After Hours Collection Rate* decreased from avg 0.46 to 0.14; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 26.48; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 11.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2525.00; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 906.55; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 13.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 2226.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 38.97; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 38.97; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 506.60; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 5.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 1475.00; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 624.85; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 1.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 30.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 2.70; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 266.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 27.33; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 27.33; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.21; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.21; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 54.65; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 136.44; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 136.44; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.44; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.44; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 2.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 91.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 11.45; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 11.45; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.25; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.25; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 22.90; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 131.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 42.78 to 34.56; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 42.19 to 34.56; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.34 to 0.26; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.37 to 0.26; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.10 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 46.81 to 34.56; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 101.67; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Charge Amount decreased from avg 135.48 to 100.00; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 19.75; 17-AETNA ‚Äì Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 19.75; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 128.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 31.57; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 31.57; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.25; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.25; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 31.57; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.08 to 1.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -2.92 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 18.42 to 3.54; 2-BCBS ‚Äì Self-pay physical &amp; No Charge NRV Zero Balance* decreased from avg 14.27 to 3.54; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Zero Balance Collection Rate decreased from avg 0.38 to 0.07; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Collection Rate* decreased from avg 0.38 to 0.07; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.17 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Payment Amount* decreased from avg 18.42 to 3.54; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 101.23; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 101.23; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.52; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.52; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00; 5-COMMERCIAL ‚Äì Medications Charge Amount decreased from avg 69.73 to 15.00; 5-COMMERCIAL ‚Äì Medications Payment per Visit decreased from avg 14.74 to 0.41; 5-COMMERCIAL ‚Äì Medications NRV Zero Balance* decreased from avg 15.12 to 0.41; 5-COMMERCIAL ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.21 to 0.03; 5-COMMERCIAL ‚Äì Medications Collection Rate* decreased from avg 0.21 to 0.03; 5-COMMERCIAL ‚Äì Medications Labs per Visit decreased from avg 1.73 to 0.00; 5-COMMERCIAL ‚Äì Medications Payment Amount* decreased from avg 14.74 to 0.41; 17-AETNA ‚Äì DME Visit Count decreased from avg 1.17 to 1.00; 13-TRICARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.12 to 0.10; 13-TRICARE ‚Äì Medications Labs per Visit decreased from avg 1.42 to 1.00; 3-MEDICARE ‚Äì Medications Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì Medications Charge Amount decreased from avg 105.60 to 94.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Visit Count decreased from avg 1.14 to 1.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Amount decreased from avg 146.94 to 86.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Billed Balance increased from avg -10.71 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment per Visit decreased from avg 82.57 to 42.91; 15-UNITED HEALTHCARE ‚Äì Vaccines NRV Zero Balance* decreased from avg 65.18 to 42.91; 15-UNITED HEALTHCARE ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.59 to 0.50; 15-UNITED HEALTHCARE ‚Äì Vaccines Collection Rate* decreased from avg 0.60 to 0.50; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment Amount* decreased from avg 90.91 to 42.91; 5-COMMERCIAL ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 5-COMMERCIAL ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.72 to 0.55; 5-COMMERCIAL ‚Äì Vaccines Collection Rate* decreased from avg 0.72 to 0.55</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Payment per Visit increased from avg 5.52 to 8.00; 17-AETNA ‚Äì After Hours NRV Zero Balance* increased from avg 5.52 to 8.00; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.12 to 0.17; 17-AETNA ‚Äì After Hours Collection Rate* increased from avg 0.12 to 0.17; 17-AETNA ‚Äì After Hours Labs per Visit increased from avg 2.15 to 2.50; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 89.50; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 89.50; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.38; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 19.75; 17-AETNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.19 to 0.20; 17-AETNA ‚Äì Medications Collection Rate* increased from avg 0.18 to 0.20; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 360.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 76.58 to 137.69; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 34.92 to 137.69; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.38; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.30 to 0.38; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 94.17 to 137.69; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì DME Charge Amount increased from avg 429.55 to 689.80; 17-AETNA ‚Äì DME Charge Billed Balance decreased from avg 149.25 to 0.00; 17-AETNA ‚Äì DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00; 17-AETNA ‚Äì DME Payment per Visit increased from avg 174.97 to 529.98; 17-AETNA ‚Äì DME NRV Zero Balance* increased from avg 179.12 to 529.98; 17-AETNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.58 to 0.77; 17-AETNA ‚Äì DME Collection Rate* increased from avg 0.54 to 0.77; 17-AETNA ‚Äì DME Payment Amount* increased from avg 200.73 to 529.98</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 3.87; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 150.66; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 150.66; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.14; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.21; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 25.27; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 25.27; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.22; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.22; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 2.50; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 184.09; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 184.09; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.00; 2-BCBS ‚Äì Vaccines Visit Count increased from avg 1.31 to 3.00; 2-BCBS ‚Äì Vaccines Charge Amount increased from avg 137.31 to 258.00; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.67; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.67; 2-BCBS ‚Äì Vaccines Payment Amount* increased from avg 88.21 to 173.40; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 2.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 52.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 10.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 3.85; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 1305.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 55.91; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.18; 1-SELF PAY ‚Äì Medications Visit Count increased from avg 2.00 to 4.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 103.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 3.79; 1-SELF PAY ‚Äì New E/M Codes Charge Amount increased from avg 2031.01 to 2060.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 174.69; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 8.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 655.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 1.25; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.51 to 4.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount increased from avg 235.81 to 439.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.46; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.46; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 18.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 3730.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.43; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1547.35; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 16.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 2843.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to -11.73; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 392.66; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 40.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 2.11; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 5.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 341.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 32.36; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 32.14 to 32.36; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.28; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.28; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 97.07; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 8.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 2.88; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 10.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 2935.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.30; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1343.23; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.43 to 2.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 260.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 51.31 to 57.44; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 49.02 to 57.44; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.30 to 0.44; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.44; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 2.50; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 70.38 to 114.88; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 895.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -20.77; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -24.20; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 96.25; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 1.75; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 385.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 3.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 2.67; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 6.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 855.05; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.39; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* increased from avg 273.10 to 329.81; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.33 to 2.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.39 to 3.50; 4-MEDICAID ‚Äì After Hours Visit Count increased from avg 7.28 to 13.00; 4-MEDICAID ‚Äì After Hours Charge Amount increased from avg 323.84 to 598.00; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 2.15; 4-MEDICAID ‚Äì After Hours Payment Amount* increased from avg 146.06 to 238.32; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.31; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 4.08; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.40; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 1.92; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 4.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 27.57 to 29.27; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 27.38 to 29.27; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.32; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.32; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 855.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.15 to 2.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount increased from avg 145.40 to 184.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.34 to 0.35; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 46.81 to 64.35; 1-SELF PAY ‚Äì Vaccines Visit Count increased from avg 2.07 to 4.00; 1-SELF PAY ‚Äì Vaccines Charge Amount increased from avg 296.43 to 340.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.50; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 570.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit increased from avg 115.74 to 128.52; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 114.13 to 128.52; 5-COMMERCIAL ‚Äì Medications Charge Amount increased from avg 69.73 to 94.00; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance decreased from avg 14.77 to 0.00; 5-COMMERCIAL ‚Äì Medications Payment per Visit increased from avg 14.74 to 22.17; 5-COMMERCIAL ‚Äì Medications NRV Zero Balance* increased from avg 15.12 to 22.17; 5-COMMERCIAL ‚Äì Medications Zero Balance Collection Rate increased from avg 0.21 to 0.24; 5-COMMERCIAL ‚Äì Medications Collection Rate* increased from avg 0.21 to 0.24; 5-COMMERCIAL ‚Äì Medications Payment Amount* increased from avg 14.74 to 22.17; 15-UNITED HEALTHCARE ‚Äì DME Visit Count increased from avg 1.38 to 2.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount increased from avg 547.64 to 819.53; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance decreased from avg 131.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment per Visit increased from avg 73.28 to 93.33; 15-UNITED HEALTHCARE ‚Äì DME NRV Zero Balance* increased from avg 73.88 to 93.33; 15-UNITED HEALTHCARE ‚Äì DME Zero Balance Collection Rate increased from avg 0.23 to 0.23; 15-UNITED HEALTHCARE ‚Äì DME Collection Rate* increased from avg 0.22 to 0.23; 15-UNITED HEALTHCARE ‚Äì DME Payment Amount* increased from avg 116.98 to 186.66; 4-MEDICAID ‚Äì DME Charge Amount increased from avg 682.71 to 852.05; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00; 4-MEDICAID ‚Äì DME Payment per Visit increased from avg 108.06 to 299.11; 4-MEDICAID ‚Äì DME NRV Zero Balance* increased from avg 137.19 to 299.11; 4-MEDICAID ‚Äì DME Zero Balance Collection Rate increased from avg 0.28 to 0.35; 4-MEDICAID ‚Äì DME Collection Rate* increased from avg 0.26 to 0.35; 4-MEDICAID ‚Äì DME Payment Amount* increased from avg 198.76 to 299.11; 1-SELF PAY ‚Äì DME Charge Amount increased from avg 133.93 to 705.92; 15-UNITED HEALTHCARE ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 17.33 to 52.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 114.50; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.60; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 11.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 575.00; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 25.75; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 0.50; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 12.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.33; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 48.12; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 15.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 580.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 37.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.20; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 75.75; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 1.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 160.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 73.51; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 73.51; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 73.51; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.53; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 205.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 65.97; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 85.96; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 88.67; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.41; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.33; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 24.54; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 23.34; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.13; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.14; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.78 to 2.69; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 9.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.70; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 2565.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 21.94; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 122.67; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 123.74; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.44; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.43; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 1104.03; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 1.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 119.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 1.20; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 1.20; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.01; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.01; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 1.20; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 17-AETNA ‚Äì After Hours Visit Count decreased from avg 3.75 to 2.00; 17-AETNA ‚Äì After Hours Charge Amount decreased from avg 170.58 to 92.00; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 16.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.53; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 1215.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 125.05; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 125.05; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.62; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 750.33; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 2.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 955.00; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.24; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.24; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 232.52; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 1.00; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 310.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 205.00; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 205.00; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.66; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.66; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 0.00; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 205.00; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 1.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 245.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 90.86; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 90.86; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 90.86; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1009.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 19.29; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 19.29; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.15; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.15; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 154.31; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.71; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 134.32; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 134.32; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.46; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.46; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 123.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 34.38 to 32.03; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 34.64 to 32.03; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.26; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.26; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 32.03; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.65; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 5649.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 21.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 4734.00; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.19; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.19; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 900.16; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 0.00; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 17.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.52; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 4670.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 166.35; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 166.35; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.61 to 0.61; 2-BCBS ‚Äì New E/M Codes Collection Rate* decreased from avg 0.61 to 0.61; 2-BCBS ‚Äì New E/M Codes Labs per Visit decreased from avg 1.69 to 1.59; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 2827.96; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 2.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 124.72; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 24.47; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 24.47; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 48.95; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 3.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 337.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 46.75; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 46.75; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.67; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 140.24; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.77; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 87.34; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.40; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 303.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 8.67; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 8.67; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.09; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.09; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 26.01; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.82 to 3.63; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 54.97; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 65.96; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.41 to 0.39; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 119.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 28.43 to 9.97; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 28.43 to 9.97; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.17; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.27 to 0.17; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 19.95; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment per Visit decreased from avg 20.66 to 18.33; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* decreased from avg 20.63 to 18.33; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.46 to 0.40; 4-MEDICAID ‚Äì After Hours Collection Rate* decreased from avg 0.46 to 0.40; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 13.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.60; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2670.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 73.27; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 73.27; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 952.47; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 13.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 1962.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 25.01; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 25.01; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.17; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.17; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 325.15; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 12.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.58; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 3405.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 114.86; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 114.86; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.40; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1378.34; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 1.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 30.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 2.70; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 181.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 58.55; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 135.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 31.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 31.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.23; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.23; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 31.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.75; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 114.06; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 114.06; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.40; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.40; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 0.67; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 342.18; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 2.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 207.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 33.50; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 33.50; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.32; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.32; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 67.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 42.78 to 32.17; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 42.19 to 32.17; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.37 to 0.35; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.10 to 0.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 60.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 17-AETNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.19 to 0.18; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 30.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 3.84; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 34.92 to 3.84; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.13; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.13; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 3.84; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.08 to 1.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -2.92 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.17 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.45; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.45; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 257.05; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00; 5-COMMERCIAL ‚Äì Medications Labs per Visit decreased from avg 1.73 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 4-MEDICAID ‚Äì DME Visit Count decreased from avg 1.67 to 1.00; 17-AETNA ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 17-AETNA ‚Äì Vaccines Charge Amount decreased from avg 100.13 to 86.00; 17-AETNA ‚Äì Vaccines Payment per Visit decreased from avg 61.15 to 36.48; 17-AETNA ‚Äì Vaccines NRV Zero Balance* decreased from avg 61.15 to 36.48; 17-AETNA ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.61 to 0.42; 17-AETNA ‚Äì Vaccines Collection Rate* decreased from avg 0.61 to 0.42; 17-AETNA ‚Äì Vaccines Payment Amount* decreased from avg 61.15 to 36.48; 1-SELF PAY ‚Äì DME Visit Count decreased from avg 1.33 to 1.00; 15-UNITED HEALTHCARE ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.00 to 1.00; 15-UNITED HEALTHCARE ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 2.25 to 2.25; 15-UNITED HEALTHCARE ‚Äì Self-pay physical &amp; No Charge NRV Zero Balance* decreased from avg 2.25 to 2.25; 15-UNITED HEALTHCARE ‚Äì Self-pay physical &amp; No Charge Zero Balance Collection Rate decreased from avg 0.04 to 0.04; 15-UNITED HEALTHCARE ‚Äì Self-pay physical &amp; No Charge Collection Rate* decreased from avg 0.04 to 0.04; 15-UNITED HEALTHCARE ‚Äì Self-pay physical &amp; No Charge Payment Amount* decreased from avg 2.25 to 2.25</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Payment per Visit increased from avg 5.52 to 8.00; 17-AETNA ‚Äì After Hours NRV Zero Balance* increased from avg 5.52 to 8.00; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.12 to 0.17; 17-AETNA ‚Äì After Hours Collection Rate* increased from avg 0.12 to 0.17; 17-AETNA ‚Äì After Hours Labs per Visit increased from avg 2.15 to 4.00; 17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 6.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.62; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 1.83; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 116.26; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 116.26; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 5.50; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì Medications Visit Count increased from avg 1.48 to 3.00; 17-AETNA ‚Äì Medications Charge Amount increased from avg 135.48 to 334.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 20.58; 17-AETNA ‚Äì Medications NRV Zero Balance* increased from avg 19.97 to 20.58; 17-AETNA ‚Äì Medications Collection Rate* increased from avg 0.18 to 0.18; 17-AETNA ‚Äì Medications Labs per Visit increased from avg 1.60 to 2.67; 17-AETNA ‚Äì Medications Payment Amount* increased from avg 31.94 to 61.73; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 3.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 26.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 145.91; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 145.91; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.67; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.67; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 1.77; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 3793.71; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 42.86; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 42.86; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.29; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 4.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 366.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 19.18; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 19.18; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.21; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.21; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 76.73; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.39; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.39; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.42; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.42; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 15.08 to 52.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 6.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 19.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 68.00; 1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 34.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 5.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 1.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.46; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount increased from avg 235.81 to 287.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 287.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 1.33; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.46; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.46; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit increased from avg 21.82 to 23.05; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* increased from avg 22.82 to 23.05; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.03; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 152.25; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 152.25; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.47 to 0.48; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.48; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.21 to 3.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 523.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 29.95; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 27.53 to 29.95; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 54.50 to 89.86; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 406.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 34.58; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 32.14 to 34.58; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.26; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.26; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 103.74; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 7.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1545.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 103.21; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 103.21; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.47; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.47; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 722.46; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 7.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Medications Visit Count increased from avg 1.75 to 2.00; 18-CIGNA ‚Äì Medications Charge Amount increased from avg 210.12 to 250.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Labs per Visit increased from avg 1.77 to 3.50; 18-CIGNA ‚Äì Medications Payment Amount* increased from avg 45.71 to 50.62; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 151.68; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 151.68; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.50 to 0.54; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.54; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -20.77; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 122.97; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.50; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 88.40 to 138.88; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.45; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.45; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 2.00; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 22.70; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 22.70; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.46 to 0.49; 4-MEDICAID ‚Äì After Hours Collection Rate* increased from avg 0.46 to 0.49; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 2.29; 4-MEDICAID ‚Äì After Hours Payment Amount* increased from avg 146.06 to 158.88; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 14.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.35; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 18.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 2967.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 677.00; 4-MEDICAID ‚Äì Medications Charge Amount increased from avg 201.17 to 204.00; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 17.14; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 17.14; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.17; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.17; 4-MEDICAID ‚Äì Medications Payment Amount* increased from avg 31.28 to 34.28; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 231.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 94.30; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.39; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.08; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.24; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.24; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 4.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 855.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 57.67; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 230.68; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 150.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 4.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.18 to 4.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 294.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 3.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit increased from avg 0.68 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 939.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 442.46; 13-TRICARE ‚Äì Medications Charge Billed Balance decreased from avg 39.88 to 0.00; 13-TRICARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.17 to 0.00; 13-TRICARE ‚Äì Medications Payment per Visit increased from avg 11.74 to 12.46; 13-TRICARE ‚Äì Medications Collection Rate* increased from avg 0.10 to 0.11; 13-TRICARE ‚Äì Medications Labs per Visit increased from avg 1.42 to 4.00; 15-UNITED HEALTHCARE ‚Äì DME Visit Count increased from avg 1.38 to 2.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount increased from avg 547.64 to 802.88; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance decreased from avg 131.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment per Visit increased from avg 73.28 to 99.03; 15-UNITED HEALTHCARE ‚Äì DME NRV Zero Balance* increased from avg 73.88 to 99.03; 15-UNITED HEALTHCARE ‚Äì DME Zero Balance Collection Rate increased from avg 0.23 to 0.25; 15-UNITED HEALTHCARE ‚Äì DME Collection Rate* increased from avg 0.22 to 0.25; 15-UNITED HEALTHCARE ‚Äì DME Payment Amount* increased from avg 116.98 to 198.06; 3-MEDICARE ‚Äì Medications Charge Amount increased from avg 105.60 to 110.00; 3-MEDICARE ‚Äì Medications Charge Billed Balance decreased from avg 1.05 to 0.00; 3-MEDICARE ‚Äì Medications NRV Zero Balance* increased from avg 12.05 to 12.27; 3-MEDICARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.11 to 0.11; 3-MEDICARE ‚Äì Medications Collection Rate* increased from avg 0.11 to 0.11; 3-MEDICARE ‚Äì Medications Labs per Visit increased from avg 0.90 to 4.00; 1-SELF PAY ‚Äì DME Payment per Visit increased from avg 42.67 to 75.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.59 to 0.68; 15-UNITED HEALTHCARE ‚Äì Vaccines Collection Rate* increased from avg 0.60 to 0.68</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.40; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 370.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 109.17; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.50; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 790.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 36.58; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 0.47; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 2.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 10.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.52; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1440.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 132.50; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 105.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 10.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 13.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 675.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 48.08; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 1.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 60.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 2.25; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 68.62 to 2.25; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.04; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.04; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 2.25; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 3.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.67; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 855.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 90.13; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 90.13; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.32; 13-TRICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.32 to 0.32; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 270.40; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 10.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.51; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 2025.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 93.88; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 93.88; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.50; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 938.77; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 7.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 1368.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 19.45; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 19.45; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.10; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.10; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.78 to 2.71; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 136.15; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 150.00; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.15; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 23.05; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 6.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 1920.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 0.67; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 913.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.17; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.17; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 0.67; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.67; 17-AETNA ‚Äì After Hours Visit Count decreased from avg 3.75 to 2.00; 17-AETNA ‚Äì After Hours Charge Amount decreased from avg 170.58 to 92.00; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.12 to 0.09; 17-AETNA ‚Äì After Hours Collection Rate* decreased from avg 0.12 to 0.09; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 8.00; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 4.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.42; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 810.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg 63.76 to 241.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 51.63 to 143.36; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 85.95; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 113.27; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.60; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.42; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 343.82; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 6.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 1057.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 74.08; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 34.89; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.25; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 444.47; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 3.00; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 930.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 205.00; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 205.00; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.66; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.66; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 615.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.66; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 1.43; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1146.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 26.50; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 26.50; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.16; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.16; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 2.71; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 185.52; 18-CIGNA ‚Äì Medications Payment per Visit decreased from avg 26.22 to 25.31; 18-CIGNA ‚Äì Medications NRV Zero Balance* decreased from avg 26.82 to 25.31; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.22 to 0.20; 18-CIGNA ‚Äì Medications Collection Rate* decreased from avg 0.22 to 0.20; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 5.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.56; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1400.00; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.80; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 758.42; 2-BCBS ‚Äì After Hours Visit Count decreased from avg 19.95 to 1.00; 2-BCBS ‚Äì After Hours Charge Amount decreased from avg 906.21 to 46.00; 2-BCBS ‚Äì After Hours Labs per Visit decreased from avg 1.97 to 0.00; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Payment per Visit decreased from avg 145.60 to 95.89; 2-BCBS ‚Äì DME NRV Zero Balance* decreased from avg 140.68 to 95.89; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.77; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.69 to 1.34; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 27.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 6029.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 37.91; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 39.37; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.17; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.17; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 1023.52; 2-BCBS ‚Äì Medications Upfront Collections Efficiency increased from avg 2.09 to 6.84; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 23.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.54; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 6314.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 29.34; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 173.68; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 173.93; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 3994.62; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 5.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 543.72; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 31.61; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 31.61; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.29; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.29; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 158.03; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 66.09; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 66.09; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 48.80; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 48.80; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 1.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 245.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 122.97; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 1.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 60.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 2.20; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 2.20; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.04; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.04; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 2.20; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 2.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 310.02; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 69.44; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 138.88; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 7.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 322.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.61; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2920.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 72.39; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 72.39; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.35; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.71; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 1013.47; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 37.61; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 39.82; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.72; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 2.00; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 12.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.68; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 3420.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 111.35; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 121.11; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1336.25; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 1.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 30.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 1.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 2.70; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 1.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 92.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 21.85; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 21.85; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 21.85; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 57.67; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.27; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.27; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 1.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 310.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 150.00; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.48; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.48; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 150.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 11.38; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 11.38; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.15; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.15; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 45.50; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 1.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 85.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 60.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 15.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 30.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 110.62; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 110.62; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.47; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.47; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 2.00; 13-TRICARE ‚Äì Medications Visit Count decreased from avg 1.35 to 1.00; 13-TRICARE ‚Äì Medications Charge Amount decreased from avg 156.35 to 110.00; 13-TRICARE ‚Äì Medications NRV Zero Balance* decreased from avg 12.96 to 12.46; 13-TRICARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.12 to 0.11; 13-TRICARE ‚Äì Medications Payment Amount* decreased from avg 14.88 to 12.46; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 3-MEDICARE ‚Äì Medications Visit Count decreased from avg 1.00 to 1.00; 3-MEDICARE ‚Äì Medications Payment per Visit decreased from avg 12.53 to 12.27; 3-MEDICARE ‚Äì Medications Payment Amount* decreased from avg 12.53 to 12.27; 1-SELF PAY ‚Äì DME Visit Count decreased from avg 1.33 to 1.00; 1-SELF PAY ‚Äì DME Charge Amount decreased from avg 133.93 to 75.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Visit Count decreased from avg 1.14 to 1.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Amount decreased from avg 146.94 to 86.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Billed Balance increased from avg -10.71 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment per Visit decreased from avg 82.57 to 58.43; 15-UNITED HEALTHCARE ‚Äì Vaccines NRV Zero Balance* decreased from avg 65.18 to 58.43; 15-UNITED HEALTHCARE ‚Äì Vaccines Labs per Visit decreased from avg 0.57 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment Amount* decreased from avg 90.91 to 58.43; 12-HUMANA ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.00 to 1.00; 18-CIGNA ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.00 to 1.00; 18-CIGNA ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 52.00 to 52.00; 18-CIGNA ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 12.67 to 12.67; 18-CIGNA ‚Äì Self-pay physical &amp; No Charge NRV Zero Balance* decreased from avg 12.67 to 12.67; 18-CIGNA ‚Äì Self-pay physical &amp; No Charge Zero Balance Collection Rate decreased from avg 0.24 to 0.24; 18-CIGNA ‚Äì Self-pay physical &amp; No Charge Collection Rate* decreased from avg 0.24 to 0.24; 18-CIGNA ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 1.00 to 1.00; 18-CIGNA ‚Äì Self-pay physical &amp; No Charge Payment Amount* decreased from avg 12.67 to 12.67</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Labs per Visit increased from avg 2.15 to 3.50; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.50; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 95.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to -177.97; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.42; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 4.17; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 5.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 2.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.30 to 0.50; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 3.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 3.00; 2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 750.00; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Zero Balance Collection Rate increased from avg 0.36 to 0.38; 2-BCBS ‚Äì DME Collection Rate* increased from avg 0.37 to 0.38; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 287.68; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 29.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 6590.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 151.84; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 151.84; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.67; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.67; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 4403.50; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 5.46; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.11; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 5.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 560.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 24.96; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 26.45; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.24; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.22; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 3.20; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 124.81; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 11.31; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.63; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 1.96; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.40; 2-BCBS ‚Äì Vaccines Visit Count increased from avg 1.31 to 2.00; 2-BCBS ‚Äì Vaccines Charge Amount increased from avg 137.31 to 198.00; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.67; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.67; 2-BCBS ‚Äì Vaccines Labs per Visit increased from avg 0.10 to 1.00; 2-BCBS ‚Äì Vaccines Payment Amount* increased from avg 88.21 to 132.17; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 6.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 673.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.44; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.44; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 292.81</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 6.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 640.00; 1-SELF PAY ‚Äì Medications Labs per Visit increased from avg 1.13 to 4.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.50; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 98.40; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.54 to 98.40; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.40; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 1.50; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 112.73; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 112.73; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.35; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.35; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 5.00; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 1090.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 101.76; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.37; 13-TRICARE ‚Äì New E/M Codes Payment Amount* increased from avg 298.18 to 407.05; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 107.04; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 107.04; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.46; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.46; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 2.43; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 39.57; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 39.57; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.23; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.23; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.78; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 356.10; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.27; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* increased from avg 0.16 to 0.27; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 144.62; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 144.62; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.47 to 0.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 1.70; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 2.50; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 351.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 38.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 32.14 to 38.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 76.44; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 93.91; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.20; 18-CIGNA ‚Äì Medications Visit Count increased from avg 1.75 to 2.00; 18-CIGNA ‚Äì Medications Charge Amount increased from avg 210.12 to 350.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Payment per Visit increased from avg 26.22 to 37.81; 18-CIGNA ‚Äì Medications NRV Zero Balance* increased from avg 26.82 to 37.81; 18-CIGNA ‚Äì Medications Payment Amount* increased from avg 45.71 to 75.63; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 7.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 3.85; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 2095.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1012.34; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 4.00; 18-CIGNA ‚Äì Vaccines Charge Billed Balance decreased from avg 7.00 to 0.00; 18-CIGNA ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.56 to 0.57; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 2.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 1.00; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 810.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 1.50; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 345.59; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 3.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 6.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 855.05; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 135.08 to 360.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 21.18; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 21.18; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 2.40; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 18.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount increased from avg 3214.84 to 3985.00; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.34; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.06; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* increased from avg 1068.72 to 1354.33; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 198.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 45.02; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.29; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 17.43; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 17.43; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.16; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.16; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 4.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 131.31; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 131.31; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.42; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 5.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 3.51; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 4.20; 5-COMMERCIAL ‚Äì After Hours Labs per Visit increased from avg 2.12 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 4.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.18 to 3.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 264.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 4.33; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 3.88; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 895.00; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 114.13 to 151.67; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.54 to 0.70; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 3.25; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 459.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount increased from avg 547.64 to 630.92; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance decreased from avg 131.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment per Visit increased from avg 73.28 to 207.02; 15-UNITED HEALTHCARE ‚Äì DME NRV Zero Balance* increased from avg 73.88 to 207.02; 15-UNITED HEALTHCARE ‚Äì DME Zero Balance Collection Rate increased from avg 0.23 to 0.33; 15-UNITED HEALTHCARE ‚Äì DME Collection Rate* increased from avg 0.22 to 0.33; 15-UNITED HEALTHCARE ‚Äì DME Payment Amount* increased from avg 116.98 to 207.02; 15-UNITED HEALTHCARE ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.59 to 0.68; 15-UNITED HEALTHCARE ‚Äì Vaccines Collection Rate* increased from avg 0.60 to 0.68</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.70; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 80.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.50; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 13.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 380.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 23.85; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 1.08; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 1.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 0.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 10.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.77; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1430.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 147.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.70; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 1.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 0.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 12.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 585.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 48.75; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 1.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 245.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 46.79; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 46.79; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.19; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.39 to 0.19; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 46.79; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 1.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 310.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 125.70; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 135.40 to 125.70; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.44 to 0.41; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.41; 12-HUMANA ‚Äì New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 125.70; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 2.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 490.00; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.40; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 196.80; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 325.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 112.73; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.62; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 101.76; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.37; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 1.25; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 200.53 to 89.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 47.27 to 10.09; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.55 to 10.09; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.11; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.23 to 0.11; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.66 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 48.14 to 10.09; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 7.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.88; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 1630.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 749.27; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 9.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 1553.00; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 82.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 21.73; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 21.73; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 21.73; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 10.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.74; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 2875.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 1446.22; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 134.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 10.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 10.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.15; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.15; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 20.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 4.80; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 4.80; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.12 to 0.10; 17-AETNA ‚Äì After Hours Collection Rate* decreased from avg 0.12 to 0.10; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 1.00; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 5.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.74; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 1140.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 129.89; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 129.89; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.57; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.57; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.00; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 649.47; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 4.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 876.00; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 82.85; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.38; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.38; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 331.39; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 6.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.83; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 1785.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 181.15; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 181.15; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.61; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.61; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 1.33; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1086.92; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 3.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 735.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 93.91; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.38; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.38; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 1.00; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 281.72; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 5.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 991.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 34.38; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 34.38; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.17; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.17; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 171.89; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.22 to 0.22; 18-CIGNA ‚Äì Medications Collection Rate* decreased from avg 0.22 to 0.22; 18-CIGNA ‚Äì Medications Labs per Visit decreased from avg 1.77 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 144.62; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 144.62; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.48; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.48; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.86; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 30.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Vaccines Visit Count decreased from avg 1.12 to 1.00; 18-CIGNA ‚Äì Vaccines Charge Amount decreased from avg 165.00 to 86.00; 18-CIGNA ‚Äì Vaccines Upfront Collections Efficiency increased from avg -17.25 to 0.00; 18-CIGNA ‚Äì Vaccines Payment per Visit decreased from avg 81.62 to 48.90; 18-CIGNA ‚Äì Vaccines NRV Zero Balance* decreased from avg 58.47 to 48.90; 18-CIGNA ‚Äì Vaccines Collection Rate* decreased from avg 0.59 to 0.57; 18-CIGNA ‚Äì Vaccines Labs per Visit decreased from avg 0.31 to 0.00; 18-CIGNA ‚Äì Vaccines Payment Amount* decreased from avg 111.17 to 48.90; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 222.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 34.38 to 30.09; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 34.64 to 30.09; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 60.19; 2-BCBS ‚Äì After Hours Visit Count decreased from avg 19.95 to 2.00; 2-BCBS ‚Äì After Hours Charge Amount decreased from avg 906.21 to 92.00; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Zero Balance Collection Rate decreased from avg 0.36 to 0.35; 2-BCBS ‚Äì DME Collection Rate* decreased from avg 0.37 to 0.35; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 23.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.78; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 5205.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 140.05; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 140.05; 2-BCBS ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.69 to 1.65; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 3221.08; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 27.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 4121.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 27.13; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 27.13; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.18; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.18; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.80 to 2.78; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 732.61; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 3.00; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 322.00; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.18; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 1.33; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 57.06; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 27.00; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 8079.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì New E/M Codes Labs per Visit decreased from avg 1.69 to 1.52; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 5181.70; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 4.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 318.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 35.57; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 35.57; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 142.28; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 57.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 57.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 5.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.54; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 86.40; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 86.40; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 385.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 28.49; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 28.49; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.22; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.22; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.33; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 85.46; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.82 to 3.71; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 38.93; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 38.93; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.41 to 0.27; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.38 to 0.27; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 0.67; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 233.55; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.39 to 0.00; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 5.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 230.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate decreased from avg 0.46 to 0.46; 4-MEDICAID ‚Äì After Hours Collection Rate* decreased from avg 0.46 to 0.46; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 105.92; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.77; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance increased from avg 214.26 to 241.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 70.72 to 84.46; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 75.24; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 79.43; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 14.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 2301.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 34.16; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 36.78; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 478.20; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 110.00; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 1.00; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 17.43; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 6.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 1860.00; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.50; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 787.86; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 239.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 4.89; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 6.11; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.12; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.10; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 24.44; 5-COMMERCIAL ‚Äì After Hours Visit Count decreased from avg 1.75 to 1.00; 5-COMMERCIAL ‚Äì After Hours Charge Amount decreased from avg 80.50 to 46.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 353.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 293.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 19.72; 17-AETNA ‚Äì Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 251.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 35.72; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 35.72; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.28; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.28; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 71.43; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance increased from avg 25.96 to 241.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 1.93 to 167.50; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 114.75; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.51; 15-UNITED HEALTHCARE ‚Äì DME Visit Count decreased from avg 1.38 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 17-AETNA ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Visit Count decreased from avg 1.14 to 1.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Amount decreased from avg 146.94 to 86.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Billed Balance increased from avg -10.71 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment per Visit decreased from avg 82.57 to 58.43; 15-UNITED HEALTHCARE ‚Äì Vaccines NRV Zero Balance* decreased from avg 65.18 to 58.43; 15-UNITED HEALTHCARE ‚Äì Vaccines Labs per Visit decreased from avg 0.57 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment Amount* decreased from avg 90.91 to 58.43</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 5.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 230.00; 17-AETNA ‚Äì After Hours Payment Amount* increased from avg 18.58 to 24.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 82.85; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.25; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì Medications Visit Count increased from avg 1.48 to 3.00; 17-AETNA ‚Äì Medications Charge Amount increased from avg 135.48 to 264.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 19.72; 17-AETNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.19 to 0.22; 17-AETNA ‚Äì Medications Collection Rate* increased from avg 0.18 to 0.22; 17-AETNA ‚Äì Medications Payment Amount* increased from avg 31.94 to 59.16; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì Vaccines Charge Amount increased from avg 100.13 to 103.05; 17-AETNA ‚Äì Vaccines Payment per Visit increased from avg 61.15 to 80.95; 17-AETNA ‚Äì Vaccines NRV Zero Balance* increased from avg 61.15 to 80.95; 17-AETNA ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.61 to 0.79; 17-AETNA ‚Äì Vaccines Collection Rate* increased from avg 0.61 to 0.79; 17-AETNA ‚Äì Vaccines Payment Amount* increased from avg 61.15 to 80.95</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Labs per Visit increased from avg 1.97 to 2.00; 2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 2.00; 2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 1482.97; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Payment per Visit increased from avg 145.60 to 258.93; 2-BCBS ‚Äì DME NRV Zero Balance* increased from avg 140.68 to 258.93; 2-BCBS ‚Äì DME Labs per Visit increased from avg 0.05 to 0.50; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 517.86; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 19.02; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 19.02; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.18; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.87; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 191.91; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 191.91; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.45; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.45; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.50; 2-BCBS ‚Äì Vaccines Visit Count increased from avg 1.31 to 2.00; 2-BCBS ‚Äì Vaccines Charge Amount increased from avg 137.31 to 172.00; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 0.67; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 0.67; 2-BCBS ‚Äì Vaccines Payment Amount* increased from avg 88.21 to 115.60; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 709.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 57.45; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 57.45; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.41; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.41; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 0.80; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 287.25</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 6.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit increased from avg 125.79 to 157.50; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.17; 1-SELF PAY ‚Äì Medications Visit Count increased from avg 2.00 to 3.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 80.00; 1-SELF PAY ‚Äì Medications Labs per Visit increased from avg 1.13 to 3.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 1.10; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 3.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 205.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 1.33; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit increased from avg 135.45 to 204.83; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 135.40 to 204.83; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.44 to 0.75; 12-HUMANA ‚Äì New E/M Codes Collection Rate* increased from avg 0.44 to 0.75; 12-HUMANA ‚Äì New E/M Codes Labs per Visit increased from avg 0.90 to 1.50; 12-HUMANA ‚Äì New E/M Codes Payment Amount* increased from avg 300.52 to 409.66; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to -55.40; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to -204.76; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 141.77; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.75; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 3.33; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 425.32; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to -1.94; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to -14.26; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.30; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 4.33; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 135.20; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 135.20; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.44; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.44; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 1.50; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.40; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 105.20; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 105.20; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 38.67; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 38.67; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.75; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 3.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 340.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 12.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 3570.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 667.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 87.37; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 3.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.50; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 57.08; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 57.08; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.28 to 0.40; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.27 to 0.40; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 810.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 334.45; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 3.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 583.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 50.84; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 50.84; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.26; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.26; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 2.67; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 152.52; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 2.00; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 22.07; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 22.07; 4-MEDICAID ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.46 to 0.48; 4-MEDICAID ‚Äì After Hours Collection Rate* increased from avg 0.46 to 0.48; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 2.67; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.35; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 3.27; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 0.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.92; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 17.51; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 17.51; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.16; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.16; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 4.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 4.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 14.58; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 116.68; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.42; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 3.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 3.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 4.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 585.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 27.57 to 38.33; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 27.38 to 43.33; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.28; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.26; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 153.32; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 191.46; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* increased from avg 161.13 to 191.46; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.55 to 0.81; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* increased from avg 0.48 to 0.81; 15-UNITED HEALTHCARE ‚Äì DME Visit Count increased from avg 1.38 to 2.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount increased from avg 547.64 to 1055.13; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance decreased from avg 131.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment per Visit increased from avg 73.28 to 128.59; 15-UNITED HEALTHCARE ‚Äì DME NRV Zero Balance* increased from avg 73.88 to 128.59; 15-UNITED HEALTHCARE ‚Äì DME Zero Balance Collection Rate increased from avg 0.23 to 0.24; 15-UNITED HEALTHCARE ‚Äì DME Collection Rate* increased from avg 0.22 to 0.24; 15-UNITED HEALTHCARE ‚Äì DME Payment Amount* increased from avg 116.98 to 257.18; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.59 to 0.68; 15-UNITED HEALTHCARE ‚Äì Vaccines Collection Rate* increased from avg 0.60 to 0.68</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.40; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 480.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 18.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 800.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 32.50; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 1.06; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 10.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.52; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1020.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 114.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 5.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 11.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 445.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 33.18; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.36; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 1.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 80.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 80.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 60.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 39.97 to 1.76; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 40.10 to 1.76; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.03; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.19 to 0.03; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 1.76; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 2.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.92 to 3.43; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 545.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.42; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 565.00; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 62.46; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.39; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 385.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 38.30; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 68.62 to 42.48; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.26; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 114.90; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 620.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 270.40; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 200.53 to 104.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 47.27 to 11.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.55 to 11.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.11; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.23 to 0.11; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.66 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 48.14 to 11.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 2.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 570.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.37; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.37; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.50; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 210.41; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 4.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 1004.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 154.69; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 15.07; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 15.07; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.13; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.13; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 45.22; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.83; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 64.00 to 310.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 138.67; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 121.52; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 132.57; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.45; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.41; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 1.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 1458.29; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 119.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 2.76 to 89.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 29.12; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 29.12; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.13; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.13; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 0.33; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 118.69; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 118.69; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.51; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.51; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.00; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 5.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 885.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 45.49; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 45.49; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.26; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.26; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 227.46; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 6.00; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 1920.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 1.33; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1357.57; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 1.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 160.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 57.85; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 57.85; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.36; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.36; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 57.85; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 2.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 325.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 27.98; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 27.98; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.17; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.17; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 55.95; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 3.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.67; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 855.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 136.14; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 136.14; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.48; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.48; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.33; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 408.42; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 144.00; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 57.08; 2-BCBS ‚Äì After Hours Visit Count decreased from avg 19.95 to 1.00; 2-BCBS ‚Äì After Hours Charge Amount decreased from avg 906.21 to 46.00; 2-BCBS ‚Äì After Hours Labs per Visit decreased from avg 1.97 to 0.00; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 21.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.80; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 4805.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 140.74; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 139.39; 2-BCBS ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.69 to 1.67; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 2955.63; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 26.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 4903.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 32.12; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 32.12; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.17; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.17; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 835.21; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 0.00; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 28.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.82; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 8305.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 5.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 394.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 24.52; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 24.52; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.31; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.31; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 1.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 122.61; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.55; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 83.61; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 83.61; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 0.04; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 6.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 276.00; 4-MEDICAID ‚Äì After Hours Upfront Collections Efficiency increased from avg -0.33 to 0.00; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 132.40; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 11.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.61; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2355.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 74.48; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 74.48; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.35; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 819.32; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 13.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 2200.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 37.38; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 37.38; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.22; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.22; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 485.90; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 110.00; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 17.51; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 12.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.65; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 3345.00; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 119.57; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.33; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1400.12; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 80.72; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 4.77; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 4.77; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.18; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.18; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 14.31; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 3.46 to 11.27; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.25; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 1.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 235.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 191.46; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Charge Amount decreased from avg 135.48 to 100.00; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 19.75; 17-AETNA ‚Äì Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 19.75; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 60.00; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 123.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 23.95; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 23.95; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.19; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.19; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 23.95; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 4-MEDICAID ‚Äì DME Visit Count decreased from avg 1.67 to 1.00; 4-MEDICAID ‚Äì DME Charge Amount decreased from avg 682.71 to 75.00; 4-MEDICAID ‚Äì DME Charge Billed Balance increased from avg 64.90 to 75.00; 17-AETNA ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Visit Count decreased from avg 1.14 to 1.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Amount decreased from avg 146.94 to 86.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Billed Balance increased from avg -10.71 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment per Visit decreased from avg 82.57 to 58.43; 15-UNITED HEALTHCARE ‚Äì Vaccines NRV Zero Balance* decreased from avg 65.18 to 58.43; 15-UNITED HEALTHCARE ‚Äì Vaccines Labs per Visit decreased from avg 0.57 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment Amount* decreased from avg 90.91 to 58.43</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 6.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 276.00; 17-AETNA ‚Äì After Hours Payment per Visit increased from avg 5.52 to 5.80; 17-AETNA ‚Äì After Hours NRV Zero Balance* increased from avg 5.52 to 5.80; 17-AETNA ‚Äì After Hours Zero Balance Collection Rate increased from avg 0.12 to 0.13; 17-AETNA ‚Äì After Hours Collection Rate* increased from avg 0.12 to 0.13; 17-AETNA ‚Äì After Hours Payment Amount* increased from avg 18.58 to 34.80; 17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 7.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 3.87; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 1630.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 830.81; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 3.94; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 226.26; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 226.26; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.71; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.71; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 19.75; 17-AETNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.19 to 0.20; 17-AETNA ‚Äì Medications Collection Rate* increased from avg 0.18 to 0.20; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 3.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 3.33; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì Vaccines Charge Amount increased from avg 100.13 to 112.00; 17-AETNA ‚Äì Vaccines Payment per Visit increased from avg 61.15 to 112.00; 17-AETNA ‚Äì Vaccines NRV Zero Balance* increased from avg 61.15 to 112.00; 17-AETNA ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.61 to 1.00; 17-AETNA ‚Äì Vaccines Collection Rate* increased from avg 0.61 to 1.00; 17-AETNA ‚Äì Vaccines Payment Amount* increased from avg 61.15 to 112.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -50.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -18.14; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.61; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.19; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 4.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 400.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 19.24; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 19.24; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.19; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.19; 2-BCBS ‚Äì Medications Payment Amount* increased from avg 67.30 to 76.96; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to 0.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 199.02; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 199.02; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.67; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.67; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 1.71; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 5572.64; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Vaccines Charge Amount increased from avg 137.31 to 211.00; 2-BCBS ‚Äì Vaccines Payment per Visit increased from avg 69.62 to 345.09; 2-BCBS ‚Äì Vaccines NRV Zero Balance* increased from avg 69.01 to 345.09; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.64 to 1.64; 2-BCBS ‚Äì Vaccines Collection Rate* increased from avg 0.64 to 1.64; 2-BCBS ‚Äì Vaccines Payment Amount* increased from avg 88.21 to 345.09; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 9.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1074.47; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 50.43; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 50.43; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.42; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.42; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.11; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 453.89</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 9.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 630.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.11; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 62.35; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.65; 1-SELF PAY ‚Äì Medications Visit Count increased from avg 2.00 to 3.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 75.00; 1-SELF PAY ‚Äì Medications Labs per Visit increased from avg 1.13 to 1.33; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 153.75; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 3.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 2.33; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 3.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 67.96; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 91.40; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 7.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 7.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.66 to 7.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.31 to 37.52; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 31.20 to 37.52; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 13.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 2930.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 117.61; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 117.61; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1528.93; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 4.25; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 2.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 240.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 2.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 2.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 4.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 30.78; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 8.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1535.00; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 95.12; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.50; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 665.81; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 8.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.25; 18-CIGNA ‚Äì Medications Visit Count increased from avg 1.75 to 3.00; 18-CIGNA ‚Äì Medications Charge Amount increased from avg 210.12 to 260.00; 18-CIGNA ‚Äì Medications Labs per Visit increased from avg 1.77 to 2.67; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 153.53; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 153.53; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 504.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 51.31 to 201.33; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 49.02 to 201.33; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 3.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 70.38 to 201.33; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 2.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 240.79 to 285.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 34.62; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 61.27 to 69.23; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 810.00; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 93.55; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 2.50; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 374.21; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 5.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 1008.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 47.95; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 47.95; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 239.74; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 10.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 1710.09; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 86.97; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 1.50; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* increased from avg 273.10 to 869.67; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.33 to 3.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 135.08 to 139.72; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.48 to 2.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 207.62 to 256.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.67 to 1.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 3.87; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 77.07; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 52.88; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 52.88; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.00; 4-MEDICAID ‚Äì Medications Visit Count increased from avg 2.12 to 3.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 4.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 5.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 630.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 121.50; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 55.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit increased from avg 0.68 to 2.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.21 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit increased from avg 115.74 to 202.38; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 114.13 to 202.38; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 2.50; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 404.75; 5-COMMERCIAL ‚Äì Medications Labs per Visit increased from avg 1.73 to 3.00; 13-TRICARE ‚Äì Medications Labs per Visit increased from avg 1.42 to 7.00; 4-MEDICAID ‚Äì DME Visit Count increased from avg 1.67 to 2.00; 4-MEDICAID ‚Äì DME Charge Amount increased from avg 682.71 to 997.25; 4-MEDICAID ‚Äì Vaccines Payment per Visit increased from avg 43.37 to 49.97; 4-MEDICAID ‚Äì Vaccines NRV Zero Balance* increased from avg 33.40 to 49.97</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.65; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 116.11; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 17.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 960.00; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 33.33; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 12.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.50; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1770.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 70.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 5.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 16.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 770.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 45.62; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.38; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 2.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 160.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 80.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 1.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 245.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 69.94; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 69.94; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 293.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 67.96; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 1.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 245.00; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 91.40; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 91.40; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 230.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 25.13; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 68.62 to 25.13; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 25.13; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 1.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 235.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 89.94; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 89.94; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 89.94; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 200.53 to 30.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 47.27 to 7.77; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.55 to 7.77; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 48.14 to 7.77; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 157.00; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 37.52; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.80; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.08; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 8.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 1115.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 15.62; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 17.67; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 125.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 8.87; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 8.87; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 17.73; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 8.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 2474.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 130.60; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 132.95; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 1044.78; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 1.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 30.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 1.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 1.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 1.50; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 163.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 30.78; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 30.78; 17-AETNA ‚Äì After Hours Visit Count decreased from avg 3.75 to 2.00; 17-AETNA ‚Äì After Hours Charge Amount decreased from avg 170.58 to 92.00; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 2.00; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 15.20; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 2.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.50; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 405.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 114.30; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 114.30; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 228.59; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 3.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 555.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 73.89; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 73.89; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 221.66; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 2.00; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 620.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 204.75; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 204.75; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 0.50; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 409.50; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.44; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 83.23; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1134.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 20.94; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 23.93; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 167.52; 18-CIGNA ‚Äì Medications Payment per Visit decreased from avg 26.22 to 15.13; 18-CIGNA ‚Äì Medications NRV Zero Balance* decreased from avg 26.82 to 15.13; 18-CIGNA ‚Äì Medications Payment Amount* decreased from avg 45.71 to 45.38; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 5.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1550.00; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.20; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 767.65; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 34.64 to 34.62; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 20.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.83; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 4560.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 137.79; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 2755.85; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 22.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 3677.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 26.95; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 28.23; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 592.82; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 3.00; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 1.00; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 58.53; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 16.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.77; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 4660.00; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 3055.27; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 5.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 239.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 3.72; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 3.72; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 18.59; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 86.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 57.80; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 57.80; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 57.80; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 48.75; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 48.75; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.52; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 93.55; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.82 to 3.65; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 86.97; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 28.43 to 9.03; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 28.43 to 9.03; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.39 to 0.67; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 27.08; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 28.74 to 22.25; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 30.60 to 22.25; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 45.10 to 44.50; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 7.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 322.00; 4-MEDICAID ‚Äì After Hours Payment per Visit decreased from avg 20.66 to 18.91; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* decreased from avg 20.63 to 18.91; 4-MEDICAID ‚Äì After Hours Labs per Visit decreased from avg 2.04 to 0.43; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 132.40; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 13.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 3010.00; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 77.07; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.00; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 1001.87; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 5.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 1095.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 264.38; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 124.00; 4-MEDICAID ‚Äì Medications Payment per Visit decreased from avg 15.29 to 5.72; 4-MEDICAID ‚Äì Medications NRV Zero Balance* decreased from avg 16.26 to 5.72; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 0.00; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 17.17; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 9.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.32; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 2340.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 102.65; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 102.65; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 0.22; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 923.81; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 172.72; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 7.99; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 7.99; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 0.50; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 31.97; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 24.30; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 24.30; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.40; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 403.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 55.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.50; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 110.00; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 2.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 180.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 50.00; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 166.67 to 128.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 25.20; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 40.50 to 25.20; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.08 to 1.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 15.08 to 0.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.17 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 405.00; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00; 5-COMMERCIAL ‚Äì Medications Charge Amount decreased from avg 69.73 to 0.00; 13-TRICARE ‚Äì Medications Visit Count decreased from avg 1.35 to 1.00; 13-TRICARE ‚Äì Medications Charge Amount decreased from avg 156.35 to 110.00; 13-TRICARE ‚Äì Medications Payment per Visit decreased from avg 11.74 to 10.95; 13-TRICARE ‚Äì Medications NRV Zero Balance* decreased from avg 12.96 to 10.95; 13-TRICARE ‚Äì Medications Payment Amount* decreased from avg 14.88 to 10.95; 13-TRICARE ‚Äì DME Visit Count decreased from avg 1.00 to 1.00; 13-TRICARE ‚Äì DME Charge Amount decreased from avg 418.70 to 278.08; 13-TRICARE ‚Äì DME Payment per Visit decreased from avg 180.57 to 142.65; 13-TRICARE ‚Äì DME NRV Zero Balance* decreased from avg 180.57 to 142.65; 13-TRICARE ‚Äì DME Payment Amount* decreased from avg 180.57 to 142.65; 4-MEDICAID ‚Äì DME Payment per Visit decreased from avg 108.06 to 30.64; 4-MEDICAID ‚Äì DME NRV Zero Balance* decreased from avg 137.19 to 30.64; 4-MEDICAID ‚Äì DME Payment Amount* decreased from avg 198.76 to 61.27; 4-MEDICAID ‚Äì Vaccines Visit Count decreased from avg 1.10 to 1.00; 4-MEDICAID ‚Äì Vaccines Charge Amount decreased from avg 141.20 to 86.00; 4-MEDICAID ‚Äì Vaccines Payment Amount* decreased from avg 50.52 to 49.97; 1-SELF PAY ‚Äì DME Visit Count decreased from avg 1.33 to 1.00; 1-SELF PAY ‚Äì DME Charge Amount decreased from avg 133.93 to 25.00; 1-SELF PAY ‚Äì DME Payment per Visit decreased from avg 42.67 to 25.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Visit Count decreased from avg 1.14 to 1.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Amount decreased from avg 146.94 to 86.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment per Visit decreased from avg 82.57 to 58.43; 15-UNITED HEALTHCARE ‚Äì Vaccines NRV Zero Balance* decreased from avg 65.18 to 58.43; 15-UNITED HEALTHCARE ‚Äì Vaccines Labs per Visit decreased from avg 0.57 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment Amount* decreased from avg 90.91 to 58.43</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Payment per Visit increased from avg 5.52 to 7.60; 17-AETNA ‚Äì After Hours NRV Zero Balance* increased from avg 5.52 to 7.60; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.50; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 2.00; 2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 965.66; 2-BCBS ‚Äì DME Payment per Visit increased from avg 145.60 to 155.27; 2-BCBS ‚Äì DME NRV Zero Balance* increased from avg 140.68 to 155.27; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 310.53; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 145.04; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.15; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.18; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 380.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 19.51; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 19.51; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 190.95; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 190.95; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.80; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 9.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1038.00; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.56; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 438.71</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 22.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1135.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 66.14; 1-SELF PAY ‚Äì Medications Visit Count increased from avg 2.00 to 3.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 100.00; 1-SELF PAY ‚Äì Medications Labs per Visit increased from avg 1.13 to 1.33; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 1.10; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 2.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 24.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 1035.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 103.86; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.54 to 103.86; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 112.73; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 112.73; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 5.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 127.09; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 127.09; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 2.50; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.31 to 37.52; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 31.20 to 37.52; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 13.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.15; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 3333.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 103.47; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 99.60; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 1.62; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1345.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.00; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 2.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 400.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 3.90; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 146.77; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.21 to 4.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 431.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 2.25; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 41.54; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 32.14 to 41.54; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.05; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 101.79; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 101.79; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.25; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 555.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 75.16; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 67.06; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.50; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 150.32; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 2.33; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 14.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 80.09; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 83.15; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* increased from avg 1068.72 to 1121.23; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 17.73; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 17.73; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 3.87; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 129.75; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 129.75; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.22; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 4.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 267.01 to 396.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 68.64 to 95.70; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 315.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 62.96 to 73.49; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 38.45 to 73.49; 13-TRICARE ‚Äì Medications Payment per Visit increased from avg 11.74 to 12.72</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 4.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.40; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 160.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 40.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 0.77; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 33.33; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 10.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.64; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1440.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 138.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 90.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 30.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 29.79; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.25; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 1.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 310.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 125.70; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 135.40 to 125.70; 12-HUMANA ‚Äì New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 125.70; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 1.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 245.00; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 103.86; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 325.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 112.73; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 620.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 254.18; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 157.00; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 37.52; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 7.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 974.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 13.91; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 16.23; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 97.37; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 11.53; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 11.53; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 23.05; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 7.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 1785.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 125.80; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 0.71; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 880.62; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 0.38; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 0.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 1.50; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 157.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 41.54; 17-AETNA ‚Äì After Hours Visit Count decreased from avg 3.75 to 3.00; 17-AETNA ‚Äì After Hours Charge Amount decreased from avg 170.58 to 138.00; 17-AETNA ‚Äì After Hours Payment per Visit decreased from avg 5.52 to 5.07; 17-AETNA ‚Äì After Hours NRV Zero Balance* decreased from avg 5.52 to 5.07; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 2.00; 17-AETNA ‚Äì After Hours Payment Amount* decreased from avg 18.58 to 15.20; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 3.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.67; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 650.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 121.34; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 121.34; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 364.03; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 4.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 911.00; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.75; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 364.23; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 2.00; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 620.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 205.00; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 205.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 1.50; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 410.00; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 975.00; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 1.25; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 407.16; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 4.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 820.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 26.50; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 26.50; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 106.01; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 4.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.25; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1015.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 139.36; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 139.36; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 557.44; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 22.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.76; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 4720.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 131.01; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 2882.13; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 22.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 5262.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 1125.92; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 2.00; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 150.00; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 10.00; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 10.00; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 20.00; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 20.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.83 to 3.60; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 5600.00; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 179.98; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 179.98; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 3599.60; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 5.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 313.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 9.26; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 11.57; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 46.30; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 539.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 43.84; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 43.84; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 2.00; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.82 to 3.55; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 545.02; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 29.50; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 44.25; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 88.50; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.48 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 207.62 to 115.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 28.74 to 22.01; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 30.60 to 22.01; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.67 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 45.10 to 22.01; 4-MEDICAID ‚Äì After Hours Visit Count decreased from avg 7.28 to 6.00; 4-MEDICAID ‚Äì After Hours Charge Amount decreased from avg 323.84 to 230.00; 4-MEDICAID ‚Äì After Hours Payment per Visit decreased from avg 20.66 to 17.65; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* decreased from avg 20.63 to 17.65; 4-MEDICAID ‚Äì After Hours Labs per Visit decreased from avg 2.04 to 1.67; 4-MEDICAID ‚Äì After Hours Payment Amount* decreased from avg 146.06 to 105.92; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.76; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 3175.00; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.29; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 14.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 1953.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 31.67; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 33.29; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.71; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 443.32; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 100.00; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 0.00; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 17.73; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 9.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 2715.00; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1167.71; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 23.93; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 23.93; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 1.50; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 1.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 128.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 24.94; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 1.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 235.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 88.54; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 88.54; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 88.54; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 73.49; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 1.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 55.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 55.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 166.67 to 121.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 30.16; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.05 to 30.16; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 40.50 to 30.16; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.08 to 1.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 15.08 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.14 to 1.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 7.86 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.43 to 0.00; 13-TRICARE ‚Äì Medications Visit Count decreased from avg 1.35 to 1.00; 13-TRICARE ‚Äì Medications Charge Amount decreased from avg 156.35 to 100.00; 13-TRICARE ‚Äì Medications NRV Zero Balance* decreased from avg 12.96 to 12.72; 13-TRICARE ‚Äì Medications Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Medications Payment Amount* decreased from avg 14.88 to 12.72; 15-UNITED HEALTHCARE ‚Äì DME Visit Count decreased from avg 1.38 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount decreased from avg 547.64 to 278.08; 15-UNITED HEALTHCARE ‚Äì DME Payment per Visit decreased from avg 73.28 to 8.38; 15-UNITED HEALTHCARE ‚Äì DME NRV Zero Balance* decreased from avg 73.88 to 8.38; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment Amount* decreased from avg 116.98 to 8.38; 13-TRICARE ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 13-TRICARE ‚Äì Vaccines Charge Amount decreased from avg 110.25 to 86.00; 13-TRICARE ‚Äì Vaccines Payment per Visit decreased from avg 45.04 to 35.35; 13-TRICARE ‚Äì Vaccines NRV Zero Balance* decreased from avg 45.04 to 35.35; 13-TRICARE ‚Äì Vaccines Labs per Visit decreased from avg 0.50 to 0.00; 13-TRICARE ‚Äì Vaccines Payment Amount* decreased from avg 45.04 to 35.35; 12-HUMANA ‚Äì DME Visit Count decreased from avg 1.00 to 1.00; 12-HUMANA ‚Äì DME Charge Amount decreased from avg 154.04 to 30.00; 15-UNITED HEALTHCARE ‚Äì After Hours Visit Count decreased from avg 1.00 to 1.00; 15-UNITED HEALTHCARE ‚Äì After Hours Charge Amount decreased from avg 46.00 to 46.00; 15-UNITED HEALTHCARE ‚Äì After Hours Payment per Visit decreased from avg 15.84 to 15.84; 15-UNITED HEALTHCARE ‚Äì After Hours NRV Zero Balance* decreased from avg 15.84 to 15.84; 15-UNITED HEALTHCARE ‚Äì After Hours Labs per Visit decreased from avg 6.00 to 6.00; 15-UNITED HEALTHCARE ‚Äì After Hours Payment Amount* decreased from avg 15.84 to 15.84</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.67; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 91.06; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 91.06; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 3.00; 2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 1680.52; 2-BCBS ‚Äì DME Payment per Visit increased from avg 145.60 to 229.90; 2-BCBS ‚Äì DME NRV Zero Balance* increased from avg 140.68 to 229.90; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 689.69; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 143.36; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 1.77; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 51.18; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 53.62; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.55; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 3.00; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 1.95; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.60; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 6.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 263.05; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 18.42 to 25.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge NRV Zero Balance* increased from avg 14.27 to 25.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.17 to 2.00; 2-BCBS ‚Äì Self-pay physical &amp; No Charge Payment Amount* increased from avg 18.42 to 25.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 8.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 19.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1625.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 74.74; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.21; 1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 35.00; 1-SELF PAY ‚Äì Medications Labs per Visit increased from avg 1.13 to 2.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 1.46; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 25.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 1055.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 97.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count increased from avg 2.31 to 3.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount increased from avg 531.67 to 565.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 3.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 71.45 to 71.56; 12-HUMANA ‚Äì New E/M Codes Visit Count increased from avg 2.13 to 3.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount increased from avg 654.68 to 930.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit increased from avg 135.45 to 181.04; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 135.40 to 181.04; 12-HUMANA ‚Äì New E/M Codes Labs per Visit increased from avg 0.90 to 2.00; 12-HUMANA ‚Äì New E/M Codes Payment Amount* increased from avg 300.52 to 543.11; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 91.40; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 2.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 551.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 70.41; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 70.41; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 211.23; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 1.67; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.31 to 31.76; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 31.20 to 31.76; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 126.31; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 126.31; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 3.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.33; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 167.44; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 167.44; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 3.50; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 2.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 108.10; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 108.10; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 150.49; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.49; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 35.14; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 35.14; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 105.69; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 105.69; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 317.06; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 2.00; 4-MEDICAID ‚Äì After Hours Visit Count increased from avg 7.28 to 11.00; 4-MEDICAID ‚Äì After Hours Charge Amount increased from avg 323.84 to 460.00; 4-MEDICAID ‚Äì After Hours Payment per Visit increased from avg 20.66 to 21.67; 4-MEDICAID ‚Äì After Hours NRV Zero Balance* increased from avg 20.63 to 21.67; 4-MEDICAID ‚Äì After Hours Labs per Visit increased from avg 2.04 to 2.09; 4-MEDICAID ‚Äì After Hours Payment Amount* increased from avg 146.06 to 238.32; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 14.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 3.96; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount increased from avg 3214.84 to 3345.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 85.05; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 85.05; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.71; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* increased from avg 1068.72 to 1190.75; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 48.43; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 48.43; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.93; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 677.95; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 17.17; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 17.17; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 3.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 3.86; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.20; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 3.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.67; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 70.71; 5-COMMERCIAL ‚Äì After Hours Visit Count increased from avg 1.75 to 2.00; 5-COMMERCIAL ‚Äì After Hours Charge Amount increased from avg 80.50 to 92.00; 5-COMMERCIAL ‚Äì After Hours Labs per Visit increased from avg 2.12 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 707.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 88.03; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 88.03; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 3.33; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 264.10; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 342.70; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* increased from avg 161.13 to 342.70; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 38.45 to 40.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 2.14 to 6.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 31.67 to 33.25; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 31.05 to 33.25; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 5.00; 18-CIGNA ‚Äì DME Charge Amount increased from avg 561.12 to 689.80; 18-CIGNA ‚Äì DME Payment per Visit increased from avg 226.34 to 301.36; 18-CIGNA ‚Äì DME NRV Zero Balance* increased from avg 228.13 to 301.36; 18-CIGNA ‚Äì DME Payment Amount* increased from avg 272.63 to 301.36; 13-TRICARE ‚Äì DME Charge Amount increased from avg 418.70 to 689.80; 13-TRICARE ‚Äì DME Payment per Visit increased from avg 180.57 to 301.88; 13-TRICARE ‚Äì DME NRV Zero Balance* increased from avg 180.57 to 301.88; 13-TRICARE ‚Äì DME Payment Amount* increased from avg 180.57 to 301.88</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.25; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 565.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 44.38; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.25; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 1.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 35.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 13.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.52; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 960.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 73.85; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 15.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 7.50; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.50; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 29.60; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.36; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 2.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 194.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.87 to 3.28; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 58.45; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 64.30; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 1.00; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 175.34; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 349.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 39.97 to 23.85; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 40.10 to 34.88; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 1.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 245.00; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 91.40; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 91.40; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 2.33; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 3.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 930.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 84.73; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 113.53 to 84.73; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 254.18; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 138.00; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 31.76; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 6.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 1470.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 757.86; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 6.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 1407.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 26.33; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 26.33; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 157.97; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 2.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 470.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 1.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 334.89; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 60.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 2.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 2.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 4.99; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 123.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 27.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 27.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 27.22; 17-AETNA ‚Äì After Hours Labs per Visit decreased from avg 2.15 to 2.14; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.68; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 124.09; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 124.09; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 744.52; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 5.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 912.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 68.61; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 68.61; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 343.07; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 2.00; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 620.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 170.00; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 170.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 0.00; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 340.00; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 3.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.71; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 650.00; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 324.31; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 3.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 551.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 30.14; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 30.14; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 2.67; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 90.42; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 2.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.50; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 545.00; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.00; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 300.98; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 20.72; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 14.76; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 14.76; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 14.76; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 128.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 35.14; 2-BCBS ‚Äì DME Charge Amount decreased from avg 616.33 to 541.69; 2-BCBS ‚Äì DME Payment per Visit decreased from avg 145.60 to 129.09; 2-BCBS ‚Äì DME NRV Zero Balance* decreased from avg 140.68 to 39.52; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì DME Payment Amount* decreased from avg 258.71 to 258.18; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 21.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.78; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 4805.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 130.70; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 137.24; 2-BCBS ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.69 to 1.57; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 2744.74; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 21.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 3957.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 30.74; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 30.74; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 645.55; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 276.50; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 16.57; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 16.57; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 66.28; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 19.00; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 5599.00; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 3698.27; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 4.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 179.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 4.65; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 4.65; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 18.59; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 53.23; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 53.23; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 3.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 735.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 56.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 2.20; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 2.20; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 4.40; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 0.03; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 14.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 2729.00; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 92.00; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 17.17; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 10.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 2715.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 112.55; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 112.55; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1125.45; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 1.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 30.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 2.70; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 2.70; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 287.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 23.57; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 23.57; 5-COMMERCIAL ‚Äì After Hours Payment per Visit decreased from avg 23.47 to 14.33; 5-COMMERCIAL ‚Äì After Hours NRV Zero Balance* decreased from avg 23.47 to 14.33; 5-COMMERCIAL ‚Äì After Hours Payment Amount* decreased from avg 43.37 to 28.66; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 1.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 310.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 342.70; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 88.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 40.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 40.00; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 2.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 55.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 27.50; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.36 to 1.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 155.71 to 104.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 35.91 to 11.77; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 30.05 to 11.77; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.51 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 53.34 to 11.77; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 166.67 to 66.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 40.50 to 33.25; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Charge Amount decreased from avg 135.48 to 94.00; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 19.33; 17-AETNA ‚Äì Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 19.33; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 123.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 39.91; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 39.91; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 39.91; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 490.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 107.12; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 107.12; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 214.24; 18-CIGNA ‚Äì DME Visit Count decreased from avg 1.36 to 1.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.14 to 1.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 7.86 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.43 to 0.00; 13-TRICARE ‚Äì DME Visit Count decreased from avg 1.00 to 1.00; 4-MEDICAID ‚Äì DME Visit Count decreased from avg 1.67 to 1.00; 4-MEDICAID ‚Äì DME Charge Amount decreased from avg 682.71 to 188.61; 4-MEDICAID ‚Äì DME Payment per Visit decreased from avg 108.06 to 43.74; 4-MEDICAID ‚Äì DME NRV Zero Balance* decreased from avg 137.19 to 43.74; 4-MEDICAID ‚Äì DME Payment Amount* decreased from avg 198.76 to 43.74; 12-HUMANA ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 12-HUMANA ‚Äì Vaccines Charge Amount decreased from avg 109.33 to 86.00; 12-HUMANA ‚Äì Vaccines Payment per Visit decreased from avg 36.39 to 27.05; 12-HUMANA ‚Äì Vaccines NRV Zero Balance* decreased from avg 36.39 to 27.05; 12-HUMANA ‚Äì Vaccines Payment Amount* decreased from avg 36.39 to 27.05</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì After Hours Visit Count increased from avg 3.75 to 7.00; 17-AETNA ‚Äì After Hours Charge Amount increased from avg 170.58 to 322.00; 17-AETNA ‚Äì After Hours Payment per Visit increased from avg 5.52 to 6.63; 17-AETNA ‚Äì After Hours NRV Zero Balance* increased from avg 5.52 to 6.63; 17-AETNA ‚Äì After Hours Payment Amount* increased from avg 18.58 to 46.40; 17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 6.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 1300.00; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 3.33; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 4.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 19.33</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 2.00; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.62; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 4.00; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 2.25; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.85; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 194.65; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 193.96; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.32; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 3.75; 2-BCBS ‚Äì Vaccines Visit Count increased from avg 1.31 to 3.00; 2-BCBS ‚Äì Vaccines Charge Amount increased from avg 137.31 to 275.05; 2-BCBS ‚Äì Vaccines Payment Amount* increased from avg 88.21 to 159.70; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 9.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1150.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 63.86; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 63.70; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.22; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 574.75</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 3.89; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.60; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 61.98; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 3.79; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 70.62; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.51 to 3.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount increased from avg 235.81 to 290.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 95.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 101.36; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.54 to 101.36; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.41; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.41; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 4.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 3.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 125.56; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 125.56; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.41; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.41; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 23.45 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 2.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 0.38; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 2.90; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.19; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* increased from avg 0.16 to 0.19; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 12.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 3720.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to -116.80; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 141.54; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 1656.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 379.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 1.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 85.42; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -33.96; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -18.20 to -46.03; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 115.48; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 103.97; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.42; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.47; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 3.25; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 461.92; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 8.43; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 4.00; 18-CIGNA ‚Äì Medications Visit Count increased from avg 1.75 to 2.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.22 to 0.24; 18-CIGNA ‚Äì Medications Collection Rate* increased from avg 0.22 to 0.24; 18-CIGNA ‚Äì Medications Labs per Visit increased from avg 1.77 to 2.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 151.64; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 151.64; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 4.00; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 3.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 240.79 to 535.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 45.59; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 45.59; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 1.33; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 61.27 to 136.76; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 99.74; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 99.74; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 67.06; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 67.06; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.29; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.29; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 87.91; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 53.82; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.27; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.15; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 17.41; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 17.41; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.16; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.16; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 4.00; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 128.92; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.33; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 4.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 671.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 83.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 1.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 4.25; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -463.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to -329.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit increased from avg 115.74 to 409.50; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 114.13 to 245.00; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.54 to 1.00; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* increased from avg 0.53 to 1.67; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 5.50; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 819.00; 18-CIGNA ‚Äì DME Visit Count increased from avg 1.36 to 2.00; 18-CIGNA ‚Äì DME Charge Amount increased from avg 561.12 to 1172.61; 18-CIGNA ‚Äì DME Charge Billed Balance decreased from avg 2.46 to 0.00; 18-CIGNA ‚Äì DME Upfront Collections Efficiency decreased from avg 2.44 to 0.00; 18-CIGNA ‚Äì DME Payment per Visit increased from avg 226.34 to 292.17; 18-CIGNA ‚Äì DME NRV Zero Balance* increased from avg 228.13 to 292.17; 18-CIGNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.49 to 0.50; 18-CIGNA ‚Äì DME Collection Rate* increased from avg 0.48 to 0.50; 18-CIGNA ‚Äì DME Payment Amount* increased from avg 272.63 to 584.33; 4-MEDICAID ‚Äì Vaccines Charge Amount increased from avg 141.20 to 411.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 5.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 596.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 119.20; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 14.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 893.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 1.07; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 11.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1671.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 136.09; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.45; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 8.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 415.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.25; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 1.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 245.00; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 101.36; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 258.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 35.34; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 68.62 to 35.34; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.27; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.27; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 70.68; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 620.00; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 1.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 251.12; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 200.53 to 89.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 47.27 to 10.09; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.55 to 10.09; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.11; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.23 to 0.11; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.66 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 48.14 to 10.09; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 128.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.31 to 26.40; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.20 to 26.40; 13-TRICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 26.40; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 7.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 1715.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 88.53; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 88.53; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.36; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.36; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 619.68; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 10.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 1705.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 23.63; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 20.51; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.14; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.14; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 236.31; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 110.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 21.29; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 21.29; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 21.29; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 42.23; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 138.02; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.46; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.45; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 1.58; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 28.47; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 28.47; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.23; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 150.29 to 145.45; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.65 to 0.59; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.59; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.67; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 3.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 557.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 65.12; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 65.12; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.35; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.35; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 195.37; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 6.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.79; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 1785.00; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1391.80; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 980.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 4.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 879.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 27.30; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 36.40; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.13; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.12; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 109.21; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 105.00; 18-CIGNA ‚Äì Medications Payment per Visit decreased from avg 26.22 to 12.58; 18-CIGNA ‚Äì Medications NRV Zero Balance* decreased from avg 26.82 to 12.58; 18-CIGNA ‚Äì Medications Payment Amount* decreased from avg 45.71 to 25.17; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 3.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 930.00; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.49; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.00; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 454.92; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 61.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.26; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.26; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 16.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 3920.00; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 2609.31; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 23.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 5828.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 71.92 to 130.00; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.21; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 1200.86; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 16.00; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 4810.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance increased from avg 52.44 to 416.22; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 230.61; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 176.60; 2-BCBS ‚Äì New E/M Codes Collection Rate* decreased from avg 0.61 to 0.59; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 2825.64; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 2.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 256.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 66.03; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 36.25; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.28; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 72.50; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 3.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 384.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 152.84; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 1.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 245.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 99.74; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 1.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 230.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 67.06; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 1.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.82 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 235.00; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 88.40 to 87.91; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.38 to 0.37; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 87.91; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 13.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.75; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2930.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance increased from avg 214.26 to 486.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 70.72 to 161.76; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 65.69; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 80.70 to 76.10; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.35; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.29; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 854.01; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 13.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 2603.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 757.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 70.81 to 209.15; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 37.26; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.19; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 484.38; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 110.00; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 1.00; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 17.41; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 9.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 2790.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance increased from avg 390.86 to 616.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 162.82 to 246.74; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 101.50; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.33; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 913.51; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 256.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 49.88; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 525.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 20.86 to 567.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 26.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.15; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 104.00; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 620.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance increased from avg 122.16 to 480.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 70.00; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.23; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 140.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 30.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 14.13; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 34.92 to 14.13; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 14.13; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 117.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 47.20; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 47.20; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 47.20; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 490.00; 17-AETNA ‚Äì DME Visit Count decreased from avg 1.17 to 1.00; 17-AETNA ‚Äì DME Charge Amount decreased from avg 429.55 to 75.00; 17-AETNA ‚Äì DME Payment per Visit decreased from avg 174.97 to 43.78; 17-AETNA ‚Äì DME NRV Zero Balance* decreased from avg 179.12 to 43.78; 17-AETNA ‚Äì DME Payment Amount* decreased from avg 200.73 to 43.78; 17-AETNA ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 17-AETNA ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.61 to 0.54; 17-AETNA ‚Äì Vaccines Collection Rate* decreased from avg 0.61 to 0.54; 4-MEDICAID ‚Äì Vaccines Visit Count decreased from avg 1.10 to 1.00; 4-MEDICAID ‚Äì Vaccines Charge Billed Balance increased from avg 51.20 to 411.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Visit Count decreased from avg 1.14 to 1.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Amount decreased from avg 146.94 to 121.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Billed Balance increased from avg -10.71 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment per Visit decreased from avg 82.57 to 58.39; 15-UNITED HEALTHCARE ‚Äì Vaccines Collection Rate* decreased from avg 0.60 to 0.48; 15-UNITED HEALTHCARE ‚Äì Vaccines Labs per Visit decreased from avg 0.57 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment Amount* decreased from avg 90.91 to 58.39</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 6.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 1470.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 145.45; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 872.70; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 4.33; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 231.97; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 231.97; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.78; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.78; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 1.67; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.47; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.30 to 0.47; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 6.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.40; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.36 to 0.40; 17-AETNA ‚Äì DME Charge Billed Balance decreased from avg 149.25 to 0.00; 17-AETNA ‚Äì DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00; 17-AETNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.58 to 0.58; 17-AETNA ‚Äì DME Collection Rate* increased from avg 0.54 to 0.58; 17-AETNA ‚Äì Vaccines Charge Amount increased from avg 100.13 to 121.00; 17-AETNA ‚Äì Vaccines Payment per Visit increased from avg 61.15 to 65.13; 17-AETNA ‚Äì Vaccines NRV Zero Balance* increased from avg 61.15 to 65.13; 17-AETNA ‚Äì Vaccines Payment Amount* increased from avg 61.15 to 65.13</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 4.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -62.32; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -71.07; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 163.08; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 158.64; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.65; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.67; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.50; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 13.30; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 52.21; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 53.01; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.20 to 0.21; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.26; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.87; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 196.97; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.69; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 48.16; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.54; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 50.95; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 50.95; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.40; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.40; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 2.33</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 692.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 21.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 85.00; 1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 42.50; 1-SELF PAY ‚Äì New E/M Codes Visit Count increased from avg 13.36 to 14.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 3.80; 1-SELF PAY ‚Äì New E/M Codes Charge Amount increased from avg 2031.01 to 2090.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 940.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 58.75; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.56; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.51 to 5.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount increased from avg 235.81 to 490.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.39 to 1.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 94.49; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 94.49; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.39; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 3.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 53.65; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 53.65; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 650.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 84.91; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.39; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 254.74; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 84.96; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 84.96; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.29; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 3.00; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 4.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 1240.00; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 123.37; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.40; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 1.50; 13-TRICARE ‚Äì New E/M Codes Payment Amount* increased from avg 298.18 to 370.10; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.20 to 3.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 178.05 to 600.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.31 to 32.08; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 31.20 to 48.12; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 37.55 to 96.24; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 14.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 3260.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -383.59; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -313.71; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 106.39; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.46; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 2.36; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1489.43; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 16.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 3524.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 33.46; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 42.11; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 3.81; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 535.43; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 3.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 248.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 2.33; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to -208.13; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -0.54; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 155.53; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 157.01; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.47 to 0.52; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.52; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 3.09; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 1710.80; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.18; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 3.50; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 6.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 768.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 4.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 145.20; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 116.55; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 116.55; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.48; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.48; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.75; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 466.19; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.20; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 150.98; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.98; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.25; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.30 to 0.32; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.32; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 2.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 240.79 to 256.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 35.14; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 35.14; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.27 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 3.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 61.27 to 70.28; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 980.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 95.48; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 95.48; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 1.75; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 381.93; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 4.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 781.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 54.89; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 54.89; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.28; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.28; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 219.58; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 1240.00; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 111.56; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 88.40 to 131.08; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* increased from avg 273.10 to 446.26; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 19.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount increased from avg 3214.84 to 4655.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 83.58; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 93.93; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.38; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.34; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.26; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* increased from avg 1068.72 to 1588.01; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 18.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 4373.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 63.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 27.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 75.94; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 81.28; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.32; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.31; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.50; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 1366.89; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 2.00; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 17.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount increased from avg 4589.26 to 5030.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 310.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 120.32; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* increased from avg 1765.78 to 1884.75; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to 25.23; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 58.87; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 13.05; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.10 to 2.00; 1-SELF PAY ‚Äì Vaccines Visit Count increased from avg 2.07 to 4.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.21 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -122.70; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit increased from avg 115.74 to 213.70; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* increased from avg 0.53 to 0.87; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance decreased from avg 14.77 to 1.50; 5-COMMERCIAL ‚Äì Medications Collection Rate* increased from avg 0.21 to 0.23; 5-COMMERCIAL ‚Äì Medications Labs per Visit increased from avg 1.73 to 2.00; 13-TRICARE ‚Äì Medications Visit Count increased from avg 1.35 to 2.00; 13-TRICARE ‚Äì Medications Charge Amount increased from avg 156.35 to 220.00; 13-TRICARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.12 to 0.15; 13-TRICARE ‚Äì DME Charge Amount increased from avg 418.70 to 630.92; 13-TRICARE ‚Äì DME Charge Billed Balance decreased from avg 98.54 to 0.00; 13-TRICARE ‚Äì DME Payment per Visit increased from avg 180.57 to 291.66; 13-TRICARE ‚Äì DME NRV Zero Balance* increased from avg 180.57 to 291.66; 13-TRICARE ‚Äì DME Payment Amount* increased from avg 180.57 to 291.66</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 4.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.50; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 111.75; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.50; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 1010.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 36.67; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 1.00; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 2.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 1.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 141.57; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.71; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 95.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 47.50; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 16.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 38.80; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 1.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 245.00; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.39; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 94.49; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 230.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 53.65; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.70; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 84.91; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.39; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 1.33; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 293.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.29; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 84.96; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 199.38 to 310.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 61.56 to 123.37; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 92.53; 13-TRICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.32 to 0.30; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 23.45 to 128.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 1.30 to 26.10; 13-TRICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.20; 13-TRICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.16; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.89 to 3.87; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 84.95; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.36; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.50 to 84.25; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.18; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.15; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency increased from avg 2.95 to 13.70; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 7.48; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 11.22; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.09; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 22.44; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 11.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.83; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 3260.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 91.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 8.36; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 8.36; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.18; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 16.71; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 5.67 to 29.04; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 24.20; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 29.04; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.19; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 62.39 to 160.42; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.79; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 98.28 to 258.36; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 980.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 5.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1388.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 43.36; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 43.36; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.16; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.16; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 216.79; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1240.00; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.49; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 603.92; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 89.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 28.81; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 28.81; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 28.81; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.27; 2-BCBS ‚Äì DME Visit Count decreased from avg 1.61 to 1.00; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Zero Balance Collection Rate decreased from avg 0.36 to 0.33; 2-BCBS ‚Äì DME Collection Rate* decreased from avg 0.37 to 0.33; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 24.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.67; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 5285.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 141.77; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 134.36; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.61 to 0.60; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 3402.46; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 2.00; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 244.00; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.16; 2-BCBS ‚Äì Medications Collection Rate* decreased from avg 0.17 to 0.16; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 38.72; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance increased from avg 52.44 to 1243.38; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 714.85; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 164.27; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.61 to 0.61; 2-BCBS ‚Äì New E/M Codes Collection Rate* decreased from avg 0.61 to 0.55; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 4.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 1.50; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 131.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 43.81; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 43.81; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.64 to 0.33; 2-BCBS ‚Äì Vaccines Collection Rate* decreased from avg 0.64 to 0.33; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 43.81; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 0.36 to 32.81; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 47.96; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.37; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.35; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.39; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.39; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.25; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 45.73 to 79.64; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 13.65 to 78.08; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.38 to 0.36; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 0.50; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance increased from avg 214.26 to 494.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 70.72 to 196.75; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 15.00; 4-MEDICAID ‚Äì Medications Payment per Visit decreased from avg 15.29 to 0.19; 4-MEDICAID ‚Äì Medications NRV Zero Balance* decreased from avg 16.26 to 0.19; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.01; 4-MEDICAID ‚Äì Medications Collection Rate* decreased from avg 0.15 to 0.01; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 0.19; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.83; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 110.87; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 117.19; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.40; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.37; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.41; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 2.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 150.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 13.26; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 13.26; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.18; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.18; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 1.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 26.52; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 256.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 49.88; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 232.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.25; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 58.87; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 61.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 9.90; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 23.10; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.38; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 2.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 23.10; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 128.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 42.78 to 30.45; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.37 to 0.24; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 46.81 to 30.45; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 280.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 70.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 166.67 to 128.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 24.00; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.05 to 24.00; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.26 to 0.19; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.26 to 0.19; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 40.50 to 24.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 22.59 to 50.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 11.15 to 46.35; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 38.15; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 45.77; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.36; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.30; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 1.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 245.00; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 213.70; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00; 5-COMMERCIAL ‚Äì Medications Charge Amount decreased from avg 69.73 to 15.00; 5-COMMERCIAL ‚Äì Medications Payment per Visit decreased from avg 14.74 to 3.50; 5-COMMERCIAL ‚Äì Medications Payment Amount* decreased from avg 14.74 to 3.50; 17-AETNA ‚Äì DME Visit Count decreased from avg 1.17 to 1.00; 17-AETNA ‚Äì DME Payment per Visit decreased from avg 174.97 to 75.00; 17-AETNA ‚Äì DME NRV Zero Balance* decreased from avg 179.12 to 75.00; 17-AETNA ‚Äì DME Zero Balance Collection Rate decreased from avg 0.58 to 0.10; 17-AETNA ‚Äì DME Collection Rate* decreased from avg 0.54 to 0.10; 17-AETNA ‚Äì DME Payment Amount* decreased from avg 200.73 to 75.00; 13-TRICARE ‚Äì Medications Charge Billed Balance increased from avg 39.88 to 150.00; 13-TRICARE ‚Äì Medications Upfront Collections Efficiency increased from avg 2.17 to 21.77; 13-TRICARE ‚Äì Medications Payment per Visit decreased from avg 11.74 to 5.08; 13-TRICARE ‚Äì Medications NRV Zero Balance* decreased from avg 12.96 to 10.16; 13-TRICARE ‚Äì Medications Collection Rate* decreased from avg 0.10 to 0.05; 13-TRICARE ‚Äì Medications Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Medications Payment Amount* decreased from avg 14.88 to 10.16; 13-TRICARE ‚Äì DME Visit Count decreased from avg 1.00 to 1.00; 13-TRICARE ‚Äì DME Zero Balance Collection Rate decreased from avg 0.53 to 0.46; 13-TRICARE ‚Äì DME Collection Rate* decreased from avg 0.53 to 0.46</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 9.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 2205.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -3.54; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 43.36; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 188.54; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 193.36; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.79; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.77; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.89; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 1696.88; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 18.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 4744.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 111.96; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 125.20; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.46; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.42; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.61; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 2015.22; 17-AETNA ‚Äì New E/M Codes Visit Count increased from avg 8.71 to 18.00; 17-AETNA ‚Äì New E/M Codes Charge Amount increased from avg 2631.41 to 5280.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 106.44; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 205.56; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 224.38; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.75; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.70; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 2.44; 17-AETNA ‚Äì New E/M Codes Payment Amount* increased from avg 1816.92 to 3700.13; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.12 to 6.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 292.71 to 760.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.33; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 106.71 to 228.87; 17-AETNA ‚Äì DME Charge Amount increased from avg 429.55 to 777.05; 17-AETNA ‚Äì DME Charge Billed Balance decreased from avg 149.25 to 0.00; 17-AETNA ‚Äì DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 777.05; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Payment per Visit increased from avg 145.60 to 258.93; 2-BCBS ‚Äì DME NRV Zero Balance* increased from avg 140.68 to 258.93; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 258.93; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -204.90; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -256.10; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.17; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 36.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 10122.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 7.73; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 4.64; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 60.83; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 61.56; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.22; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.20 to 0.22; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.25; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 2190.04; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 19.36; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 19.36; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 2.00; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 40.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.87; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 11950.00; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 184.42; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 1.95; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 6570.66; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 682.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 58.11; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 58.11; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.34; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.34; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 232.45; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 11.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1508.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 53.26; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.18; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 527.57</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 4.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit increased from avg 125.79 to 149.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.67; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 21.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 3.80; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 1.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 1.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 60.67; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.51 to 8.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount increased from avg 235.81 to 735.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 105.24; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 105.24; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.43; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.43; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 3.00; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* increased from avg 205.83 to 210.49; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 523.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 50.08; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 50.08; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.19; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.19; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 71.45 to 100.15; 12-HUMANA ‚Äì New E/M Codes Visit Count increased from avg 2.13 to 4.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount increased from avg 654.68 to 1240.00; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 135.40 to 152.65; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.44 to 0.49; 12-HUMANA ‚Äì New E/M Codes Payment Amount* increased from avg 300.52 to 499.86; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 895.00; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 255.36; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 649.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.34; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 3.33; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 125.56; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.41; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 2.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 23.45 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -70.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -44.48; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 121.72; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 115.37; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.47; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.50; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 12.96; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 51.33; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 57.74; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.26; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.26; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 461.95; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 2.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 1.07; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 14.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 4340.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 143.31; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 144.31; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 1.93; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 2006.32; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.25; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.25; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.90 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 1.00; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 7.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1715.00; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 636.02; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 11.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 2412.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 2.91; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 456.15; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 9.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 2790.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 150.98; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.98; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.44; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1358.82; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 2.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 34.89; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 34.89; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.28 to 0.34; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.27 to 0.34; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 61.27 to 69.78; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 99.74; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 1.50; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 930.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 84.53; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 3.31 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.55 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 18.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 3.96; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount increased from avg 3214.84 to 4325.00; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 84.01; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 1.94; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* increased from avg 1068.72 to 1270.19; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 23.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 4488.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 44.85; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 53.58; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.27; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 1031.60; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 18.29; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 18.29; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 3.00; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 21.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 3.89; 4-MEDICAID ‚Äì New E/M Codes Charge Amount increased from avg 4589.26 to 6285.00; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 126.30; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* increased from avg 1765.78 to 2263.37; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 3.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 457.00; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 27.38 to 32.53; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 1.67; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to -11.64; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to -11.64; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 144.18; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 3.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 447.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 935.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 41.43; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 0.95; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 10.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1273.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 138.30; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 20.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 35.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 15.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 815.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.33; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 82.50; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.38; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 490.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance increased from avg 0.44 to 79.87; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 110.74; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 124.97; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.40; 12-HUMANA ‚Äì New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.82 to 3.79; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg 88.96 to 245.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 33.42 to 96.25; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 63.84; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 85.12; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.39; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.37 to 0.29; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 98.89 to 293.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 25.52 to 99.33; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 40.23; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 68.62 to 60.34; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.19; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 120.69; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 3.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 930.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 199.38 to 310.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 61.56 to 125.56; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 83.71; 13-TRICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.32 to 0.27; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 251.12; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 123.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.31 to 27.14; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.20 to 27.14; 13-TRICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.22; 13-TRICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.22; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.82 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 27.14; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 7.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount decreased from avg 2387.76 to 1715.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.14; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 1042.39 to 852.07; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 9.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 1796.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.78 to 2.22; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 124.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 0.17; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 0.34; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.01; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 0.34; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 64.00 to 451.66; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 14.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.47; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.46; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 1.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 61.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 15.21; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 15.21; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 15.21; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 220.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 16.15 to 92.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 5.67 to 20.87; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 14.52; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 29.04; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.13; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 29.04; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 5.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 1225.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 90.86; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 90.86; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 1.57; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 41.47; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 41.47; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.19; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.19; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.49; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 203.00; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Payment per Visit decreased from avg 145.60 to 132.77; 2-BCBS ‚Äì DME NRV Zero Balance* decreased from avg 140.68 to 132.77; 2-BCBS ‚Äì DME Zero Balance Collection Rate decreased from avg 0.36 to 0.27; 2-BCBS ‚Äì DME Collection Rate* decreased from avg 0.37 to 0.27; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.63 to 104.18; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.20; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 1.00; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 90.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 2.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 1.00; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.36; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.36; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.43; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 490.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg 0.15 to 31.40; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 31.18; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 84.15; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.34; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 168.30; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 1.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 28.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 2.20; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.08; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 2.20; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 45.73 to 318.57; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.38 to 0.27; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 253.60; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 104.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 4.95 to 104.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.39 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.48 to 1.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 207.62 to 128.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 28.74 to 25.60; 3-MEDICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 30.60 to 25.60; 3-MEDICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.20; 3-MEDICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.20 to 0.20; 3-MEDICARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.67 to 0.00; 3-MEDICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 45.10 to 25.60; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance increased from avg 214.26 to 731.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 70.72 to 253.45; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 70.57; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.35; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.29; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 694.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 70.81 to 202.08; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.74; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 150.00; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.12; 4-MEDICAID ‚Äì Medications Collection Rate* decreased from avg 0.15 to 0.12; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 18.29; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance increased from avg 390.86 to 922.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 162.82 to 382.67; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 107.78; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.36; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.48; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 11.37 to 128.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 3.46 to 25.31; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 21.69; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.20; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.14; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 65.06; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 620.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 138.36; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.45; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.47; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 288.36; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 104.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 62.96 to 10.36; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 38.45 to 10.36; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.35 to 0.10; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.39 to 0.10; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 10.36; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.36 to 1.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 155.71 to 104.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -12.86 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 35.91 to 13.71; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 30.05 to 13.71; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.13; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.21 to 0.13; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.51 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 53.34 to 13.71; 17-AETNA ‚Äì Medications Upfront Collections Efficiency increased from avg 3.36 to 78.70; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 89.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 16.60; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.19; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 16.60; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.80 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.14 to 1.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 7.86 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -11.50 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.43 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Visit Count decreased from avg 1.38 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount decreased from avg 547.64 to 524.80; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance increased from avg 131.06 to 524.80; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -1.02; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 13.15; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 208.84; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 211.47; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.86; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.85; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.40; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 1044.20; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 11.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 2120.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 60.46; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 112.87; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 108.98; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.61; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.59; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.55; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 1241.61; 17-AETNA ‚Äì New E/M Codes Visit Count increased from avg 8.71 to 12.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì New E/M Codes Charge Amount increased from avg 2631.41 to 3720.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to -15.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 48.31; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 258.11; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 262.14; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.85; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.83; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 2.00; 17-AETNA ‚Äì New E/M Codes Payment Amount* increased from avg 1816.92 to 3097.33; 17-AETNA ‚Äì Medications Visit Count increased from avg 1.48 to 3.00; 17-AETNA ‚Äì Medications Charge Amount increased from avg 135.48 to 350.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 51.89; 17-AETNA ‚Äì Medications NRV Zero Balance* increased from avg 19.97 to 66.96; 17-AETNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.19 to 0.67; 17-AETNA ‚Äì Medications Collection Rate* increased from avg 0.18 to 0.44; 17-AETNA ‚Äì Medications Labs per Visit increased from avg 1.60 to 2.33; 17-AETNA ‚Äì Medications Payment Amount* increased from avg 31.94 to 155.66; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 292.71 to 484.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 50.98 to 159.11; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 54.42 to 159.11; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.66; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.36 to 0.66; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 106.71 to 318.23</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 2.00; 2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 965.66; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 265.53; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 33.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 3.89; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 7830.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -560.87; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -457.10; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 164.77; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 151.68; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.69; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 1.76; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 5437.42; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 40.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 8628.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 42.61; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 44.45; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.21; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 2.83; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1704.39; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 2.00; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 32.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.94; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 9770.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to -10.22; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -268.05; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 197.13; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 187.94; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.62; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.65; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.03; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 6308.11; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1101.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 231.76; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 231.76; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.42; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.42; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 463.53; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 7.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1252.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to -8.56; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 65.20; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 58.61; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 456.43</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 6.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 4.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 23.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1155.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count increased from avg 13.36 to 19.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 100.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 18.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 1040.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 63.89; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 92.50; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 1.50; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 66.61; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 66.61; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 735.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 98.50; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 98.50; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.43; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.43; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 118.98; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 118.98; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.38; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 15.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.03; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 3625.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -204.84; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 2.07; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1410.31; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 22.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 5527.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 43.79; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 46.40; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.18; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.17; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 2.86; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 963.38; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 2.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* increased from avg 0.16 to 0.17; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 1.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 19.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 3.94; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 5505.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 1.68; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 2277.70; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.31; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.31; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 392.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.23; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 90.32; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 5.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1225.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -47.43; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -18.20 to -163.95; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.00; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 466.82; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 16.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 3603.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 516.73; 18-CIGNA ‚Äì Medications Visit Count increased from avg 1.75 to 2.00; 18-CIGNA ‚Äì Medications Charge Amount increased from avg 210.12 to 220.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Payment per Visit increased from avg 26.22 to 26.53; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.22 to 0.24; 18-CIGNA ‚Äì Medications Collection Rate* increased from avg 0.22 to 0.24; 18-CIGNA ‚Äì Medications Labs per Visit increased from avg 1.77 to 2.50; 18-CIGNA ‚Äì Medications Payment Amount* increased from avg 45.71 to 53.06; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 13.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 4030.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to -40.91; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 149.43; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.89; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.54; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1942.55; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 5.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 1225.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -150.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -154.66; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 126.01; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 95.08; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.51; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 630.05; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 4.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 724.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 45.80; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 45.80; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.25; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.25; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 183.21; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 88.40 to 130.03; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.42; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 1.50; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.30; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.27 to 0.30; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.39 to 3.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 3.90; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 83.39; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.50; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 21.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 3656.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.27; 4-MEDICAID ‚Äì Medications Visit Count increased from avg 2.12 to 5.00; 4-MEDICAID ‚Äì Medications Charge Amount increased from avg 201.17 to 602.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 15.97; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 19.96; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.16; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 1.60; 4-MEDICAID ‚Äì Medications Payment Amount* increased from avg 31.28 to 79.83; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 23.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount increased from avg 4589.26 to 6755.00; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* increased from avg 1765.78 to 1997.29; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 4.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.20 to 0.20; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 3.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 384.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.33; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 74.82; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to -2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to -25.99; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to -204.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to -129.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 214.50; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* increased from avg 0.48 to 0.69; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* increased from avg 360.69 to 429.00; 12-HUMANA ‚Äì Vaccines Charge Amount increased from avg 109.33 to 121.00; 12-HUMANA ‚Äì Vaccines Payment per Visit increased from avg 36.39 to 41.06; 12-HUMANA ‚Äì Vaccines NRV Zero Balance* increased from avg 36.39 to 41.06; 12-HUMANA ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.33 to 0.34; 12-HUMANA ‚Äì Vaccines Collection Rate* increased from avg 0.33 to 0.34; 12-HUMANA ‚Äì Vaccines Payment Amount* increased from avg 36.39 to 41.06</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 467.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 53.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 48.04; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 0.96; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 1.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 0.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.68; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1680.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 88.42; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.79; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 0.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.44; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 2.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 185.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 490.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 84.64; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 84.64; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.35; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.39 to 0.35; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 169.28; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 293.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 66.61; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 1.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 310.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 122.88; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 135.40 to 122.88; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.44 to 0.40; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.40; 12-HUMANA ‚Äì New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 122.88; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg 88.96 to 245.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 33.42 to 91.40; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 60.93; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 91.40; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.37; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.37 to 0.25; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 182.80; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 230.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 2.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 98.50; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 620.00; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 1.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 237.96; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 37.41; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 94.02; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 79.96; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.33; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.39; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 285.34; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.50 to 23.82; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 135.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 11.41; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* decreased from avg 22.82 to 11.41; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.17; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 22.83; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 64.00 to 287.03; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 9.06 to 96.81; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit decreased from avg 139.64 to 119.88; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 122.64; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.43; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.41; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 81.72; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 12.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 12.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 1.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 24.99; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 30.11; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 30.11; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 51.63 to 82.23; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 101.89 to 781.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 62.39 to 475.17; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.33; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance increased from avg 130.16 to 395.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 98.28 to 230.89; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 203.77; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.70; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.66; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 1.50; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 93.36; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 60.57; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.25; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.38; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 36.23 to 193.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 12.20 to 45.28; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 32.30; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 35.44; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.16; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.14; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 2.69; 18-CIGNA ‚Äì Medications NRV Zero Balance* decreased from avg 26.82 to 26.53; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 15.12 to 19.03; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.48; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 30.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 2.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.30 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.09; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 2.80; 2-BCBS ‚Äì DME Visit Count decreased from avg 1.61 to 1.00; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Payment per Visit decreased from avg 145.60 to 125.00; 2-BCBS ‚Äì DME NRV Zero Balance* decreased from avg 140.68 to 125.00; 2-BCBS ‚Äì DME Zero Balance Collection Rate decreased from avg 0.36 to 0.15; 2-BCBS ‚Äì DME Collection Rate* decreased from avg 0.37 to 0.15; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì DME Payment Amount* decreased from avg 258.71 to 125.00; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 19.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 4485.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 136.13; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 128.58; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.61 to 0.54; 2-BCBS ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.58; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 2586.52; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 71.92 to 194.04; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.63 to 78.55; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.20; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.19; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.80 to 2.48; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 14.65; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 14.65; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.14; 2-BCBS ‚Äì Medications Collection Rate* decreased from avg 0.17 to 0.14; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 58.59; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 178.38; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 177.54; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.61 to 0.59; 2-BCBS ‚Äì New E/M Codes Collection Rate* decreased from avg 0.61 to 0.60; 2-BCBS ‚Äì New E/M Codes Labs per Visit decreased from avg 1.69 to 1.56; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 12.26; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.17; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.57; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 37.76; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 36.51; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.29; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.30; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.75; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.39; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 1.20; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.25; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 2.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 310.00; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 65.02; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 130.03; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 30.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 28.43 to 8.91; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 28.43 to 8.91; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 8.91; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 12.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2850.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance increased from avg 214.26 to 976.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 70.72 to 345.63; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 55.93; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.24; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 671.15; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 1235.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 70.81 to 328.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 30.62; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 45.93; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.18; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.86; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 642.98; 4-MEDICAID ‚Äì Medications Charge Billed Balance increased from avg 3.82 to 110.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency increased from avg 1.09 to 17.85; 4-MEDICAID ‚Äì Medications Collection Rate* decreased from avg 0.15 to 0.13; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.84 to 3.82; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance increased from avg 390.86 to 1542.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 162.82 to 464.92; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 86.84; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 124.29 to 103.23; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.36; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.30; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.52; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 231.72; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 11.40; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 11.40; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.20; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 1.75; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 45.61; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 24.94; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.19; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 321.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 35.98; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 41.95; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.14; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.22; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 71.95; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 620.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 150.00; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.48; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Charge Amount decreased from avg 135.48 to 94.00; 17-AETNA ‚Äì Medications Labs per Visit decreased from avg 1.60 to 0.00; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 22.62; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 256.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 22.59 to 128.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 11.15 to 50.40; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 25.20; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 50.40; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.39; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.20; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 50.40; 1-SELF PAY ‚Äì DME Visit Count decreased from avg 1.33 to 1.00; 1-SELF PAY ‚Äì DME Charge Amount decreased from avg 133.93 to 25.00; 1-SELF PAY ‚Äì DME Payment per Visit decreased from avg 42.67 to 25.00; 12-HUMANA ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 8.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 1960.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 60.34; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 171.10; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 181.38; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.74; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.70; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.00; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 1368.78; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 21.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 4359.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 91.44; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 112.83; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.55; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.44; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 1920.34; 17-AETNA ‚Äì New E/M Codes Visit Count increased from avg 8.71 to 22.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 3.97; 17-AETNA ‚Äì New E/M Codes Charge Amount increased from avg 2631.41 to 6745.00; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 216.65; 17-AETNA ‚Äì New E/M Codes Payment Amount* increased from avg 1816.92 to 4483.01; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 22.62; 17-AETNA ‚Äì Medications NRV Zero Balance* increased from avg 19.97 to 22.62; 17-AETNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.19 to 0.24; 17-AETNA ‚Äì Medications Collection Rate* increased from avg 0.18 to 0.24; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 852.05; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 3.91; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -83.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -177.00; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.26; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 44.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 10540.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 46.50; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 49.01; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 2046.15; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 4.00; 2-BCBS ‚Äì Medications Charge Amount increased from avg 363.59 to 413.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 1.50; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 50.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.83; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 14825.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to -232.60; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -170.34; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 8918.90; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 7.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 901.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg -4.05 to -290.82; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 63.54; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.49; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 444.77; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count increased from avg 5.04 to 8.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount increased from avg 655.56 to 1019.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to -9.77; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 302.08</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1394.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 75.22; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.22; 1-SELF PAY ‚Äì New E/M Codes Visit Count increased from avg 13.36 to 15.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount increased from avg 2031.01 to 2032.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 1.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 125.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 60.50; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 1.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 57.08; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 106.18; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 106.18; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.43; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.43; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 1.50; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* increased from avg 205.83 to 212.35; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 3.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 551.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 2.67; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 71.45 to 101.26; 12-HUMANA ‚Äì New E/M Codes Visit Count increased from avg 2.13 to 3.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount increased from avg 654.68 to 930.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit increased from avg 135.45 to 143.19; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 135.40 to 143.19; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.44 to 0.46; 12-HUMANA ‚Äì New E/M Codes Collection Rate* increased from avg 0.44 to 0.46; 12-HUMANA ‚Äì New E/M Codes Labs per Visit increased from avg 0.90 to 1.67; 12-HUMANA ‚Äì New E/M Codes Payment Amount* increased from avg 300.52 to 429.58; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 6.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 1470.00; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 274.20; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 5.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 1339.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 106.89; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 106.89; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.40; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.40; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 534.46; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 5.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 1550.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 118.98; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 118.98; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.38; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 1.60; 13-TRICARE ‚Äì New E/M Codes Payment Amount* increased from avg 298.18 to 594.92; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 23.45 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.82 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 17.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 4165.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -317.35; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -266.78; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 126.27; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 110.57; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.45; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.52; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 1.82; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 2146.53; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 19.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 3725.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 34.43; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 435.91; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 20.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 3.95; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 6125.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to -209.98; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -203.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 150.12; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.49; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 3002.32; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 3.00; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 6.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1385.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -85.21; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -18.20 to -208.94; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 120.43; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.52; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 722.58; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 68.71; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 3.81; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to -167.17; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to -163.48; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 182.72; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.98; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.63; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 360.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 51.31 to 182.96; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 49.02 to 182.96; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.30 to 0.51; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.51; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 70.38 to 182.96; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 99.75; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 99.75; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 3.33; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 4.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 551.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 1.40; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 45.44; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.28; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.28; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 2.75; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 152.52; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to -26.43; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 156.46; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.50; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 214.26 to -84.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 70.72 to -81.99; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 93.58; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 86.13; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* increased from avg 0.33 to 0.38; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.36; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 20.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 4266.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 47.72; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 53.96; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.26; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.15; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 954.38; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 17.21; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.22; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 18.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 3.93; 4-MEDICAID ‚Äì New E/M Codes Charge Amount increased from avg 4589.26 to 5505.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 115.62; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 128.66; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.50; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* increased from avg 1765.78 to 2081.22; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.33 to 3.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.87 to 3.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 27.57 to 41.50; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.71 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 68.43; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 930.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.10 to 2.00; 13-TRICARE ‚Äì Medications Charge Billed Balance decreased from avg 39.88 to 0.00; 13-TRICARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.17 to 0.00; 13-TRICARE ‚Äì Medications Payment per Visit increased from avg 11.74 to 12.80; 13-TRICARE ‚Äì Medications Collection Rate* increased from avg 0.10 to 0.12; 12-HUMANA ‚Äì Vaccines Charge Amount increased from avg 109.33 to 121.00; 12-HUMANA ‚Äì Vaccines Payment per Visit increased from avg 36.39 to 41.06; 12-HUMANA ‚Äì Vaccines NRV Zero Balance* increased from avg 36.39 to 41.06; 12-HUMANA ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.33 to 0.34; 12-HUMANA ‚Äì Vaccines Collection Rate* increased from avg 0.33 to 0.34; 12-HUMANA ‚Äì Vaccines Payment Amount* increased from avg 36.39 to 41.06</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 2.00; 1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.50; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 160.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 80.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 18.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.78 to 3.67; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 135.47; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 12.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 670.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.33; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 490.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 39.97 to 33.75; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 40.10 to 33.75; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.18; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.19 to 0.18; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg 88.96 to 735.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 33.42 to 274.20; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 45.70; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 91.40; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.37; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.37 to 0.19; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 2.80; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 128.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.31 to 26.40; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.20 to 26.40; 13-TRICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 26.40; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.50 to 140.31; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 22.94; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.12; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.78 to 2.68; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 110.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance increased from avg 3.48 to 12.37; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 139.02; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.46; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 1.40; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 128.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 29.04; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 29.04; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.23; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 29.04; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg 63.76 to 325.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 51.63 to 154.88; 17-AETNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 141.04 to 134.13; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.55; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 804.77; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 101.89 to 241.68; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.53; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance increased from avg 130.16 to 243.78; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 98.28 to 123.02; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 1.46; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.83; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 90.86; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 0.67; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 5.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1081.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 12.20 to 69.21; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 17.97; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.15; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.08; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 1.60; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 89.84; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1165.00; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.00; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 730.87; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 148.79; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 44.25; 2-BCBS ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.61; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 71.92 to 242.32; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.63 to 158.72; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.21; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.19; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 1.00; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 110.00; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.17; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 0.00; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 18.92; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance increased from avg 52.44 to 80.66; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 4.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 121.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 62.81; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 62.81; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.64 to 0.52; 2-BCBS ‚Äì Vaccines Collection Rate* decreased from avg 0.64 to 0.52; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 62.81; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 2.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 256.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 46.49; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 46.49; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.36; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.36; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 92.98; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 3.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 735.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 299.26; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 38.13; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 1.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 310.00; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 1.00; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 156.46; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 11.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2695.00; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.35; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 1029.42; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 551.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 70.81 to 142.02; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.22; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 1.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 80.00; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 0.00; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 17.21; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance increased from avg 390.86 to 612.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 162.82 to 243.66; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.38; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 164.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 4.76; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 4.76; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 14.28; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 1.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 213.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 41.50; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 496.66 to 460.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 230.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 20.86 to 68.43; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 34.21; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.30; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.15; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 68.43; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance increased from avg 122.16 to 310.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 41.75 to 143.80; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 95.87; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 143.80; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.46; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.31; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 1.33; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 287.60; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 128.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 42.78 to 25.52; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 42.19 to 25.52; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.34 to 0.20; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.37 to 0.20; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 46.81 to 25.52; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 1.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 75.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 75.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Charge Amount decreased from avg 135.48 to 15.00; 17-AETNA ‚Äì Medications Payment per Visit decreased from avg 18.88 to 0.19; 17-AETNA ‚Äì Medications NRV Zero Balance* decreased from avg 19.97 to 0.19; 17-AETNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.19 to 0.01; 17-AETNA ‚Äì Medications Collection Rate* decreased from avg 0.18 to 0.01; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 0.19; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 61.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 5.92; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 34.92 to 5.92; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.10; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.10; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 5.92; 13-TRICARE ‚Äì Medications Visit Count decreased from avg 1.35 to 1.00; 13-TRICARE ‚Äì Medications Charge Amount decreased from avg 156.35 to 110.00; 13-TRICARE ‚Äì Medications NRV Zero Balance* decreased from avg 12.96 to 12.80; 13-TRICARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.12 to 0.12; 13-TRICARE ‚Äì Medications Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Medications Payment Amount* decreased from avg 14.88 to 12.80; 17-AETNA ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 12-HUMANA ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 6.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 1470.00; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 159.94; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.65; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.83; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 19.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 4470.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to -0.26; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 126.44; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 124.77; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.54; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.54; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 2402.40; 17-AETNA ‚Äì New E/M Codes Visit Count increased from avg 8.71 to 24.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 3.96; 17-AETNA ‚Äì New E/M Codes Charge Amount increased from avg 2631.41 to 7365.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 241.98; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 246.87; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.81; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.79; 17-AETNA ‚Äì New E/M Codes Payment Amount* increased from avg 1816.92 to 5807.42; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Labs per Visit increased from avg 1.60 to 2.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 2.00; 17-AETNA ‚Äì Vaccines Charge Amount increased from avg 100.13 to 121.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 33.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 3.97; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 8000.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 147.62; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 150.55; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.61; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.03; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 4871.62; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 45.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 9924.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 42.29; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 46.29; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 2.89; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1903.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Payment per Visit increased from avg 16.62 to 18.92; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 18.92; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.17; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 40.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.98; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 12325.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -87.98; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 197.51; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 195.22; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.63; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 1.85; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 7900.46; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 894.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 118.42; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 118.42; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.53; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.53; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 473.70; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 3.50</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 4.43; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit increased from avg 125.79 to 134.33; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.33; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 25.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1325.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 74.00; 1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 36.50; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 3.85; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 25.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 1230.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.51 to 3.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount increased from avg 235.81 to 280.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.40; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.40; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.21; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.21; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 5.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 1225.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 96.30; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.54 to 160.50; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.66; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.39; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 2.80; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 209.33 to 481.50; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 6.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 1632.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 81.92; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 163.84; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.60; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.30; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 145.54 to 491.52; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 4.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 1240.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 93.29; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 124.39; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.39 to 0.40; 13-TRICARE ‚Äì New E/M Codes Payment Amount* increased from avg 298.18 to 373.16; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 23.45 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.82 to 2.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 17.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 3.94; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 4080.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -273.29; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -187.90; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 117.49; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 108.65; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.44; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.49; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1997.32; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 22.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 5061.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to -163.93; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to -223.08; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 47.39; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 39.57; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.21; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 1042.68; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count increased from avg 1.92 to 2.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount increased from avg 234.58 to 313.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit increased from avg 21.82 to 25.44; 15-UNITED HEALTHCARE ‚Äì Medications NRV Zero Balance* increased from avg 22.82 to 25.44; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 2.50; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* increased from avg 46.29 to 50.88; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 20.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 5900.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to -158.55; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -127.16; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 141.23; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.48; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 2.25; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 2824.55; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 421.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 52.61; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 27.53 to 52.61; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.25; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.25; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 54.50 to 105.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 4.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 668.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to -17.82; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.88 to 1.75; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 118.86; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 6.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1300.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 13.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 3198.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 7.79; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 534.18; 18-CIGNA ‚Äì Medications Visit Count increased from avg 1.75 to 2.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.22 to 0.26; 18-CIGNA ‚Äì Medications Collection Rate* increased from avg 0.22 to 0.26; 18-CIGNA ‚Äì Medications Payment Amount* increased from avg 45.71 to 49.38; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 13.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 3805.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to -59.02; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to -66.78; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.50; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.46; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1888.20; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.94 to 4.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 34.64; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 34.64; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 130.03; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 88.40 to 130.03; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.42; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 16.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 3.91; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount increased from avg 3214.84 to 3835.00; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 85.39; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* increased from avg 1068.72 to 1210.34; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 30.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 7456.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 58.34; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 71.86; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 652.01 to 1750.16; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.18; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 30.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 3.85; 4-MEDICAID ‚Äì New E/M Codes Charge Amount increased from avg 4589.26 to 9000.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 120.24; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 127.97; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.43; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* increased from avg 0.39 to 0.40; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 2.03; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* increased from avg 1765.78 to 3607.28; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 3.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 479.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to -2.81; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 27.57 to 31.23; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 93.70; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 753.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to -230.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to -148.26; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 54.42 to 230.40; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 188.55; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.72; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.92; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 691.20; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 230.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* increased from avg 161.13 to 230.00; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.55 to 0.74; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* increased from avg 0.48 to 0.74; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 2.50; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* increased from avg 360.69 to 460.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -109.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit increased from avg 115.74 to 167.00; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* increased from avg 0.53 to 1.04; 18-CIGNA ‚Äì DME Charge Billed Balance decreased from avg 2.46 to 0.00; 18-CIGNA ‚Äì DME Upfront Collections Efficiency decreased from avg 2.44 to 0.00; 18-CIGNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.49 to 0.50; 18-CIGNA ‚Äì DME Collection Rate* increased from avg 0.48 to 0.50; 4-MEDICAID ‚Äì DME Visit Count increased from avg 1.67 to 2.00; 4-MEDICAID ‚Äì DME Charge Amount increased from avg 682.71 to 1055.13; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to -3.64; 4-MEDICAID ‚Äì DME Payment per Visit increased from avg 108.06 to 178.41; 4-MEDICAID ‚Äì DME NRV Zero Balance* increased from avg 137.19 to 260.10; 4-MEDICAID ‚Äì DME Zero Balance Collection Rate increased from avg 0.28 to 0.33; 4-MEDICAID ‚Äì DME Collection Rate* increased from avg 0.26 to 0.34; 4-MEDICAID ‚Äì DME Payment Amount* increased from avg 198.76 to 356.82</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 3.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 447.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 52.20; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 0.56; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 2.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 13.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1938.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 149.15; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.54; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 47.20; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.20; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 66.67; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.33; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.87 to 3.45; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 405.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 80.58; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 80.58; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.50; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 161.15; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 63.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 39.97 to 12.96; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 40.10 to 12.96; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.37 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 12.96; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 1.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 310.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance increased from avg 0.44 to 55.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 67.98; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.22; 12-HUMANA ‚Äì New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 67.98; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg 88.96 to 490.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 33.42 to 321.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 98.89 to 816.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 25.52 to 491.52; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 2.83; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 199.38 to 310.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 61.56 to 124.39; 13-TRICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.32 to 0.30; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 0.75; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 200.53 to 89.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 47.27 to 11.47; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.55 to 11.47; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.13; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.23 to 0.13; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.66 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 48.14 to 11.47; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 128.00; 13-TRICARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.31 to 26.40; 13-TRICARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.20 to 26.40; 13-TRICARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 13-TRICARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 37.55 to 26.40; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.41; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.16; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.78 to 2.77; 15-UNITED HEALTHCARE ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.16; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.16; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.85 to 3.83; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 138.61; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.46; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 1.50; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 29.71; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 19.36; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.15; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.18; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.83 to 3.81; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.50; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.72; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.89 to 3.89; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.85 to 3.64; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 205.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 54.15; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 74.24; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 81.09; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.38; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.34; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 1.50; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 445.43; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 36.23 to 193.01; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 41.09; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 38.49; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.17; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.17; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 188.00; 18-CIGNA ‚Äì Medications Payment per Visit decreased from avg 26.22 to 24.69; 18-CIGNA ‚Äì Medications NRV Zero Balance* decreased from avg 26.82 to 24.69; 18-CIGNA ‚Äì Medications Labs per Visit decreased from avg 1.77 to 0.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight decreased from avg 3.79 to 3.78; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 145.25; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 137.62; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.48; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 30.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 135.00; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.26; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.26; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 34.64; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.86 to 3.69; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 132.18; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 128.55; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.61 to 0.60; 2-BCBS ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.61; 2-BCBS ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.69 to 1.50; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.63 to 66.96; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 3.00; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 200.00; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 13.39; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 1.00; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 40.16; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance increased from avg 52.44 to 446.33; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 159.50; 2-BCBS ‚Äì New E/M Codes Payment per Visit decreased from avg 181.82 to 176.79; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 182.20 to 181.13; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.61 to 0.59; 2-BCBS ‚Äì New E/M Codes Collection Rate* decreased from avg 0.61 to 0.57; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 4.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 238.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 2.68; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 4.65; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 6.20; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.09; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.08; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 18.59; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 121.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 62.81; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 62.81; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.64 to 0.52; 2-BCBS ‚Äì Vaccines Collection Rate* decreased from avg 0.64 to 0.52; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 62.81; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 2.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 341.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 23.24; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 23.24; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.14; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.14; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 46.49; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 3.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 735.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 89.42; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 89.42; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.36; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.36; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 268.26; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 1.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 310.00; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 130.03; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance increased from avg 214.26 to 478.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 70.72 to 174.33; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 75.65; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.32; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.50; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 460.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 70.81 to 144.73; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.25; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.77; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 2.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 111.00; 4-MEDICAID ‚Äì Medications Payment per Visit decreased from avg 15.29 to 9.77; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 1.00; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 19.53; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance increased from avg 390.86 to 612.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 162.82 to 251.66; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 23.34; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.20; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.33; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 620.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 134.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg 5.70 to 6.79; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 11.77; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 34.92 to 23.54; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.23; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.18; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 23.54; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 42.11; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 42.11; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.33; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.33; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 1.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.81 to 3.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 160.00; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 167.00; 17-AETNA ‚Äì DME Visit Count decreased from avg 1.17 to 1.00; 17-AETNA ‚Äì DME Charge Amount decreased from avg 429.55 to 25.00; 17-AETNA ‚Äì DME Payment per Visit decreased from avg 174.97 to 2.06; 17-AETNA ‚Äì DME NRV Zero Balance* decreased from avg 179.12 to 2.06; 17-AETNA ‚Äì DME Zero Balance Collection Rate decreased from avg 0.58 to 0.08; 17-AETNA ‚Äì DME Collection Rate* decreased from avg 0.54 to 0.08; 17-AETNA ‚Äì DME Payment Amount* decreased from avg 200.73 to 2.06; 18-CIGNA ‚Äì DME Visit Count decreased from avg 1.36 to 1.00; 18-CIGNA ‚Äì DME Charge Amount decreased from avg 561.12 to 278.08; 18-CIGNA ‚Äì DME Payment per Visit decreased from avg 226.34 to 139.04; 18-CIGNA ‚Äì DME NRV Zero Balance* decreased from avg 228.13 to 139.04; 18-CIGNA ‚Äì DME Payment Amount* decreased from avg 272.63 to 139.04</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 12.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 2770.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -222.20; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to -132.51; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 181.93; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 168.79; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.74; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.79; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 2183.16; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 18.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 4615.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to -63.72; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 19.34; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 132.23; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 135.96; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.52; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.52; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 2380.16; 17-AETNA ‚Äì New E/M Codes Visit Count increased from avg 8.71 to 18.00; 17-AETNA ‚Äì New E/M Codes Charge Amount increased from avg 2631.41 to 5430.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 244.96; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 244.96; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.81; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.81; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 1.94; 17-AETNA ‚Äì New E/M Codes Payment Amount* increased from avg 1816.92 to 4409.30; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 2.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.12 to 3.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 292.71 to 384.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 106.71 to 126.32; 17-AETNA ‚Äì DME Charge Billed Balance decreased from avg 149.25 to 0.00; 17-AETNA ‚Äì DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 30.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 6500.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -90.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -72.37; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 3965.28; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 44.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 10549.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 26.09; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 60.18; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 63.66; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.26; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.20 to 0.25; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 2.84; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 2648.14; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications NRV Zero Balance* increased from avg 18.08 to 20.08; 2-BCBS ‚Äì Medications Zero Balance Collection Rate increased from avg 0.18 to 0.20; 2-BCBS ‚Äì Medications Collection Rate* increased from avg 0.17 to 0.20; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 35.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.97; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 10775.00; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.29; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 6187.48; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.56 to 2.50; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 4.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 25.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1580.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 61.20; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.64; 1-SELF PAY ‚Äì New E/M Codes Visit Count increased from avg 13.36 to 18.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount increased from avg 2031.01 to 2613.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 1.61; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 21.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 1180.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 56.19; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.76; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 94.49; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 94.49; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.39; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 53.65; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 53.65; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.23; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.23; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 88.96 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 33.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 84.45 to 103.65; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.54 to 103.65; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.42; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.37 to 0.42; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 4.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 983.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 5.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 1550.00; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 118.98; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 1.80; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 14.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 3430.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -160.99; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -218.84; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 133.11; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 117.48; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.48; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.54; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1863.58; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 12.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 2645.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 28.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 61.09; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 77.27; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.33; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.28; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.78 to 2.83; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 733.03; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to -75.18; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -23.48; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 172.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 169.39; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.47 to 0.55; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.55; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 2.11; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.21 to 3.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 297.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -18.72; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -18.20 to -118.28; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 120.43; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.49; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.25; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 481.72; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 12.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 2705.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to -35.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.85 to 3.08; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 436.46; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 12.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 3720.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 10.98; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to -148.04; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 163.32; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.98; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.53; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.33; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1959.80; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 360.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 51.31 to 182.96; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 49.02 to 182.96; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.30 to 0.51; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.51; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 70.38 to 182.96; 3-MEDICARE ‚Äì Existing E/M Code Visit Count increased from avg 3.22 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount increased from avg 742.11 to 980.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -48.64; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -50.26; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 112.31; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 99.74; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.46; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 1.75; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* increased from avg 315.52 to 449.22; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.66 to 3.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 551.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to -4.60; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 50.84; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.27; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.28; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 152.52; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.39 to 3.00; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 16.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 3.94; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount increased from avg 3214.84 to 3835.00; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 83.07; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 2.31; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* increased from avg 1068.72 to 1087.91; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 17.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2839.44 to 4178.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 67.01; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.27; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.47; 4-MEDICAID ‚Äì Medications Visit Count increased from avg 2.12 to 3.00; 4-MEDICAID ‚Äì Medications Charge Amount increased from avg 201.17 to 290.00; 4-MEDICAID ‚Äì Medications Labs per Visit increased from avg 1.26 to 1.33; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 19.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 4.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount increased from avg 4589.26 to 5890.00; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 132.95; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.43; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 429.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 27.57 to 38.76; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 27.38 to 38.76; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 68.53 to 77.51; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 614.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 74.50 to -52.71; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 159.89; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 2.50; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -7.45; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit increased from avg 2.15 to 3.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount increased from avg 547.64 to 630.92; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit increased from avg 0.10 to 2.00; 4-MEDICAID ‚Äì DME Visit Count increased from avg 1.67 to 2.00; 4-MEDICAID ‚Äì DME Charge Amount increased from avg 682.71 to 1205.13; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00; 4-MEDICAID ‚Äì DME Payment per Visit increased from avg 108.06 to 217.42; 4-MEDICAID ‚Äì DME NRV Zero Balance* increased from avg 137.19 to 217.42; 4-MEDICAID ‚Äì DME Zero Balance Collection Rate increased from avg 0.28 to 0.36; 4-MEDICAID ‚Äì DME Collection Rate* increased from avg 0.26 to 0.36; 4-MEDICAID ‚Äì DME Payment Amount* increased from avg 198.76 to 434.84</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 1.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 80.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit decreased from avg 125.79 to 80.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit decreased from avg 0.91 to 0.00; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 1.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 30.00; 1-SELF PAY ‚Äì Medications Payment per Visit decreased from avg 33.64 to 30.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 145.17; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 1.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 245.00; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.39; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 94.49; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 230.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.37 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 53.65; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 2.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 490.00; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 207.29; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 98.89 to 690.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 28.18; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.11; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 2.25; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 112.73; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 199.38 to 910.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 61.56 to 336.94; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 51.59; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 13-TRICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.32 to 0.17; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 257.96; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.43; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.50 to 144.12; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 9.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 2790.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 1547.98; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg 5.90 to 16.10; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 9.96; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 14.94; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.15; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.10; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 29.88; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 128.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 29.04; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 29.04; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.23; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.23; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 29.04; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.22; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 101.89 to 293.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 62.39 to 230.03; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.23; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance increased from avg 130.16 to 740.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 98.28 to 679.08; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 1.28; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 980.00; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 90.86; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 12.20 to 63.50; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 36.37; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 44.45; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.18; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.16; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.00; 2-BCBS ‚Äì DME Visit Count decreased from avg 1.61 to 1.00; 2-BCBS ‚Äì DME Charge Amount decreased from avg 616.33 to 209.57; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Payment per Visit decreased from avg 145.60 to 76.94; 2-BCBS ‚Äì DME NRV Zero Balance* decreased from avg 140.68 to 76.94; 2-BCBS ‚Äì DME Collection Rate* decreased from avg 0.37 to 0.37; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì DME Payment Amount* decreased from avg 258.71 to 76.94; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to -10.63; 2-BCBS ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.69 to 1.48; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 71.92 to 325.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.63 to 57.72; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.20; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.19; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 290.00; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 11.79; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 9.42; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.16; 2-BCBS ‚Äì Medications Collection Rate* decreased from avg 0.17 to 0.16; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 1.25; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 47.18; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 4.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 443.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 30.29; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 30.29; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.27; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.27; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.75; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 121.16; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 3.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 366.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 47.95; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 47.95; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.39; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.33; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 143.85; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 34.63; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.33; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 61.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 28.43 to 5.94; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 28.43 to 5.94; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.10; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.27 to 0.10; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 5.94; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance increased from avg 214.26 to 739.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 70.72 to 254.80; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 67.99; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.35; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.28; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 1782.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 70.81 to 527.27; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 36.16; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.15; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 614.72; 4-MEDICAID ‚Äì Medications Charge Billed Balance increased from avg 3.82 to 40.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency increased from avg 1.09 to 20.93; 4-MEDICAID ‚Äì Medications Payment per Visit decreased from avg 15.29 to 6.51; 4-MEDICAID ‚Äì Medications NRV Zero Balance* decreased from avg 16.26 to 9.77; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.15 to 0.14; 4-MEDICAID ‚Äì Medications Collection Rate* decreased from avg 0.15 to 0.07; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 19.53; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance increased from avg 390.86 to 2005.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 162.82 to 926.65; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 84.18; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.27; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.58; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1599.40; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 2.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 165.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 5.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 5.09; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.06; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.06; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 10.18; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.18; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.18; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 53.30; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.26; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.67; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count decreased from avg 2.60 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount decreased from avg 771.78 to 620.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance increased from avg 122.16 to 170.64; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 84.18; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.27; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 168.36; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 1.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 80.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 80.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Charge Amount decreased from avg 135.48 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 29.14 to 104.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg 5.70 to 66.02; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 47.13; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 263.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 1.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 245.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 99.85; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.41; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 99.85; 17-AETNA ‚Äì DME Charge Amount decreased from avg 429.55 to 398.18; 17-AETNA ‚Äì DME Charge Billed Balance increased from avg 149.25 to 188.61; 17-AETNA ‚Äì DME Upfront Collections Efficiency increased from avg 10.48 to 188.61; 17-AETNA ‚Äì DME Payment per Visit decreased from avg 174.97 to 104.78; 17-AETNA ‚Äì DME Collection Rate* decreased from avg 0.54 to 0.53; 15-UNITED HEALTHCARE ‚Äì DME Visit Count decreased from avg 1.38 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance increased from avg 131.06 to 630.92</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 9.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 2205.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -70.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to -6.56; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 199.60; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 198.88; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.81; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.81; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 1796.44; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 13.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 2413.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 128.03; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 138.70; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.79; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.69; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 1664.38; 17-AETNA ‚Äì New E/M Codes Visit Count increased from avg 8.71 to 18.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 3.94; 17-AETNA ‚Äì New E/M Codes Charge Amount increased from avg 2631.41 to 5505.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 248.07; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 285.02; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.93; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.81; 17-AETNA ‚Äì New E/M Codes Payment Amount* increased from avg 1816.92 to 4465.30; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Labs per Visit increased from avg 1.60 to 2.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 4.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 401.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 34.92 to 62.85; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.27 to 0.63; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.30 to 0.47; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 94.17 to 188.54; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 50.98 to 131.50; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 54.42 to 131.50; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.36 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 1.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 106.71 to 263.00; 17-AETNA ‚Äì DME Visit Count increased from avg 1.17 to 2.00; 17-AETNA ‚Äì DME NRV Zero Balance* increased from avg 179.12 to 209.57; 17-AETNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.58 to 1.00; 17-AETNA ‚Äì DME Payment Amount* increased from avg 200.73 to 209.57</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Zero Balance Collection Rate increased from avg 0.36 to 0.37; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 31.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 3.97; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 7510.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -22.08; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 154.42; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 153.95; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 4786.87; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 47.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 10155.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 41.07; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 43.45; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1930.28; 2-BCBS ‚Äì Medications Visit Count increased from avg 3.91 to 4.00; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to -1.65; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 51.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.99; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 15735.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to -329.34; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -201.15; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 201.31; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 198.31; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.64; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.65; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 2.20; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 10267.04; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.39</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count increased from avg 13.36 to 17.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount increased from avg 2031.01 to 2386.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 153.59; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 4.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 320.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 80.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 22.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 1085.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 93.99; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 93.99; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 523.00; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 112.73; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.38; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 3.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 118.98; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 3.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 13-TRICARE ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.82 to 2.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 2450.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 109.99; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 119.67; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.49; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.45; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1099.91; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 13.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 2160.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 44.31; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.26; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.19; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 400.96; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 15.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 4650.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to -73.99; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -15.14; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 156.81; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 155.81; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.47 to 0.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.51; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 2352.22; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 494.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 32.49; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.40; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 97.46; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 8.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1960.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -15.53; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -18.20 to -25.35; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 127.82; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.90 to 124.65; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.51; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.52; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 1.75; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 1022.58; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 14.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 3512.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 394.87; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 10.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 3034.00; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 148.46; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.10; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1387.70; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 17.97 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.30 to 0.71; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.71; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 3.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 240.79 to 337.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 83.26; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 83.26; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.28; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.28; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 88.40 to 132.14; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.43; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 1.50; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 85.69; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 50.71; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 73.45; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.28; 4-MEDICAID ‚Äì Medications Visit Count increased from avg 2.12 to 3.00; 4-MEDICAID ‚Äì Medications Charge Amount increased from avg 201.17 to 310.00; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 19.03; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 19.03; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.18; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.18; 4-MEDICAID ‚Äì Medications Payment Amount* increased from avg 31.28 to 57.09; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 17.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 4.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount increased from avg 4589.26 to 5270.00; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 134.70; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.43; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 3.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 2.93; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.27; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.21 to 0.26; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 586.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 1240.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 190.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* increased from avg 161.13 to 310.00; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.55 to 1.00; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* increased from avg 0.48 to 0.61; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 2.50; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* increased from avg 360.69 to 760.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 62.96 to 104.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 38.45 to 104.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.35 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.39 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 95.70 to 104.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 1.21 to 2.00; 18-CIGNA ‚Äì DME Charge Amount increased from avg 561.12 to 630.92; 18-CIGNA ‚Äì DME Charge Billed Balance decreased from avg 2.46 to 0.00; 18-CIGNA ‚Äì DME Upfront Collections Efficiency decreased from avg 2.44 to 0.00; 18-CIGNA ‚Äì DME Payment per Visit increased from avg 226.34 to 315.46; 18-CIGNA ‚Äì DME NRV Zero Balance* increased from avg 228.13 to 315.46; 18-CIGNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.49 to 0.50; 18-CIGNA ‚Äì DME Collection Rate* increased from avg 0.48 to 0.50; 18-CIGNA ‚Äì DME Payment Amount* increased from avg 272.63 to 315.46; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance decreased from avg 131.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 4-MEDICAID ‚Äì DME Visit Count increased from avg 1.67 to 2.00; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00; 4-MEDICAID ‚Äì DME Collection Rate* increased from avg 0.26 to 0.34; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Amount increased from avg 146.94 to 356.57; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Billed Balance decreased from avg -10.71 to -150.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment per Visit increased from avg 82.57 to 318.92; 15-UNITED HEALTHCARE ‚Äì Vaccines Collection Rate* increased from avg 0.60 to 0.89; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment Amount* increased from avg 90.91 to 318.92</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 1.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 0.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 14.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 510.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 36.43; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 0.64; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.65; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit decreased from avg 54.99 to 49.32; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.23; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 1.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 80.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 80.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 490.00; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.38; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.39 to 0.38; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 1.00; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 187.98; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 230.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 39.97 to 26.84; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 40.10 to 26.84; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.12; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.19 to 0.12; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.37 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 26.84; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 2.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 620.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 122.83; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 135.40 to 122.83; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.44 to 0.40; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.40; 12-HUMANA ‚Äì New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 245.66; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 98.89 to 230.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 25.52 to 88.49; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 56.37; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.22; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 112.73; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 620.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 199.38 to 310.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 61.56 to 118.98; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 59.49; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 13-TRICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.32 to 0.19; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 118.98; 13-TRICARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.20 to 1.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 178.05 to 128.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 23.45 to 128.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 10.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg -7.36 to 213.84; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -36.34 to 96.84; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.20; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.50 to 156.25; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 30.84; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.78 to 2.38; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 70.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 1.47; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 193.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 12.35; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 12.35; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.13; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.17 to 0.13; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 1.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 24.70; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 5.67 to 98.76; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 29.79; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.20; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 17-AETNA ‚Äì Existing E/M Code Visit Count decreased from avg 5.52 to 5.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1291.98 to 1225.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg 63.76 to 245.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 51.63 to 181.06; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.59; 17-AETNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 810.88 to 724.23; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 7.50 to 7.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 1102.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 101.89 to 230.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 62.39 to 174.10; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.43; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 7.00; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 2170.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 1.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 36.23 to 230.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 12.20 to 59.52; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 28.21; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 32.91; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.13; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.11; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 2.29; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance increased from avg 61.06 to 420.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 15.12 to 105.04; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 138.77; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.46; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 174.38 to 20.72; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 51.31 to 14.76; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 49.02 to 14.76; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 70.38 to 14.76; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 6.24 to 115.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 2.18 to 31.18; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 34.38 to 20.06; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 34.64 to 30.09; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.18; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.67; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 60.19; 2-BCBS ‚Äì After Hours Visit Count decreased from avg 19.95 to 1.00; 2-BCBS ‚Äì After Hours Charge Amount decreased from avg 906.21 to 60.00; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 16.34; 2-BCBS ‚Äì DME NRV Zero Balance* decreased from avg 140.68 to 129.47; 2-BCBS ‚Äì DME Zero Balance Collection Rate decreased from avg 0.36 to 0.35; 2-BCBS ‚Äì DME Collection Rate* decreased from avg 0.37 to 0.34; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 0.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 0.00; 2-BCBS ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.69 to 1.39; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.63 to 68.24; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.20; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.80 to 2.28; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 1.00; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 110.00; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 8.68; 2-BCBS ‚Äì Medications NRV Zero Balance* decreased from avg 18.08 to 8.68; 2-BCBS ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.18 to 0.08; 2-BCBS ‚Äì Medications Collection Rate* decreased from avg 0.17 to 0.08; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 0.00; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 8.68; 2-BCBS ‚Äì New E/M Codes Labs per Visit decreased from avg 1.69 to 1.29; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 2.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 5.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 577.00; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 1.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 245.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 79.74; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 79.74; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.33; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.33; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 79.74; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 1.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 293.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 83.26; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 2.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 620.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 45.73 to 132.14; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 13.65 to 132.14; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 80.11 to 66.07; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.38 to 0.21; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 132.14; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 11.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2695.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance increased from avg 214.26 to 735.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 70.72 to 253.70; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 62.62; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.35; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.26; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 0.82; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 688.86; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 10.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 2387.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 586.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 70.81 to 162.53; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.21; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.30; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 507.12; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 0.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance increased from avg 390.86 to 1860.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 162.82 to 802.95; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 87.47; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.28; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 0.94; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1486.93; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 1.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 152.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 12.09 to 152.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 254.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 21.83; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 21.82; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 65.49; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 2.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 586.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance increased from avg 122.16 to 480.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 41.75 to 480.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 104.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 0.00; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 1.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 65.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 65.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 166.67 to 128.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 31.67 to 24.00; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 31.05 to 24.00; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.26 to 0.19; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.26 to 0.19; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 40.50 to 24.00; 18-CIGNA ‚Äì DME Visit Count decreased from avg 1.36 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Visit Count decreased from avg 1.38 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount decreased from avg 547.64 to 25.00; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 4-MEDICAID ‚Äì DME Charge Amount decreased from avg 682.71 to 539.80; 4-MEDICAID ‚Äì DME Payment per Visit decreased from avg 108.06 to 91.27; 4-MEDICAID ‚Äì DME Payment Amount* decreased from avg 198.76 to 182.53; 1-SELF PAY ‚Äì DME Visit Count decreased from avg 1.33 to 1.00; 1-SELF PAY ‚Äì DME Charge Amount decreased from avg 133.93 to 25.00; 1-SELF PAY ‚Äì DME Payment per Visit decreased from avg 42.67 to 25.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Visit Count decreased from avg 1.14 to 1.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Labs per Visit decreased from avg 0.57 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 144.85; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 181.06; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.74; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 2.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 94.30; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 110.01; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.76; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.60; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 660.07; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 271.21; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 271.21; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.87; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.87; 17-AETNA ‚Äì New E/M Codes Payment Amount* increased from avg 1816.92 to 1898.50</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì After Hours Upfront Collections Efficiency decreased from avg 0.08 to 0.00; 2-BCBS ‚Äì After Hours Labs per Visit increased from avg 1.97 to 3.00; 2-BCBS ‚Äì DME Visit Count increased from avg 1.61 to 3.00; 2-BCBS ‚Äì DME Charge Amount increased from avg 616.33 to 1507.97; 2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì DME Payment per Visit increased from avg 145.60 to 172.62; 2-BCBS ‚Äì DME Payment Amount* increased from avg 258.71 to 517.86; 2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 33.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 4.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 8085.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 152.92; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 152.92; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 5046.28; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 36.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 6412.32 to 8128.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 51.32; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 45.88; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 46.10; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.21; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 1282.57 to 1651.78; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì New E/M Codes Visit Count increased from avg 30.08 to 35.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 10850.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to -305.12; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -372.10; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 204.70; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 194.07; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.63; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.66; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 7164.37; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1185.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 316.71; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 316.71; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.53; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.53; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 633.42; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to -40.25; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to -50.99; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 57.83; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 53.80; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.41; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.50; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 256.59 to 289.17</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 4.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit increased from avg 125.79 to 149.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 19.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1125.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 1.13 to 1.26; 1-SELF PAY ‚Äì New E/M Codes Visit Count increased from avg 13.36 to 16.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 3.94; 1-SELF PAY ‚Äì New E/M Codes Charge Amount increased from avg 2031.01 to 2245.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 152.81; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 4.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 130.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 0.95 to 1.50; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 29.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 1560.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 55.86; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.51 to 4.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount increased from avg 235.81 to 355.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 117.86; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 117.86; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.48; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.48; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 1.50; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* increased from avg 205.83 to 235.72; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 376.92 to 586.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 39.97 to 41.73; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 40.10 to 41.73; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.37 to 3.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 71.45 to 83.47; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit increased from avg 135.45 to 144.68; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 135.40 to 144.68; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.44 to 0.47; 12-HUMANA ‚Äì New E/M Codes Collection Rate* increased from avg 0.44 to 0.47; 12-HUMANA ‚Äì New E/M Codes Labs per Visit increased from avg 0.90 to 1.50; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 106.18; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 106.18; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.36; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.36; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 4.00; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 4.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 1240.00; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 117.63; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 2.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 15.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 3579.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -202.89; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -152.09; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 129.81; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 98.74 to 118.86; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.42 to 0.50; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.54; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1947.09; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 16.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 2145.76 to 2999.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 31.40 to 46.67; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 57.56; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.32; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.25; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 355.29 to 746.75; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit increased from avg 1.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 17.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 5270.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -11.65; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 144.86; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 144.17; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.60 to 1.88; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 2462.62; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 666.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 166.19; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 27.53 to 166.19; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.50; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 54.50 to 332.39; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 4.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 324.33 to 441.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 30.24 to 37.48; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 32.14 to 41.27; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.40; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.34; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 73.33 to 149.94; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì Medications Payment per Visit increased from avg 26.22 to 26.81; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.22 to 0.24; 18-CIGNA ‚Äì Medications Collection Rate* increased from avg 0.22 to 0.24; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 7.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 2170.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 35.14; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 35.14; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.27 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to -18.59; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -7.53 to -50.26; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 124.87; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 99.74; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.51; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 67.06; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 67.06; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.29; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.29; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 134.12; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 135.08 to 228.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit increased from avg 76.44 to 80.98; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 87.30; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.36; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 231.39 to 28.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 70.81 to 10.56; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.12; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 4.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance decreased from avg 390.86 to 302.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 162.82 to 114.24; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 118.73; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 131.42; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit increased from avg 1.68 to 1.89; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 3.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 551.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.33; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.93 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 930.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance decreased from avg 122.16 to -25.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 41.75 to -33.36; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 161.12; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* increased from avg 0.48 to 0.52; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 2.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* increased from avg 360.69 to 483.36; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 233.25 to 479.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 62.96 to 196.46; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.39 to 0.41; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 95.70 to 196.46; 1-SELF PAY ‚Äì Vaccines Payment per Visit increased from avg 124.23 to 200.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 166.67 to 228.00; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 31.67 to 77.61; 12-HUMANA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 31.05 to 77.61; 12-HUMANA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.26 to 0.34; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.26 to 0.34; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 40.50 to 77.61; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance decreased from avg 131.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 4-MEDICAID ‚Äì DME Charge Amount increased from avg 682.71 to 777.05; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00; 4-MEDICAID ‚Äì DME Payment per Visit increased from avg 108.06 to 260.10; 4-MEDICAID ‚Äì DME NRV Zero Balance* increased from avg 137.19 to 260.10; 4-MEDICAID ‚Äì DME Zero Balance Collection Rate increased from avg 0.28 to 0.33; 4-MEDICAID ‚Äì DME Collection Rate* increased from avg 0.26 to 0.33; 4-MEDICAID ‚Äì DME Payment Amount* increased from avg 198.76 to 260.10</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 4.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 596.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 46.58; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.81; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 32.50; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.28; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 88.75; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 490.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.14; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.19 to 0.14; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 2.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 620.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 289.36; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 293.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 106.18; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 199.38 to 620.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 61.56 to 235.26; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 58.81; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 13-TRICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.32 to 0.19; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 235.26; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.13; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 63.06 to 93.46; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.50 to 202.12; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.78 to 2.19; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 150.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 20.64; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.14; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 20.64; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 64.00 to 83.57; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.47; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.47; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 0.50; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 5.67 to 24.49; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.50; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 101.89 to 586.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 62.39 to 457.11; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 7.00; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 2170.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance increased from avg 130.16 to 438.43; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 98.28 to 374.23; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1571.07; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 980.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg -1.08 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -18.20 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 90.86; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 90.86; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.37; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 1.25; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 363.44; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 6.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1402.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 44.57; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 44.57; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.19; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.19; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 2.50; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 267.41; 18-CIGNA ‚Äì Medications Visit Count decreased from avg 1.75 to 1.00; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 110.00; 18-CIGNA ‚Äì Medications NRV Zero Balance* decreased from avg 26.82 to 26.81; 18-CIGNA ‚Äì Medications Labs per Visit decreased from avg 1.77 to 0.00; 18-CIGNA ‚Äì Medications Payment Amount* decreased from avg 45.71 to 26.81; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance increased from avg 61.06 to 310.98; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 15.12 to 111.96; 18-CIGNA ‚Äì New E/M Codes Payment per Visit decreased from avg 145.60 to 114.99; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 147.94 to 130.98; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.42; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.37; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 1.43; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 804.90; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 128.00; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 35.14; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 20.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 4900.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 96.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to -8.57; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 140.85; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 140.43; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.61 to 0.57; 2-BCBS ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.57; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 2817.09; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 6343.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 71.92 to 293.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.63 to 64.72; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 40.72; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.20; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.80 to 2.77; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 1262.18; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 1.00; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 0.00; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 30.00; 2-BCBS ‚Äì New E/M Codes Labs per Visit decreased from avg 1.69 to 1.40; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 2.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 193.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to -1.43; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 20.87; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 18.59; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.21; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.22; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 41.74; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 2.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 266.00; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.39 to 0.38; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 101.62; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 490.00; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 1.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 249.74; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 460.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.39 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Visit Count decreased from avg 13.94 to 12.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount decreased from avg 3214.84 to 2940.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance increased from avg 214.26 to 237.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 70.72 to 75.79; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.33; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.67; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 971.78; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 8.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 1174.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 33.62; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 44.37; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.25 to 0.24; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.23; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 268.96; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 9.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 2790.00; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.38; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1068.54; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 1.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 136.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 23.62; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 23.62; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.17; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.17; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 23.62; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 293.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 20.86 to 95.51; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 28.03; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 65.57 to 42.05; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.15; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 84.10; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 161.13 to 150.00; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.48; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 0.00; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 1.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 200.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg -1.21 to 0.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.21 to 0.00; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Charge Amount decreased from avg 135.48 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 89.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 21.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 34.92 to 21.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.24; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.24; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 21.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.81 to 3.38; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 405.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance increased from avg 25.96 to 220.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 1.93 to 63.81; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 41.50; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 58.00; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.36; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.20; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 1.50; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 83.00; 17-AETNA ‚Äì DME Visit Count decreased from avg 1.17 to 1.00; 17-AETNA ‚Äì DME Charge Amount decreased from avg 429.55 to 30.00; 17-AETNA ‚Äì DME Payment per Visit decreased from avg 174.97 to 30.00; 17-AETNA ‚Äì DME NRV Zero Balance* decreased from avg 179.12 to 30.00; 17-AETNA ‚Äì DME Payment Amount* decreased from avg 200.73 to 30.00; 15-UNITED HEALTHCARE ‚Äì DME Visit Count decreased from avg 1.38 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount decreased from avg 547.64 to 25.00; 15-UNITED HEALTHCARE ‚Äì DME Payment per Visit decreased from avg 73.28 to 1.69; 15-UNITED HEALTHCARE ‚Äì DME NRV Zero Balance* decreased from avg 73.88 to 1.69; 15-UNITED HEALTHCARE ‚Äì DME Zero Balance Collection Rate decreased from avg 0.23 to 0.07; 15-UNITED HEALTHCARE ‚Äì DME Collection Rate* decreased from avg 0.22 to 0.07; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment Amount* decreased from avg 116.98 to 1.69; 4-MEDICAID ‚Äì DME Visit Count decreased from avg 1.67 to 1.00; 1-SELF PAY ‚Äì DME Visit Count decreased from avg 1.33 to 1.00; 1-SELF PAY ‚Äì DME Charge Amount decreased from avg 133.93 to 25.00; 1-SELF PAY ‚Äì DME Payment per Visit decreased from avg 42.67 to 25.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Visit Count decreased from avg 1.14 to 1.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Amount decreased from avg 146.94 to 121.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Billed Balance increased from avg -10.71 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment per Visit decreased from avg 82.57 to 61.74; 15-UNITED HEALTHCARE ‚Äì Vaccines NRV Zero Balance* decreased from avg 65.18 to 61.74; 15-UNITED HEALTHCARE ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.59 to 0.51; 15-UNITED HEALTHCARE ‚Äì Vaccines Collection Rate* decreased from avg 0.60 to 0.51; 15-UNITED HEALTHCARE ‚Äì Vaccines Labs per Visit decreased from avg 0.57 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment Amount* decreased from avg 90.91 to 61.74</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 8.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 1960.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to 0.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 0.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 205.24; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 205.24; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.84; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.84; 17-AETNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.75 to 1.88; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 1641.88; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 10.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 2504.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 79.57 to 149.62; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 187.02; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.78; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.60; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.95 to 3.10; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 1496.15; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 224.44; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 277.90; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.90; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.72; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 2.29; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Labs per Visit increased from avg 1.60 to 4.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.12 to 4.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 292.71 to 650.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 50.98 to 103.03; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 54.42 to 103.03; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.63; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.36 to 0.63; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 1.50; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 106.71 to 412.14; 17-AETNA ‚Äì DME Charge Billed Balance decreased from avg 149.25 to 0.00; 17-AETNA ‚Äì DME Upfront Collections Efficiency decreased from avg 10.48 to 0.00; 17-AETNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.58 to 1.00; 17-AETNA ‚Äì DME Collection Rate* increased from avg 0.54 to 1.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 4.00; 2-BCBS ‚Äì Existing E/M Code Labs per Visit increased from avg 1.69 to 2.35; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count increased from avg 30.38 to 31.00; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 42.80; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.21; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì Medications Labs per Visit increased from avg 1.33 to 3.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 2-BCBS ‚Äì New E/M Codes Charge Amount increased from avg 8921.72 to 9300.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to -306.29; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -222.92; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 201.61; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 194.18; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.63; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.65; 2-BCBS ‚Äì New E/M Codes Payment Amount* increased from avg 5492.36 to 6048.42; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 50.81; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 50.81</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count increased from avg 5.06 to 6.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount increased from avg 626.90 to 894.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit increased from avg 125.79 to 149.00; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 22.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1160.00; 1-SELF PAY ‚Äì Medications Visit Count increased from avg 2.00 to 4.00; 1-SELF PAY ‚Äì Medications Charge Amount increased from avg 65.92 to 175.00; 1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 43.75; 1-SELF PAY ‚Äì Medications Labs per Visit increased from avg 1.13 to 1.50; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit increased from avg 0.86 to 1.15; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 3.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 146.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 955.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 63.67; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 90.55 to 100.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count increased from avg 2.31 to 3.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount increased from avg 531.67 to 735.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to -5.51; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 980.00; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 1.50; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 4.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 499.98 to 781.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 116.28; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 1.33; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 2438.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -135.15; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -151.45; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 106.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.43; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1059.98; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 10.06; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.18; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.17; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 3.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 3410.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to -92.72; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -51.44; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 147.22; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 142.55; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.47; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 1619.44; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.22; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.22; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.45 to 3.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.26; 18-CIGNA ‚Äì Existing E/M Code Visit Count increased from avg 4.48 to 8.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 3.90; 18-CIGNA ‚Äì Existing E/M Code Charge Amount increased from avg 1030.28 to 1875.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -92.15; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -18.20 to -95.87; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 730.16; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 6.62 to 11.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1405.40 to 2063.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 366.85; 18-CIGNA ‚Äì Medications Charge Billed Balance decreased from avg 6.84 to 0.00; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 7.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 2170.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to -157.43; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to -117.84; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 167.81; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.98; 18-CIGNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.49 to 0.54; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.29; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1174.70; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 35.14; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 35.14; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.27 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.69 to 2.00; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit increased from avg 95.31 to 101.36; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 93.37 to 101.36; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.41 to 0.41; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.41 to 4.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 460.79 to 551.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to -5.83; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 76.26; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 45.30 to 85.46; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.27; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.28; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.43 to 3.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 117.43 to 152.52; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 930.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 26.42; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 121.41; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 88.40 to 130.58; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.39; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* increased from avg 273.10 to 364.22; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 14.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount increased from avg 3214.84 to 3430.00; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 84.34; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.27; 4-MEDICAID ‚Äì Medications Visit Count increased from avg 2.12 to 6.00; 4-MEDICAID ‚Äì Medications Charge Amount increased from avg 201.17 to 693.00; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Payment per Visit increased from avg 15.29 to 18.93; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 18.93; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.16; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.16; 4-MEDICAID ‚Äì Medications Payment Amount* increased from avg 31.28 to 113.59; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 4.00; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 137.13; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.44; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 29.89 to 40.27; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.20 to 0.35; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.20 to 0.35; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 68.64 to 80.54; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 5.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 747.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 20.86 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 1117.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 177.98; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* increased from avg 161.13 to 253.57; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.55 to 0.82; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* increased from avg 0.48 to 0.64; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit increased from avg 1.75 to 1.75; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* increased from avg 360.69 to 711.93; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 62.96 to 136.13; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 38.45 to 136.13; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.35 to 0.59; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.39 to 0.59; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 95.70 to 136.13; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 12-HUMANA ‚Äì Medications Charge Billed Balance decreased from avg 2.86 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 5.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 1225.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -20.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to -39.70; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 439.70; 5-COMMERCIAL ‚Äì Medications Charge Amount increased from avg 69.73 to 110.00; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance decreased from avg 14.77 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.43 to 3.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance decreased from avg 131.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Zero Balance Collection Rate increased from avg 0.23 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Collection Rate* increased from avg 0.22 to 1.00; 4-MEDICAID ‚Äì DME Visit Count increased from avg 1.67 to 2.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.72 to 3.67; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 50.68; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 0.95; 1-SELF PAY ‚Äì New E/M Codes Visit Count decreased from avg 13.36 to 13.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount decreased from avg 2031.01 to 1937.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 149.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 48.67; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 15.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.33; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.51 to 2.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 235.81 to 200.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance increased from avg 10.28 to 195.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 46.33; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 44.49; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.18; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.39 to 0.19; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 138.98; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 2.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 620.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 122.83; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 135.40 to 122.83; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.44 to 0.40; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.40; 12-HUMANA ‚Äì New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 245.66; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg 88.96 to 735.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 33.42 to 267.60; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 22.30; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 89.20; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.36; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.37 to 0.09; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 89.20; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 98.89 to 781.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 2.00; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 3.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 930.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 199.38 to 620.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 61.56 to 232.56; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 38.76; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 13-TRICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.32 to 0.13; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 116.28; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count decreased from avg 10.20 to 10.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 91.30; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.37; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 1.10; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 6.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 963.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 27.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 32.58; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.78 to 2.67; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 162.91; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 110.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 12.94; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.12; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 12.94; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 11.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.46; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 1.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.21 to 2.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 235.39 to 109.72; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 25.12 to 12.06; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 27.53 to 12.06; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 54.50 to 24.12; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 271.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 16.15 to 21.99; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 5.67 to 19.53; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 17.01; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 25.52; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.19; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 51.03; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 0.43; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 1533.00; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 62.60; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 62.60; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.42 to 0.33; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.33; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.25; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 500.81; 17-AETNA ‚Äì New E/M Codes Visit Count decreased from avg 8.71 to 8.00; 17-AETNA ‚Äì New E/M Codes Charge Amount decreased from avg 2631.41 to 2480.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 204.15; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 213.66 to 204.15; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.71 to 0.66; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.66; 17-AETNA ‚Äì New E/M Codes Payment Amount* decreased from avg 1816.92 to 1633.21; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 91.27; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 82.88; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.34; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.39; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 1.12; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 12.20 to 24.13; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 33.35; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 39.36; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.23 to 0.19; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.22 to 0.18; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 2.27; 18-CIGNA ‚Äì Medications Visit Count decreased from avg 1.75 to 1.00; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 150.00; 18-CIGNA ‚Äì Medications Payment per Visit decreased from avg 26.22 to 25.61; 18-CIGNA ‚Äì Medications NRV Zero Balance* decreased from avg 26.82 to 25.61; 18-CIGNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.22 to 0.17; 18-CIGNA ‚Äì Medications Collection Rate* decreased from avg 0.22 to 0.17; 18-CIGNA ‚Äì Medications Labs per Visit decreased from avg 1.77 to 1.00; 18-CIGNA ‚Äì Medications Payment Amount* decreased from avg 45.71 to 25.61; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 128.00; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 35.14; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 462.26; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 371.95; 2-BCBS ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.69 to 1.34; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 27.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 5746.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 71.92 to 356.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.63 to 67.29; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.21 to 0.21; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.20 to 0.20; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 1129.74; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 27.00; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 8295.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance increased from avg 52.44 to 140.00; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -11.19 to 59.76; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 5474.90; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 25.65; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 2.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 220.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 49.59 to 49.51; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 46.49; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.36; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 99.01; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 1.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 245.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 101.36; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 2.00; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 3.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 13.65 to 27.52; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 0.67; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 104.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 28.43 to 11.70; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 28.43 to 11.70; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.11; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.27 to 0.11; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.39 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 11.70; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance increased from avg 214.26 to 735.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 70.72 to 248.32; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 66.60; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.34; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.27; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.50; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 932.47; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 11.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 2211.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 586.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 70.81 to 158.20; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 40.21; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 45.22; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.23 to 0.20; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.36; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 442.27; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 0.50; 4-MEDICAID ‚Äì New E/M Codes Visit Count decreased from avg 15.36 to 13.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount decreased from avg 4589.26 to 4030.00; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance increased from avg 390.86 to 1554.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 162.82 to 690.74; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 83.99; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.27; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 0.69; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* decreased from avg 1765.78 to 1091.89; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 2.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 228.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 40.27; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 189.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 11.37 to 75.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 3.46 to 13.69; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 10.40; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 20.81; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.18; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.11; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 20.81; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 220.49; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 17.36; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.12; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 2.40; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 150.59 to 86.81; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance increased from avg 122.16 to 188.14; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 41.75 to 201.74; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 230.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 68.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.10 to 0.00; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 2.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 190.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 95.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 12-HUMANA ‚Äì Medications Visit Count decreased from avg 1.14 to 1.00; 12-HUMANA ‚Äì Medications Charge Amount decreased from avg 103.29 to 0.00; 12-HUMANA ‚Äì Medications Labs per Visit decreased from avg 0.96 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.36 to 1.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 155.71 to 104.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -12.86 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 35.91 to 16.45; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 30.05 to 16.45; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.18 to 0.16; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.21 to 0.16; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.51 to 0.00; 12-HUMANA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 53.34 to 16.45; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Charge Amount decreased from avg 135.48 to 45.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 61.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 11.70; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 34.92 to 11.70; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.19; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.19; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 11.70; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 220.00; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 46.81; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 46.81; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 93.63; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 87.94; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 114.13 to 80.00; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.33; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.36; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 1.00; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00; 5-COMMERCIAL ‚Äì Medications Labs per Visit decreased from avg 1.73 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 1.14 to 1.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 7.86 to 0.00; 4-MEDICAID ‚Äì Self-pay physical &amp; No Charge Charge Billed Balance increased from avg -11.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Visit Count decreased from avg 1.38 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount decreased from avg 547.64 to 25.00; 15-UNITED HEALTHCARE ‚Äì DME Payment per Visit decreased from avg 73.28 to 25.00; 15-UNITED HEALTHCARE ‚Äì DME NRV Zero Balance* decreased from avg 73.88 to 25.00; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 15-UNITED HEALTHCARE ‚Äì DME Payment Amount* decreased from avg 116.98 to 25.00; 4-MEDICAID ‚Äì DME Charge Amount decreased from avg 682.71 to 404.31; 4-MEDICAID ‚Äì DME Charge Billed Balance increased from avg 64.90 to 215.70</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 7.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 3.84; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 1630.00; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 63.76 to -14.56; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 51.63 to 11.92; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 152.19; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 152.55; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.66; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.65; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 1065.32; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 8.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 101.89 to 0.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 62.39 to 0.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 130.16 to 0.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 98.28 to 0.00; 17-AETNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.59 to 2.25; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Labs per Visit increased from avg 1.60 to 2.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit increased from avg 1.89 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 22.59 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 11.15 to 0.00; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.43; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.36 to 0.43; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 1.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì Existing E/M Code Visit Count increased from avg 24.68 to 35.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 3.97; 2-BCBS ‚Äì Existing E/M Code Charge Amount increased from avg 5708.76 to 8478.00; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 150.59; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 160.98; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.67; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.62; 2-BCBS ‚Äì Existing E/M Code Payment Amount* increased from avg 3513.46 to 5270.59; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 41.84; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 46.42; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.07; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.96; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 202.77; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 204.76; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.67; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.66; 2-BCBS ‚Äì New E/M Codes Labs per Visit increased from avg 1.69 to 1.70; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 5.06 to 6.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 920.72; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 45.90 to 86.31; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 90.76; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.59; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.56; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 205.41 to 517.88; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to -19.11; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.45; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.78 to 1.00</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 24.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1061.26 to 1595.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 52.28 to 63.54; 1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 50.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count increased from avg 13.36 to 17.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 1-SELF PAY ‚Äì New E/M Codes Charge Amount increased from avg 2031.01 to 2533.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit increased from avg 150.60 to 164.29; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.58 to 5.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 325.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 65.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count increased from avg 16.12 to 18.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount increased from avg 872.50 to 1200.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 64.44; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.78; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.51 to 3.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount increased from avg 235.81 to 250.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count increased from avg 2.31 to 3.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount increased from avg 531.67 to 650.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 93.24; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 93.24; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.40 to 0.43; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.43; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* increased from avg 205.83 to 279.71; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit increased from avg 135.45 to 153.35; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 135.40 to 153.35; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.44 to 0.49; 12-HUMANA ‚Äì New E/M Codes Collection Rate* increased from avg 0.44 to 0.49; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 60.44 to 106.18; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 68.62 to 106.18; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.36; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.36; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.88 to 4.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 199.38 to 0.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 61.56 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment per Visit increased from avg 93.11 to 116.28; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 116.28; 13-TRICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.32 to 0.38; 13-TRICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.32 to 2.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 14.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 3430.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -166.67; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -243.09; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit increased from avg 101.86 to 107.11; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.44; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 1.64; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1499.59; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count increased from avg 10.92 to 11.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 42.01; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.18; 15-UNITED HEALTHCARE ‚Äì Medications Charge Billed Balance decreased from avg 3.48 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.95 to 0.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to 55.22; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -133.31; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 152.31; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.47 to 0.49; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -293.19; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -18.20 to -300.32; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit increased from avg 100.59 to 165.53; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.43 to 0.68; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.72 to 2.50; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* increased from avg 445.48 to 662.11; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.28; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.26; 18-CIGNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 0.76 to 0.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.98; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 150.74; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.98; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 174.38 to 436.00; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.88 to 2.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount increased from avg 240.79 to 395.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 48.05; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 48.05; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 61.27 to 96.09; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 0.15 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.86 to 43.64; 3-MEDICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.33; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.33; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 45.73 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 13.65 to 0.00; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 130.03; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 88.40 to 130.03; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* increased from avg 0.38 to 0.42; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit increased from avg 1.15 to 3.00; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 14.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount increased from avg 3214.84 to 3430.00; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 86.11; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 42.09 to 46.59; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 46.64 to 55.06; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.28; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.23; 4-MEDICAID ‚Äì Medications Visit Count increased from avg 2.12 to 3.00; 4-MEDICAID ‚Äì Medications Charge Amount increased from avg 201.17 to 210.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to -0.28; 4-MEDICAID ‚Äì Medications NRV Zero Balance* increased from avg 16.26 to 19.53; 4-MEDICAID ‚Äì Medications Zero Balance Collection Rate increased from avg 0.15 to 0.18; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.18; 4-MEDICAID ‚Äì Medications Payment Amount* increased from avg 31.28 to 37.56; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 16.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 4.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount increased from avg 4589.26 to 4960.00; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit increased from avg 115.09 to 118.68; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 135.18; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.44; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* increased from avg 1765.78 to 1898.96; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 11.37 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.46 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 3.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 930.00; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* increased from avg 161.13 to 161.39; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count increased from avg 1.15 to 2.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount increased from avg 145.40 to 409.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 42.19 to 42.24; 12-HUMANA ‚Äì Medications Charge Billed Balance decreased from avg 2.86 to 0.00; 12-HUMANA ‚Äì Medications Zero Balance Collection Rate increased from avg 0.11 to 0.14; 12-HUMANA ‚Äì Medications Collection Rate* increased from avg 0.11 to 0.14; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg -1.21 to -25.51; 12-HUMANA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 31.67 to 50.00; 12-HUMANA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.26 to 0.39; 12-HUMANA ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 40.50 to 50.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 25.96 to -21.52; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.93 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit increased from avg 115.74 to 121.85; 5-COMMERCIAL ‚Äì Medications Charge Amount increased from avg 69.73 to 110.00; 18-CIGNA ‚Äì DME Charge Amount increased from avg 561.12 to 630.92; 18-CIGNA ‚Äì DME Charge Billed Balance decreased from avg 2.46 to 0.00; 18-CIGNA ‚Äì DME Upfront Collections Efficiency decreased from avg 2.44 to 0.00; 18-CIGNA ‚Äì DME Payment per Visit increased from avg 226.34 to 315.46; 18-CIGNA ‚Äì DME NRV Zero Balance* increased from avg 228.13 to 315.46; 18-CIGNA ‚Äì DME Zero Balance Collection Rate increased from avg 0.49 to 0.50; 18-CIGNA ‚Äì DME Collection Rate* increased from avg 0.48 to 0.50; 18-CIGNA ‚Äì DME Payment Amount* increased from avg 272.63 to 315.46; 15-UNITED HEALTHCARE ‚Äì DME Charge Amount increased from avg 547.64 to 777.05; 15-UNITED HEALTHCARE ‚Äì DME Upfront Collections Efficiency decreased from avg 0.92 to 0.00; 4-MEDICAID ‚Äì DME Visit Count increased from avg 1.67 to 2.00; 4-MEDICAID ‚Äì DME Charge Amount increased from avg 682.71 to 1407.97; 4-MEDICAID ‚Äì DME Charge Billed Balance decreased from avg 64.90 to 0.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00; 4-MEDICAID ‚Äì DME Payment per Visit increased from avg 108.06 to 130.05; 4-MEDICAID ‚Äì DME Payment Amount* increased from avg 198.76 to 260.10; 4-MEDICAID ‚Äì Vaccines Charge Billed Balance decreased from avg 51.20 to -80.00; 4-MEDICAID ‚Äì Vaccines Payment per Visit increased from avg 43.37 to 133.27; 4-MEDICAID ‚Äì Vaccines Collection Rate* increased from avg 0.46 to 1.55; 4-MEDICAID ‚Äì Vaccines Payment Amount* increased from avg 50.52 to 133.27</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 1.08; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 1.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 50.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 1.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.82; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.60; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 83.33; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight decreased from avg 3.87 to 3.67; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.00; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 1.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 310.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Labs per Visit decreased from avg 0.90 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 153.35; 13-TRICARE ‚Äì Existing E/M Code Visit Count decreased from avg 2.57 to 2.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 598.17 to 490.00; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg 88.96 to 245.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 33.42 to 89.20; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 44.60; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 89.20; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.36; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.37 to 0.18; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.42 to 0.00; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 89.20; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 293.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 106.18; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 2.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 620.00; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 232.56; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 89.75; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.37; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 2032.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.50 to 68.79; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 26.87; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.16 to 0.15; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.78 to 2.27; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 295.58; 15-UNITED HEALTHCARE ‚Äì Medications Visit Count decreased from avg 1.92 to 1.00; 15-UNITED HEALTHCARE ‚Äì Medications Charge Amount decreased from avg 234.58 to 134.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment per Visit decreased from avg 21.82 to 19.80; 15-UNITED HEALTHCARE ‚Äì Medications Collection Rate* decreased from avg 0.16 to 0.15; 15-UNITED HEALTHCARE ‚Äì Medications Labs per Visit decreased from avg 1.45 to 0.00; 15-UNITED HEALTHCARE ‚Äì Medications Payment Amount* decreased from avg 46.29 to 19.80; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count decreased from avg 11.10 to 10.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount decreased from avg 3319.66 to 3077.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 138.53; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.45; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 1.50; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* decreased from avg 1550.14 to 1523.08; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 2.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 264.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 16.15 to 136.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 13.07; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.23 to 0.10; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 26.14; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg 63.76 to 280.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 51.63 to 215.47; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.29; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 101.89 to 330.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 62.39 to 263.66; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 74.76; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.30; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance increased from avg 130.16 to 309.88; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 98.28 to 258.03; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 1.55; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 980.00; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 90.45; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 5.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 852.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 12.20 to 21.73; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 45.46 to 43.53; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 48.40 to 39.26; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 2.40; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 293.94 to 217.64; 18-CIGNA ‚Äì Medications Visit Count decreased from avg 1.75 to 1.00; 18-CIGNA ‚Äì Medications Charge Amount decreased from avg 210.12 to 70.00; 18-CIGNA ‚Äì Medications Charge Billed Balance increased from avg 6.84 to 70.00; 18-CIGNA ‚Äì Medications Labs per Visit decreased from avg 1.77 to 0.00; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1240.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance increased from avg 61.06 to 160.00; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.49; 18-CIGNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.98 to 0.50; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 602.94; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.43 to 1.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 17.97 to 436.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -0.05 to 0.00; 18-CIGNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.94 to 0.00; 18-CIGNA ‚Äì Vaccines Visit Count decreased from avg 1.12 to 1.00; 18-CIGNA ‚Äì Vaccines Charge Amount decreased from avg 165.00 to 131.00; 18-CIGNA ‚Äì Vaccines Charge Billed Balance increased from avg 7.00 to 131.00; 18-CIGNA ‚Äì Vaccines Upfront Collections Efficiency increased from avg -17.25 to 0.00; 18-CIGNA ‚Äì Vaccines Labs per Visit decreased from avg 0.31 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.24; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.24; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 19.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 4655.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance increased from avg -4.13 to 125.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -16.11 to 17.47; 2-BCBS ‚Äì Existing E/M Code Payment per Visit decreased from avg 142.01 to 131.86; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 141.16 to 132.78; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.61 to 0.54; 2-BCBS ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.54; 2-BCBS ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.69 to 1.26; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 2505.27; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 18.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 3891.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 71.92 to 293.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 23.63 to 71.99; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.80 to 2.28; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 806.62; 2-BCBS ‚Äì Medications Visit Count decreased from avg 3.91 to 2.00; 2-BCBS ‚Äì Medications Charge Amount decreased from avg 363.59 to 166.00; 2-BCBS ‚Äì Medications Payment per Visit decreased from avg 16.62 to 9.46; 2-BCBS ‚Äì Medications Collection Rate* decreased from avg 0.17 to 0.11; 2-BCBS ‚Äì Medications Labs per Visit decreased from avg 1.33 to 0.00; 2-BCBS ‚Äì Medications Payment Amount* decreased from avg 67.30 to 18.92; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 23.00; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 7055.00; 2-BCBS ‚Äì New E/M Codes Labs per Visit decreased from avg 1.69 to 1.04; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 4623.09; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 5.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 8.81 to 358.55; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 68.99; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 33.90; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.31 to 0.16; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.31 to 0.11; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.20; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 169.52; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Amount decreased from avg 137.31 to 121.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Payment per Visit decreased from avg 69.62 to 0.00; 2-BCBS ‚Äì Vaccines NRV Zero Balance* decreased from avg 69.01 to 0.00; 2-BCBS ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.64 to 0.00; 2-BCBS ‚Äì Vaccines Collection Rate* decreased from avg 0.64 to 0.00; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì Vaccines Payment Amount* decreased from avg 88.21 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 3.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 474.00; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 191.25; 3-MEDICARE ‚Äì Existing E/M Code Visit Count decreased from avg 3.22 to 3.00; 3-MEDICARE ‚Äì Existing E/M Code Charge Amount decreased from avg 742.11 to 735.00; 3-MEDICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg -7.53 to 0.00; 3-MEDICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 95.31 to 89.96; 3-MEDICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.37 to 89.96; 3-MEDICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.37; 3-MEDICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.41 to 0.37; 3-MEDICARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.41 to 0.33; 3-MEDICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 315.52 to 269.88; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 266.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 45.30 to 43.64; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 87.28; 3-MEDICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.90 to 1.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount decreased from avg 667.84 to 310.00; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 273.10 to 130.03; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance increased from avg 214.26 to 490.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 70.72 to 172.22; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 73.81; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.35 to 0.35; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.30; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.79 to 1.29; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* decreased from avg 1068.72 to 1033.29; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 15.38 to 13.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 2625.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 335.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 70.81 to 131.41; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.46; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 605.65; 4-MEDICAID ‚Äì Medications Charge Billed Balance increased from avg 3.82 to 10.00; 4-MEDICAID ‚Äì Medications Payment per Visit decreased from avg 15.29 to 12.52; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 0.67; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance increased from avg 390.86 to 455.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 162.82 to 263.85; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.38; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.62; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 1.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 89.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 16.34; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 16.34; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.18; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.18; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 16.34; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.47 to 2.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 339.20 to 274.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 26.66; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 26.66; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.22 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.19; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 53.33; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance increased from avg 122.16 to 310.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 41.75 to 161.39; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit decreased from avg 142.42 to 107.59; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.55 to 0.52; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* decreased from avg 0.48 to 0.35; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 0.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* decreased from avg 360.69 to 322.77; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 17.35 to 246.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 3.19 to 63.75; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 42.78 to 21.12; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.34 to 0.26; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.37 to 0.10; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.10 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 46.81 to 42.24; 1-SELF PAY ‚Äì Vaccines Visit Count decreased from avg 2.07 to 1.00; 1-SELF PAY ‚Äì Vaccines Charge Amount decreased from avg 296.43 to 85.00; 1-SELF PAY ‚Äì Vaccines Payment per Visit decreased from avg 124.23 to 85.00; 1-SELF PAY ‚Äì Vaccines Labs per Visit decreased from avg 0.68 to 0.00; 12-HUMANA ‚Äì Medications Visit Count decreased from avg 1.14 to 1.00; 12-HUMANA ‚Äì Medications Charge Amount decreased from avg 103.29 to 72.00; 12-HUMANA ‚Äì Medications Payment per Visit decreased from avg 10.76 to 10.35; 12-HUMANA ‚Äì Medications NRV Zero Balance* decreased from avg 10.79 to 10.35; 12-HUMANA ‚Äì Medications Labs per Visit decreased from avg 0.96 to 0.00; 12-HUMANA ‚Äì Medications Payment Amount* decreased from avg 12.94 to 10.35; 12-HUMANA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.33 to 1.00; 12-HUMANA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 166.67 to 128.00; 12-HUMANA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.21 to 0.00; 17-AETNA ‚Äì Medications Visit Count decreased from avg 1.48 to 1.00; 17-AETNA ‚Äì Medications Zero Balance Collection Rate decreased from avg 0.19 to 0.12; 17-AETNA ‚Äì Medications Collection Rate* decreased from avg 0.18 to 0.12; 17-AETNA ‚Äì Medications Labs per Visit decreased from avg 1.60 to 1.00; 17-AETNA ‚Äì Medications Payment Amount* decreased from avg 31.94 to 20.21; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.56 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 211.52 to 61.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 5.92; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 34.92 to 5.92; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.10; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.10; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 1.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 5.92; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count decreased from avg 2.49 to 2.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount decreased from avg 553.16 to 490.00; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.50; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 0.00; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* decreased from avg 273.08 to 243.70; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance increased from avg 14.77 to 110.00; 5-COMMERCIAL ‚Äì Medications Labs per Visit decreased from avg 1.73 to 0.00; 18-CIGNA ‚Äì DME Visit Count decreased from avg 1.36 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Visit Count decreased from avg 1.38 to 1.00; 15-UNITED HEALTHCARE ‚Äì DME Charge Billed Balance increased from avg 131.06 to 777.05; 15-UNITED HEALTHCARE ‚Äì DME Labs per Visit decreased from avg 0.10 to 0.00; 4-MEDICAID ‚Äì DME Collection Rate* decreased from avg 0.26 to 0.18; 4-MEDICAID ‚Äì Vaccines Visit Count decreased from avg 1.10 to 1.00; 4-MEDICAID ‚Äì Vaccines Charge Amount decreased from avg 141.20 to 86.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 7.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 3.90; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 1630.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 164.98; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 205.97; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.84; 17-AETNA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.71; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 1154.83; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 10.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 1570.78 to 1571.00; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 86.49 to 89.39; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.64; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.38 to 0.48; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 641.96 to 747.59; 17-AETNA ‚Äì New E/M Codes Visit Count increased from avg 8.71 to 11.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì New E/M Codes Charge Amount increased from avg 2631.41 to 3410.00; 17-AETNA ‚Äì New E/M Codes Payment per Visit increased from avg 205.14 to 217.85; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 241.31; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.78; 17-AETNA ‚Äì New E/M Codes Collection Rate* increased from avg 0.68 to 0.70; 17-AETNA ‚Äì New E/M Codes Payment Amount* increased from avg 1816.92 to 2396.34; 17-AETNA ‚Äì Medications Charge Amount increased from avg 135.48 to 163.00; 17-AETNA ‚Äì Medications Charge Billed Balance decreased from avg 14.47 to 0.00; 17-AETNA ‚Äì Medications Upfront Collections Efficiency decreased from avg 3.36 to 0.00; 17-AETNA ‚Äì Medications Payment per Visit increased from avg 18.88 to 20.21; 17-AETNA ‚Äì Medications NRV Zero Balance* increased from avg 19.97 to 20.21; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 29.14 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 5.70 to 0.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 4.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 41.04 to 44.81; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 42.48 to 47.78; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.23; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.20 to 0.21; 2-BCBS ‚Äì Medications Charge Billed Balance decreased from avg 3.79 to 0.00; 2-BCBS ‚Äì Medications Upfront Collections Efficiency decreased from avg 2.09 to 0.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.96; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance decreased from avg 52.44 to -252.85; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -195.15; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 201.00; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 191.62; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.63; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.66; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 571.38 to 1493.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.56 to 51.55; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 63.75; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 49.50 to 63.75; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.40; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.40</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 4.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit increased from avg 125.79 to 230.25; 1-SELF PAY ‚Äì Existing E/M Code Labs per Visit increased from avg 0.91 to 1.75; 1-SELF PAY ‚Äì Medications Payment per Visit increased from avg 33.64 to 40.00; 1-SELF PAY ‚Äì New E/M Codes Visit Count increased from avg 13.36 to 21.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 3.95; 1-SELF PAY ‚Äì New E/M Codes Charge Amount increased from avg 2031.01 to 3129.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 60.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.51 to 3.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Charge Amount increased from avg 235.81 to 290.00; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to 0.00; 12-HUMANA ‚Äì New E/M Codes Labs per Visit increased from avg 0.90 to 2.00; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 735.00; 13-TRICARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.42 to 2.33; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 113.53 to 116.28; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 200.53 to 1434.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 45.89 to 0.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 47.27 to 373.44; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 45.55 to 373.44; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.26; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.23 to 0.26; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 48.14 to 373.44; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Visit Count increased from avg 10.20 to 12.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 3.93; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Amount increased from avg 2387.76 to 2935.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -7.36 to -110.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -36.34 to -103.32; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment Amount* increased from avg 1042.39 to 1080.97; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 7.09; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.19; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.18; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Visit Count increased from avg 11.10 to 16.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Amount increased from avg 3319.66 to 4960.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -61.14; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 144.84; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment Amount* increased from avg 1550.14 to 2317.47; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 2.21 to 3.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 235.39 to 739.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to -5.18; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 25.12 to 94.65; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 27.53 to 134.21; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.42; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.38; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* increased from avg 54.50 to 283.96; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 16.15 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 5.67 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.32; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.23 to 0.32; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -1.08 to -54.03; 18-CIGNA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -18.20 to -108.07; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 36.23 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 12.20 to 0.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 66.19; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 66.19; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.38; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.38; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 397.14; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 61.06 to 0.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.00; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 150.98; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.98; 18-CIGNA ‚Äì New E/M Codes Labs per Visit increased from avg 1.98 to 2.17; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 9.57 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 1.82 to 0.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.35; 3-MEDICARE ‚Äì New E/M Codes Visit Count increased from avg 3.90 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Charge Amount increased from avg 667.84 to 1240.00; 3-MEDICARE ‚Äì New E/M Codes Payment per Visit increased from avg 80.11 to 90.81; 3-MEDICARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 88.40 to 129.95; 3-MEDICARE ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.41 to 0.42; 3-MEDICARE ‚Äì New E/M Codes Payment Amount* increased from avg 273.10 to 363.23; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 4.95 to 0.00; 4-MEDICAID ‚Äì Existing E/M Code Visit Count increased from avg 13.94 to 20.00; 4-MEDICAID ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 3.96; 4-MEDICAID ‚Äì Existing E/M Code Charge Amount increased from avg 3214.84 to 4815.00; 4-MEDICAID ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 80.70 to 87.59; 4-MEDICAID ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.35 to 0.36; 4-MEDICAID ‚Äì Existing E/M Code Labs per Visit increased from avg 1.79 to 1.80; 4-MEDICAID ‚Äì Existing E/M Code Payment Amount* increased from avg 1068.72 to 1417.83; 4-MEDICAID ‚Äì Lab/Test CPT Codes Visit Count increased from avg 15.38 to 21.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.25 to 0.32; 4-MEDICAID ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.23 to 0.25; 4-MEDICAID ‚Äì Medications Charge Billed Balance decreased from avg 3.82 to 0.00; 4-MEDICAID ‚Äì Medications Upfront Collections Efficiency decreased from avg 1.09 to 0.00; 4-MEDICAID ‚Äì Medications Collection Rate* increased from avg 0.15 to 0.17; 4-MEDICAID ‚Äì New E/M Codes Visit Count increased from avg 15.36 to 17.00; 4-MEDICAID ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.84 to 4.00; 4-MEDICAID ‚Äì New E/M Codes Charge Amount increased from avg 4589.26 to 5270.00; 4-MEDICAID ‚Äì New E/M Codes NRV Zero Balance* increased from avg 124.29 to 131.20; 4-MEDICAID ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.42 to 0.42; 4-MEDICAID ‚Äì New E/M Codes Payment Amount* increased from avg 1765.78 to 1853.61; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 12.09 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 4.07 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Visit Count increased from avg 2.47 to 4.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Amount increased from avg 339.20 to 445.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.22 to 0.23; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Visit Count increased from avg 2.59 to 6.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Amount increased from avg 496.66 to 861.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 65.57 to 68.62; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.32 to 0.49; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.28 to 0.38; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 150.59 to 325.43; 5-COMMERCIAL ‚Äì New E/M Codes Visit Count increased from avg 2.60 to 6.00; 5-COMMERCIAL ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 5-COMMERCIAL ‚Äì New E/M Codes Charge Amount increased from avg 771.78 to 1860.00; 5-COMMERCIAL ‚Äì New E/M Codes Payment per Visit increased from avg 142.42 to 181.56; 5-COMMERCIAL ‚Äì New E/M Codes NRV Zero Balance* increased from avg 161.13 to 256.99; 5-COMMERCIAL ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.55 to 0.83; 5-COMMERCIAL ‚Äì New E/M Codes Collection Rate* increased from avg 0.48 to 0.59; 5-COMMERCIAL ‚Äì New E/M Codes Payment Amount* increased from avg 360.69 to 1089.34; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency decreased from avg 0.19 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 62.96 to 89.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 38.45 to 89.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.35 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.39 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 17.35 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 3.19 to 0.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 42.78 to 128.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 42.19 to 128.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.34 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.37 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Payment Amount* increased from avg 46.81 to 128.00; 5-COMMERCIAL ‚Äì Existing E/M Code Visit Count increased from avg 2.49 to 5.00; 5-COMMERCIAL ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.81 to 4.00; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Amount increased from avg 553.16 to 1225.00; 5-COMMERCIAL ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 114.13 to 128.94; 5-COMMERCIAL ‚Äì Existing E/M Code Payment Amount* increased from avg 273.08 to 545.77; 5-COMMERCIAL ‚Äì Medications Charge Amount increased from avg 69.73 to 110.00; 13-TRICARE ‚Äì Medications Visit Count increased from avg 1.35 to 2.00; 13-TRICARE ‚Äì Medications Charge Amount increased from avg 156.35 to 228.00; 13-TRICARE ‚Äì Medications NRV Zero Balance* increased from avg 12.96 to 16.21; 13-TRICARE ‚Äì Medications Zero Balance Collection Rate increased from avg 0.12 to 0.14; 13-TRICARE ‚Äì Medications Payment Amount* increased from avg 14.88 to 16.21; 4-MEDICAID ‚Äì DME Visit Count increased from avg 1.67 to 2.00; 4-MEDICAID ‚Äì DME Upfront Collections Efficiency decreased from avg 6.87 to 0.00; 4-MEDICAID ‚Äì Vaccines Charge Billed Balance decreased from avg 51.20 to 0.00; 4-MEDICAID ‚Äì Vaccines Payment per Visit increased from avg 43.37 to 53.27; 4-MEDICAID ‚Äì Vaccines NRV Zero Balance* increased from avg 33.40 to 53.27; 4-MEDICAID ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.33 to 0.44; 4-MEDICAID ‚Äì Vaccines Payment Amount* increased from avg 50.52 to 53.27; 13-TRICARE ‚Äì Vaccines Charge Amount increased from avg 110.25 to 112.00; 13-TRICARE ‚Äì Vaccines Payment per Visit increased from avg 45.04 to 48.12; 13-TRICARE ‚Äì Vaccines NRV Zero Balance* increased from avg 45.04 to 48.12; 13-TRICARE ‚Äì Vaccines Zero Balance Collection Rate increased from avg 0.43 to 0.43; 13-TRICARE ‚Äì Vaccines Collection Rate* increased from avg 0.43 to 0.43; 13-TRICARE ‚Äì Vaccines Payment Amount* increased from avg 45.04 to 48.12; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Amount increased from avg 146.94 to 356.57; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment per Visit increased from avg 82.57 to 168.92; 15-UNITED HEALTHCARE ‚Äì Vaccines NRV Zero Balance* increased from avg 65.18 to 168.92; 15-UNITED HEALTHCARE ‚Äì Vaccines Payment Amount* increased from avg 90.91 to 168.92</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Visit Count decreased from avg 5.06 to 4.00; 1-SELF PAY ‚Äì Existing E/M Code Charge Amount decreased from avg 626.90 to 596.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 18.86 to 12.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1061.26 to 371.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 52.28 to 22.58; 1-SELF PAY ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 1.13 to 0.75; 1-SELF PAY ‚Äì Medications Visit Count decreased from avg 2.00 to 1.00; 1-SELF PAY ‚Äì Medications Charge Amount decreased from avg 65.92 to 40.00; 1-SELF PAY ‚Äì Medications Labs per Visit decreased from avg 1.13 to 0.00; 1-SELF PAY ‚Äì New E/M Codes Payment per Visit decreased from avg 150.60 to 149.00; 1-SELF PAY ‚Äì New E/M Codes Labs per Visit decreased from avg 0.86 to 0.14; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.58 to 2.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 116.93 to 95.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 50.76 to 47.50; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 0.95 to 0.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Visit Count decreased from avg 16.12 to 14.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Charge Amount decreased from avg 872.50 to 865.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit decreased from avg 0.45 to 0.29; 1-SELF PAY ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 90.55 to 65.00; 1-SELF PAY ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.39 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Visit Count decreased from avg 2.31 to 2.00; 12-HUMANA ‚Äì Existing E/M Code Charge Amount decreased from avg 531.67 to 490.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit decreased from avg 90.18 to 84.64; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.62 to 84.64; 12-HUMANA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.35; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.39 to 0.35; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.20 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment Amount* decreased from avg 205.83 to 169.28; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 1.78 to 1.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 376.92 to 28.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 39.97 to 1.11; 12-HUMANA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 40.10 to 1.11; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.19 to 0.04; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.19 to 0.04; 12-HUMANA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.37 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 71.45 to 1.11; 12-HUMANA ‚Äì New E/M Codes Visit Count decreased from avg 2.13 to 1.00; 12-HUMANA ‚Äì New E/M Codes Charge Amount decreased from avg 654.68 to 310.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg -6.89 to 0.00; 12-HUMANA ‚Äì New E/M Codes Payment per Visit decreased from avg 135.45 to 108.25; 12-HUMANA ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 135.40 to 108.25; 12-HUMANA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.44 to 0.35; 12-HUMANA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.44 to 0.35; 12-HUMANA ‚Äì New E/M Codes Payment Amount* decreased from avg 300.52 to 108.25; 13-TRICARE ‚Äì Existing E/M Code Charge Billed Balance increased from avg 88.96 to 245.00; 13-TRICARE ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 33.42 to 89.20; 13-TRICARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 84.45 to 59.47; 13-TRICARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 92.54 to 89.20; 13-TRICARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.40 to 0.36; 13-TRICARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.37 to 0.24; 13-TRICARE ‚Äì Existing E/M Code Payment Amount* decreased from avg 209.33 to 178.40; 13-TRICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.59 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 499.98 to 63.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 60.44 to 14.23; 13-TRICARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 68.62 to 14.23; 13-TRICARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate decreased from avg 0.32 to 0.23; 13-TRICARE ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.28 to 0.23; 13-TRICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.88 to 1.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 145.54 to 14.23; 13-TRICARE ‚Äì New E/M Codes Visit Count decreased from avg 3.29 to 3.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount decreased from avg 976.67 to 930.00; 13-TRICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 199.38 to 310.00; 13-TRICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 61.56 to 116.28; 13-TRICARE ‚Äì New E/M Codes Payment per Visit decreased from avg 93.11 to 77.52; 13-TRICARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.38; 13-TRICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.32 to 0.25; 13-TRICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.32 to 0.00; 13-TRICARE ‚Äì New E/M Codes Payment Amount* decreased from avg 298.18 to 232.56; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.16 to 1.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.66 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Payment per Visit decreased from avg 101.86 to 90.08; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 98.74 to 81.44; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.42 to 0.33; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.37; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.52 to 0.25; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 10.92 to 10.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2145.76 to 1246.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 31.40 to 22.47; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 34.40 to 26.85; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.78 to 1.60; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 355.29 to 224.66; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 64.00 to 100.43; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* decreased from avg 141.18 to 141.02; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.47 to 0.45; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.47 to 0.47; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.60 to 0.81; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg 5.90 to 28.42; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.90 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.45 to 1.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 324.33 to 92.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 30.24 to 29.47; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 32.14 to 29.47; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.88 to 0.00; 15-UNITED HEALTHCARE ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 73.33 to 29.47; 17-AETNA ‚Äì Existing E/M Code Charge Billed Balance increased from avg 63.76 to 375.00; 17-AETNA ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 51.63 to 240.96; 17-AETNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.61 to 0.60; 17-AETNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.75 to 1.62; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1570.78 to 1449.00; 17-AETNA ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 101.89 to 707.00; 17-AETNA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 62.39 to 372.32; 17-AETNA ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 79.57 to 35.52; 17-AETNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 86.49 to 65.12; 17-AETNA ‚Äì Lab/Test CPT Codes Collection Rate* decreased from avg 0.38 to 0.27; 17-AETNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.18; 17-AETNA ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 641.96 to 390.75; 17-AETNA ‚Äì New E/M Codes Charge Billed Balance increased from avg 130.16 to 1130.00; 17-AETNA ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 98.28 to 861.07; 17-AETNA ‚Äì New E/M Codes Payment per Visit decreased from avg 205.14 to 184.46; 17-AETNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.68 to 0.60; 17-AETNA ‚Äì New E/M Codes Labs per Visit decreased from avg 1.59 to 1.17; 18-CIGNA ‚Äì Existing E/M Code Visit Count decreased from avg 4.48 to 3.00; 18-CIGNA ‚Äì Existing E/M Code Charge Amount decreased from avg 1030.28 to 735.00; 18-CIGNA ‚Äì Existing E/M Code Payment per Visit decreased from avg 100.59 to 77.95; 18-CIGNA ‚Äì Existing E/M Code NRV Zero Balance* decreased from avg 93.90 to 41.93; 18-CIGNA ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.41 to 0.17; 18-CIGNA ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.43 to 0.32; 18-CIGNA ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.72 to 1.33; 18-CIGNA ‚Äì Existing E/M Code Payment Amount* decreased from avg 445.48 to 233.86; 18-CIGNA ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 6.62 to 6.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 1405.40 to 1048.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.85 to 2.83; 18-CIGNA ‚Äì New E/M Codes Visit Count decreased from avg 6.52 to 6.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount decreased from avg 1940.98 to 1860.00; 18-CIGNA ‚Äì New E/M Codes Zero Balance Collection Rate decreased from avg 0.50 to 0.49; 18-CIGNA ‚Äì New E/M Codes Collection Rate* decreased from avg 0.49 to 0.49; 18-CIGNA ‚Äì New E/M Codes Payment Amount* decreased from avg 956.63 to 905.88; 18-CIGNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.88 to 1.00; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 240.79 to 94.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 34.38 to 25.05; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 34.64 to 25.05; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.28 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.27 to 0.27; 18-CIGNA ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.69 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 61.27 to 25.05; 2-BCBS ‚Äì DME Visit Count decreased from avg 1.61 to 1.00; 2-BCBS ‚Äì DME Charge Amount decreased from avg 616.33 to 69.00; 2-BCBS ‚Äì DME Upfront Collections Efficiency increased from avg -4.14 to 0.00; 2-BCBS ‚Äì DME Labs per Visit decreased from avg 0.05 to 0.00; 2-BCBS ‚Äì Existing E/M Code Visit Count decreased from avg 24.68 to 14.00; 2-BCBS ‚Äì Existing E/M Code Charge Amount decreased from avg 5708.76 to 3430.00; 2-BCBS ‚Äì Existing E/M Code Labs per Visit decreased from avg 1.69 to 1.00; 2-BCBS ‚Äì Existing E/M Code Payment Amount* decreased from avg 3513.46 to 2271.92; 2-BCBS ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 30.38 to 11.00; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 6412.32 to 1190.00; 2-BCBS ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 41.04 to 27.28; 2-BCBS ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 42.48 to 27.28; 2-BCBS ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 1282.57 to 300.03; 2-BCBS ‚Äì New E/M Codes Visit Count decreased from avg 30.08 to 26.00; 2-BCBS ‚Äì New E/M Codes Charge Amount decreased from avg 8921.72 to 7985.00; 2-BCBS ‚Äì New E/M Codes Charge Billed Balance increased from avg 52.44 to 77.76; 2-BCBS ‚Äì New E/M Codes Labs per Visit decreased from avg 1.69 to 1.12; 2-BCBS ‚Äì New E/M Codes Payment Amount* decreased from avg 5492.36 to 5101.98; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 5.06 to 4.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 571.38 to 380.72; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg -4.05 to 7.75; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 45.90 to 36.94; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 45.56 to 37.68; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.56 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 205.41 to 147.76; 2-BCBS ‚Äì Vaccines Visit Count decreased from avg 1.31 to 1.00; 2-BCBS ‚Äì Vaccines Charge Billed Balance increased from avg -0.69 to 0.00; 2-BCBS ‚Äì Vaccines Labs per Visit decreased from avg 0.10 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Visit Count decreased from avg 5.04 to 4.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 655.56 to 442.00; 2-BCBS ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 49.50 to 48.95; 2-BCBS ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.78 to 0.00; 2-BCBS ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 256.59 to 221.82; 3-MEDICARE ‚Äì Lab/Test CPT Codes Visit Count decreased from avg 2.66 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 460.79 to 203.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.86 to 35.54; 3-MEDICARE ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.43 to 2.00; 3-MEDICARE ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 117.43 to 71.08; 3-MEDICARE ‚Äì New E/M Codes Charge Billed Balance increased from avg 45.73 to 158.85; 3-MEDICARE ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 13.65 to 156.59; 3-MEDICARE ‚Äì New E/M Codes Collection Rate* decreased from avg 0.38 to 0.29; 3-MEDICARE ‚Äì New E/M Codes Labs per Visit decreased from avg 1.15 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 1.33 to 1.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 135.08 to 104.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 28.43 to 13.98; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 28.43 to 13.98; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.13; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.27 to 0.13; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.39 to 0.00; 3-MEDICARE ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 36.72 to 13.98; 4-MEDICAID ‚Äì Existing E/M Code Charge Billed Balance increased from avg 214.26 to 883.00; 4-MEDICAID ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 70.72 to 303.60; 4-MEDICAID ‚Äì Existing E/M Code Payment per Visit decreased from avg 76.44 to 70.89; 4-MEDICAID ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.33 to 0.29; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Amount decreased from avg 2839.44 to 2332.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 231.39 to 495.00; 4-MEDICAID ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 70.81 to 165.45; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 42.09 to 27.84; 4-MEDICAID ‚Äì Lab/Test CPT Codes NRV Zero Balance* decreased from avg 46.64 to 32.32; 4-MEDICAID ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.95 to 2.33; 4-MEDICAID ‚Äì Lab/Test CPT Codes Payment Amount* decreased from avg 652.01 to 584.61; 4-MEDICAID ‚Äì Medications Visit Count decreased from avg 2.12 to 2.00; 4-MEDICAID ‚Äì Medications Charge Amount decreased from avg 201.17 to 111.00; 4-MEDICAID ‚Äì Medications Payment per Visit decreased from avg 15.29 to 9.27; 4-MEDICAID ‚Äì Medications Labs per Visit decreased from avg 1.26 to 0.50; 4-MEDICAID ‚Äì Medications Payment Amount* decreased from avg 31.28 to 18.53; 4-MEDICAID ‚Äì New E/M Codes Charge Billed Balance increased from avg 390.86 to 918.00; 4-MEDICAID ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 162.82 to 376.79; 4-MEDICAID ‚Äì New E/M Codes Payment per Visit decreased from avg 115.09 to 109.04; 4-MEDICAID ‚Äì New E/M Codes Collection Rate* decreased from avg 0.39 to 0.35; 4-MEDICAID ‚Äì New E/M Codes Labs per Visit decreased from avg 1.68 to 1.12; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.33 to 1.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 267.01 to 89.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 29.89 to 16.34; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 43.58 to 16.34; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.20 to 0.18; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.20 to 0.18; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.87 to 0.00; 4-MEDICAID ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 68.64 to 16.34; 4-MEDICAID ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 11.37 to 123.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 3.46 to 35.69; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 27.57 to 16.55; 4-MEDICAID ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 27.38 to 21.30; 4-MEDICAID ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.21 to 0.15; 4-MEDICAID ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 0.71 to 0.00; 4-MEDICAID ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 68.53 to 66.21; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Charge Billed Balance increased from avg 74.50 to 218.00; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency increased from avg 20.86 to 96.61; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Payment per Visit decreased from avg 54.42 to 54.24; 5-COMMERCIAL ‚Äì Lab/Test CPT Codes Labs per Visit decreased from avg 2.93 to 1.33; 5-COMMERCIAL ‚Äì New E/M Codes Charge Billed Balance increased from avg 122.16 to 420.00; 5-COMMERCIAL ‚Äì New E/M Codes Upfront Collections Efficiency increased from avg 41.75 to 452.62; 5-COMMERCIAL ‚Äì New E/M Codes Labs per Visit decreased from avg 1.75 to 0.33; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Visit Count decreased from avg 2.18 to 1.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount decreased from avg 233.25 to 89.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg -0.06 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 2.14 to 0.00; 5-COMMERCIAL ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 95.70 to 89.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Visit Count decreased from avg 1.15 to 1.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 145.40 to 128.00; 5-COMMERCIAL ‚Äì X-Ray CPT Codes Labs per Visit decreased from avg 1.10 to 0.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance increased from avg 29.14 to 436.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Upfront Collections Efficiency increased from avg 5.70 to 98.69; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit decreased from avg 76.58 to 11.77; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* decreased from avg 34.92 to 23.54; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate decreased from avg 0.27 to 0.23; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* decreased from avg 0.30 to 0.04; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Labs per Visit decreased from avg 1.89 to 0.50; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Payment Amount* decreased from avg 94.17 to 23.54; 17-AETNA ‚Äì X-Ray CPT Codes Visit Count decreased from avg 2.12 to 2.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Amount decreased from avg 292.71 to 266.00; 17-AETNA ‚Äì X-Ray CPT Codes Charge Billed Balance increased from avg 22.59 to 138.00; 17-AETNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency increased from avg 11.15 to 43.21; 17-AETNA ‚Äì X-Ray CPT Codes Payment per Visit decreased from avg 50.98 to 20.04; 17-AETNA ‚Äì X-Ray CPT Codes NRV Zero Balance* decreased from avg 54.42 to 40.08; 17-AETNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate decreased from avg 0.39 to 0.31; 17-AETNA ‚Äì X-Ray CPT Codes Collection Rate* decreased from avg 0.36 to 0.15; 17-AETNA ‚Äì X-Ray CPT Codes Payment Amount* decreased from avg 106.71 to 40.08; 5-COMMERCIAL ‚Äì Existing E/M Code Charge Billed Balance increased from avg 25.96 to 215.00; 5-COMMERCIAL ‚Äì Existing E/M Code Upfront Collections Efficiency increased from avg 1.93 to 98.94; 5-COMMERCIAL ‚Äì Existing E/M Code Payment per Visit decreased from avg 115.74 to 109.15; 5-COMMERCIAL ‚Äì Existing E/M Code Zero Balance Collection Rate decreased from avg 0.54 to 0.53; 5-COMMERCIAL ‚Äì Existing E/M Code Collection Rate* decreased from avg 0.53 to 0.45; 5-COMMERCIAL ‚Äì Existing E/M Code Labs per Visit decreased from avg 2.15 to 1.20; 5-COMMERCIAL ‚Äì Medications Visit Count decreased from avg 1.07 to 1.00; 5-COMMERCIAL ‚Äì Medications Charge Billed Balance increased from avg 14.77 to 110.00; 5-COMMERCIAL ‚Äì Medications Labs per Visit decreased from avg 1.73 to 0.00; 13-TRICARE ‚Äì Medications Charge Billed Balance increased from avg 39.88 to 110.00; 13-TRICARE ‚Äì Medications Upfront Collections Efficiency increased from avg 2.17 to 15.11; 13-TRICARE ‚Äì Medications Payment per Visit decreased from avg 11.74 to 8.11; 13-TRICARE ‚Äì Medications Collection Rate* decreased from avg 0.10 to 0.07; 13-TRICARE ‚Äì Medications Labs per Visit decreased from avg 1.42 to 0.50; 4-MEDICAID ‚Äì DME Charge Amount decreased from avg 682.71 to 292.26; 4-MEDICAID ‚Äì DME Charge Billed Balance increased from avg 64.90 to 146.13; 4-MEDICAID ‚Äì DME Payment per Visit decreased from avg 108.06 to 20.32; 4-MEDICAID ‚Äì DME Collection Rate* decreased from avg 0.26 to 0.14; 4-MEDICAID ‚Äì DME Payment Amount* decreased from avg 198.76 to 40.65; 4-MEDICAID ‚Äì Vaccines Visit Count decreased from avg 1.10 to 1.00; 4-MEDICAID ‚Äì Vaccines Charge Amount decreased from avg 141.20 to 121.00; 4-MEDICAID ‚Äì Vaccines Collection Rate* decreased from avg 0.46 to 0.44; 13-TRICARE ‚Äì Vaccines Visit Count decreased from avg 1.00 to 1.00; 13-TRICARE ‚Äì Vaccines Labs per Visit decreased from avg 0.50 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Visit Count decreased from avg 1.14 to 1.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Charge Billed Balance increased from avg -10.71 to 0.00; 15-UNITED HEALTHCARE ‚Äì Vaccines Zero Balance Collection Rate decreased from avg 0.59 to 0.47; 15-UNITED HEALTHCARE ‚Äì Vaccines Collection Rate* decreased from avg 0.60 to 0.47; 15-UNITED HEALTHCARE ‚Äì Vaccines Labs per Visit decreased from avg 0.57 to 0.00</t>
-  </si>
-  <si>
-    <t>17-AETNA ‚Äì Existing E/M Code Visit Count increased from avg 5.52 to 8.00; 17-AETNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.83 to 4.00; 17-AETNA ‚Äì Existing E/M Code Charge Amount increased from avg 1291.98 to 1960.00; 17-AETNA ‚Äì Existing E/M Code Payment per Visit increased from avg 141.04 to 147.86; 17-AETNA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 150.29 to 177.98; 17-AETNA ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.65 to 0.73; 17-AETNA ‚Äì Existing E/M Code Payment Amount* increased from avg 810.88 to 1182.88; 17-AETNA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 7.50 to 11.00; 17-AETNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.42 to 0.53; 17-AETNA ‚Äì New E/M Codes Visit Count increased from avg 8.71 to 12.00; 17-AETNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 17-AETNA ‚Äì New E/M Codes Charge Amount increased from avg 2631.41 to 3720.00; 17-AETNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 213.66 to 256.21; 17-AETNA ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.71 to 0.83; 17-AETNA ‚Äì New E/M Codes Payment Amount* increased from avg 1816.92 to 2213.50; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.56 to 2.00; 17-AETNA ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 211.52 to 540.00; 17-AETNA ‚Äì X-Ray CPT Codes Labs per Visit increased from avg 0.80 to 1.00</t>
-  </si>
-  <si>
-    <t>2-BCBS ‚Äì DME Charge Billed Balance decreased from avg 6.55 to 0.00; 2-BCBS ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.86 to 4.00; 2-BCBS ‚Äì Existing E/M Code Charge Billed Balance decreased from avg -4.13 to -195.00; 2-BCBS ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg -16.11 to -183.77; 2-BCBS ‚Äì Existing E/M Code Payment per Visit increased from avg 142.01 to 162.28; 2-BCBS ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 141.16 to 149.15; 2-BCBS ‚Äì Existing E/M Code Zero Balance Collection Rate increased from avg 0.61 to 0.61; 2-BCBS ‚Äì Existing E/M Code Collection Rate* increased from avg 0.61 to 0.66; 2-BCBS ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 71.92 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.63 to 0.00; 2-BCBS ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.21 to 0.25; 2-BCBS ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.20 to 0.25; 2-BCBS ‚Äì Lab/Test CPT Codes Labs per Visit increased from avg 2.80 to 3.00; 2-BCBS ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.83 to 3.98; 2-BCBS ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -11.19 to -150.97; 2-BCBS ‚Äì New E/M Codes Payment per Visit increased from avg 181.82 to 196.23; 2-BCBS ‚Äì New E/M Codes NRV Zero Balance* increased from avg 182.20 to 192.21; 2-BCBS ‚Äì New E/M Codes Zero Balance Collection Rate increased from avg 0.61 to 0.62; 2-BCBS ‚Äì New E/M Codes Collection Rate* increased from avg 0.61 to 0.64; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 8.81 to 0.00; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.31 to 0.41; 2-BCBS ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.31 to 0.39; 2-BCBS ‚Äì Vaccines Charge Amount increased from avg 137.31 to 236.00; 2-BCBS ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 1.10 to -29.00; 2-BCBS ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 0.36 to -22.39; 2-BCBS ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 49.59 to 55.45; 2-BCBS ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.39 to 0.45; 2-BCBS ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.39 to 0.50</t>
-  </si>
-  <si>
-    <t>1-SELF PAY ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.72 to 4.00; 1-SELF PAY ‚Äì Existing E/M Code Payment per Visit increased from avg 125.79 to 149.00; 1-SELF PAY ‚Äì Lab/Test CPT Codes Visit Count increased from avg 18.86 to 20.00; 1-SELF PAY ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 116.93 to 190.00; 1-SELF PAY ‚Äì Procedures &amp; Surgical CPT Codes Payment per Visit increased from avg 50.76 to 95.00; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Payment per Visit increased from avg 54.99 to 73.64; 1-SELF PAY ‚Äì Self-pay physical &amp; No Charge Labs per Visit increased from avg 0.45 to 0.55; 12-HUMANA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.87 to 4.00; 12-HUMANA ‚Äì Existing E/M Code Charge Billed Balance decreased from avg 10.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Upfront Collections Efficiency decreased from avg 1.28 to 0.00; 12-HUMANA ‚Äì Existing E/M Code Payment per Visit increased from avg 90.18 to 94.49; 12-HUMANA ‚Äì Existing E/M Code NRV Zero Balance* increased from avg 92.62 to 94.49; 12-HUMANA ‚Äì Existing E/M Code Collection Rate* increased from avg 0.39 to 0.39; 12-HUMANA ‚Äì Existing E/M Code Labs per Visit increased from avg 1.20 to 1.50; 12-HUMANA ‚Äì Lab/Test CPT Codes Visit Count increased from avg 1.78 to 2.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 0.78 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 0.12 to 0.00; 12-HUMANA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.26; 12-HUMANA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.19 to 0.26; 12-HUMANA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.92 to 4.00; 12-HUMANA ‚Äì New E/M Codes Charge Billed Balance decreased from avg 0.44 to -105.00; 12-HUMANA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg -6.89 to -104.90; 12-HUMANA ‚Äì New E/M Codes Payment per Visit increased from avg 135.45 to 175.33; 12-HUMANA ‚Äì New E/M Codes Collection Rate* increased from avg 0.44 to 0.57; 12-HUMANA ‚Äì New E/M Codes Payment Amount* increased from avg 300.52 to 350.66; 13-TRICARE ‚Äì Existing E/M Code Visit Count increased from avg 2.57 to 3.00; 13-TRICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.82 to 4.00; 13-TRICARE ‚Äì Existing E/M Code Charge Amount increased from avg 598.17 to 735.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 98.89 to 0.00; 13-TRICARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 25.52 to 0.00; 13-TRICARE ‚Äì New E/M Codes Visit Count increased from avg 3.29 to 7.00; 13-TRICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.78 to 4.00; 13-TRICARE ‚Äì New E/M Codes Charge Amount increased from avg 976.67 to 2170.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Visit Count increased from avg 1.16 to 2.00; 13-TRICARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Amount increased from avg 200.53 to 752.00; 13-TRICARE ‚Äì X-Ray CPT Codes Charge Amount increased from avg 178.05 to 213.00; 13-TRICARE ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 1.30 to 0.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.89 to 4.00; 15-UNITED HEALTHCARE ‚Äì Existing E/M Code Labs per Visit increased from avg 1.52 to 1.57; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Charge Billed Balance decreased from avg 63.06 to 0.00; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Upfront Collections Efficiency decreased from avg 23.50 to 22.46; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 34.40 to 36.58; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.18 to 0.27; 15-UNITED HEALTHCARE ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.16 to 0.24; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Charge Billed Balance decreased from avg 64.00 to -13.09; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 9.06 to -8.58; 15-UNITED HEALTHCARE ‚Äì New E/M Codes Payment per Visit increased from avg 139.64 to 144.72; 15-UNITED HEALTHCARE ‚Äì New E/M Codes NRV Zero Balance* increased from avg 141.18 to 143.65; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Charge Billed Balance decreased from avg 2.76 to 0.00; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes NRV Zero Balance* increased from avg 27.53 to 40.88; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Zero Balance Collection Rate increased from avg 0.19 to 0.27; 15-UNITED HEALTHCARE ‚Äì Procedures &amp; Surgical CPT Codes Collection Rate* increased from avg 0.17 to 0.18; 18-CIGNA ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment per Visit increased from avg 45.46 to 61.87; 18-CIGNA ‚Äì Lab/Test CPT Codes NRV Zero Balance* increased from avg 48.40 to 77.34; 18-CIGNA ‚Äì Lab/Test CPT Codes Zero Balance Collection Rate increased from avg 0.23 to 0.38; 18-CIGNA ‚Äì Lab/Test CPT Codes Collection Rate* increased from avg 0.22 to 0.35; 18-CIGNA ‚Äì Lab/Test CPT Codes Payment Amount* increased from avg 293.94 to 309.37; 18-CIGNA ‚Äì New E/M Codes Visit Count increased from avg 6.52 to 7.00; 18-CIGNA ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.79 to 4.00; 18-CIGNA ‚Äì New E/M Codes Charge Amount increased from avg 1940.98 to 2170.00; 18-CIGNA ‚Äì New E/M Codes Upfront Collections Efficiency decreased from avg 15.12 to 0.98; 18-CIGNA ‚Äì New E/M Codes Payment per Visit increased from avg 145.60 to 150.84; 18-CIGNA ‚Äì New E/M Codes NRV Zero Balance* increased from avg 147.94 to 150.98; 18-CIGNA ‚Äì New E/M Codes Payment Amount* increased from avg 956.63 to 1055.88; 18-CIGNA ‚Äì X-Ray CPT Codes Charge Billed Balance decreased from avg 6.24 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Upfront Collections Efficiency decreased from avg 2.18 to 0.00; 18-CIGNA ‚Äì X-Ray CPT Codes Payment per Visit increased from avg 34.38 to 34.64; 18-CIGNA ‚Äì X-Ray CPT Codes NRV Zero Balance* increased from avg 34.64 to 34.64; 18-CIGNA ‚Äì X-Ray CPT Codes Zero Balance Collection Rate increased from avg 0.28 to 0.46; 18-CIGNA ‚Äì X-Ray CPT Codes Collection Rate* increased from avg 0.27 to 0.46; 3-MEDICARE ‚Äì Existing E/M Code Avg. Charge E/M Weight increased from avg 3.85 to 4.00; 3-MEDICARE ‚Äì New E/M Codes Avg. Charge E/M Weight increased from avg 3.82 to 4.